--- a/doc_new/4.服务器配置文档/物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="299">
   <si>
     <t>字段名称</t>
   </si>
@@ -169,13 +169,22 @@
     <t>强化石</t>
   </si>
   <si>
-    <t>魂石转移石</t>
-  </si>
-  <si>
-    <t>魂石升级保护石</t>
-  </si>
-  <si>
-    <t>魂石降级石</t>
+    <t>用于强化装备的石头</t>
+  </si>
+  <si>
+    <t>强化保护卷</t>
+  </si>
+  <si>
+    <t>提高强化概率的卷轴</t>
+  </si>
+  <si>
+    <t>高级强化保护卷</t>
+  </si>
+  <si>
+    <t>强化转移卷</t>
+  </si>
+  <si>
+    <t>转移强化等级的卷轴</t>
   </si>
   <si>
     <t>吸附石(吸附前)</t>
@@ -184,7 +193,358 @@
     <t>吸附石(吸附后)</t>
   </si>
   <si>
-    <t>魂石·攻击</t>
+    <t>1级魂石·攻击力</t>
+  </si>
+  <si>
+    <t>魂石</t>
+  </si>
+  <si>
+    <t>1级魂石·固定伤害</t>
+  </si>
+  <si>
+    <t>1级魂石·全元素伤害</t>
+  </si>
+  <si>
+    <t>1级魂石·暴击概率</t>
+  </si>
+  <si>
+    <t>1级魂石·暴击伤害</t>
+  </si>
+  <si>
+    <t>1级魂石·元素穿透</t>
+  </si>
+  <si>
+    <t>1级魂石·生命值</t>
+  </si>
+  <si>
+    <t>1级魂石·攻击速度</t>
+  </si>
+  <si>
+    <t>1级魂石·防御</t>
+  </si>
+  <si>
+    <t>1级魂石·元素抗性</t>
+  </si>
+  <si>
+    <t>1级魂石·暴击抵抗</t>
+  </si>
+  <si>
+    <t>1级魂石·爆伤抵抗</t>
+  </si>
+  <si>
+    <t>1级魂石·生命回复</t>
+  </si>
+  <si>
+    <t>1级魂石·固定伤害减免</t>
+  </si>
+  <si>
+    <t>1级魂石·技能急速</t>
+  </si>
+  <si>
+    <t>1级魂石·全元素抗性</t>
+  </si>
+  <si>
+    <t>1级魂石·移动速度</t>
+  </si>
+  <si>
+    <t>1级魂石·闪避率</t>
+  </si>
+  <si>
+    <t>2级魂石·攻击力</t>
+  </si>
+  <si>
+    <t>2级魂石·固定伤害</t>
+  </si>
+  <si>
+    <t>2级魂石·全元素伤害</t>
+  </si>
+  <si>
+    <t>2级魂石·暴击概率</t>
+  </si>
+  <si>
+    <t>2级魂石·暴击伤害</t>
+  </si>
+  <si>
+    <t>2级魂石·元素穿透</t>
+  </si>
+  <si>
+    <t>2级魂石·生命值</t>
+  </si>
+  <si>
+    <t>2级魂石·攻击速度</t>
+  </si>
+  <si>
+    <t>2级魂石·防御</t>
+  </si>
+  <si>
+    <t>2级魂石·元素抗性</t>
+  </si>
+  <si>
+    <t>2级魂石·暴击抵抗</t>
+  </si>
+  <si>
+    <t>2级魂石·爆伤抵抗</t>
+  </si>
+  <si>
+    <t>2级魂石·生命回复</t>
+  </si>
+  <si>
+    <t>2级魂石·固定伤害减免</t>
+  </si>
+  <si>
+    <t>2级魂石·技能急速</t>
+  </si>
+  <si>
+    <t>2级魂石·全元素抗性</t>
+  </si>
+  <si>
+    <t>2级魂石·移动速度</t>
+  </si>
+  <si>
+    <t>2级魂石·闪避率</t>
+  </si>
+  <si>
+    <t>3级魂石·攻击力</t>
+  </si>
+  <si>
+    <t>3级魂石·固定伤害</t>
+  </si>
+  <si>
+    <t>3级魂石·全元素伤害</t>
+  </si>
+  <si>
+    <t>3级魂石·暴击概率</t>
+  </si>
+  <si>
+    <t>3级魂石·暴击伤害</t>
+  </si>
+  <si>
+    <t>3级魂石·元素穿透</t>
+  </si>
+  <si>
+    <t>3级魂石·生命值</t>
+  </si>
+  <si>
+    <t>3级魂石·攻击速度</t>
+  </si>
+  <si>
+    <t>3级魂石·防御</t>
+  </si>
+  <si>
+    <t>3级魂石·元素抗性</t>
+  </si>
+  <si>
+    <t>3级魂石·暴击抵抗</t>
+  </si>
+  <si>
+    <t>3级魂石·爆伤抵抗</t>
+  </si>
+  <si>
+    <t>3级魂石·生命回复</t>
+  </si>
+  <si>
+    <t>3级魂石·固定伤害减免</t>
+  </si>
+  <si>
+    <t>3级魂石·技能急速</t>
+  </si>
+  <si>
+    <t>3级魂石·全元素抗性</t>
+  </si>
+  <si>
+    <t>3级魂石·移动速度</t>
+  </si>
+  <si>
+    <t>3级魂石·闪避率</t>
+  </si>
+  <si>
+    <t>4级魂石·攻击力</t>
+  </si>
+  <si>
+    <t>4级魂石·固定伤害</t>
+  </si>
+  <si>
+    <t>4级魂石·全元素伤害</t>
+  </si>
+  <si>
+    <t>4级魂石·暴击概率</t>
+  </si>
+  <si>
+    <t>4级魂石·暴击伤害</t>
+  </si>
+  <si>
+    <t>4级魂石·元素穿透</t>
+  </si>
+  <si>
+    <t>4级魂石·生命值</t>
+  </si>
+  <si>
+    <t>4级魂石·攻击速度</t>
+  </si>
+  <si>
+    <t>4级魂石·防御</t>
+  </si>
+  <si>
+    <t>4级魂石·元素抗性</t>
+  </si>
+  <si>
+    <t>4级魂石·暴击抵抗</t>
+  </si>
+  <si>
+    <t>4级魂石·爆伤抵抗</t>
+  </si>
+  <si>
+    <t>4级魂石·生命回复</t>
+  </si>
+  <si>
+    <t>4级魂石·固定伤害减免</t>
+  </si>
+  <si>
+    <t>4级魂石·技能急速</t>
+  </si>
+  <si>
+    <t>4级魂石·全元素抗性</t>
+  </si>
+  <si>
+    <t>4级魂石·移动速度</t>
+  </si>
+  <si>
+    <t>4级魂石·闪避率</t>
+  </si>
+  <si>
+    <t>1级魂石降级卷</t>
+  </si>
+  <si>
+    <t>降低魂石等级的卷轴</t>
+  </si>
+  <si>
+    <t>2级魂石降级卷</t>
+  </si>
+  <si>
+    <t>3级魂石降级卷</t>
+  </si>
+  <si>
+    <t>4级魂石降级卷</t>
+  </si>
+  <si>
+    <t>低级魂石升级保护卷</t>
+  </si>
+  <si>
+    <t>提高魂石升级概率的卷轴</t>
+  </si>
+  <si>
+    <t>中级魂石升级保护卷</t>
+  </si>
+  <si>
+    <t>高级魂石升级保护卷</t>
+  </si>
+  <si>
+    <t>魂石转移卷</t>
+  </si>
+  <si>
+    <t>转移魂石等级的卷轴</t>
+  </si>
+  <si>
+    <t>精良图鉴箱</t>
+  </si>
+  <si>
+    <t>图鉴箱</t>
+  </si>
+  <si>
+    <t>史诗图鉴箱</t>
+  </si>
+  <si>
+    <t>传说图鉴箱</t>
+  </si>
+  <si>
+    <t>元素大陆的图鉴箱</t>
+  </si>
+  <si>
+    <t>熔火炼狱的图鉴箱</t>
+  </si>
+  <si>
+    <t>极北之地的图鉴箱</t>
+  </si>
+  <si>
+    <t>狂风沙漠的图鉴箱</t>
+  </si>
+  <si>
+    <t>雷霆之地的图鉴箱</t>
+  </si>
+  <si>
+    <t>熔火炼狱的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>极北之地的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>狂风沙漠的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>雷霆之地的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>熔火炼狱的传说图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>极北之地的传说图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>狂风沙漠的传说图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>雷霆之地的传说图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>精良图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>史诗图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>传说图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>不朽图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>熔火炼狱的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>极北之地的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>狂风沙漠的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>雷霆之地的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>元素大陆图的鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>天赋点</t>
+  </si>
+  <si>
+    <t>升级地图等级获得</t>
+  </si>
+  <si>
+    <t>高阶精通点</t>
+  </si>
+  <si>
+    <t>升级技能精通获得</t>
+  </si>
+  <si>
+    <t>技能精通经验</t>
+  </si>
+  <si>
+    <t>用于增加技能精通的经验值</t>
+  </si>
+  <si>
+    <t>万能精通经验</t>
+  </si>
+  <si>
+    <t>使用后获得 技能精通经验</t>
   </si>
   <si>
     <t>炼狱熊怪</t>
@@ -199,33 +559,141 @@
     <t>炼狱亡魂</t>
   </si>
   <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>炽甲虫战士</t>
+  </si>
+  <si>
+    <t>远古炼狱巨人</t>
+  </si>
+  <si>
+    <t>骷髅勇士</t>
+  </si>
+  <si>
+    <t>炼狱火</t>
+  </si>
+  <si>
+    <t>冥火剑圣</t>
+  </si>
+  <si>
+    <t>小狗头人</t>
+  </si>
+  <si>
+    <t>雷电之魂</t>
+  </si>
+  <si>
+    <t>萨特窃神者</t>
+  </si>
+  <si>
+    <t>远古岚肤兽</t>
+  </si>
+  <si>
+    <t>雷树精兽</t>
+  </si>
+  <si>
+    <t>雷角兽</t>
+  </si>
+  <si>
+    <t>霹雳怪手</t>
+  </si>
+  <si>
+    <t>幼年青眼雷龙</t>
+  </si>
+  <si>
+    <t>雷羽鹫</t>
+  </si>
+  <si>
+    <t>雷山鹫</t>
+  </si>
+  <si>
+    <t>雷翼鹫</t>
+  </si>
+  <si>
+    <t>冰川鬼魂</t>
+  </si>
+  <si>
+    <t>极寒精灵</t>
+  </si>
+  <si>
+    <t>极寒冰狐</t>
+  </si>
+  <si>
+    <t>极地少女</t>
+  </si>
+  <si>
+    <t>冰原行者</t>
+  </si>
+  <si>
+    <t>极地虎</t>
+  </si>
+  <si>
+    <t>极地小冰龙</t>
+  </si>
+  <si>
+    <t>极地小飞龙</t>
+  </si>
+  <si>
+    <t>冰晶小海马</t>
+  </si>
+  <si>
+    <t>冰原狐</t>
+  </si>
+  <si>
+    <t>冰宫守卫</t>
+  </si>
+  <si>
+    <t>冰宫奴仆</t>
+  </si>
+  <si>
+    <t>绿洲鬼魂</t>
+  </si>
+  <si>
+    <t>绿洲丧尸</t>
+  </si>
+  <si>
+    <t>幼年沙龙</t>
+  </si>
+  <si>
+    <t>绿洲精灵幼龙</t>
+  </si>
+  <si>
+    <t>绿洲跳跳蛙</t>
+  </si>
+  <si>
+    <t>绿洲剧毒蛇</t>
+  </si>
+  <si>
+    <t>狂沙怪手</t>
+  </si>
+  <si>
+    <t>绿洲精灵马</t>
+  </si>
+  <si>
+    <t>绿洲小精灵</t>
+  </si>
+  <si>
+    <t>沙漠金龟</t>
+  </si>
+  <si>
+    <t>天辉高级战士</t>
+  </si>
+  <si>
+    <t>高级精灵战士</t>
+  </si>
+  <si>
     <t>炼狱狼</t>
   </si>
   <si>
-    <t>夜魇近战兵</t>
-  </si>
-  <si>
     <t>夜魇远程兵</t>
   </si>
   <si>
     <t>炼狱小双头犬</t>
   </si>
   <si>
-    <t>炽甲虫战士</t>
-  </si>
-  <si>
     <t>炽甲虫战车</t>
   </si>
   <si>
-    <t>远古炼狱巨人</t>
-  </si>
-  <si>
-    <t>骷髅勇士</t>
-  </si>
-  <si>
-    <t>炼狱火</t>
-  </si>
-  <si>
     <t>炼狱石甲虫</t>
   </si>
   <si>
@@ -247,24 +715,153 @@
     <t>炼狱火精灵</t>
   </si>
   <si>
+    <t>熔岩飞翼兽</t>
+  </si>
+  <si>
+    <t>双斧狂战</t>
+  </si>
+  <si>
+    <t>熔岩卫兵</t>
+  </si>
+  <si>
+    <t>远古炼狱火</t>
+  </si>
+  <si>
+    <t>雷须兽</t>
+  </si>
+  <si>
+    <t>雷霆晶龟</t>
+  </si>
+  <si>
+    <t>霹雳怪虫</t>
+  </si>
+  <si>
+    <t>独角雷兽</t>
+  </si>
+  <si>
+    <t>雷电见习者</t>
+  </si>
+  <si>
+    <t>雷霆拍熊</t>
+  </si>
+  <si>
+    <t>雷翼飞狐</t>
+  </si>
+  <si>
+    <t>远古黑龙</t>
+  </si>
+  <si>
+    <t>雷霆领主</t>
+  </si>
+  <si>
+    <t>霹雳怪泥</t>
+  </si>
+  <si>
+    <t>雷霆战蜥</t>
+  </si>
+  <si>
+    <t>霹雳女妖</t>
+  </si>
+  <si>
+    <t>雷压巨兽</t>
+  </si>
+  <si>
+    <t>雷压射手</t>
+  </si>
+  <si>
+    <t>雷霆梦魇</t>
+  </si>
+  <si>
+    <t>冰川幼龟</t>
+  </si>
+  <si>
+    <t>近代冰魂</t>
+  </si>
+  <si>
+    <t>冰晶石甲虫</t>
+  </si>
+  <si>
+    <t>冰原犬</t>
+  </si>
+  <si>
+    <t>冰甲战熊</t>
+  </si>
+  <si>
+    <t>寒霜战士</t>
+  </si>
+  <si>
+    <t>寒霜萨满</t>
+  </si>
+  <si>
+    <t>冰原巨兽</t>
+  </si>
+  <si>
+    <t>极地熊战士</t>
+  </si>
+  <si>
+    <t>冰原猩猩兽</t>
+  </si>
+  <si>
+    <t>极地巨人</t>
+  </si>
+  <si>
+    <t>极地四脚兽</t>
+  </si>
+  <si>
+    <t>极地飞翼兽</t>
+  </si>
+  <si>
+    <t>极冰守卫</t>
+  </si>
+  <si>
+    <t>冰原守卫</t>
+  </si>
+  <si>
+    <t>绿洲剧毒飞蛇</t>
+  </si>
+  <si>
+    <t>绿洲魔法飞马</t>
+  </si>
+  <si>
+    <t>绿洲怪手</t>
+  </si>
+  <si>
+    <t>毒风鹫</t>
+  </si>
+  <si>
+    <t>天辉高级术士</t>
+  </si>
+  <si>
+    <t>独角沙兽</t>
+  </si>
+  <si>
+    <t>高级精灵战车</t>
+  </si>
+  <si>
+    <t>风沙狼</t>
+  </si>
+  <si>
+    <t>风沙狮</t>
+  </si>
+  <si>
+    <t>风沙战熊</t>
+  </si>
+  <si>
+    <t>绿洲守卫</t>
+  </si>
+  <si>
+    <t>风沙刺鼬</t>
+  </si>
+  <si>
+    <t>绿洲女巫</t>
+  </si>
+  <si>
+    <t>砂砾小巨人</t>
+  </si>
+  <si>
     <t>炼狱领主</t>
   </si>
   <si>
-    <t>熔岩飞翼兽</t>
-  </si>
-  <si>
-    <t>冥火剑圣</t>
-  </si>
-  <si>
-    <t>双斧狂战</t>
-  </si>
-  <si>
-    <t>熔岩卫兵</t>
-  </si>
-  <si>
-    <t>远古炼狱火</t>
-  </si>
-  <si>
     <t>熔岩巨人</t>
   </si>
   <si>
@@ -277,178 +874,67 @@
     <t>烈焰战神</t>
   </si>
   <si>
+    <t>青眼雷龙</t>
+  </si>
+  <si>
+    <t>雷压飞翼兽</t>
+  </si>
+  <si>
+    <t>雷电掌控者</t>
+  </si>
+  <si>
+    <t>雷神鸟</t>
+  </si>
+  <si>
+    <t>闪电制造者</t>
+  </si>
+  <si>
+    <t>极寒领主</t>
+  </si>
+  <si>
+    <t>极寒蛛美丽</t>
+  </si>
+  <si>
+    <t>冰原领主</t>
+  </si>
+  <si>
+    <t>狂沙熊战士</t>
+  </si>
+  <si>
+    <t>黄沙护卫</t>
+  </si>
+  <si>
+    <t>绿洲之主</t>
+  </si>
+  <si>
+    <t>黄沙之主</t>
+  </si>
+  <si>
+    <t>祈风使</t>
+  </si>
+  <si>
+    <t>寒冰使</t>
+  </si>
+  <si>
+    <t>霹雳使</t>
+  </si>
+  <si>
+    <t>烈火使</t>
+  </si>
+  <si>
     <t>炼狱之王</t>
   </si>
   <si>
-    <t>小狗头人</t>
-  </si>
-  <si>
-    <t>雷电之魂</t>
-  </si>
-  <si>
-    <t>萨特窃神者</t>
-  </si>
-  <si>
-    <t>远古岚肤兽</t>
-  </si>
-  <si>
-    <t>雷树精兽</t>
-  </si>
-  <si>
-    <t>雷角兽</t>
-  </si>
-  <si>
-    <t>雷须兽</t>
-  </si>
-  <si>
-    <t>霹雳怪手</t>
-  </si>
-  <si>
-    <t>雷霆晶龟</t>
-  </si>
-  <si>
-    <t>幼年青眼雷龙</t>
-  </si>
-  <si>
-    <t>雷羽鹫</t>
-  </si>
-  <si>
-    <t>雷山鹫</t>
-  </si>
-  <si>
-    <t>雷翼鹫</t>
-  </si>
-  <si>
-    <t>霹雳怪虫</t>
-  </si>
-  <si>
-    <t>独角雷兽</t>
-  </si>
-  <si>
-    <t>雷电见习者</t>
-  </si>
-  <si>
-    <t>雷霆拍熊</t>
-  </si>
-  <si>
-    <t>雷翼飞狐</t>
-  </si>
-  <si>
-    <t>远古黑龙</t>
-  </si>
-  <si>
-    <t>雷霆领主</t>
-  </si>
-  <si>
-    <t>青眼雷龙</t>
-  </si>
-  <si>
-    <t>霹雳怪泥</t>
-  </si>
-  <si>
-    <t>雷霆战蜥</t>
-  </si>
-  <si>
-    <t>霹雳女妖</t>
-  </si>
-  <si>
-    <t>雷压巨兽</t>
-  </si>
-  <si>
-    <t>雷压射手</t>
-  </si>
-  <si>
-    <t>雷霆梦魇</t>
-  </si>
-  <si>
-    <t>雷压飞翼兽</t>
-  </si>
-  <si>
-    <t>雷电掌控者</t>
-  </si>
-  <si>
-    <t>雷神鸟</t>
-  </si>
-  <si>
-    <t>闪电制造者</t>
-  </si>
-  <si>
     <t>雷神</t>
   </si>
   <si>
-    <t>冰川鬼魂</t>
-  </si>
-  <si>
-    <t>极寒精灵</t>
-  </si>
-  <si>
-    <t>极寒冰狐</t>
-  </si>
-  <si>
-    <t>极地少女</t>
-  </si>
-  <si>
-    <t>冰川幼龟</t>
-  </si>
-  <si>
-    <t>冰原行者</t>
-  </si>
-  <si>
-    <t>近代冰魂（远程）</t>
-  </si>
-  <si>
-    <t>极地虎</t>
-  </si>
-  <si>
-    <t>极地小冰龙</t>
-  </si>
-  <si>
-    <t>极地小飞龙（远程）</t>
-  </si>
-  <si>
-    <t>冰晶石甲虫</t>
-  </si>
-  <si>
-    <t>冰晶小海马</t>
-  </si>
-  <si>
-    <t>冰原狐</t>
-  </si>
-  <si>
-    <t>冰原犬</t>
-  </si>
-  <si>
-    <t>冰宫守卫</t>
-  </si>
-  <si>
-    <t>冰宫奴仆（远程）</t>
-  </si>
-  <si>
-    <t>冰甲战熊</t>
-  </si>
-  <si>
-    <t>寒霜战士</t>
-  </si>
-  <si>
-    <t>寒霜萨满（远程）</t>
-  </si>
-  <si>
-    <t>极地熊战士</t>
-  </si>
-  <si>
-    <t>冰原猩猩兽</t>
-  </si>
-  <si>
-    <t>极地巨人</t>
-  </si>
-  <si>
-    <t>极地四脚兽</t>
-  </si>
-  <si>
-    <t>冰原巨兽(远程）</t>
-  </si>
-  <si>
-    <t>极冰守卫</t>
+    <t>冰宫女王</t>
+  </si>
+  <si>
+    <t>风神</t>
+  </si>
+  <si>
+    <t>元素之主</t>
   </si>
 </sst>
 </file>
@@ -462,7 +948,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -485,6 +971,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -837,7 +1328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -913,6 +1404,62 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1072,16 +1619,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1090,119 +1634,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,11 +1783,17 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1249,6 +1802,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1569,10 +2140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1580,7 +2151,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="41.5" style="1" customWidth="1"/>
@@ -1619,10 +2190,10 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1648,10 +2219,10 @@
       <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1681,10 +2252,10 @@
       <c r="I3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1714,10 +2285,10 @@
       <c r="I4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1901,10 +2472,12 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
@@ -1923,14 +2496,16 @@
         <v>1202</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
         <v>22</v>
@@ -1947,13 +2522,16 @@
         <v>1203</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>22</v>
@@ -1970,13 +2548,16 @@
         <v>1204</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
         <v>22</v>
@@ -1996,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -2019,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2034,15 +2615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="1">
-        <v>1207</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
+    <row r="18" spans="4:9">
+      <c r="D18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2057,21 +2635,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="2:9">
-      <c r="B19" s="11">
-        <v>2001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
+    <row r="19" ht="16.5" spans="4:9">
       <c r="D19" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F19" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -2080,21 +2655,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="2:9">
-      <c r="B20" s="11">
-        <v>2002</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
+    <row r="20" ht="16.5" spans="4:9">
       <c r="D20" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="12">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -2103,21 +2675,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="2:9">
-      <c r="B21" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
+    <row r="21" ht="16.5" spans="4:9">
       <c r="D21" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F21" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -2126,21 +2695,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="2:9">
-      <c r="B22" s="11">
-        <v>2004</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
+    <row r="22" ht="16.5" spans="4:9">
       <c r="D22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="12">
-        <v>2</v>
+      <c r="F22" s="1">
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -2149,21 +2715,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="2:9">
-      <c r="B23" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
+    <row r="23" ht="16.5" spans="4:9">
       <c r="D23" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F23" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -2172,21 +2735,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="2:9">
-      <c r="B24" s="11">
-        <v>2006</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
+    <row r="24" ht="16.5" spans="4:9">
       <c r="D24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="12">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -2195,21 +2755,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="2:9">
-      <c r="B25" s="11">
-        <v>2007</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
+    <row r="25" ht="16.5" spans="4:9">
       <c r="D25" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F25" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2218,21 +2775,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="2:9">
-      <c r="B26" s="11">
-        <v>2008</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="12">
-        <v>2</v>
+    <row r="26" ht="16.5" spans="4:9">
+      <c r="D26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2241,21 +2795,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="2:9">
-      <c r="B27" s="11">
-        <v>2009</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
+    <row r="27" ht="16.5" spans="4:9">
       <c r="D27" s="11" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F27" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -2264,21 +2815,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="2:9">
-      <c r="B28" s="11">
-        <v>2010</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
+    <row r="28" ht="16.5" spans="4:9">
       <c r="D28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="12">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
       </c>
       <c r="G28" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -2287,21 +2835,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="2:9">
-      <c r="B29" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
+    <row r="29" ht="16.5" spans="4:9">
       <c r="D29" s="11" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F29" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H29" s="1">
         <v>0</v>
@@ -2310,21 +2855,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="2:9">
-      <c r="B30" s="11">
-        <v>2012</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
+    <row r="30" ht="16.5" spans="4:9">
       <c r="D30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="12">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
       </c>
       <c r="G30" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H30" s="1">
         <v>0</v>
@@ -2333,21 +2875,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="2:9">
-      <c r="B31" s="11">
-        <v>2013</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
+    <row r="31" ht="16.5" spans="4:9">
       <c r="D31" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F31" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2356,21 +2895,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="2:9">
-      <c r="B32" s="11">
-        <v>2014</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
+    <row r="32" ht="16.5" spans="4:9">
       <c r="D32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="12">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -2379,21 +2915,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="2:9">
-      <c r="B33" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
+    <row r="33" ht="16.5" spans="4:9">
       <c r="D33" s="11" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F33" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -2402,21 +2935,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="2:9">
-      <c r="B34" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
+    <row r="34" ht="16.5" spans="4:9">
       <c r="D34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="12">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -2425,21 +2955,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="2:9">
-      <c r="B35" s="11">
-        <v>2017</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
+    <row r="35" ht="16.5" spans="4:9">
       <c r="D35" s="11" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F35" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -2448,21 +2975,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="2:9">
-      <c r="B36" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
+    <row r="36" ht="16.5" spans="4:9">
       <c r="D36" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F36" s="12">
         <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -2471,21 +2995,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="2:9">
-      <c r="B37" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
+    <row r="37" ht="16.5" spans="4:9">
       <c r="D37" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F37" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -2494,21 +3015,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="2:9">
-      <c r="B38" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
+    <row r="38" ht="16.5" spans="4:9">
       <c r="D38" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F38" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2517,21 +3035,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="2:9">
-      <c r="B39" s="11">
-        <v>2021</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
+    <row r="39" ht="16.5" spans="4:9">
       <c r="D39" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F39" s="12">
         <v>2</v>
       </c>
       <c r="G39" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -2540,21 +3055,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="2:9">
-      <c r="B40" s="11">
-        <v>2022</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
+    <row r="40" ht="16.5" spans="4:9">
       <c r="D40" s="11" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F40" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -2563,21 +3075,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="2:9">
-      <c r="B41" s="11">
-        <v>2023</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1</v>
-      </c>
+    <row r="41" ht="16.5" spans="4:9">
       <c r="D41" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F41" s="12">
         <v>2</v>
       </c>
       <c r="G41" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2586,21 +3095,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="2:9">
-      <c r="B42" s="11">
-        <v>2024</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
+    <row r="42" ht="16.5" spans="4:9">
       <c r="D42" s="11" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F42" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -2609,21 +3115,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="2:9">
-      <c r="B43" s="11">
-        <v>2025</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
+    <row r="43" ht="16.5" spans="4:9">
       <c r="D43" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F43" s="12">
         <v>2</v>
       </c>
       <c r="G43" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -2632,21 +3135,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="2:9">
-      <c r="B44" s="11">
-        <v>2026</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>74</v>
+    <row r="44" ht="16.5" spans="4:9">
+      <c r="D44" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F44" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -2655,21 +3155,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="2:9">
-      <c r="B45" s="11">
-        <v>2027</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
+    <row r="45" ht="16.5" spans="4:9">
       <c r="D45" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F45" s="12">
         <v>2</v>
       </c>
       <c r="G45" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -2678,21 +3175,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="2:9">
-      <c r="B46" s="11">
-        <v>2028</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
+    <row r="46" ht="16.5" spans="4:9">
       <c r="D46" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F46" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2701,21 +3195,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="2:9">
-      <c r="B47" s="11">
-        <v>2029</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
+    <row r="47" ht="16.5" spans="4:9">
       <c r="D47" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F47" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -2724,21 +3215,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="2:9">
-      <c r="B48" s="11">
-        <v>2030</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
+    <row r="48" ht="16.5" spans="4:9">
       <c r="D48" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F48" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H48" s="1">
         <v>0</v>
@@ -2747,21 +3235,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="2:9">
-      <c r="B49" s="11">
-        <v>2031</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
+    <row r="49" ht="16.5" spans="4:9">
       <c r="D49" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F49" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2770,21 +3255,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="2:9">
-      <c r="B50" s="11">
-        <v>2032</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
+    <row r="50" ht="16.5" spans="4:9">
       <c r="D50" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F50" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -2793,21 +3275,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="2:9">
-      <c r="B51" s="11">
-        <v>2033</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
+    <row r="51" ht="16.5" spans="4:9">
       <c r="D51" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F51" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -2816,21 +3295,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="2:9">
-      <c r="B52" s="11">
-        <v>2034</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
+    <row r="52" ht="16.5" spans="4:9">
       <c r="D52" s="11" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F52" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -2839,21 +3315,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="2:9">
-      <c r="B53" s="11">
-        <v>2035</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
+    <row r="53" ht="16.5" spans="4:9">
       <c r="D53" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F53" s="12">
         <v>2</v>
       </c>
       <c r="G53" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -2862,21 +3335,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="2:9">
-      <c r="B54" s="11">
-        <v>2036</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
+    <row r="54" ht="16.5" spans="4:9">
       <c r="D54" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F54" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G54" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -2885,21 +3355,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="2:9">
-      <c r="B55" s="11">
-        <v>2037</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
+    <row r="55" ht="16.5" spans="4:9">
       <c r="D55" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F55" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G55" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -2908,21 +3375,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="2:9">
-      <c r="B56" s="11">
-        <v>2038</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
+    <row r="56" ht="16.5" spans="4:9">
       <c r="D56" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F56" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G56" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -2931,21 +3395,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="2:9">
-      <c r="B57" s="11">
-        <v>2039</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
+    <row r="57" ht="16.5" spans="4:9">
       <c r="D57" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F57" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -2954,21 +3415,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="2:9">
-      <c r="B58" s="11">
-        <v>2040</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
+    <row r="58" ht="16.5" spans="4:9">
       <c r="D58" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F58" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -2977,21 +3435,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="2:9">
-      <c r="B59" s="11">
-        <v>2041</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
+    <row r="59" ht="16.5" spans="4:9">
       <c r="D59" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F59" s="12">
         <v>3</v>
       </c>
       <c r="G59" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -3000,21 +3455,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="2:9">
-      <c r="B60" s="11">
-        <v>2042</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
+    <row r="60" ht="16.5" spans="4:9">
       <c r="D60" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F60" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G60" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -3023,21 +3475,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="2:9">
-      <c r="B61" s="11">
-        <v>2043</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
+    <row r="61" ht="16.5" spans="4:9">
       <c r="D61" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F61" s="12">
         <v>3</v>
       </c>
       <c r="G61" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -3046,21 +3495,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="2:9">
-      <c r="B62" s="11">
-        <v>2044</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>92</v>
+    <row r="62" ht="16.5" spans="4:9">
+      <c r="D62" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F62" s="12">
         <v>3</v>
       </c>
       <c r="G62" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -3069,21 +3515,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="2:9">
-      <c r="B63" s="11">
-        <v>2045</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
+    <row r="63" ht="16.5" spans="4:9">
       <c r="D63" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F63" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G63" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -3092,21 +3535,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="2:9">
-      <c r="B64" s="11">
-        <v>2046</v>
-      </c>
-      <c r="C64" s="1">
-        <v>1</v>
-      </c>
+    <row r="64" ht="16.5" spans="4:9">
       <c r="D64" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F64" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H64" s="1">
         <v>0</v>
@@ -3115,21 +3555,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="2:9">
-      <c r="B65" s="11">
-        <v>2047</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
+    <row r="65" ht="16.5" spans="4:9">
       <c r="D65" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F65" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -3138,21 +3575,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="2:9">
-      <c r="B66" s="11">
-        <v>2048</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
+    <row r="66" ht="16.5" spans="4:9">
       <c r="D66" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F66" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
@@ -3161,21 +3595,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="2:9">
-      <c r="B67" s="11">
-        <v>2049</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1</v>
-      </c>
+    <row r="67" ht="16.5" spans="4:9">
       <c r="D67" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F67" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G67" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -3184,21 +3615,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="2:9">
-      <c r="B68" s="11">
-        <v>2050</v>
-      </c>
-      <c r="C68" s="1">
-        <v>1</v>
-      </c>
+    <row r="68" ht="16.5" spans="4:9">
       <c r="D68" s="11" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F68" s="12">
         <v>3</v>
       </c>
       <c r="G68" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -3207,21 +3635,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="2:9">
-      <c r="B69" s="11">
-        <v>2051</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
+    <row r="69" ht="16.5" spans="4:9">
       <c r="D69" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F69" s="12">
         <v>3</v>
       </c>
       <c r="G69" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -3230,21 +3655,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="2:9">
-      <c r="B70" s="11">
-        <v>2052</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
+    <row r="70" ht="16.5" spans="4:9">
       <c r="D70" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F70" s="12">
         <v>3</v>
       </c>
       <c r="G70" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H70" s="1">
         <v>0</v>
@@ -3253,21 +3675,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="2:9">
-      <c r="B71" s="11">
-        <v>2053</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
+    <row r="71" ht="16.5" spans="4:9">
       <c r="D71" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F71" s="12">
         <v>3</v>
       </c>
       <c r="G71" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
@@ -3276,21 +3695,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="2:9">
-      <c r="B72" s="11">
-        <v>2054</v>
-      </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
+    <row r="72" ht="16.5" spans="4:9">
       <c r="D72" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F72" s="12">
         <v>4</v>
       </c>
       <c r="G72" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
@@ -3299,21 +3715,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="2:9">
-      <c r="B73" s="11">
-        <v>2055</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
+    <row r="73" ht="16.5" spans="4:9">
       <c r="D73" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F73" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -3322,21 +3735,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="2:9">
-      <c r="B74" s="11">
-        <v>2056</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
+    <row r="74" ht="16.5" spans="4:9">
       <c r="D74" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F74" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G74" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -3345,21 +3755,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="2:9">
-      <c r="B75" s="11">
-        <v>2057</v>
-      </c>
-      <c r="C75" s="1">
-        <v>1</v>
-      </c>
+    <row r="75" ht="16.5" spans="4:9">
       <c r="D75" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F75" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G75" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H75" s="1">
         <v>0</v>
@@ -3368,21 +3775,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="2:9">
-      <c r="B76" s="11">
-        <v>2058</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
+    <row r="76" ht="16.5" spans="4:9">
       <c r="D76" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F76" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G76" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H76" s="1">
         <v>0</v>
@@ -3391,21 +3795,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="2:9">
-      <c r="B77" s="11">
-        <v>2059</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1</v>
-      </c>
+    <row r="77" ht="16.5" spans="4:9">
       <c r="D77" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F77" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
@@ -3414,21 +3815,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="2:9">
-      <c r="B78" s="11">
-        <v>2060</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
+    <row r="78" ht="16.5" spans="4:9">
       <c r="D78" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F78" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G78" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H78" s="1">
         <v>0</v>
@@ -3437,21 +3835,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="2:9">
-      <c r="B79" s="11">
-        <v>2061</v>
-      </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
+    <row r="79" ht="16.5" spans="4:9">
       <c r="D79" s="11" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F79" s="12">
         <v>4</v>
       </c>
       <c r="G79" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H79" s="1">
         <v>0</v>
@@ -3460,21 +3855,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="2:9">
-      <c r="B80" s="11">
-        <v>2062</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>110</v>
+    <row r="80" ht="16.5" spans="4:9">
+      <c r="D80" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F80" s="12">
         <v>4</v>
       </c>
       <c r="G80" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H80" s="1">
         <v>0</v>
@@ -3483,21 +3875,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="2:9">
-      <c r="B81" s="11">
-        <v>2063</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
+    <row r="81" ht="16.5" spans="4:9">
       <c r="D81" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F81" s="12">
         <v>4</v>
       </c>
       <c r="G81" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H81" s="1">
         <v>0</v>
@@ -3506,21 +3895,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="2:9">
-      <c r="B82" s="11">
-        <v>2064</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
+    <row r="82" ht="16.5" spans="4:9">
       <c r="D82" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F82" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G82" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
@@ -3529,21 +3915,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="2:9">
-      <c r="B83" s="11">
-        <v>2065</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
+    <row r="83" ht="16.5" spans="4:9">
       <c r="D83" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F83" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
@@ -3552,21 +3935,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="2:9">
-      <c r="B84" s="11">
-        <v>2066</v>
-      </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
+    <row r="84" ht="16.5" spans="4:9">
       <c r="D84" s="11" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F84" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G84" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H84" s="1">
         <v>0</v>
@@ -3575,21 +3955,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="2:9">
-      <c r="B85" s="11">
-        <v>2067</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
+    <row r="85" ht="16.5" spans="4:9">
       <c r="D85" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F85" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G85" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H85" s="1">
         <v>0</v>
@@ -3598,21 +3975,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="2:9">
-      <c r="B86" s="11">
-        <v>2068</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
+    <row r="86" ht="16.5" spans="4:9">
       <c r="D86" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F86" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G86" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H86" s="1">
         <v>0</v>
@@ -3621,21 +3995,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="2:9">
-      <c r="B87" s="11">
-        <v>2069</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
+    <row r="87" ht="16.5" spans="4:9">
       <c r="D87" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F87" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G87" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H87" s="1">
         <v>0</v>
@@ -3644,21 +4015,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="2:9">
-      <c r="B88" s="11">
-        <v>2070</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
+    <row r="88" ht="16.5" spans="4:9">
       <c r="D88" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F88" s="12">
         <v>4</v>
       </c>
       <c r="G88" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H88" s="1">
         <v>0</v>
@@ -3667,21 +4035,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="2:9">
-      <c r="B89" s="11">
-        <v>2071</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
+    <row r="89" ht="16.5" spans="4:9">
       <c r="D89" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="F89" s="12">
         <v>4</v>
       </c>
       <c r="G89" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H89" s="1">
         <v>0</v>
@@ -3691,43 +4056,49 @@
       </c>
     </row>
     <row r="90" ht="16.5" spans="2:9">
-      <c r="B90" s="11">
-        <v>2072</v>
+      <c r="B90" s="1">
+        <v>1279</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="F90" s="12">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>22</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" ht="16.5" spans="2:9">
+      <c r="B91" s="1">
+        <v>1280</v>
+      </c>
+      <c r="C91" s="1">
         <v>2</v>
       </c>
-      <c r="G90" s="1">
-        <v>23</v>
-      </c>
-      <c r="H90" s="1">
-        <v>0</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" ht="16.5" spans="2:9">
-      <c r="B91" s="11">
-        <v>2073</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
       <c r="D91" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="F91" s="12">
         <v>2</v>
       </c>
       <c r="G91" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
@@ -3737,20 +4108,23 @@
       </c>
     </row>
     <row r="92" ht="16.5" spans="2:9">
-      <c r="B92" s="11">
-        <v>2074</v>
+      <c r="B92" s="1">
+        <v>1281</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="F92" s="12">
         <v>3</v>
       </c>
       <c r="G92" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H92" s="1">
         <v>0</v>
@@ -3760,20 +4134,23 @@
       </c>
     </row>
     <row r="93" ht="16.5" spans="2:9">
-      <c r="B93" s="11">
-        <v>2075</v>
+      <c r="B93" s="1">
+        <v>1282</v>
       </c>
       <c r="C93" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="F93" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G93" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
@@ -3783,20 +4160,23 @@
       </c>
     </row>
     <row r="94" ht="16.5" spans="2:9">
-      <c r="B94" s="11">
-        <v>2076</v>
+      <c r="B94" s="1">
+        <v>1283</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="F94" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H94" s="1">
         <v>0</v>
@@ -3806,66 +4186,75 @@
       </c>
     </row>
     <row r="95" ht="16.5" spans="2:9">
-      <c r="B95" s="11">
-        <v>2077</v>
+      <c r="B95" s="1">
+        <v>1284</v>
       </c>
       <c r="C95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="F95" s="12">
+        <v>2</v>
+      </c>
+      <c r="G95" s="1">
+        <v>22</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" ht="16.5" spans="2:9">
+      <c r="B96" s="1">
+        <v>1285</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" s="12">
+        <v>3</v>
+      </c>
+      <c r="G96" s="1">
+        <v>22</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="2:9">
+      <c r="B97" s="1">
+        <v>1286</v>
+      </c>
+      <c r="C97" s="1">
         <v>4</v>
       </c>
-      <c r="G95" s="1">
-        <v>23</v>
-      </c>
-      <c r="H95" s="1">
-        <v>0</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" ht="16.5" spans="2:9">
-      <c r="B96" s="11">
-        <v>2078</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F96" s="12">
+      <c r="D97" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F97" s="12">
         <v>4</v>
       </c>
-      <c r="G96" s="1">
-        <v>23</v>
-      </c>
-      <c r="H96" s="1">
-        <v>0</v>
-      </c>
-      <c r="I96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" ht="16.5" spans="2:9">
-      <c r="B97" s="11">
-        <v>2079</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F97" s="12">
-        <v>3</v>
-      </c>
       <c r="G97" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
@@ -3874,21 +4263,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="2:9">
-      <c r="B98" s="11">
-        <v>2080</v>
-      </c>
+    <row r="98" ht="16.5" spans="3:9">
       <c r="C98" s="1">
         <v>1</v>
       </c>
-      <c r="D98" s="11" t="s">
-        <v>128</v>
+      <c r="D98" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F98" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G98" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
@@ -3897,21 +4286,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="2:9">
-      <c r="B99" s="11">
-        <v>2081</v>
-      </c>
+    <row r="99" ht="16.5" spans="3:9">
       <c r="C99" s="1">
         <v>1</v>
       </c>
-      <c r="D99" s="11" t="s">
-        <v>129</v>
+      <c r="D99" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F99" s="12">
         <v>3</v>
       </c>
       <c r="G99" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
@@ -3920,21 +4309,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="2:9">
-      <c r="B100" s="11">
-        <v>2082</v>
-      </c>
+    <row r="100" ht="16.5" spans="3:9">
       <c r="C100" s="1">
         <v>1</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>130</v>
+      <c r="D100" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F100" s="12">
         <v>4</v>
       </c>
       <c r="G100" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
@@ -3943,164 +4332,3599 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="2:9">
-      <c r="B101" s="11">
-        <v>2083</v>
-      </c>
+    <row r="101" ht="16.5" spans="3:9">
       <c r="C101" s="1">
         <v>1</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>128</v>
+      <c r="D101" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F101" s="12">
+        <v>3</v>
+      </c>
+      <c r="G101" s="1">
+        <v>21</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" ht="16.5" spans="3:9">
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" s="12">
+        <v>3</v>
+      </c>
+      <c r="G102" s="1">
+        <v>21</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" ht="16.5" spans="3:9">
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="12">
+        <v>3</v>
+      </c>
+      <c r="G103" s="1">
+        <v>21</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" ht="16.5" spans="3:9">
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="12">
+        <v>3</v>
+      </c>
+      <c r="G104" s="1">
+        <v>21</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" ht="16.5" spans="3:9">
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" s="12">
+        <v>3</v>
+      </c>
+      <c r="G105" s="1">
+        <v>21</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" ht="16.5" spans="3:9">
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F106" s="12">
+        <v>3</v>
+      </c>
+      <c r="G106" s="1">
+        <v>21</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" ht="16.5" spans="3:9">
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F107" s="12">
+        <v>3</v>
+      </c>
+      <c r="G107" s="1">
+        <v>21</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" ht="16.5" spans="3:9">
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F108" s="12">
+        <v>3</v>
+      </c>
+      <c r="G108" s="1">
+        <v>21</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" ht="16.5" spans="3:9">
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F109" s="12">
+        <v>3</v>
+      </c>
+      <c r="G109" s="1">
+        <v>21</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" ht="16.5" spans="3:9">
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F110" s="12">
         <v>4</v>
       </c>
-      <c r="G101" s="1">
-        <v>23</v>
-      </c>
-      <c r="H101" s="1">
-        <v>0</v>
-      </c>
-      <c r="I101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" ht="16.5" spans="2:9">
-      <c r="B102" s="11">
-        <v>2084</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
-      <c r="D102" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="F102" s="12">
-        <v>6</v>
-      </c>
-      <c r="G102" s="1">
-        <v>23</v>
-      </c>
-      <c r="H102" s="1">
-        <v>0</v>
-      </c>
-      <c r="I102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" ht="16.5" spans="2:9">
-      <c r="B103" s="11">
-        <v>2085</v>
-      </c>
-      <c r="C103" s="1">
-        <v>1</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F103" s="12">
+      <c r="G110" s="1">
+        <v>21</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" ht="16.5" spans="3:9">
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="12">
+        <v>4</v>
+      </c>
+      <c r="G111" s="1">
+        <v>21</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" ht="16.5" spans="3:9">
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" s="12">
+        <v>4</v>
+      </c>
+      <c r="G112" s="1">
+        <v>21</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" ht="16.5" spans="3:9">
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" s="12">
+        <v>4</v>
+      </c>
+      <c r="G113" s="1">
+        <v>21</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" ht="16.5" spans="3:9">
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F114" s="12">
+        <v>3</v>
+      </c>
+      <c r="G114" s="1">
+        <v>21</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" ht="16.5" spans="3:9">
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F115" s="12">
+        <v>4</v>
+      </c>
+      <c r="G115" s="1">
+        <v>21</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" ht="16.5" spans="3:9">
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F116" s="12">
         <v>5</v>
       </c>
-      <c r="G103" s="1">
-        <v>23</v>
-      </c>
-      <c r="H103" s="1">
-        <v>0</v>
-      </c>
-      <c r="I103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" ht="16.5" spans="2:9">
-      <c r="B104" s="11">
-        <v>2086</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F104" s="12">
+      <c r="G116" s="1">
+        <v>21</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" ht="16.5" spans="3:9">
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F117" s="12">
+        <v>5</v>
+      </c>
+      <c r="G117" s="1">
+        <v>21</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" ht="16.5" spans="3:9">
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F118" s="12">
+        <v>5</v>
+      </c>
+      <c r="G118" s="1">
+        <v>21</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" ht="16.5" spans="3:9">
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119" s="12">
+        <v>5</v>
+      </c>
+      <c r="G119" s="1">
+        <v>21</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" ht="16.5" spans="3:9">
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F120" s="12">
+        <v>5</v>
+      </c>
+      <c r="G120" s="1">
+        <v>21</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" ht="16.5" spans="3:9">
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F121" s="12">
+        <v>5</v>
+      </c>
+      <c r="G121" s="1">
+        <v>21</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" ht="16.5" spans="3:9">
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F122" s="12">
+        <v>5</v>
+      </c>
+      <c r="G122" s="1">
+        <v>21</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" ht="16.5" spans="2:6">
+      <c r="B123" s="12"/>
+      <c r="D123" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F123" s="12"/>
+    </row>
+    <row r="124" ht="16.5" spans="2:6">
+      <c r="B124" s="12"/>
+      <c r="D124" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F124" s="12"/>
+    </row>
+    <row r="125" ht="16.5" spans="2:6">
+      <c r="B125" s="12"/>
+      <c r="D125" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F125" s="12"/>
+    </row>
+    <row r="126" ht="16.5" spans="2:6">
+      <c r="B126" s="12"/>
+      <c r="D126" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F126" s="12"/>
+    </row>
+    <row r="127" ht="16.5" spans="2:6">
+      <c r="B127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="F127" s="12"/>
+    </row>
+    <row r="128" ht="16.5" spans="2:6">
+      <c r="B128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="F128" s="12"/>
+    </row>
+    <row r="129" ht="16.5" spans="2:6">
+      <c r="B129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="F129" s="12"/>
+    </row>
+    <row r="130" ht="16.5" spans="2:6">
+      <c r="B130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="F130" s="12"/>
+    </row>
+    <row r="131" ht="16.5" spans="2:6">
+      <c r="B131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="F131" s="12"/>
+    </row>
+    <row r="132" ht="16.5" spans="2:6">
+      <c r="B132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="F132" s="12"/>
+    </row>
+    <row r="133" ht="16.5" spans="2:6">
+      <c r="B133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="F133" s="12"/>
+    </row>
+    <row r="134" ht="16.5" spans="2:6">
+      <c r="B134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="F134" s="12"/>
+    </row>
+    <row r="135" ht="16.5" spans="2:6">
+      <c r="B135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="F135" s="12"/>
+    </row>
+    <row r="136" ht="16.5" spans="2:6">
+      <c r="B136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="F136" s="12"/>
+    </row>
+    <row r="137" ht="16.5" spans="2:6">
+      <c r="B137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="F137" s="12"/>
+    </row>
+    <row r="138" ht="16.5" spans="2:6">
+      <c r="B138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="F138" s="12"/>
+    </row>
+    <row r="139" ht="16.5" spans="2:9">
+      <c r="B139" s="18">
+        <v>2001</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" s="19">
+        <v>2</v>
+      </c>
+      <c r="G139" s="1">
+        <v>23</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" ht="16.5" spans="2:9">
+      <c r="B140" s="18">
+        <v>2002</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F140" s="21">
+        <v>2</v>
+      </c>
+      <c r="G140" s="1">
+        <v>23</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" ht="16.5" spans="2:9">
+      <c r="B141" s="18">
+        <v>2003</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F141" s="23">
+        <v>2</v>
+      </c>
+      <c r="G141" s="1">
+        <v>23</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" ht="16.5" spans="2:9">
+      <c r="B142" s="18">
+        <v>2004</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F142" s="23">
+        <v>2</v>
+      </c>
+      <c r="G142" s="1">
+        <v>23</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" ht="16.5" spans="2:9">
+      <c r="B143" s="18">
+        <v>2005</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F143" s="23">
+        <v>2</v>
+      </c>
+      <c r="G143" s="1">
+        <v>23</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" ht="16.5" spans="2:9">
+      <c r="B144" s="18">
+        <v>2006</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F144" s="23">
+        <v>2</v>
+      </c>
+      <c r="G144" s="1">
+        <v>23</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" ht="16.5" spans="2:9">
+      <c r="B145" s="18">
+        <v>2007</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F145" s="23">
+        <v>2</v>
+      </c>
+      <c r="G145" s="1">
+        <v>23</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" ht="16.5" spans="2:9">
+      <c r="B146" s="18">
+        <v>2008</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F146" s="23">
+        <v>2</v>
+      </c>
+      <c r="G146" s="1">
+        <v>23</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" ht="16.5" spans="2:9">
+      <c r="B147" s="18">
+        <v>2009</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F147" s="23">
+        <v>2</v>
+      </c>
+      <c r="G147" s="1">
+        <v>23</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" ht="16.5" spans="2:9">
+      <c r="B148" s="18">
+        <v>2010</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="F148" s="23">
+        <v>2</v>
+      </c>
+      <c r="G148" s="1">
+        <v>23</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" ht="16.5" spans="2:9">
+      <c r="B149" s="18">
+        <v>2011</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F149" s="23">
+        <v>2</v>
+      </c>
+      <c r="G149" s="1">
+        <v>23</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" ht="16.5" spans="2:9">
+      <c r="B150" s="18">
+        <v>2012</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F150" s="23">
+        <v>2</v>
+      </c>
+      <c r="G150" s="1">
+        <v>23</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" ht="16.5" spans="2:9">
+      <c r="B151" s="18">
+        <v>2013</v>
+      </c>
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F151" s="23">
+        <v>2</v>
+      </c>
+      <c r="G151" s="1">
+        <v>23</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" ht="16.5" spans="2:9">
+      <c r="B152" s="18">
+        <v>2014</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F152" s="23">
+        <v>2</v>
+      </c>
+      <c r="G152" s="1">
+        <v>23</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" ht="16.5" spans="2:9">
+      <c r="B153" s="18">
+        <v>2015</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F153" s="23">
+        <v>2</v>
+      </c>
+      <c r="G153" s="1">
+        <v>23</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" ht="16.5" spans="2:9">
+      <c r="B154" s="18">
+        <v>2016</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F154" s="23">
+        <v>2</v>
+      </c>
+      <c r="G154" s="1">
+        <v>23</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" ht="16.5" spans="2:9">
+      <c r="B155" s="18">
+        <v>2017</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F155" s="23">
+        <v>2</v>
+      </c>
+      <c r="G155" s="1">
+        <v>23</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" ht="16.5" spans="2:9">
+      <c r="B156" s="18">
+        <v>2018</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F156" s="23">
+        <v>2</v>
+      </c>
+      <c r="G156" s="1">
+        <v>23</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" ht="16.5" spans="2:9">
+      <c r="B157" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F157" s="23">
+        <v>2</v>
+      </c>
+      <c r="G157" s="1">
+        <v>23</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" ht="16.5" spans="2:9">
+      <c r="B158" s="18">
+        <v>2020</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F158" s="23">
+        <v>2</v>
+      </c>
+      <c r="G158" s="1">
+        <v>23</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" ht="16.5" spans="2:9">
+      <c r="B159" s="18">
+        <v>2021</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F159" s="23">
+        <v>2</v>
+      </c>
+      <c r="G159" s="1">
+        <v>23</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" ht="16.5" spans="2:9">
+      <c r="B160" s="18">
+        <v>2022</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F160" s="23">
+        <v>2</v>
+      </c>
+      <c r="G160" s="1">
+        <v>23</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" ht="16.5" spans="2:9">
+      <c r="B161" s="18">
+        <v>2023</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F161" s="23">
+        <v>2</v>
+      </c>
+      <c r="G161" s="1">
+        <v>23</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" ht="16.5" spans="2:9">
+      <c r="B162" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="F162" s="23">
+        <v>2</v>
+      </c>
+      <c r="G162" s="1">
+        <v>23</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" ht="16.5" spans="2:9">
+      <c r="B163" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F163" s="23">
+        <v>2</v>
+      </c>
+      <c r="G163" s="1">
+        <v>23</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" ht="16.5" spans="2:9">
+      <c r="B164" s="18">
+        <v>2026</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F164" s="23">
+        <v>2</v>
+      </c>
+      <c r="G164" s="1">
+        <v>23</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" ht="16.5" spans="2:9">
+      <c r="B165" s="18">
+        <v>2027</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F165" s="23">
+        <v>2</v>
+      </c>
+      <c r="G165" s="1">
+        <v>23</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" ht="16.5" spans="2:9">
+      <c r="B166" s="18">
+        <v>2028</v>
+      </c>
+      <c r="C166" s="1">
+        <v>1</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F166" s="23">
+        <v>2</v>
+      </c>
+      <c r="G166" s="1">
+        <v>23</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" ht="16.5" spans="2:9">
+      <c r="B167" s="18">
+        <v>2029</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F167" s="23">
+        <v>2</v>
+      </c>
+      <c r="G167" s="1">
+        <v>23</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" ht="16.5" spans="2:9">
+      <c r="B168" s="18">
+        <v>2030</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F168" s="23">
+        <v>2</v>
+      </c>
+      <c r="G168" s="1">
+        <v>23</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" ht="16.5" spans="2:9">
+      <c r="B169" s="18">
+        <v>2031</v>
+      </c>
+      <c r="C169" s="1">
+        <v>1</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F169" s="23">
+        <v>2</v>
+      </c>
+      <c r="G169" s="1">
+        <v>23</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0</v>
+      </c>
+      <c r="I169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" ht="16.5" spans="2:9">
+      <c r="B170" s="18">
+        <v>2032</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F170" s="23">
+        <v>2</v>
+      </c>
+      <c r="G170" s="1">
+        <v>23</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0</v>
+      </c>
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" ht="16.5" spans="2:9">
+      <c r="B171" s="18">
+        <v>2033</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F171" s="23">
+        <v>2</v>
+      </c>
+      <c r="G171" s="1">
+        <v>23</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0</v>
+      </c>
+      <c r="I171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" ht="16.5" spans="2:9">
+      <c r="B172" s="18">
+        <v>2034</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F172" s="23">
+        <v>2</v>
+      </c>
+      <c r="G172" s="1">
+        <v>23</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0</v>
+      </c>
+      <c r="I172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" ht="16.5" spans="2:9">
+      <c r="B173" s="18">
+        <v>2035</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F173" s="23">
+        <v>2</v>
+      </c>
+      <c r="G173" s="1">
+        <v>23</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+      <c r="I173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" ht="16.5" spans="2:9">
+      <c r="B174" s="18">
+        <v>2036</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F174" s="23">
+        <v>2</v>
+      </c>
+      <c r="G174" s="1">
+        <v>23</v>
+      </c>
+      <c r="H174" s="1">
+        <v>0</v>
+      </c>
+      <c r="I174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" ht="16.5" spans="2:9">
+      <c r="B175" s="18">
+        <v>2037</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F175" s="23">
+        <v>2</v>
+      </c>
+      <c r="G175" s="1">
+        <v>23</v>
+      </c>
+      <c r="H175" s="1">
+        <v>0</v>
+      </c>
+      <c r="I175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" ht="16.5" spans="2:9">
+      <c r="B176" s="18">
+        <v>2038</v>
+      </c>
+      <c r="C176" s="1">
+        <v>1</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F176" s="23">
+        <v>2</v>
+      </c>
+      <c r="G176" s="1">
+        <v>23</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0</v>
+      </c>
+      <c r="I176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" ht="16.5" spans="2:9">
+      <c r="B177" s="18">
+        <v>2039</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F177" s="23">
+        <v>2</v>
+      </c>
+      <c r="G177" s="1">
+        <v>23</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0</v>
+      </c>
+      <c r="I177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" ht="16.5" spans="2:9">
+      <c r="B178" s="18">
+        <v>2040</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="F178" s="23">
+        <v>2</v>
+      </c>
+      <c r="G178" s="1">
+        <v>23</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0</v>
+      </c>
+      <c r="I178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" ht="16.5" spans="2:9">
+      <c r="B179" s="18">
+        <v>2041</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F179" s="23">
+        <v>2</v>
+      </c>
+      <c r="G179" s="1">
+        <v>23</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0</v>
+      </c>
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" ht="16.5" spans="2:9">
+      <c r="B180" s="18">
+        <v>2042</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F180" s="23">
+        <v>2</v>
+      </c>
+      <c r="G180" s="1">
+        <v>23</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0</v>
+      </c>
+      <c r="I180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" ht="16.5" spans="2:9">
+      <c r="B181" s="18">
+        <v>2043</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F181" s="23">
+        <v>2</v>
+      </c>
+      <c r="G181" s="1">
+        <v>23</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0</v>
+      </c>
+      <c r="I181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" ht="16.5" spans="2:9">
+      <c r="B182" s="18">
+        <v>2044</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F182" s="23">
+        <v>2</v>
+      </c>
+      <c r="G182" s="1">
+        <v>23</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0</v>
+      </c>
+      <c r="I182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" ht="16.5" spans="2:9">
+      <c r="B183" s="18">
+        <v>2045</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F183" s="23">
+        <v>2</v>
+      </c>
+      <c r="G183" s="1">
+        <v>23</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0</v>
+      </c>
+      <c r="I183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" ht="16.5" spans="2:9">
+      <c r="B184" s="22">
+        <v>2501</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F184" s="23">
+        <v>3</v>
+      </c>
+      <c r="G184" s="1">
+        <v>23</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0</v>
+      </c>
+      <c r="I184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" ht="16.5" spans="2:9">
+      <c r="B185" s="22">
+        <v>2502</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="F185" s="23">
+        <v>3</v>
+      </c>
+      <c r="G185" s="1">
+        <v>23</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0</v>
+      </c>
+      <c r="I185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" ht="16.5" spans="2:9">
+      <c r="B186" s="22">
+        <v>2503</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F186" s="23">
+        <v>3</v>
+      </c>
+      <c r="G186" s="1">
+        <v>23</v>
+      </c>
+      <c r="H186" s="1">
+        <v>0</v>
+      </c>
+      <c r="I186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" ht="16.5" spans="2:9">
+      <c r="B187" s="22">
+        <v>2504</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="F187" s="23">
+        <v>3</v>
+      </c>
+      <c r="G187" s="1">
+        <v>23</v>
+      </c>
+      <c r="H187" s="1">
+        <v>0</v>
+      </c>
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" ht="16.5" spans="2:9">
+      <c r="B188" s="22">
+        <v>2505</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F188" s="23">
+        <v>3</v>
+      </c>
+      <c r="G188" s="1">
+        <v>23</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0</v>
+      </c>
+      <c r="I188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" ht="16.5" spans="2:9">
+      <c r="B189" s="22">
+        <v>2506</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F189" s="23">
+        <v>3</v>
+      </c>
+      <c r="G189" s="1">
+        <v>23</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0</v>
+      </c>
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" ht="16.5" spans="2:9">
+      <c r="B190" s="22">
+        <v>2507</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="F190" s="23">
+        <v>3</v>
+      </c>
+      <c r="G190" s="1">
+        <v>23</v>
+      </c>
+      <c r="H190" s="1">
+        <v>0</v>
+      </c>
+      <c r="I190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" ht="16.5" spans="2:9">
+      <c r="B191" s="22">
+        <v>2508</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F191" s="23">
+        <v>3</v>
+      </c>
+      <c r="G191" s="1">
+        <v>23</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0</v>
+      </c>
+      <c r="I191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" ht="16.5" spans="2:9">
+      <c r="B192" s="22">
+        <v>2509</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F192" s="23">
+        <v>3</v>
+      </c>
+      <c r="G192" s="1">
+        <v>23</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0</v>
+      </c>
+      <c r="I192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" ht="16.5" spans="2:9">
+      <c r="B193" s="22">
+        <v>2510</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F193" s="23">
+        <v>3</v>
+      </c>
+      <c r="G193" s="1">
+        <v>23</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0</v>
+      </c>
+      <c r="I193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" ht="16.5" spans="2:9">
+      <c r="B194" s="22">
+        <v>2511</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="F194" s="23">
+        <v>3</v>
+      </c>
+      <c r="G194" s="1">
+        <v>23</v>
+      </c>
+      <c r="H194" s="1">
+        <v>0</v>
+      </c>
+      <c r="I194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" ht="16.5" spans="2:9">
+      <c r="B195" s="22">
+        <v>2512</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="F195" s="23">
+        <v>3</v>
+      </c>
+      <c r="G195" s="1">
+        <v>23</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0</v>
+      </c>
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" ht="16.5" spans="2:9">
+      <c r="B196" s="22">
+        <v>2513</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F196" s="23">
+        <v>3</v>
+      </c>
+      <c r="G196" s="1">
+        <v>23</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" ht="16.5" spans="2:9">
+      <c r="B197" s="22">
+        <v>2514</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="F197" s="23">
+        <v>3</v>
+      </c>
+      <c r="G197" s="1">
+        <v>23</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0</v>
+      </c>
+      <c r="I197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" ht="16.5" spans="2:9">
+      <c r="B198" s="22">
+        <v>2515</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="F198" s="23">
+        <v>3</v>
+      </c>
+      <c r="G198" s="1">
+        <v>23</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0</v>
+      </c>
+      <c r="I198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" ht="16.5" spans="2:9">
+      <c r="B199" s="22">
+        <v>2516</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F199" s="23">
+        <v>3</v>
+      </c>
+      <c r="G199" s="1">
+        <v>23</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+      <c r="I199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" ht="16.5" spans="2:9">
+      <c r="B200" s="22">
+        <v>2517</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="F200" s="23">
+        <v>3</v>
+      </c>
+      <c r="G200" s="1">
+        <v>23</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
+      <c r="I200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" ht="16.5" spans="2:9">
+      <c r="B201" s="22">
+        <v>2518</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F201" s="23">
+        <v>3</v>
+      </c>
+      <c r="G201" s="1">
+        <v>23</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" ht="16.5" spans="2:9">
+      <c r="B202" s="22">
+        <v>2519</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F202" s="23">
+        <v>3</v>
+      </c>
+      <c r="G202" s="1">
+        <v>23</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
+      <c r="I202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" ht="16.5" spans="2:9">
+      <c r="B203" s="22">
+        <v>2520</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F203" s="23">
+        <v>3</v>
+      </c>
+      <c r="G203" s="1">
+        <v>23</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
+      <c r="I203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" ht="16.5" spans="2:9">
+      <c r="B204" s="22">
+        <v>2521</v>
+      </c>
+      <c r="C204" s="1">
+        <v>1</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="F204" s="23">
+        <v>3</v>
+      </c>
+      <c r="G204" s="1">
+        <v>23</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0</v>
+      </c>
+      <c r="I204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" ht="16.5" spans="2:9">
+      <c r="B205" s="22">
+        <v>2522</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F205" s="23">
+        <v>3</v>
+      </c>
+      <c r="G205" s="1">
+        <v>23</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0</v>
+      </c>
+      <c r="I205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" ht="16.5" spans="2:9">
+      <c r="B206" s="22">
+        <v>2523</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F206" s="23">
+        <v>3</v>
+      </c>
+      <c r="G206" s="1">
+        <v>23</v>
+      </c>
+      <c r="H206" s="1">
+        <v>0</v>
+      </c>
+      <c r="I206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" ht="16.5" spans="2:9">
+      <c r="B207" s="22">
+        <v>2524</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="F207" s="23">
+        <v>3</v>
+      </c>
+      <c r="G207" s="1">
+        <v>23</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0</v>
+      </c>
+      <c r="I207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" ht="16.5" spans="2:9">
+      <c r="B208" s="22">
+        <v>2525</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F208" s="23">
+        <v>3</v>
+      </c>
+      <c r="G208" s="1">
+        <v>23</v>
+      </c>
+      <c r="H208" s="1">
+        <v>0</v>
+      </c>
+      <c r="I208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" ht="16.5" spans="2:9">
+      <c r="B209" s="22">
+        <v>2526</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="F209" s="23">
+        <v>3</v>
+      </c>
+      <c r="G209" s="1">
+        <v>23</v>
+      </c>
+      <c r="H209" s="1">
+        <v>0</v>
+      </c>
+      <c r="I209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" ht="16.5" spans="2:9">
+      <c r="B210" s="22">
+        <v>2527</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F210" s="23">
+        <v>3</v>
+      </c>
+      <c r="G210" s="1">
+        <v>23</v>
+      </c>
+      <c r="H210" s="1">
+        <v>0</v>
+      </c>
+      <c r="I210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" ht="16.5" spans="2:9">
+      <c r="B211" s="22">
+        <v>2528</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F211" s="23">
+        <v>3</v>
+      </c>
+      <c r="G211" s="1">
+        <v>23</v>
+      </c>
+      <c r="H211" s="1">
+        <v>0</v>
+      </c>
+      <c r="I211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" ht="16.5" spans="2:9">
+      <c r="B212" s="22">
+        <v>2529</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F212" s="23">
+        <v>3</v>
+      </c>
+      <c r="G212" s="1">
+        <v>23</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0</v>
+      </c>
+      <c r="I212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" ht="16.5" spans="2:9">
+      <c r="B213" s="22">
+        <v>2530</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F213" s="23">
+        <v>3</v>
+      </c>
+      <c r="G213" s="1">
+        <v>23</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0</v>
+      </c>
+      <c r="I213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" ht="16.5" spans="2:9">
+      <c r="B214" s="22">
+        <v>2531</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F214" s="23">
+        <v>3</v>
+      </c>
+      <c r="G214" s="1">
+        <v>23</v>
+      </c>
+      <c r="H214" s="1">
+        <v>0</v>
+      </c>
+      <c r="I214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" ht="16.5" spans="2:9">
+      <c r="B215" s="22">
+        <v>2532</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F215" s="23">
+        <v>3</v>
+      </c>
+      <c r="G215" s="1">
+        <v>23</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0</v>
+      </c>
+      <c r="I215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" ht="16.5" spans="2:9">
+      <c r="B216" s="22">
+        <v>2533</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="F216" s="23">
+        <v>3</v>
+      </c>
+      <c r="G216" s="1">
+        <v>23</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0</v>
+      </c>
+      <c r="I216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" ht="16.5" spans="2:9">
+      <c r="B217" s="22">
+        <v>2534</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F217" s="23">
+        <v>3</v>
+      </c>
+      <c r="G217" s="1">
+        <v>23</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0</v>
+      </c>
+      <c r="I217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" ht="16.5" spans="2:9">
+      <c r="B218" s="22">
+        <v>2535</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F218" s="23">
+        <v>3</v>
+      </c>
+      <c r="G218" s="1">
+        <v>23</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0</v>
+      </c>
+      <c r="I218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" ht="16.5" spans="2:9">
+      <c r="B219" s="22">
+        <v>2536</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F219" s="23">
+        <v>3</v>
+      </c>
+      <c r="G219" s="1">
+        <v>23</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0</v>
+      </c>
+      <c r="I219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" ht="16.5" spans="2:9">
+      <c r="B220" s="22">
+        <v>2537</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F220" s="23">
+        <v>3</v>
+      </c>
+      <c r="G220" s="1">
+        <v>23</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0</v>
+      </c>
+      <c r="I220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" ht="16.5" spans="2:9">
+      <c r="B221" s="22">
+        <v>2538</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F221" s="23">
+        <v>3</v>
+      </c>
+      <c r="G221" s="1">
+        <v>23</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0</v>
+      </c>
+      <c r="I221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" ht="16.5" spans="2:9">
+      <c r="B222" s="22">
+        <v>2539</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D222" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F222" s="23">
+        <v>3</v>
+      </c>
+      <c r="G222" s="1">
+        <v>23</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" ht="16.5" spans="2:9">
+      <c r="B223" s="22">
+        <v>2540</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+      <c r="D223" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F223" s="23">
+        <v>3</v>
+      </c>
+      <c r="G223" s="1">
+        <v>23</v>
+      </c>
+      <c r="H223" s="1">
+        <v>0</v>
+      </c>
+      <c r="I223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" ht="16.5" spans="2:9">
+      <c r="B224" s="22">
+        <v>2541</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1</v>
+      </c>
+      <c r="D224" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="F224" s="23">
+        <v>3</v>
+      </c>
+      <c r="G224" s="1">
+        <v>23</v>
+      </c>
+      <c r="H224" s="1">
+        <v>0</v>
+      </c>
+      <c r="I224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" ht="16.5" spans="2:9">
+      <c r="B225" s="22">
+        <v>2542</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="F225" s="23">
+        <v>3</v>
+      </c>
+      <c r="G225" s="1">
+        <v>23</v>
+      </c>
+      <c r="H225" s="1">
+        <v>0</v>
+      </c>
+      <c r="I225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" ht="16.5" spans="2:9">
+      <c r="B226" s="22">
+        <v>2543</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1</v>
+      </c>
+      <c r="D226" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="F226" s="23">
+        <v>3</v>
+      </c>
+      <c r="G226" s="1">
+        <v>23</v>
+      </c>
+      <c r="H226" s="1">
+        <v>0</v>
+      </c>
+      <c r="I226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" ht="16.5" spans="2:9">
+      <c r="B227" s="22">
+        <v>2544</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F227" s="23">
+        <v>3</v>
+      </c>
+      <c r="G227" s="1">
+        <v>23</v>
+      </c>
+      <c r="H227" s="1">
+        <v>0</v>
+      </c>
+      <c r="I227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" ht="16.5" spans="2:9">
+      <c r="B228" s="22">
+        <v>2545</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1</v>
+      </c>
+      <c r="D228" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F228" s="23">
+        <v>3</v>
+      </c>
+      <c r="G228" s="1">
+        <v>23</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" ht="16.5" spans="2:9">
+      <c r="B229" s="22">
+        <v>2546</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1</v>
+      </c>
+      <c r="D229" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F229" s="23">
+        <v>3</v>
+      </c>
+      <c r="G229" s="1">
+        <v>23</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" ht="16.5" spans="2:9">
+      <c r="B230" s="22">
+        <v>2547</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1</v>
+      </c>
+      <c r="D230" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F230" s="23">
+        <v>3</v>
+      </c>
+      <c r="G230" s="1">
+        <v>23</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" ht="16.5" spans="2:9">
+      <c r="B231" s="22">
+        <v>2548</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1</v>
+      </c>
+      <c r="D231" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F231" s="23">
+        <v>3</v>
+      </c>
+      <c r="G231" s="1">
+        <v>23</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" ht="16.5" spans="2:9">
+      <c r="B232" s="22">
+        <v>2549</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
+      <c r="D232" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F232" s="23">
+        <v>3</v>
+      </c>
+      <c r="G232" s="1">
+        <v>23</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0</v>
+      </c>
+      <c r="I232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" ht="16.5" spans="2:9">
+      <c r="B233" s="22">
+        <v>2550</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1</v>
+      </c>
+      <c r="D233" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="F233" s="23">
+        <v>3</v>
+      </c>
+      <c r="G233" s="1">
+        <v>23</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0</v>
+      </c>
+      <c r="I233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" ht="16.5" spans="2:9">
+      <c r="B234" s="22">
+        <v>2551</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1</v>
+      </c>
+      <c r="D234" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="F234" s="23">
+        <v>3</v>
+      </c>
+      <c r="G234" s="1">
+        <v>23</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0</v>
+      </c>
+      <c r="I234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" ht="16.5" spans="2:9">
+      <c r="B235" s="22">
+        <v>2552</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1</v>
+      </c>
+      <c r="D235" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="F235" s="23">
+        <v>3</v>
+      </c>
+      <c r="G235" s="1">
+        <v>23</v>
+      </c>
+      <c r="H235" s="1">
+        <v>0</v>
+      </c>
+      <c r="I235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" ht="16.5" spans="2:9">
+      <c r="B236" s="22">
+        <v>2553</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1</v>
+      </c>
+      <c r="D236" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F236" s="23">
+        <v>3</v>
+      </c>
+      <c r="G236" s="1">
+        <v>23</v>
+      </c>
+      <c r="H236" s="1">
+        <v>0</v>
+      </c>
+      <c r="I236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" ht="16.5" spans="2:9">
+      <c r="B237" s="22">
+        <v>2554</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1</v>
+      </c>
+      <c r="D237" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F237" s="23">
+        <v>3</v>
+      </c>
+      <c r="G237" s="1">
+        <v>23</v>
+      </c>
+      <c r="H237" s="1">
+        <v>0</v>
+      </c>
+      <c r="I237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" ht="16.5" spans="2:9">
+      <c r="B238" s="22">
+        <v>2555</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D238" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F238" s="23">
+        <v>3</v>
+      </c>
+      <c r="G238" s="1">
+        <v>23</v>
+      </c>
+      <c r="H238" s="1">
+        <v>0</v>
+      </c>
+      <c r="I238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" ht="16.5" spans="2:9">
+      <c r="B239" s="22">
+        <v>2556</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1</v>
+      </c>
+      <c r="D239" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="F239" s="23">
+        <v>3</v>
+      </c>
+      <c r="G239" s="1">
+        <v>23</v>
+      </c>
+      <c r="H239" s="1">
+        <v>0</v>
+      </c>
+      <c r="I239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" ht="16.5" spans="2:9">
+      <c r="B240" s="22">
+        <v>2557</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D240" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F240" s="23">
+        <v>3</v>
+      </c>
+      <c r="G240" s="1">
+        <v>23</v>
+      </c>
+      <c r="H240" s="1">
+        <v>0</v>
+      </c>
+      <c r="I240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" ht="16.5" spans="2:9">
+      <c r="B241" s="22">
+        <v>2558</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1</v>
+      </c>
+      <c r="D241" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F241" s="23">
+        <v>3</v>
+      </c>
+      <c r="G241" s="1">
+        <v>23</v>
+      </c>
+      <c r="H241" s="1">
+        <v>0</v>
+      </c>
+      <c r="I241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" ht="16.5" spans="2:9">
+      <c r="B242" s="22">
+        <v>2559</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D242" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F242" s="23">
+        <v>3</v>
+      </c>
+      <c r="G242" s="1">
+        <v>23</v>
+      </c>
+      <c r="H242" s="1">
+        <v>0</v>
+      </c>
+      <c r="I242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" ht="16.5" spans="2:9">
+      <c r="B243" s="22">
+        <v>2901</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1</v>
+      </c>
+      <c r="D243" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="F243" s="23">
         <v>4</v>
       </c>
-      <c r="G104" s="1">
-        <v>23</v>
-      </c>
-      <c r="H104" s="1">
-        <v>0</v>
-      </c>
-      <c r="I104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" ht="16.5" spans="2:9">
-      <c r="B105" s="11">
-        <v>2087</v>
-      </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="F105" s="12">
+      <c r="G243" s="1">
+        <v>23</v>
+      </c>
+      <c r="H243" s="1">
+        <v>0</v>
+      </c>
+      <c r="I243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" ht="16.5" spans="2:9">
+      <c r="B244" s="22">
+        <v>2902</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D244" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F244" s="23">
+        <v>4</v>
+      </c>
+      <c r="G244" s="1">
+        <v>23</v>
+      </c>
+      <c r="H244" s="1">
+        <v>0</v>
+      </c>
+      <c r="I244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" ht="16.5" spans="2:9">
+      <c r="B245" s="22">
+        <v>2903</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D245" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="F245" s="23">
+        <v>4</v>
+      </c>
+      <c r="G245" s="1">
+        <v>23</v>
+      </c>
+      <c r="H245" s="1">
+        <v>0</v>
+      </c>
+      <c r="I245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" ht="16.5" spans="2:9">
+      <c r="B246" s="22">
+        <v>2904</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1</v>
+      </c>
+      <c r="D246" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F246" s="23">
+        <v>4</v>
+      </c>
+      <c r="G246" s="1">
+        <v>23</v>
+      </c>
+      <c r="H246" s="1">
+        <v>0</v>
+      </c>
+      <c r="I246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" ht="16.5" spans="2:9">
+      <c r="B247" s="22">
+        <v>2905</v>
+      </c>
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+      <c r="D247" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F247" s="23">
+        <v>4</v>
+      </c>
+      <c r="G247" s="1">
+        <v>23</v>
+      </c>
+      <c r="H247" s="1">
+        <v>0</v>
+      </c>
+      <c r="I247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" ht="16.5" spans="2:9">
+      <c r="B248" s="22">
+        <v>2906</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1</v>
+      </c>
+      <c r="D248" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F248" s="23">
+        <v>4</v>
+      </c>
+      <c r="G248" s="1">
+        <v>23</v>
+      </c>
+      <c r="H248" s="1">
+        <v>0</v>
+      </c>
+      <c r="I248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" ht="16.5" spans="2:9">
+      <c r="B249" s="22">
+        <v>2907</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D249" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F249" s="23">
+        <v>4</v>
+      </c>
+      <c r="G249" s="1">
+        <v>23</v>
+      </c>
+      <c r="H249" s="1">
+        <v>0</v>
+      </c>
+      <c r="I249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" ht="16.5" spans="2:9">
+      <c r="B250" s="22">
+        <v>2908</v>
+      </c>
+      <c r="C250" s="1">
+        <v>1</v>
+      </c>
+      <c r="D250" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F250" s="23">
+        <v>4</v>
+      </c>
+      <c r="G250" s="1">
+        <v>23</v>
+      </c>
+      <c r="H250" s="1">
+        <v>0</v>
+      </c>
+      <c r="I250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" ht="16.5" spans="2:9">
+      <c r="B251" s="22">
+        <v>2909</v>
+      </c>
+      <c r="C251" s="1">
+        <v>1</v>
+      </c>
+      <c r="D251" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="F251" s="23">
+        <v>4</v>
+      </c>
+      <c r="G251" s="1">
+        <v>23</v>
+      </c>
+      <c r="H251" s="1">
+        <v>0</v>
+      </c>
+      <c r="I251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" ht="16.5" spans="2:9">
+      <c r="B252" s="22">
+        <v>2910</v>
+      </c>
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D252" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F252" s="23">
+        <v>4</v>
+      </c>
+      <c r="G252" s="1">
+        <v>23</v>
+      </c>
+      <c r="H252" s="1">
+        <v>0</v>
+      </c>
+      <c r="I252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" ht="16.5" spans="2:9">
+      <c r="B253" s="22">
+        <v>2911</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1</v>
+      </c>
+      <c r="D253" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F253" s="23">
+        <v>4</v>
+      </c>
+      <c r="G253" s="1">
+        <v>23</v>
+      </c>
+      <c r="H253" s="1">
+        <v>0</v>
+      </c>
+      <c r="I253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" ht="16.5" spans="2:9">
+      <c r="B254" s="22">
+        <v>2912</v>
+      </c>
+      <c r="C254" s="1">
+        <v>1</v>
+      </c>
+      <c r="D254" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F254" s="23">
+        <v>4</v>
+      </c>
+      <c r="G254" s="1">
+        <v>23</v>
+      </c>
+      <c r="H254" s="1">
+        <v>0</v>
+      </c>
+      <c r="I254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" ht="16.5" spans="2:9">
+      <c r="B255" s="22">
+        <v>2913</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1</v>
+      </c>
+      <c r="D255" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="F255" s="23">
+        <v>4</v>
+      </c>
+      <c r="G255" s="1">
+        <v>23</v>
+      </c>
+      <c r="H255" s="1">
+        <v>0</v>
+      </c>
+      <c r="I255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" ht="16.5" spans="2:9">
+      <c r="B256" s="22">
+        <v>2914</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+      <c r="D256" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F256" s="23">
+        <v>4</v>
+      </c>
+      <c r="G256" s="1">
+        <v>23</v>
+      </c>
+      <c r="H256" s="1">
+        <v>0</v>
+      </c>
+      <c r="I256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" ht="16.5" spans="2:9">
+      <c r="B257" s="22">
+        <v>2915</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D257" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F257" s="23">
+        <v>4</v>
+      </c>
+      <c r="G257" s="1">
+        <v>23</v>
+      </c>
+      <c r="H257" s="1">
+        <v>0</v>
+      </c>
+      <c r="I257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" ht="16.5" spans="2:9">
+      <c r="B258" s="22">
+        <v>2916</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D258" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="F258" s="23">
+        <v>4</v>
+      </c>
+      <c r="G258" s="1">
+        <v>23</v>
+      </c>
+      <c r="H258" s="1">
+        <v>0</v>
+      </c>
+      <c r="I258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" ht="16.5" spans="2:9">
+      <c r="B259" s="22">
+        <v>2917</v>
+      </c>
+      <c r="C259" s="1">
+        <v>1</v>
+      </c>
+      <c r="D259" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="F259" s="23">
+        <v>4</v>
+      </c>
+      <c r="G259" s="1">
+        <v>23</v>
+      </c>
+      <c r="H259" s="1">
+        <v>0</v>
+      </c>
+      <c r="I259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" ht="16.5" spans="2:9">
+      <c r="B260" s="22">
+        <v>2918</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+      <c r="D260" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F260" s="23">
+        <v>4</v>
+      </c>
+      <c r="G260" s="1">
+        <v>23</v>
+      </c>
+      <c r="H260" s="1">
+        <v>0</v>
+      </c>
+      <c r="I260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" ht="16.5" spans="2:9">
+      <c r="B261" s="22">
+        <v>2919</v>
+      </c>
+      <c r="C261" s="1">
+        <v>1</v>
+      </c>
+      <c r="D261" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F261" s="23">
+        <v>4</v>
+      </c>
+      <c r="G261" s="1">
+        <v>23</v>
+      </c>
+      <c r="H261" s="1">
+        <v>0</v>
+      </c>
+      <c r="I261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" ht="16.5" spans="2:9">
+      <c r="B262" s="22">
+        <v>2920</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="F262" s="23">
+        <v>4</v>
+      </c>
+      <c r="G262" s="1">
+        <v>23</v>
+      </c>
+      <c r="H262" s="1">
+        <v>0</v>
+      </c>
+      <c r="I262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" ht="16.5" spans="2:9">
+      <c r="B263" s="22">
+        <v>2921</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+      <c r="D263" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F263" s="23">
+        <v>4</v>
+      </c>
+      <c r="G263" s="1">
+        <v>23</v>
+      </c>
+      <c r="H263" s="1">
+        <v>0</v>
+      </c>
+      <c r="I263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" ht="16.5" spans="2:9">
+      <c r="B264" s="22">
+        <v>3201</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1</v>
+      </c>
+      <c r="D264" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F264" s="23">
         <v>5</v>
       </c>
-      <c r="G105" s="1">
-        <v>23</v>
-      </c>
-      <c r="H105" s="1">
-        <v>0</v>
-      </c>
-      <c r="I105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" ht="16.5" spans="2:9">
-      <c r="B106" s="11">
-        <v>2088</v>
-      </c>
-      <c r="C106" s="1">
-        <v>1</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F106" s="12">
-        <v>4</v>
-      </c>
-      <c r="G106" s="1">
-        <v>23</v>
-      </c>
-      <c r="H106" s="1">
-        <v>0</v>
-      </c>
-      <c r="I106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" ht="16.5" spans="2:9">
-      <c r="B107" s="11">
-        <v>2089</v>
-      </c>
-      <c r="C107" s="1">
-        <v>1</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F107" s="12">
-        <v>3</v>
-      </c>
-      <c r="G107" s="1">
-        <v>23</v>
-      </c>
-      <c r="H107" s="1">
-        <v>0</v>
-      </c>
-      <c r="I107" s="1">
+      <c r="G264" s="1">
+        <v>23</v>
+      </c>
+      <c r="H264" s="1">
+        <v>0</v>
+      </c>
+      <c r="I264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" ht="16.5" spans="2:9">
+      <c r="B265" s="22">
+        <v>3202</v>
+      </c>
+      <c r="C265" s="1">
+        <v>1</v>
+      </c>
+      <c r="D265" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F265" s="23">
+        <v>5</v>
+      </c>
+      <c r="G265" s="1">
+        <v>23</v>
+      </c>
+      <c r="H265" s="1">
+        <v>0</v>
+      </c>
+      <c r="I265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" ht="16.5" spans="2:9">
+      <c r="B266" s="22">
+        <v>3203</v>
+      </c>
+      <c r="C266" s="1">
+        <v>1</v>
+      </c>
+      <c r="D266" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F266" s="23">
+        <v>5</v>
+      </c>
+      <c r="G266" s="1">
+        <v>23</v>
+      </c>
+      <c r="H266" s="1">
+        <v>0</v>
+      </c>
+      <c r="I266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" ht="16.5" spans="2:9">
+      <c r="B267" s="22">
+        <v>3204</v>
+      </c>
+      <c r="C267" s="1">
+        <v>1</v>
+      </c>
+      <c r="D267" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F267" s="23">
+        <v>5</v>
+      </c>
+      <c r="G267" s="1">
+        <v>23</v>
+      </c>
+      <c r="H267" s="1">
+        <v>0</v>
+      </c>
+      <c r="I267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" ht="16.5" spans="2:9">
+      <c r="B268" s="22">
+        <v>3205</v>
+      </c>
+      <c r="C268" s="1">
+        <v>1</v>
+      </c>
+      <c r="D268" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="F268" s="23">
+        <v>5</v>
+      </c>
+      <c r="G268" s="1">
+        <v>23</v>
+      </c>
+      <c r="H268" s="1">
+        <v>0</v>
+      </c>
+      <c r="I268" s="1">
         <v>0</v>
       </c>
     </row>

--- a/doc_new/4.服务器配置文档/物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/物品列表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="321">
   <si>
     <t>字段名称</t>
   </si>
@@ -71,8 +71,16 @@
   </si>
   <si>
     <t>1000-1199货币
-1200-9999消耗类型
-10000-39999固定类型
+1200-19999消耗类型
+2000-3500 图鉴卡牌
+3501-3700 图鉴箱子
+10000-10100 1级魂石
+10101-10200 2级魂石
+10201-10300 3级魂石
+10301-10400 4级魂石
+20000-39999固定类型
+20000-20100 特权
+20101-20200 称号
 40000-69999特殊类型</t>
   </si>
   <si>
@@ -445,6 +453,18 @@
     <t>转移魂石等级的卷轴</t>
   </si>
   <si>
+    <t>1级魂石自选箱</t>
+  </si>
+  <si>
+    <t>2级魂石自选箱</t>
+  </si>
+  <si>
+    <t>3级魂石自选箱</t>
+  </si>
+  <si>
+    <t>4级魂石自选箱</t>
+  </si>
+  <si>
     <t>精良图鉴箱</t>
   </si>
   <si>
@@ -545,6 +565,60 @@
   </si>
   <si>
     <t>使用后获得 技能精通经验</t>
+  </si>
+  <si>
+    <t>月卡</t>
+  </si>
+  <si>
+    <t>终身特权</t>
+  </si>
+  <si>
+    <t>元素祈福</t>
+  </si>
+  <si>
+    <t>天辉信物</t>
+  </si>
+  <si>
+    <t>夜魇信物</t>
+  </si>
+  <si>
+    <t>灵魂战刃</t>
+  </si>
+  <si>
+    <t>老者的指引</t>
+  </si>
+  <si>
+    <t>图鉴大师</t>
+  </si>
+  <si>
+    <t>不留遗憾之矢</t>
+  </si>
+  <si>
+    <t>命运的骰子</t>
+  </si>
+  <si>
+    <t>元素之地的救赎</t>
+  </si>
+  <si>
+    <t>终结者</t>
+  </si>
+  <si>
+    <t>领袖</t>
+  </si>
+  <si>
+    <t>圣坛使者</t>
+  </si>
+  <si>
+    <t>元素大陆征服者</t>
+  </si>
+  <si>
+    <t>图鉴领悟者</t>
+  </si>
+  <si>
+    <t>忠实粉丝</t>
+  </si>
+  <si>
+    <t>魂石掌控者</t>
   </si>
   <si>
     <t>炼狱熊怪</t>
@@ -948,7 +1022,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -976,6 +1050,12 @@
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1619,16 +1699,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1637,119 +1714,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1803,6 +1883,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2140,10 +2223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K268"/>
+  <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2197,7 +2280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="117" customHeight="1" spans="1:11">
+    <row r="2" ht="231" customHeight="1" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2615,7 +2698,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:9">
+    <row r="18" spans="2:9">
+      <c r="B18" s="1">
+        <v>10000</v>
+      </c>
       <c r="D18" s="11" t="s">
         <v>51</v>
       </c>
@@ -2635,7 +2721,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="4:9">
+    <row r="19" ht="16.5" spans="2:9">
+      <c r="B19" s="1">
+        <v>10001</v>
+      </c>
       <c r="D19" s="11" t="s">
         <v>53</v>
       </c>
@@ -2655,7 +2744,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="4:9">
+    <row r="20" spans="2:9">
+      <c r="B20" s="1">
+        <v>10002</v>
+      </c>
       <c r="D20" s="11" t="s">
         <v>54</v>
       </c>
@@ -2675,7 +2767,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="4:9">
+    <row r="21" ht="16.5" spans="2:9">
+      <c r="B21" s="1">
+        <v>10003</v>
+      </c>
       <c r="D21" s="11" t="s">
         <v>55</v>
       </c>
@@ -2695,7 +2790,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="4:9">
+    <row r="22" spans="2:9">
+      <c r="B22" s="1">
+        <v>10004</v>
+      </c>
       <c r="D22" s="11" t="s">
         <v>56</v>
       </c>
@@ -2715,7 +2813,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="4:9">
+    <row r="23" ht="16.5" spans="2:9">
+      <c r="B23" s="1">
+        <v>10005</v>
+      </c>
       <c r="D23" s="11" t="s">
         <v>57</v>
       </c>
@@ -2735,7 +2836,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="4:9">
+    <row r="24" spans="2:9">
+      <c r="B24" s="1">
+        <v>10006</v>
+      </c>
       <c r="D24" s="11" t="s">
         <v>58</v>
       </c>
@@ -2755,7 +2859,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="4:9">
+    <row r="25" ht="16.5" spans="2:9">
+      <c r="B25" s="1">
+        <v>10007</v>
+      </c>
       <c r="D25" s="11" t="s">
         <v>59</v>
       </c>
@@ -2775,7 +2882,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="4:9">
+    <row r="26" spans="2:9">
+      <c r="B26" s="1">
+        <v>10008</v>
+      </c>
       <c r="D26" s="13" t="s">
         <v>60</v>
       </c>
@@ -2795,7 +2905,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="4:9">
+    <row r="27" ht="16.5" spans="2:9">
+      <c r="B27" s="1">
+        <v>10009</v>
+      </c>
       <c r="D27" s="11" t="s">
         <v>61</v>
       </c>
@@ -2815,7 +2928,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="4:9">
+    <row r="28" spans="2:9">
+      <c r="B28" s="1">
+        <v>10010</v>
+      </c>
       <c r="D28" s="11" t="s">
         <v>62</v>
       </c>
@@ -2835,7 +2951,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="4:9">
+    <row r="29" ht="16.5" spans="2:9">
+      <c r="B29" s="1">
+        <v>10011</v>
+      </c>
       <c r="D29" s="11" t="s">
         <v>63</v>
       </c>
@@ -2855,7 +2974,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="4:9">
+    <row r="30" spans="2:9">
+      <c r="B30" s="1">
+        <v>10012</v>
+      </c>
       <c r="D30" s="11" t="s">
         <v>64</v>
       </c>
@@ -2875,7 +2997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="4:9">
+    <row r="31" ht="16.5" spans="2:9">
+      <c r="B31" s="1">
+        <v>10013</v>
+      </c>
       <c r="D31" s="11" t="s">
         <v>65</v>
       </c>
@@ -2895,7 +3020,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="4:9">
+    <row r="32" spans="2:9">
+      <c r="B32" s="1">
+        <v>10014</v>
+      </c>
       <c r="D32" s="11" t="s">
         <v>66</v>
       </c>
@@ -2915,7 +3043,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="4:9">
+    <row r="33" ht="16.5" spans="2:9">
+      <c r="B33" s="1">
+        <v>10015</v>
+      </c>
       <c r="D33" s="11" t="s">
         <v>67</v>
       </c>
@@ -2935,7 +3066,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="4:9">
+    <row r="34" spans="2:9">
+      <c r="B34" s="1">
+        <v>10016</v>
+      </c>
       <c r="D34" s="11" t="s">
         <v>68</v>
       </c>
@@ -2955,7 +3089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="4:9">
+    <row r="35" ht="16.5" spans="2:9">
+      <c r="B35" s="1">
+        <v>10017</v>
+      </c>
       <c r="D35" s="11" t="s">
         <v>69</v>
       </c>
@@ -2975,7 +3112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="4:9">
+    <row r="36" ht="16.5" spans="2:9">
+      <c r="B36" s="1">
+        <v>10101</v>
+      </c>
       <c r="D36" s="11" t="s">
         <v>70</v>
       </c>
@@ -2995,7 +3135,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="4:9">
+    <row r="37" ht="16.5" spans="2:9">
+      <c r="B37" s="1">
+        <v>10102</v>
+      </c>
       <c r="D37" s="11" t="s">
         <v>71</v>
       </c>
@@ -3015,7 +3158,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="4:9">
+    <row r="38" ht="16.5" spans="2:9">
+      <c r="B38" s="1">
+        <v>10103</v>
+      </c>
       <c r="D38" s="11" t="s">
         <v>72</v>
       </c>
@@ -3035,7 +3181,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="4:9">
+    <row r="39" ht="16.5" spans="2:9">
+      <c r="B39" s="1">
+        <v>10104</v>
+      </c>
       <c r="D39" s="11" t="s">
         <v>73</v>
       </c>
@@ -3055,7 +3204,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="4:9">
+    <row r="40" ht="16.5" spans="2:9">
+      <c r="B40" s="1">
+        <v>10105</v>
+      </c>
       <c r="D40" s="11" t="s">
         <v>74</v>
       </c>
@@ -3075,7 +3227,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="4:9">
+    <row r="41" ht="16.5" spans="2:9">
+      <c r="B41" s="1">
+        <v>10106</v>
+      </c>
       <c r="D41" s="11" t="s">
         <v>75</v>
       </c>
@@ -3095,7 +3250,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="4:9">
+    <row r="42" ht="16.5" spans="2:9">
+      <c r="B42" s="1">
+        <v>10107</v>
+      </c>
       <c r="D42" s="11" t="s">
         <v>76</v>
       </c>
@@ -3115,7 +3273,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="4:9">
+    <row r="43" ht="16.5" spans="2:9">
+      <c r="B43" s="1">
+        <v>10108</v>
+      </c>
       <c r="D43" s="11" t="s">
         <v>77</v>
       </c>
@@ -3135,7 +3296,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="4:9">
+    <row r="44" ht="16.5" spans="2:9">
+      <c r="B44" s="1">
+        <v>10109</v>
+      </c>
       <c r="D44" s="14" t="s">
         <v>78</v>
       </c>
@@ -3155,7 +3319,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="4:9">
+    <row r="45" ht="16.5" spans="2:9">
+      <c r="B45" s="1">
+        <v>10110</v>
+      </c>
       <c r="D45" s="11" t="s">
         <v>79</v>
       </c>
@@ -3175,7 +3342,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="4:9">
+    <row r="46" ht="16.5" spans="2:9">
+      <c r="B46" s="1">
+        <v>10111</v>
+      </c>
       <c r="D46" s="11" t="s">
         <v>80</v>
       </c>
@@ -3195,7 +3365,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="4:9">
+    <row r="47" ht="16.5" spans="2:9">
+      <c r="B47" s="1">
+        <v>10112</v>
+      </c>
       <c r="D47" s="11" t="s">
         <v>81</v>
       </c>
@@ -3215,7 +3388,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="4:9">
+    <row r="48" ht="16.5" spans="2:9">
+      <c r="B48" s="1">
+        <v>10113</v>
+      </c>
       <c r="D48" s="11" t="s">
         <v>82</v>
       </c>
@@ -3235,7 +3411,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="4:9">
+    <row r="49" ht="16.5" spans="2:9">
+      <c r="B49" s="1">
+        <v>10114</v>
+      </c>
       <c r="D49" s="11" t="s">
         <v>83</v>
       </c>
@@ -3255,7 +3434,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="4:9">
+    <row r="50" ht="16.5" spans="2:9">
+      <c r="B50" s="1">
+        <v>10115</v>
+      </c>
       <c r="D50" s="11" t="s">
         <v>84</v>
       </c>
@@ -3275,7 +3457,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="4:9">
+    <row r="51" ht="16.5" spans="2:9">
+      <c r="B51" s="1">
+        <v>10116</v>
+      </c>
       <c r="D51" s="11" t="s">
         <v>85</v>
       </c>
@@ -3295,7 +3480,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="4:9">
+    <row r="52" ht="16.5" spans="2:9">
+      <c r="B52" s="1">
+        <v>10117</v>
+      </c>
       <c r="D52" s="11" t="s">
         <v>86</v>
       </c>
@@ -3315,7 +3503,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="4:9">
+    <row r="53" ht="16.5" spans="2:9">
+      <c r="B53" s="1">
+        <v>10118</v>
+      </c>
       <c r="D53" s="11" t="s">
         <v>87</v>
       </c>
@@ -3335,7 +3526,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="4:9">
+    <row r="54" ht="16.5" spans="2:9">
+      <c r="B54" s="1">
+        <v>10201</v>
+      </c>
       <c r="D54" s="11" t="s">
         <v>88</v>
       </c>
@@ -3355,7 +3549,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="4:9">
+    <row r="55" ht="16.5" spans="2:9">
+      <c r="B55" s="1">
+        <v>10202</v>
+      </c>
       <c r="D55" s="11" t="s">
         <v>89</v>
       </c>
@@ -3375,7 +3572,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="4:9">
+    <row r="56" ht="16.5" spans="2:9">
+      <c r="B56" s="1">
+        <v>10203</v>
+      </c>
       <c r="D56" s="11" t="s">
         <v>90</v>
       </c>
@@ -3395,7 +3595,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="4:9">
+    <row r="57" ht="16.5" spans="2:9">
+      <c r="B57" s="1">
+        <v>10204</v>
+      </c>
       <c r="D57" s="11" t="s">
         <v>91</v>
       </c>
@@ -3415,7 +3618,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="4:9">
+    <row r="58" ht="16.5" spans="2:9">
+      <c r="B58" s="1">
+        <v>10205</v>
+      </c>
       <c r="D58" s="11" t="s">
         <v>92</v>
       </c>
@@ -3435,7 +3641,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="4:9">
+    <row r="59" ht="16.5" spans="2:9">
+      <c r="B59" s="1">
+        <v>10206</v>
+      </c>
       <c r="D59" s="11" t="s">
         <v>93</v>
       </c>
@@ -3455,7 +3664,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="4:9">
+    <row r="60" ht="16.5" spans="2:9">
+      <c r="B60" s="1">
+        <v>10207</v>
+      </c>
       <c r="D60" s="11" t="s">
         <v>94</v>
       </c>
@@ -3475,7 +3687,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="4:9">
+    <row r="61" ht="16.5" spans="2:9">
+      <c r="B61" s="1">
+        <v>10208</v>
+      </c>
       <c r="D61" s="11" t="s">
         <v>95</v>
       </c>
@@ -3495,7 +3710,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="4:9">
+    <row r="62" ht="16.5" spans="2:9">
+      <c r="B62" s="1">
+        <v>10209</v>
+      </c>
       <c r="D62" s="14" t="s">
         <v>96</v>
       </c>
@@ -3515,7 +3733,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="4:9">
+    <row r="63" ht="16.5" spans="2:9">
+      <c r="B63" s="1">
+        <v>10210</v>
+      </c>
       <c r="D63" s="11" t="s">
         <v>97</v>
       </c>
@@ -3535,7 +3756,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="4:9">
+    <row r="64" ht="16.5" spans="2:9">
+      <c r="B64" s="1">
+        <v>10211</v>
+      </c>
       <c r="D64" s="11" t="s">
         <v>98</v>
       </c>
@@ -3555,7 +3779,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="4:9">
+    <row r="65" ht="16.5" spans="2:9">
+      <c r="B65" s="1">
+        <v>10212</v>
+      </c>
       <c r="D65" s="11" t="s">
         <v>99</v>
       </c>
@@ -3575,7 +3802,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="4:9">
+    <row r="66" ht="16.5" spans="2:9">
+      <c r="B66" s="1">
+        <v>10213</v>
+      </c>
       <c r="D66" s="11" t="s">
         <v>100</v>
       </c>
@@ -3595,7 +3825,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="4:9">
+    <row r="67" ht="16.5" spans="2:9">
+      <c r="B67" s="1">
+        <v>10214</v>
+      </c>
       <c r="D67" s="11" t="s">
         <v>101</v>
       </c>
@@ -3615,7 +3848,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="4:9">
+    <row r="68" ht="16.5" spans="2:9">
+      <c r="B68" s="1">
+        <v>10215</v>
+      </c>
       <c r="D68" s="11" t="s">
         <v>102</v>
       </c>
@@ -3635,7 +3871,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="4:9">
+    <row r="69" ht="16.5" spans="2:9">
+      <c r="B69" s="1">
+        <v>10216</v>
+      </c>
       <c r="D69" s="11" t="s">
         <v>103</v>
       </c>
@@ -3655,7 +3894,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="4:9">
+    <row r="70" ht="16.5" spans="2:9">
+      <c r="B70" s="1">
+        <v>10217</v>
+      </c>
       <c r="D70" s="11" t="s">
         <v>104</v>
       </c>
@@ -3675,7 +3917,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="4:9">
+    <row r="71" ht="16.5" spans="2:9">
+      <c r="B71" s="1">
+        <v>10218</v>
+      </c>
       <c r="D71" s="11" t="s">
         <v>105</v>
       </c>
@@ -3695,7 +3940,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="4:9">
+    <row r="72" ht="16.5" spans="2:9">
+      <c r="B72" s="1">
+        <v>10301</v>
+      </c>
       <c r="D72" s="11" t="s">
         <v>106</v>
       </c>
@@ -3715,7 +3963,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="4:9">
+    <row r="73" ht="16.5" spans="2:9">
+      <c r="B73" s="1">
+        <v>10302</v>
+      </c>
       <c r="D73" s="11" t="s">
         <v>107</v>
       </c>
@@ -3735,7 +3986,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="4:9">
+    <row r="74" ht="16.5" spans="2:9">
+      <c r="B74" s="1">
+        <v>10303</v>
+      </c>
       <c r="D74" s="11" t="s">
         <v>108</v>
       </c>
@@ -3755,7 +4009,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="4:9">
+    <row r="75" ht="16.5" spans="2:9">
+      <c r="B75" s="1">
+        <v>10304</v>
+      </c>
       <c r="D75" s="11" t="s">
         <v>109</v>
       </c>
@@ -3775,7 +4032,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="4:9">
+    <row r="76" ht="16.5" spans="2:9">
+      <c r="B76" s="1">
+        <v>10305</v>
+      </c>
       <c r="D76" s="11" t="s">
         <v>110</v>
       </c>
@@ -3795,7 +4055,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="4:9">
+    <row r="77" ht="16.5" spans="2:9">
+      <c r="B77" s="1">
+        <v>10306</v>
+      </c>
       <c r="D77" s="11" t="s">
         <v>111</v>
       </c>
@@ -3815,7 +4078,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="4:9">
+    <row r="78" ht="16.5" spans="2:9">
+      <c r="B78" s="1">
+        <v>10307</v>
+      </c>
       <c r="D78" s="11" t="s">
         <v>112</v>
       </c>
@@ -3835,7 +4101,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="4:9">
+    <row r="79" ht="16.5" spans="2:9">
+      <c r="B79" s="1">
+        <v>10308</v>
+      </c>
       <c r="D79" s="11" t="s">
         <v>113</v>
       </c>
@@ -3855,7 +4124,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="4:9">
+    <row r="80" ht="16.5" spans="2:9">
+      <c r="B80" s="1">
+        <v>10309</v>
+      </c>
       <c r="D80" s="14" t="s">
         <v>114</v>
       </c>
@@ -3875,7 +4147,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="4:9">
+    <row r="81" ht="16.5" spans="2:9">
+      <c r="B81" s="1">
+        <v>10310</v>
+      </c>
       <c r="D81" s="11" t="s">
         <v>115</v>
       </c>
@@ -3895,7 +4170,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="4:9">
+    <row r="82" ht="16.5" spans="2:9">
+      <c r="B82" s="1">
+        <v>10311</v>
+      </c>
       <c r="D82" s="11" t="s">
         <v>116</v>
       </c>
@@ -3915,7 +4193,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="4:9">
+    <row r="83" ht="16.5" spans="2:9">
+      <c r="B83" s="1">
+        <v>10312</v>
+      </c>
       <c r="D83" s="11" t="s">
         <v>117</v>
       </c>
@@ -3935,7 +4216,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="4:9">
+    <row r="84" ht="16.5" spans="2:9">
+      <c r="B84" s="1">
+        <v>10313</v>
+      </c>
       <c r="D84" s="11" t="s">
         <v>118</v>
       </c>
@@ -3955,7 +4239,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="4:9">
+    <row r="85" ht="16.5" spans="2:9">
+      <c r="B85" s="1">
+        <v>10314</v>
+      </c>
       <c r="D85" s="11" t="s">
         <v>119</v>
       </c>
@@ -3975,7 +4262,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="4:9">
+    <row r="86" ht="16.5" spans="2:9">
+      <c r="B86" s="1">
+        <v>10315</v>
+      </c>
       <c r="D86" s="11" t="s">
         <v>120</v>
       </c>
@@ -3995,7 +4285,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="4:9">
+    <row r="87" ht="16.5" spans="2:9">
+      <c r="B87" s="1">
+        <v>10316</v>
+      </c>
       <c r="D87" s="11" t="s">
         <v>121</v>
       </c>
@@ -4015,7 +4308,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="4:9">
+    <row r="88" ht="16.5" spans="2:9">
+      <c r="B88" s="1">
+        <v>10317</v>
+      </c>
       <c r="D88" s="11" t="s">
         <v>122</v>
       </c>
@@ -4035,7 +4331,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="4:9">
+    <row r="89" ht="16.5" spans="2:9">
+      <c r="B89" s="1">
+        <v>10318</v>
+      </c>
       <c r="D89" s="11" t="s">
         <v>123</v>
       </c>
@@ -4263,110 +4562,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="3:9">
-      <c r="C98" s="1">
-        <v>1</v>
+    <row r="98" ht="16.5" spans="2:7">
+      <c r="B98" s="1">
+        <v>1287</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F98" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" s="1">
         <v>21</v>
       </c>
-      <c r="H98" s="1">
-        <v>0</v>
-      </c>
-      <c r="I98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" ht="16.5" spans="3:9">
-      <c r="C99" s="1">
-        <v>1</v>
+    </row>
+    <row r="99" ht="16.5" spans="2:11">
+      <c r="B99" s="1">
+        <v>1288</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E99" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F99" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99" s="1">
         <v>21</v>
       </c>
-      <c r="H99" s="1">
-        <v>0</v>
-      </c>
-      <c r="I99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" ht="16.5" spans="3:9">
-      <c r="C100" s="1">
-        <v>1</v>
+      <c r="K99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" ht="16.5" spans="2:7">
+      <c r="B100" s="1">
+        <v>1289</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F100" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G100" s="1">
         <v>21</v>
       </c>
-      <c r="H100" s="1">
-        <v>0</v>
-      </c>
-      <c r="I100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" ht="16.5" spans="3:9">
-      <c r="C101" s="1">
-        <v>1</v>
+    </row>
+    <row r="101" ht="16.5" spans="2:7">
+      <c r="B101" s="1">
+        <v>1290</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F101" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G101" s="1">
         <v>21</v>
       </c>
-      <c r="H101" s="1">
-        <v>0</v>
-      </c>
-      <c r="I101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" ht="16.5" spans="3:9">
+    </row>
+    <row r="102" ht="16.5" spans="2:9">
+      <c r="B102" s="1">
+        <v>3501</v>
+      </c>
       <c r="C102" s="1">
         <v>1</v>
       </c>
       <c r="D102" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F102" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102" s="1">
         <v>21</v>
@@ -4378,7 +4647,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="3:9">
+    <row r="103" ht="16.5" spans="2:9">
+      <c r="B103" s="1">
+        <v>3502</v>
+      </c>
       <c r="C103" s="1">
         <v>1</v>
       </c>
@@ -4386,7 +4658,7 @@
         <v>141</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F103" s="12">
         <v>3</v>
@@ -4401,7 +4673,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="3:9">
+    <row r="104" ht="16.5" spans="2:9">
+      <c r="B104" s="1">
+        <v>3503</v>
+      </c>
       <c r="C104" s="1">
         <v>1</v>
       </c>
@@ -4409,10 +4684,10 @@
         <v>142</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F104" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G104" s="1">
         <v>21</v>
@@ -4424,7 +4699,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="3:9">
+    <row r="105" ht="16.5" spans="2:9">
+      <c r="B105" s="1">
+        <v>3504</v>
+      </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
@@ -4432,7 +4710,7 @@
         <v>143</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F105" s="12">
         <v>3</v>
@@ -4447,7 +4725,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="3:9">
+    <row r="106" ht="16.5" spans="2:9">
+      <c r="B106" s="1">
+        <v>3505</v>
+      </c>
       <c r="C106" s="1">
         <v>1</v>
       </c>
@@ -4455,7 +4736,7 @@
         <v>144</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F106" s="12">
         <v>3</v>
@@ -4470,7 +4751,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="3:9">
+    <row r="107" ht="16.5" spans="2:9">
+      <c r="B107" s="1">
+        <v>3506</v>
+      </c>
       <c r="C107" s="1">
         <v>1</v>
       </c>
@@ -4478,7 +4762,7 @@
         <v>145</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F107" s="12">
         <v>3</v>
@@ -4493,7 +4777,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="3:9">
+    <row r="108" ht="16.5" spans="2:9">
+      <c r="B108" s="1">
+        <v>3507</v>
+      </c>
       <c r="C108" s="1">
         <v>1</v>
       </c>
@@ -4501,7 +4788,7 @@
         <v>146</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F108" s="12">
         <v>3</v>
@@ -4516,7 +4803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="3:9">
+    <row r="109" ht="16.5" spans="2:9">
+      <c r="B109" s="1">
+        <v>3508</v>
+      </c>
       <c r="C109" s="1">
         <v>1</v>
       </c>
@@ -4524,7 +4814,7 @@
         <v>147</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F109" s="12">
         <v>3</v>
@@ -4539,7 +4829,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="3:9">
+    <row r="110" ht="16.5" spans="2:9">
+      <c r="B110" s="1">
+        <v>3509</v>
+      </c>
       <c r="C110" s="1">
         <v>1</v>
       </c>
@@ -4547,10 +4840,10 @@
         <v>148</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F110" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G110" s="1">
         <v>21</v>
@@ -4562,7 +4855,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="3:9">
+    <row r="111" ht="16.5" spans="2:9">
+      <c r="B111" s="1">
+        <v>3510</v>
+      </c>
       <c r="C111" s="1">
         <v>1</v>
       </c>
@@ -4570,10 +4866,10 @@
         <v>149</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F111" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G111" s="1">
         <v>21</v>
@@ -4585,7 +4881,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="3:9">
+    <row r="112" ht="16.5" spans="2:9">
+      <c r="B112" s="1">
+        <v>3511</v>
+      </c>
       <c r="C112" s="1">
         <v>1</v>
       </c>
@@ -4593,10 +4892,10 @@
         <v>150</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F112" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112" s="1">
         <v>21</v>
@@ -4608,7 +4907,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="3:9">
+    <row r="113" ht="16.5" spans="2:9">
+      <c r="B113" s="1">
+        <v>3512</v>
+      </c>
       <c r="C113" s="1">
         <v>1</v>
       </c>
@@ -4616,10 +4918,10 @@
         <v>151</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F113" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G113" s="1">
         <v>21</v>
@@ -4631,7 +4933,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="3:9">
+    <row r="114" ht="16.5" spans="2:9">
+      <c r="B114" s="1">
+        <v>3513</v>
+      </c>
       <c r="C114" s="1">
         <v>1</v>
       </c>
@@ -4639,10 +4944,10 @@
         <v>152</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F114" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G114" s="1">
         <v>21</v>
@@ -4654,7 +4959,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="3:9">
+    <row r="115" ht="16.5" spans="2:9">
+      <c r="B115" s="1">
+        <v>3514</v>
+      </c>
       <c r="C115" s="1">
         <v>1</v>
       </c>
@@ -4662,7 +4970,7 @@
         <v>153</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F115" s="12">
         <v>4</v>
@@ -4677,7 +4985,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="3:9">
+    <row r="116" ht="16.5" spans="2:9">
+      <c r="B116" s="1">
+        <v>3515</v>
+      </c>
       <c r="C116" s="1">
         <v>1</v>
       </c>
@@ -4685,10 +4996,10 @@
         <v>154</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F116" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G116" s="1">
         <v>21</v>
@@ -4700,7 +5011,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="3:9">
+    <row r="117" ht="16.5" spans="2:9">
+      <c r="B117" s="1">
+        <v>3516</v>
+      </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
@@ -4708,10 +5022,10 @@
         <v>155</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F117" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G117" s="1">
         <v>21</v>
@@ -4723,7 +5037,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="3:9">
+    <row r="118" ht="16.5" spans="2:9">
+      <c r="B118" s="1">
+        <v>3517</v>
+      </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
@@ -4731,10 +5048,10 @@
         <v>156</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F118" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G118" s="1">
         <v>21</v>
@@ -4746,7 +5063,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="3:9">
+    <row r="119" ht="16.5" spans="2:9">
+      <c r="B119" s="1">
+        <v>3518</v>
+      </c>
       <c r="C119" s="1">
         <v>1</v>
       </c>
@@ -4754,10 +5074,10 @@
         <v>157</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F119" s="12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G119" s="1">
         <v>21</v>
@@ -4769,7 +5089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="3:9">
+    <row r="120" ht="16.5" spans="2:9">
+      <c r="B120" s="1">
+        <v>3519</v>
+      </c>
       <c r="C120" s="1">
         <v>1</v>
       </c>
@@ -4777,7 +5100,7 @@
         <v>158</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F120" s="12">
         <v>5</v>
@@ -4792,7 +5115,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="3:9">
+    <row r="121" ht="16.5" spans="2:9">
+      <c r="B121" s="1">
+        <v>3520</v>
+      </c>
       <c r="C121" s="1">
         <v>1</v>
       </c>
@@ -4800,7 +5126,7 @@
         <v>159</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F121" s="12">
         <v>5</v>
@@ -4815,7 +5141,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="3:9">
+    <row r="122" ht="16.5" spans="2:9">
+      <c r="B122" s="1">
+        <v>3521</v>
+      </c>
       <c r="C122" s="1">
         <v>1</v>
       </c>
@@ -4823,7 +5152,7 @@
         <v>160</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F122" s="12">
         <v>5</v>
@@ -4838,3093 +5167,3549 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="2:6">
-      <c r="B123" s="12"/>
+    <row r="123" ht="16.5" spans="2:9">
+      <c r="B123" s="1">
+        <v>3522</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
       <c r="D123" s="12" t="s">
         <v>161</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F123" s="12">
+        <v>5</v>
+      </c>
+      <c r="G123" s="1">
+        <v>21</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" ht="16.5" spans="2:9">
+      <c r="B124" s="1">
+        <v>3523</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F123" s="12"/>
-    </row>
-    <row r="124" ht="16.5" spans="2:6">
-      <c r="B124" s="12"/>
-      <c r="D124" s="12" t="s">
+      <c r="E124" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F124" s="12">
+        <v>5</v>
+      </c>
+      <c r="G124" s="1">
+        <v>21</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" ht="16.5" spans="2:9">
+      <c r="B125" s="1">
+        <v>3524</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E125" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F125" s="12">
+        <v>5</v>
+      </c>
+      <c r="G125" s="1">
+        <v>21</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" ht="16.5" spans="2:9">
+      <c r="B126" s="1">
+        <v>3525</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F124" s="12"/>
-    </row>
-    <row r="125" ht="16.5" spans="2:6">
-      <c r="B125" s="12"/>
-      <c r="D125" s="12" t="s">
+      <c r="E126" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F126" s="12">
+        <v>5</v>
+      </c>
+      <c r="G126" s="1">
+        <v>21</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" ht="16.5" spans="2:9">
+      <c r="B127" s="12">
+        <v>1291</v>
+      </c>
+      <c r="D127" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F125" s="12"/>
-    </row>
-    <row r="126" ht="16.5" spans="2:6">
-      <c r="B126" s="12"/>
-      <c r="D126" s="12" t="s">
+      <c r="F127" s="12"/>
+      <c r="G127" s="1">
+        <v>23</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" ht="16.5" spans="2:9">
+      <c r="B128" s="12">
+        <v>1292</v>
+      </c>
+      <c r="D128" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F126" s="12"/>
-    </row>
-    <row r="127" ht="16.5" spans="2:6">
-      <c r="B127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="F127" s="12"/>
-    </row>
-    <row r="128" ht="16.5" spans="2:6">
-      <c r="B128" s="12"/>
-      <c r="D128" s="12"/>
       <c r="F128" s="12"/>
-    </row>
-    <row r="129" ht="16.5" spans="2:6">
-      <c r="B129" s="12"/>
-      <c r="D129" s="12"/>
+      <c r="G128" s="1">
+        <v>23</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" ht="16.5" spans="2:9">
+      <c r="B129" s="12">
+        <v>1293</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="F129" s="12"/>
-    </row>
-    <row r="130" ht="16.5" spans="2:6">
-      <c r="B130" s="12"/>
-      <c r="D130" s="12"/>
+      <c r="G129" s="1">
+        <v>23</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" ht="16.5" spans="2:9">
+      <c r="B130" s="12">
+        <v>1294</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="F130" s="12"/>
-    </row>
-    <row r="131" ht="16.5" spans="2:6">
-      <c r="B131" s="12"/>
-      <c r="D131" s="12"/>
+      <c r="G130" s="1">
+        <v>23</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" ht="16.5" spans="2:9">
+      <c r="B131" s="12">
+        <v>20000</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="F131" s="12"/>
-    </row>
-    <row r="132" ht="16.5" spans="2:6">
-      <c r="B132" s="12"/>
-      <c r="D132" s="12"/>
+      <c r="G131" s="1">
+        <v>42</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" ht="16.5" spans="2:9">
+      <c r="B132" s="12">
+        <v>20001</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>174</v>
+      </c>
       <c r="F132" s="12"/>
-    </row>
-    <row r="133" ht="16.5" spans="2:6">
-      <c r="B133" s="12"/>
-      <c r="D133" s="12"/>
+      <c r="G132" s="1">
+        <v>42</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" ht="16.5" spans="2:9">
+      <c r="B133" s="12">
+        <v>20002</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="F133" s="12"/>
-    </row>
-    <row r="134" ht="16.5" spans="2:6">
-      <c r="B134" s="12"/>
-      <c r="D134" s="12"/>
+      <c r="G133" s="1">
+        <v>33</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" ht="16.5" spans="2:9">
+      <c r="B134" s="12">
+        <v>20003</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>176</v>
+      </c>
       <c r="F134" s="12"/>
-    </row>
-    <row r="135" ht="16.5" spans="2:6">
-      <c r="B135" s="12"/>
-      <c r="D135" s="12"/>
+      <c r="G134" s="1">
+        <v>33</v>
+      </c>
+      <c r="H134" s="1">
+        <v>1</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" ht="16.5" spans="2:9">
+      <c r="B135" s="12">
+        <v>20004</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="F135" s="12"/>
-    </row>
-    <row r="136" ht="16.5" spans="2:6">
-      <c r="B136" s="12"/>
-      <c r="D136" s="12"/>
+      <c r="G135" s="1">
+        <v>33</v>
+      </c>
+      <c r="H135" s="1">
+        <v>1</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" ht="16.5" spans="2:9">
+      <c r="B136" s="12">
+        <v>20005</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="F136" s="12"/>
-    </row>
-    <row r="137" ht="16.5" spans="2:6">
-      <c r="B137" s="12"/>
-      <c r="D137" s="12"/>
+      <c r="G136" s="1">
+        <v>33</v>
+      </c>
+      <c r="H136" s="1">
+        <v>1</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" ht="16.5" spans="2:9">
+      <c r="B137" s="12">
+        <v>20006</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="F137" s="12"/>
-    </row>
-    <row r="138" ht="16.5" spans="2:6">
-      <c r="B138" s="12"/>
-      <c r="D138" s="12"/>
+      <c r="G137" s="1">
+        <v>33</v>
+      </c>
+      <c r="H137" s="1">
+        <v>1</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" ht="16.5" spans="2:9">
+      <c r="B138" s="12">
+        <v>20007</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>180</v>
+      </c>
       <c r="F138" s="12"/>
+      <c r="G138" s="1">
+        <v>33</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" ht="16.5" spans="2:9">
-      <c r="B139" s="18">
+      <c r="B139" s="12">
+        <v>20008</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F139" s="12"/>
+      <c r="G139" s="1">
+        <v>33</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" ht="16.5" spans="2:9">
+      <c r="B140" s="12">
+        <v>20009</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F140" s="12"/>
+      <c r="G140" s="1">
+        <v>33</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" ht="16.5" spans="2:9">
+      <c r="B141" s="12">
+        <v>20010</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F141" s="12"/>
+      <c r="G141" s="1">
+        <v>33</v>
+      </c>
+      <c r="H141" s="1">
+        <v>1</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" ht="16.5" spans="2:9">
+      <c r="B142" s="12">
+        <v>20101</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F142" s="12"/>
+      <c r="G142" s="1">
+        <v>31</v>
+      </c>
+      <c r="H142" s="1">
+        <v>1</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" ht="16.5" spans="2:9">
+      <c r="B143" s="12">
+        <v>20102</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="1">
+        <v>31</v>
+      </c>
+      <c r="H143" s="1">
+        <v>1</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" ht="16.5" spans="2:9">
+      <c r="B144" s="12">
+        <v>20103</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F144" s="12"/>
+      <c r="G144" s="1">
+        <v>31</v>
+      </c>
+      <c r="H144" s="1">
+        <v>1</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" ht="16.5" spans="2:9">
+      <c r="B145" s="12">
+        <v>20104</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F145" s="12"/>
+      <c r="G145" s="1">
+        <v>31</v>
+      </c>
+      <c r="H145" s="1">
+        <v>1</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" ht="16.5" spans="2:9">
+      <c r="B146" s="12">
+        <v>20105</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F146" s="12"/>
+      <c r="G146" s="1">
+        <v>31</v>
+      </c>
+      <c r="H146" s="1">
+        <v>1</v>
+      </c>
+      <c r="I146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" ht="16.5" spans="2:9">
+      <c r="B147" s="12">
+        <v>20106</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F147" s="12"/>
+      <c r="G147" s="1">
+        <v>31</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" ht="16.5" spans="2:9">
+      <c r="B148" s="12">
+        <v>20107</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F148" s="12"/>
+      <c r="G148" s="1">
+        <v>31</v>
+      </c>
+      <c r="H148" s="1">
+        <v>1</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" ht="16.5" spans="2:9">
+      <c r="B149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" ht="16.5" spans="2:9">
+      <c r="B150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" ht="16.5" spans="2:9">
+      <c r="B151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="H151" s="1">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" ht="16.5" spans="2:9">
+      <c r="B152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="H152" s="1">
+        <v>0</v>
+      </c>
+      <c r="I152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" ht="16.5" spans="2:9">
+      <c r="B153" s="19">
         <v>2001</v>
       </c>
-      <c r="C139" s="1">
-        <v>1</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F139" s="19">
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F153" s="20">
         <v>2</v>
       </c>
-      <c r="G139" s="1">
-        <v>23</v>
-      </c>
-      <c r="H139" s="1">
-        <v>0</v>
-      </c>
-      <c r="I139" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" ht="16.5" spans="2:9">
-      <c r="B140" s="18">
+      <c r="G153" s="1">
+        <v>23</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" ht="16.5" spans="2:9">
+      <c r="B154" s="19">
         <v>2002</v>
       </c>
-      <c r="C140" s="1">
-        <v>1</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="F140" s="21">
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F154" s="22">
         <v>2</v>
       </c>
-      <c r="G140" s="1">
-        <v>23</v>
-      </c>
-      <c r="H140" s="1">
-        <v>0</v>
-      </c>
-      <c r="I140" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" ht="16.5" spans="2:9">
-      <c r="B141" s="18">
+      <c r="G154" s="1">
+        <v>23</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" ht="16.5" spans="2:9">
+      <c r="B155" s="19">
         <v>2003</v>
       </c>
-      <c r="C141" s="1">
-        <v>1</v>
-      </c>
-      <c r="D141" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="F141" s="23">
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F155" s="24">
         <v>2</v>
       </c>
-      <c r="G141" s="1">
-        <v>23</v>
-      </c>
-      <c r="H141" s="1">
-        <v>0</v>
-      </c>
-      <c r="I141" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" ht="16.5" spans="2:9">
-      <c r="B142" s="18">
+      <c r="G155" s="1">
+        <v>23</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" ht="16.5" spans="2:9">
+      <c r="B156" s="19">
         <v>2004</v>
       </c>
-      <c r="C142" s="1">
-        <v>1</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F142" s="23">
+      <c r="C156" s="1">
+        <v>1</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F156" s="24">
         <v>2</v>
       </c>
-      <c r="G142" s="1">
-        <v>23</v>
-      </c>
-      <c r="H142" s="1">
-        <v>0</v>
-      </c>
-      <c r="I142" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" ht="16.5" spans="2:9">
-      <c r="B143" s="18">
+      <c r="G156" s="1">
+        <v>23</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" ht="16.5" spans="2:9">
+      <c r="B157" s="19">
         <v>2005</v>
       </c>
-      <c r="C143" s="1">
-        <v>1</v>
-      </c>
-      <c r="D143" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F143" s="23">
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F157" s="24">
         <v>2</v>
       </c>
-      <c r="G143" s="1">
-        <v>23</v>
-      </c>
-      <c r="H143" s="1">
-        <v>0</v>
-      </c>
-      <c r="I143" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" ht="16.5" spans="2:9">
-      <c r="B144" s="18">
+      <c r="G157" s="1">
+        <v>23</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" ht="16.5" spans="2:9">
+      <c r="B158" s="19">
         <v>2006</v>
       </c>
-      <c r="C144" s="1">
-        <v>1</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="F144" s="23">
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F158" s="24">
         <v>2</v>
       </c>
-      <c r="G144" s="1">
-        <v>23</v>
-      </c>
-      <c r="H144" s="1">
-        <v>0</v>
-      </c>
-      <c r="I144" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" ht="16.5" spans="2:9">
-      <c r="B145" s="18">
+      <c r="G158" s="1">
+        <v>23</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" ht="16.5" spans="2:9">
+      <c r="B159" s="19">
         <v>2007</v>
       </c>
-      <c r="C145" s="1">
-        <v>1</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="F145" s="23">
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+      <c r="D159" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F159" s="24">
         <v>2</v>
       </c>
-      <c r="G145" s="1">
-        <v>23</v>
-      </c>
-      <c r="H145" s="1">
-        <v>0</v>
-      </c>
-      <c r="I145" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" ht="16.5" spans="2:9">
-      <c r="B146" s="18">
+      <c r="G159" s="1">
+        <v>23</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" ht="16.5" spans="2:9">
+      <c r="B160" s="19">
         <v>2008</v>
       </c>
-      <c r="C146" s="1">
-        <v>1</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F146" s="23">
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F160" s="24">
         <v>2</v>
       </c>
-      <c r="G146" s="1">
-        <v>23</v>
-      </c>
-      <c r="H146" s="1">
-        <v>0</v>
-      </c>
-      <c r="I146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" ht="16.5" spans="2:9">
-      <c r="B147" s="18">
+      <c r="G160" s="1">
+        <v>23</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" ht="16.5" spans="2:9">
+      <c r="B161" s="19">
         <v>2009</v>
       </c>
-      <c r="C147" s="1">
-        <v>1</v>
-      </c>
-      <c r="D147" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="F147" s="23">
+      <c r="C161" s="1">
+        <v>1</v>
+      </c>
+      <c r="D161" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F161" s="24">
         <v>2</v>
       </c>
-      <c r="G147" s="1">
-        <v>23</v>
-      </c>
-      <c r="H147" s="1">
-        <v>0</v>
-      </c>
-      <c r="I147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" ht="16.5" spans="2:9">
-      <c r="B148" s="18">
+      <c r="G161" s="1">
+        <v>23</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" ht="16.5" spans="2:9">
+      <c r="B162" s="19">
         <v>2010</v>
       </c>
-      <c r="C148" s="1">
-        <v>1</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F148" s="23">
+      <c r="C162" s="1">
+        <v>1</v>
+      </c>
+      <c r="D162" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F162" s="24">
         <v>2</v>
       </c>
-      <c r="G148" s="1">
-        <v>23</v>
-      </c>
-      <c r="H148" s="1">
-        <v>0</v>
-      </c>
-      <c r="I148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" ht="16.5" spans="2:9">
-      <c r="B149" s="18">
+      <c r="G162" s="1">
+        <v>23</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" ht="16.5" spans="2:9">
+      <c r="B163" s="19">
         <v>2011</v>
       </c>
-      <c r="C149" s="1">
-        <v>1</v>
-      </c>
-      <c r="D149" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="F149" s="23">
+      <c r="C163" s="1">
+        <v>1</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F163" s="24">
         <v>2</v>
       </c>
-      <c r="G149" s="1">
-        <v>23</v>
-      </c>
-      <c r="H149" s="1">
-        <v>0</v>
-      </c>
-      <c r="I149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" ht="16.5" spans="2:9">
-      <c r="B150" s="18">
+      <c r="G163" s="1">
+        <v>23</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" ht="16.5" spans="2:9">
+      <c r="B164" s="19">
         <v>2012</v>
       </c>
-      <c r="C150" s="1">
-        <v>1</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="F150" s="23">
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F164" s="24">
         <v>2</v>
       </c>
-      <c r="G150" s="1">
-        <v>23</v>
-      </c>
-      <c r="H150" s="1">
-        <v>0</v>
-      </c>
-      <c r="I150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" ht="16.5" spans="2:9">
-      <c r="B151" s="18">
+      <c r="G164" s="1">
+        <v>23</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" ht="16.5" spans="2:9">
+      <c r="B165" s="19">
         <v>2013</v>
       </c>
-      <c r="C151" s="1">
-        <v>1</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F151" s="23">
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F165" s="24">
         <v>2</v>
       </c>
-      <c r="G151" s="1">
-        <v>23</v>
-      </c>
-      <c r="H151" s="1">
-        <v>0</v>
-      </c>
-      <c r="I151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" ht="16.5" spans="2:9">
-      <c r="B152" s="18">
+      <c r="G165" s="1">
+        <v>23</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" ht="16.5" spans="2:9">
+      <c r="B166" s="19">
         <v>2014</v>
       </c>
-      <c r="C152" s="1">
-        <v>1</v>
-      </c>
-      <c r="D152" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="F152" s="23">
+      <c r="C166" s="1">
+        <v>1</v>
+      </c>
+      <c r="D166" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F166" s="24">
         <v>2</v>
       </c>
-      <c r="G152" s="1">
-        <v>23</v>
-      </c>
-      <c r="H152" s="1">
-        <v>0</v>
-      </c>
-      <c r="I152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" ht="16.5" spans="2:9">
-      <c r="B153" s="18">
+      <c r="G166" s="1">
+        <v>23</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" ht="16.5" spans="2:9">
+      <c r="B167" s="19">
         <v>2015</v>
       </c>
-      <c r="C153" s="1">
-        <v>1</v>
-      </c>
-      <c r="D153" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F153" s="23">
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F167" s="24">
         <v>2</v>
       </c>
-      <c r="G153" s="1">
-        <v>23</v>
-      </c>
-      <c r="H153" s="1">
-        <v>0</v>
-      </c>
-      <c r="I153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" ht="16.5" spans="2:9">
-      <c r="B154" s="18">
+      <c r="G167" s="1">
+        <v>23</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" ht="16.5" spans="2:9">
+      <c r="B168" s="19">
         <v>2016</v>
       </c>
-      <c r="C154" s="1">
-        <v>1</v>
-      </c>
-      <c r="D154" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F154" s="23">
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F168" s="24">
         <v>2</v>
       </c>
-      <c r="G154" s="1">
-        <v>23</v>
-      </c>
-      <c r="H154" s="1">
-        <v>0</v>
-      </c>
-      <c r="I154" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" ht="16.5" spans="2:9">
-      <c r="B155" s="18">
+      <c r="G168" s="1">
+        <v>23</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" ht="16.5" spans="2:9">
+      <c r="B169" s="19">
         <v>2017</v>
       </c>
-      <c r="C155" s="1">
-        <v>1</v>
-      </c>
-      <c r="D155" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F155" s="23">
+      <c r="C169" s="1">
+        <v>1</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F169" s="24">
         <v>2</v>
       </c>
-      <c r="G155" s="1">
-        <v>23</v>
-      </c>
-      <c r="H155" s="1">
-        <v>0</v>
-      </c>
-      <c r="I155" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" ht="16.5" spans="2:9">
-      <c r="B156" s="18">
+      <c r="G169" s="1">
+        <v>23</v>
+      </c>
+      <c r="H169" s="1">
+        <v>0</v>
+      </c>
+      <c r="I169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" ht="16.5" spans="2:9">
+      <c r="B170" s="19">
         <v>2018</v>
       </c>
-      <c r="C156" s="1">
-        <v>1</v>
-      </c>
-      <c r="D156" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="F156" s="23">
+      <c r="C170" s="1">
+        <v>1</v>
+      </c>
+      <c r="D170" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="F170" s="24">
         <v>2</v>
       </c>
-      <c r="G156" s="1">
-        <v>23</v>
-      </c>
-      <c r="H156" s="1">
-        <v>0</v>
-      </c>
-      <c r="I156" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" ht="16.5" spans="2:9">
-      <c r="B157" s="18">
+      <c r="G170" s="1">
+        <v>23</v>
+      </c>
+      <c r="H170" s="1">
+        <v>0</v>
+      </c>
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" ht="16.5" spans="2:9">
+      <c r="B171" s="19">
         <v>2019</v>
       </c>
-      <c r="C157" s="1">
-        <v>1</v>
-      </c>
-      <c r="D157" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F157" s="23">
+      <c r="C171" s="1">
+        <v>1</v>
+      </c>
+      <c r="D171" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="F171" s="24">
         <v>2</v>
       </c>
-      <c r="G157" s="1">
-        <v>23</v>
-      </c>
-      <c r="H157" s="1">
-        <v>0</v>
-      </c>
-      <c r="I157" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" ht="16.5" spans="2:9">
-      <c r="B158" s="18">
+      <c r="G171" s="1">
+        <v>23</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0</v>
+      </c>
+      <c r="I171" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" ht="16.5" spans="2:9">
+      <c r="B172" s="19">
         <v>2020</v>
       </c>
-      <c r="C158" s="1">
-        <v>1</v>
-      </c>
-      <c r="D158" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="F158" s="23">
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F172" s="24">
         <v>2</v>
       </c>
-      <c r="G158" s="1">
-        <v>23</v>
-      </c>
-      <c r="H158" s="1">
-        <v>0</v>
-      </c>
-      <c r="I158" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" ht="16.5" spans="2:9">
-      <c r="B159" s="18">
+      <c r="G172" s="1">
+        <v>23</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0</v>
+      </c>
+      <c r="I172" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" ht="16.5" spans="2:9">
+      <c r="B173" s="19">
         <v>2021</v>
       </c>
-      <c r="C159" s="1">
-        <v>1</v>
-      </c>
-      <c r="D159" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F159" s="23">
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F173" s="24">
         <v>2</v>
       </c>
-      <c r="G159" s="1">
-        <v>23</v>
-      </c>
-      <c r="H159" s="1">
-        <v>0</v>
-      </c>
-      <c r="I159" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" ht="16.5" spans="2:9">
-      <c r="B160" s="18">
+      <c r="G173" s="1">
+        <v>23</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+      <c r="I173" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" ht="16.5" spans="2:9">
+      <c r="B174" s="19">
         <v>2022</v>
       </c>
-      <c r="C160" s="1">
-        <v>1</v>
-      </c>
-      <c r="D160" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F160" s="23">
+      <c r="C174" s="1">
+        <v>1</v>
+      </c>
+      <c r="D174" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="F174" s="24">
         <v>2</v>
       </c>
-      <c r="G160" s="1">
-        <v>23</v>
-      </c>
-      <c r="H160" s="1">
-        <v>0</v>
-      </c>
-      <c r="I160" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" ht="16.5" spans="2:9">
-      <c r="B161" s="18">
+      <c r="G174" s="1">
+        <v>23</v>
+      </c>
+      <c r="H174" s="1">
+        <v>0</v>
+      </c>
+      <c r="I174" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" ht="16.5" spans="2:9">
+      <c r="B175" s="19">
         <v>2023</v>
       </c>
-      <c r="C161" s="1">
-        <v>1</v>
-      </c>
-      <c r="D161" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="F161" s="23">
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+      <c r="D175" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F175" s="24">
         <v>2</v>
       </c>
-      <c r="G161" s="1">
-        <v>23</v>
-      </c>
-      <c r="H161" s="1">
-        <v>0</v>
-      </c>
-      <c r="I161" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" ht="16.5" spans="2:9">
-      <c r="B162" s="18">
+      <c r="G175" s="1">
+        <v>23</v>
+      </c>
+      <c r="H175" s="1">
+        <v>0</v>
+      </c>
+      <c r="I175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" ht="16.5" spans="2:9">
+      <c r="B176" s="19">
         <v>2024</v>
       </c>
-      <c r="C162" s="1">
-        <v>1</v>
-      </c>
-      <c r="D162" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="F162" s="23">
+      <c r="C176" s="1">
+        <v>1</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F176" s="24">
         <v>2</v>
       </c>
-      <c r="G162" s="1">
-        <v>23</v>
-      </c>
-      <c r="H162" s="1">
-        <v>0</v>
-      </c>
-      <c r="I162" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" ht="16.5" spans="2:9">
-      <c r="B163" s="18">
+      <c r="G176" s="1">
+        <v>23</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0</v>
+      </c>
+      <c r="I176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" ht="16.5" spans="2:9">
+      <c r="B177" s="19">
         <v>2025</v>
       </c>
-      <c r="C163" s="1">
-        <v>1</v>
-      </c>
-      <c r="D163" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F163" s="23">
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="F177" s="24">
         <v>2</v>
       </c>
-      <c r="G163" s="1">
-        <v>23</v>
-      </c>
-      <c r="H163" s="1">
-        <v>0</v>
-      </c>
-      <c r="I163" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" ht="16.5" spans="2:9">
-      <c r="B164" s="18">
+      <c r="G177" s="1">
+        <v>23</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0</v>
+      </c>
+      <c r="I177" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" ht="16.5" spans="2:9">
+      <c r="B178" s="19">
         <v>2026</v>
       </c>
-      <c r="C164" s="1">
-        <v>1</v>
-      </c>
-      <c r="D164" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F164" s="23">
+      <c r="C178" s="1">
+        <v>1</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F178" s="24">
         <v>2</v>
       </c>
-      <c r="G164" s="1">
-        <v>23</v>
-      </c>
-      <c r="H164" s="1">
-        <v>0</v>
-      </c>
-      <c r="I164" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" ht="16.5" spans="2:9">
-      <c r="B165" s="18">
+      <c r="G178" s="1">
+        <v>23</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0</v>
+      </c>
+      <c r="I178" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" ht="16.5" spans="2:9">
+      <c r="B179" s="19">
         <v>2027</v>
       </c>
-      <c r="C165" s="1">
-        <v>1</v>
-      </c>
-      <c r="D165" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="F165" s="23">
+      <c r="C179" s="1">
+        <v>1</v>
+      </c>
+      <c r="D179" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="F179" s="24">
         <v>2</v>
       </c>
-      <c r="G165" s="1">
-        <v>23</v>
-      </c>
-      <c r="H165" s="1">
-        <v>0</v>
-      </c>
-      <c r="I165" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" ht="16.5" spans="2:9">
-      <c r="B166" s="18">
+      <c r="G179" s="1">
+        <v>23</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0</v>
+      </c>
+      <c r="I179" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" ht="16.5" spans="2:9">
+      <c r="B180" s="19">
         <v>2028</v>
       </c>
-      <c r="C166" s="1">
-        <v>1</v>
-      </c>
-      <c r="D166" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="F166" s="23">
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="F180" s="24">
         <v>2</v>
       </c>
-      <c r="G166" s="1">
-        <v>23</v>
-      </c>
-      <c r="H166" s="1">
-        <v>0</v>
-      </c>
-      <c r="I166" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" ht="16.5" spans="2:9">
-      <c r="B167" s="18">
+      <c r="G180" s="1">
+        <v>23</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0</v>
+      </c>
+      <c r="I180" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" ht="16.5" spans="2:9">
+      <c r="B181" s="19">
         <v>2029</v>
       </c>
-      <c r="C167" s="1">
-        <v>1</v>
-      </c>
-      <c r="D167" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="F167" s="23">
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F181" s="24">
         <v>2</v>
       </c>
-      <c r="G167" s="1">
-        <v>23</v>
-      </c>
-      <c r="H167" s="1">
-        <v>0</v>
-      </c>
-      <c r="I167" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" ht="16.5" spans="2:9">
-      <c r="B168" s="18">
+      <c r="G181" s="1">
+        <v>23</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0</v>
+      </c>
+      <c r="I181" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" ht="16.5" spans="2:9">
+      <c r="B182" s="19">
         <v>2030</v>
       </c>
-      <c r="C168" s="1">
-        <v>1</v>
-      </c>
-      <c r="D168" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F168" s="23">
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F182" s="24">
         <v>2</v>
       </c>
-      <c r="G168" s="1">
-        <v>23</v>
-      </c>
-      <c r="H168" s="1">
-        <v>0</v>
-      </c>
-      <c r="I168" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" ht="16.5" spans="2:9">
-      <c r="B169" s="18">
+      <c r="G182" s="1">
+        <v>23</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0</v>
+      </c>
+      <c r="I182" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" ht="16.5" spans="2:9">
+      <c r="B183" s="19">
         <v>2031</v>
       </c>
-      <c r="C169" s="1">
-        <v>1</v>
-      </c>
-      <c r="D169" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="F169" s="23">
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="F183" s="24">
         <v>2</v>
       </c>
-      <c r="G169" s="1">
-        <v>23</v>
-      </c>
-      <c r="H169" s="1">
-        <v>0</v>
-      </c>
-      <c r="I169" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" ht="16.5" spans="2:9">
-      <c r="B170" s="18">
+      <c r="G183" s="1">
+        <v>23</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0</v>
+      </c>
+      <c r="I183" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" ht="16.5" spans="2:9">
+      <c r="B184" s="19">
         <v>2032</v>
       </c>
-      <c r="C170" s="1">
-        <v>1</v>
-      </c>
-      <c r="D170" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F170" s="23">
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="F184" s="24">
         <v>2</v>
       </c>
-      <c r="G170" s="1">
-        <v>23</v>
-      </c>
-      <c r="H170" s="1">
-        <v>0</v>
-      </c>
-      <c r="I170" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" ht="16.5" spans="2:9">
-      <c r="B171" s="18">
+      <c r="G184" s="1">
+        <v>23</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0</v>
+      </c>
+      <c r="I184" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" ht="16.5" spans="2:9">
+      <c r="B185" s="19">
         <v>2033</v>
       </c>
-      <c r="C171" s="1">
-        <v>1</v>
-      </c>
-      <c r="D171" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="F171" s="23">
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F185" s="24">
         <v>2</v>
       </c>
-      <c r="G171" s="1">
-        <v>23</v>
-      </c>
-      <c r="H171" s="1">
-        <v>0</v>
-      </c>
-      <c r="I171" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" ht="16.5" spans="2:9">
-      <c r="B172" s="18">
+      <c r="G185" s="1">
+        <v>23</v>
+      </c>
+      <c r="H185" s="1">
+        <v>0</v>
+      </c>
+      <c r="I185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" ht="16.5" spans="2:9">
+      <c r="B186" s="19">
         <v>2034</v>
       </c>
-      <c r="C172" s="1">
-        <v>1</v>
-      </c>
-      <c r="D172" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F172" s="23">
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="F186" s="24">
         <v>2</v>
       </c>
-      <c r="G172" s="1">
-        <v>23</v>
-      </c>
-      <c r="H172" s="1">
-        <v>0</v>
-      </c>
-      <c r="I172" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" ht="16.5" spans="2:9">
-      <c r="B173" s="18">
+      <c r="G186" s="1">
+        <v>23</v>
+      </c>
+      <c r="H186" s="1">
+        <v>0</v>
+      </c>
+      <c r="I186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" ht="16.5" spans="2:9">
+      <c r="B187" s="19">
         <v>2035</v>
       </c>
-      <c r="C173" s="1">
-        <v>1</v>
-      </c>
-      <c r="D173" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="F173" s="23">
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F187" s="24">
         <v>2</v>
       </c>
-      <c r="G173" s="1">
-        <v>23</v>
-      </c>
-      <c r="H173" s="1">
-        <v>0</v>
-      </c>
-      <c r="I173" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" ht="16.5" spans="2:9">
-      <c r="B174" s="18">
+      <c r="G187" s="1">
+        <v>23</v>
+      </c>
+      <c r="H187" s="1">
+        <v>0</v>
+      </c>
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" ht="16.5" spans="2:9">
+      <c r="B188" s="19">
         <v>2036</v>
       </c>
-      <c r="C174" s="1">
-        <v>1</v>
-      </c>
-      <c r="D174" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="F174" s="23">
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F188" s="24">
         <v>2</v>
       </c>
-      <c r="G174" s="1">
-        <v>23</v>
-      </c>
-      <c r="H174" s="1">
-        <v>0</v>
-      </c>
-      <c r="I174" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" ht="16.5" spans="2:9">
-      <c r="B175" s="18">
+      <c r="G188" s="1">
+        <v>23</v>
+      </c>
+      <c r="H188" s="1">
+        <v>0</v>
+      </c>
+      <c r="I188" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" ht="16.5" spans="2:9">
+      <c r="B189" s="19">
         <v>2037</v>
       </c>
-      <c r="C175" s="1">
-        <v>1</v>
-      </c>
-      <c r="D175" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F175" s="23">
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="F189" s="24">
         <v>2</v>
       </c>
-      <c r="G175" s="1">
-        <v>23</v>
-      </c>
-      <c r="H175" s="1">
-        <v>0</v>
-      </c>
-      <c r="I175" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" ht="16.5" spans="2:9">
-      <c r="B176" s="18">
+      <c r="G189" s="1">
+        <v>23</v>
+      </c>
+      <c r="H189" s="1">
+        <v>0</v>
+      </c>
+      <c r="I189" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" ht="16.5" spans="2:9">
+      <c r="B190" s="19">
         <v>2038</v>
       </c>
-      <c r="C176" s="1">
-        <v>1</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="F176" s="23">
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F190" s="24">
         <v>2</v>
       </c>
-      <c r="G176" s="1">
-        <v>23</v>
-      </c>
-      <c r="H176" s="1">
-        <v>0</v>
-      </c>
-      <c r="I176" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" ht="16.5" spans="2:9">
-      <c r="B177" s="18">
+      <c r="G190" s="1">
+        <v>23</v>
+      </c>
+      <c r="H190" s="1">
+        <v>0</v>
+      </c>
+      <c r="I190" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" ht="16.5" spans="2:9">
+      <c r="B191" s="19">
         <v>2039</v>
       </c>
-      <c r="C177" s="1">
-        <v>1</v>
-      </c>
-      <c r="D177" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="F177" s="23">
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+      <c r="D191" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F191" s="24">
         <v>2</v>
       </c>
-      <c r="G177" s="1">
-        <v>23</v>
-      </c>
-      <c r="H177" s="1">
-        <v>0</v>
-      </c>
-      <c r="I177" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" ht="16.5" spans="2:9">
-      <c r="B178" s="18">
+      <c r="G191" s="1">
+        <v>23</v>
+      </c>
+      <c r="H191" s="1">
+        <v>0</v>
+      </c>
+      <c r="I191" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" ht="16.5" spans="2:9">
+      <c r="B192" s="19">
         <v>2040</v>
       </c>
-      <c r="C178" s="1">
-        <v>1</v>
-      </c>
-      <c r="D178" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="F178" s="23">
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F192" s="24">
         <v>2</v>
       </c>
-      <c r="G178" s="1">
-        <v>23</v>
-      </c>
-      <c r="H178" s="1">
-        <v>0</v>
-      </c>
-      <c r="I178" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" ht="16.5" spans="2:9">
-      <c r="B179" s="18">
+      <c r="G192" s="1">
+        <v>23</v>
+      </c>
+      <c r="H192" s="1">
+        <v>0</v>
+      </c>
+      <c r="I192" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" ht="16.5" spans="2:9">
+      <c r="B193" s="19">
         <v>2041</v>
       </c>
-      <c r="C179" s="1">
-        <v>1</v>
-      </c>
-      <c r="D179" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="F179" s="23">
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F193" s="24">
         <v>2</v>
       </c>
-      <c r="G179" s="1">
-        <v>23</v>
-      </c>
-      <c r="H179" s="1">
-        <v>0</v>
-      </c>
-      <c r="I179" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" ht="16.5" spans="2:9">
-      <c r="B180" s="18">
+      <c r="G193" s="1">
+        <v>23</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0</v>
+      </c>
+      <c r="I193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" ht="16.5" spans="2:9">
+      <c r="B194" s="19">
         <v>2042</v>
       </c>
-      <c r="C180" s="1">
-        <v>1</v>
-      </c>
-      <c r="D180" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F180" s="23">
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F194" s="24">
         <v>2</v>
       </c>
-      <c r="G180" s="1">
-        <v>23</v>
-      </c>
-      <c r="H180" s="1">
-        <v>0</v>
-      </c>
-      <c r="I180" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" ht="16.5" spans="2:9">
-      <c r="B181" s="18">
+      <c r="G194" s="1">
+        <v>23</v>
+      </c>
+      <c r="H194" s="1">
+        <v>0</v>
+      </c>
+      <c r="I194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" ht="16.5" spans="2:9">
+      <c r="B195" s="19">
         <v>2043</v>
       </c>
-      <c r="C181" s="1">
-        <v>1</v>
-      </c>
-      <c r="D181" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="F181" s="23">
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F195" s="24">
         <v>2</v>
       </c>
-      <c r="G181" s="1">
-        <v>23</v>
-      </c>
-      <c r="H181" s="1">
-        <v>0</v>
-      </c>
-      <c r="I181" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" ht="16.5" spans="2:9">
-      <c r="B182" s="18">
+      <c r="G195" s="1">
+        <v>23</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0</v>
+      </c>
+      <c r="I195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" ht="16.5" spans="2:9">
+      <c r="B196" s="19">
         <v>2044</v>
       </c>
-      <c r="C182" s="1">
-        <v>1</v>
-      </c>
-      <c r="D182" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="F182" s="23">
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="F196" s="24">
         <v>2</v>
       </c>
-      <c r="G182" s="1">
-        <v>23</v>
-      </c>
-      <c r="H182" s="1">
-        <v>0</v>
-      </c>
-      <c r="I182" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" ht="16.5" spans="2:9">
-      <c r="B183" s="18">
+      <c r="G196" s="1">
+        <v>23</v>
+      </c>
+      <c r="H196" s="1">
+        <v>0</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" ht="16.5" spans="2:9">
+      <c r="B197" s="19">
         <v>2045</v>
       </c>
-      <c r="C183" s="1">
-        <v>1</v>
-      </c>
-      <c r="D183" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F183" s="23">
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="F197" s="24">
         <v>2</v>
       </c>
-      <c r="G183" s="1">
-        <v>23</v>
-      </c>
-      <c r="H183" s="1">
-        <v>0</v>
-      </c>
-      <c r="I183" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" ht="16.5" spans="2:9">
-      <c r="B184" s="22">
+      <c r="G197" s="1">
+        <v>23</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0</v>
+      </c>
+      <c r="I197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" ht="16.5" spans="2:9">
+      <c r="B198" s="23">
         <v>2501</v>
       </c>
-      <c r="C184" s="1">
-        <v>1</v>
-      </c>
-      <c r="D184" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F184" s="23">
-        <v>3</v>
-      </c>
-      <c r="G184" s="1">
-        <v>23</v>
-      </c>
-      <c r="H184" s="1">
-        <v>0</v>
-      </c>
-      <c r="I184" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" ht="16.5" spans="2:9">
-      <c r="B185" s="22">
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="F198" s="24">
+        <v>3</v>
+      </c>
+      <c r="G198" s="1">
+        <v>23</v>
+      </c>
+      <c r="H198" s="1">
+        <v>0</v>
+      </c>
+      <c r="I198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" ht="16.5" spans="2:9">
+      <c r="B199" s="23">
         <v>2502</v>
       </c>
-      <c r="C185" s="1">
-        <v>1</v>
-      </c>
-      <c r="D185" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F185" s="23">
-        <v>3</v>
-      </c>
-      <c r="G185" s="1">
-        <v>23</v>
-      </c>
-      <c r="H185" s="1">
-        <v>0</v>
-      </c>
-      <c r="I185" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" ht="16.5" spans="2:9">
-      <c r="B186" s="22">
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F199" s="24">
+        <v>3</v>
+      </c>
+      <c r="G199" s="1">
+        <v>23</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+      <c r="I199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" ht="16.5" spans="2:9">
+      <c r="B200" s="23">
         <v>2503</v>
       </c>
-      <c r="C186" s="1">
-        <v>1</v>
-      </c>
-      <c r="D186" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="F186" s="23">
-        <v>3</v>
-      </c>
-      <c r="G186" s="1">
-        <v>23</v>
-      </c>
-      <c r="H186" s="1">
-        <v>0</v>
-      </c>
-      <c r="I186" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" ht="16.5" spans="2:9">
-      <c r="B187" s="22">
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F200" s="24">
+        <v>3</v>
+      </c>
+      <c r="G200" s="1">
+        <v>23</v>
+      </c>
+      <c r="H200" s="1">
+        <v>0</v>
+      </c>
+      <c r="I200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" ht="16.5" spans="2:9">
+      <c r="B201" s="23">
         <v>2504</v>
       </c>
-      <c r="C187" s="1">
-        <v>1</v>
-      </c>
-      <c r="D187" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F187" s="23">
-        <v>3</v>
-      </c>
-      <c r="G187" s="1">
-        <v>23</v>
-      </c>
-      <c r="H187" s="1">
-        <v>0</v>
-      </c>
-      <c r="I187" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" ht="16.5" spans="2:9">
-      <c r="B188" s="22">
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F201" s="24">
+        <v>3</v>
+      </c>
+      <c r="G201" s="1">
+        <v>23</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0</v>
+      </c>
+      <c r="I201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" ht="16.5" spans="2:9">
+      <c r="B202" s="23">
         <v>2505</v>
       </c>
-      <c r="C188" s="1">
-        <v>1</v>
-      </c>
-      <c r="D188" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="F188" s="23">
-        <v>3</v>
-      </c>
-      <c r="G188" s="1">
-        <v>23</v>
-      </c>
-      <c r="H188" s="1">
-        <v>0</v>
-      </c>
-      <c r="I188" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" ht="16.5" spans="2:9">
-      <c r="B189" s="22">
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F202" s="24">
+        <v>3</v>
+      </c>
+      <c r="G202" s="1">
+        <v>23</v>
+      </c>
+      <c r="H202" s="1">
+        <v>0</v>
+      </c>
+      <c r="I202" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" ht="16.5" spans="2:9">
+      <c r="B203" s="23">
         <v>2506</v>
       </c>
-      <c r="C189" s="1">
-        <v>1</v>
-      </c>
-      <c r="D189" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F189" s="23">
-        <v>3</v>
-      </c>
-      <c r="G189" s="1">
-        <v>23</v>
-      </c>
-      <c r="H189" s="1">
-        <v>0</v>
-      </c>
-      <c r="I189" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" ht="16.5" spans="2:9">
-      <c r="B190" s="22">
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="F203" s="24">
+        <v>3</v>
+      </c>
+      <c r="G203" s="1">
+        <v>23</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0</v>
+      </c>
+      <c r="I203" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" ht="16.5" spans="2:9">
+      <c r="B204" s="23">
         <v>2507</v>
       </c>
-      <c r="C190" s="1">
-        <v>1</v>
-      </c>
-      <c r="D190" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="F190" s="23">
-        <v>3</v>
-      </c>
-      <c r="G190" s="1">
-        <v>23</v>
-      </c>
-      <c r="H190" s="1">
-        <v>0</v>
-      </c>
-      <c r="I190" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" ht="16.5" spans="2:9">
-      <c r="B191" s="22">
+      <c r="C204" s="1">
+        <v>1</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F204" s="24">
+        <v>3</v>
+      </c>
+      <c r="G204" s="1">
+        <v>23</v>
+      </c>
+      <c r="H204" s="1">
+        <v>0</v>
+      </c>
+      <c r="I204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" ht="16.5" spans="2:9">
+      <c r="B205" s="23">
         <v>2508</v>
       </c>
-      <c r="C191" s="1">
-        <v>1</v>
-      </c>
-      <c r="D191" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F191" s="23">
-        <v>3</v>
-      </c>
-      <c r="G191" s="1">
-        <v>23</v>
-      </c>
-      <c r="H191" s="1">
-        <v>0</v>
-      </c>
-      <c r="I191" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" ht="16.5" spans="2:9">
-      <c r="B192" s="22">
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D205" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="F205" s="24">
+        <v>3</v>
+      </c>
+      <c r="G205" s="1">
+        <v>23</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0</v>
+      </c>
+      <c r="I205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" ht="16.5" spans="2:9">
+      <c r="B206" s="23">
         <v>2509</v>
       </c>
-      <c r="C192" s="1">
-        <v>1</v>
-      </c>
-      <c r="D192" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F192" s="23">
-        <v>3</v>
-      </c>
-      <c r="G192" s="1">
-        <v>23</v>
-      </c>
-      <c r="H192" s="1">
-        <v>0</v>
-      </c>
-      <c r="I192" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" ht="16.5" spans="2:9">
-      <c r="B193" s="22">
+      <c r="C206" s="1">
+        <v>1</v>
+      </c>
+      <c r="D206" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F206" s="24">
+        <v>3</v>
+      </c>
+      <c r="G206" s="1">
+        <v>23</v>
+      </c>
+      <c r="H206" s="1">
+        <v>0</v>
+      </c>
+      <c r="I206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" ht="16.5" spans="2:9">
+      <c r="B207" s="23">
         <v>2510</v>
       </c>
-      <c r="C193" s="1">
-        <v>1</v>
-      </c>
-      <c r="D193" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="F193" s="23">
-        <v>3</v>
-      </c>
-      <c r="G193" s="1">
-        <v>23</v>
-      </c>
-      <c r="H193" s="1">
-        <v>0</v>
-      </c>
-      <c r="I193" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" ht="16.5" spans="2:9">
-      <c r="B194" s="22">
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D207" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F207" s="24">
+        <v>3</v>
+      </c>
+      <c r="G207" s="1">
+        <v>23</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0</v>
+      </c>
+      <c r="I207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" ht="16.5" spans="2:9">
+      <c r="B208" s="23">
         <v>2511</v>
       </c>
-      <c r="C194" s="1">
-        <v>1</v>
-      </c>
-      <c r="D194" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="F194" s="23">
-        <v>3</v>
-      </c>
-      <c r="G194" s="1">
-        <v>23</v>
-      </c>
-      <c r="H194" s="1">
-        <v>0</v>
-      </c>
-      <c r="I194" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" ht="16.5" spans="2:9">
-      <c r="B195" s="22">
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="F208" s="24">
+        <v>3</v>
+      </c>
+      <c r="G208" s="1">
+        <v>23</v>
+      </c>
+      <c r="H208" s="1">
+        <v>0</v>
+      </c>
+      <c r="I208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" ht="16.5" spans="2:9">
+      <c r="B209" s="23">
         <v>2512</v>
       </c>
-      <c r="C195" s="1">
-        <v>1</v>
-      </c>
-      <c r="D195" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="F195" s="23">
-        <v>3</v>
-      </c>
-      <c r="G195" s="1">
-        <v>23</v>
-      </c>
-      <c r="H195" s="1">
-        <v>0</v>
-      </c>
-      <c r="I195" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" ht="16.5" spans="2:9">
-      <c r="B196" s="22">
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D209" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="F209" s="24">
+        <v>3</v>
+      </c>
+      <c r="G209" s="1">
+        <v>23</v>
+      </c>
+      <c r="H209" s="1">
+        <v>0</v>
+      </c>
+      <c r="I209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" ht="16.5" spans="2:9">
+      <c r="B210" s="23">
         <v>2513</v>
       </c>
-      <c r="C196" s="1">
-        <v>1</v>
-      </c>
-      <c r="D196" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="F196" s="23">
-        <v>3</v>
-      </c>
-      <c r="G196" s="1">
-        <v>23</v>
-      </c>
-      <c r="H196" s="1">
-        <v>0</v>
-      </c>
-      <c r="I196" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" ht="16.5" spans="2:9">
-      <c r="B197" s="22">
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="F210" s="24">
+        <v>3</v>
+      </c>
+      <c r="G210" s="1">
+        <v>23</v>
+      </c>
+      <c r="H210" s="1">
+        <v>0</v>
+      </c>
+      <c r="I210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" ht="16.5" spans="2:9">
+      <c r="B211" s="23">
         <v>2514</v>
       </c>
-      <c r="C197" s="1">
-        <v>1</v>
-      </c>
-      <c r="D197" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F197" s="23">
-        <v>3</v>
-      </c>
-      <c r="G197" s="1">
-        <v>23</v>
-      </c>
-      <c r="H197" s="1">
-        <v>0</v>
-      </c>
-      <c r="I197" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" ht="16.5" spans="2:9">
-      <c r="B198" s="22">
+      <c r="C211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D211" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="F211" s="24">
+        <v>3</v>
+      </c>
+      <c r="G211" s="1">
+        <v>23</v>
+      </c>
+      <c r="H211" s="1">
+        <v>0</v>
+      </c>
+      <c r="I211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" ht="16.5" spans="2:9">
+      <c r="B212" s="23">
         <v>2515</v>
       </c>
-      <c r="C198" s="1">
-        <v>1</v>
-      </c>
-      <c r="D198" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="F198" s="23">
-        <v>3</v>
-      </c>
-      <c r="G198" s="1">
-        <v>23</v>
-      </c>
-      <c r="H198" s="1">
-        <v>0</v>
-      </c>
-      <c r="I198" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" ht="16.5" spans="2:9">
-      <c r="B199" s="22">
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="F212" s="24">
+        <v>3</v>
+      </c>
+      <c r="G212" s="1">
+        <v>23</v>
+      </c>
+      <c r="H212" s="1">
+        <v>0</v>
+      </c>
+      <c r="I212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" ht="16.5" spans="2:9">
+      <c r="B213" s="23">
         <v>2516</v>
       </c>
-      <c r="C199" s="1">
-        <v>1</v>
-      </c>
-      <c r="D199" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="F199" s="23">
-        <v>3</v>
-      </c>
-      <c r="G199" s="1">
-        <v>23</v>
-      </c>
-      <c r="H199" s="1">
-        <v>0</v>
-      </c>
-      <c r="I199" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" ht="16.5" spans="2:9">
-      <c r="B200" s="22">
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F213" s="24">
+        <v>3</v>
+      </c>
+      <c r="G213" s="1">
+        <v>23</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0</v>
+      </c>
+      <c r="I213" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" ht="16.5" spans="2:9">
+      <c r="B214" s="23">
         <v>2517</v>
       </c>
-      <c r="C200" s="1">
-        <v>1</v>
-      </c>
-      <c r="D200" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="F200" s="23">
-        <v>3</v>
-      </c>
-      <c r="G200" s="1">
-        <v>23</v>
-      </c>
-      <c r="H200" s="1">
-        <v>0</v>
-      </c>
-      <c r="I200" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" ht="16.5" spans="2:9">
-      <c r="B201" s="22">
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F214" s="24">
+        <v>3</v>
+      </c>
+      <c r="G214" s="1">
+        <v>23</v>
+      </c>
+      <c r="H214" s="1">
+        <v>0</v>
+      </c>
+      <c r="I214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" ht="16.5" spans="2:9">
+      <c r="B215" s="23">
         <v>2518</v>
       </c>
-      <c r="C201" s="1">
-        <v>1</v>
-      </c>
-      <c r="D201" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="F201" s="23">
-        <v>3</v>
-      </c>
-      <c r="G201" s="1">
-        <v>23</v>
-      </c>
-      <c r="H201" s="1">
-        <v>0</v>
-      </c>
-      <c r="I201" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" ht="16.5" spans="2:9">
-      <c r="B202" s="22">
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D215" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="F215" s="24">
+        <v>3</v>
+      </c>
+      <c r="G215" s="1">
+        <v>23</v>
+      </c>
+      <c r="H215" s="1">
+        <v>0</v>
+      </c>
+      <c r="I215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" ht="16.5" spans="2:9">
+      <c r="B216" s="23">
         <v>2519</v>
       </c>
-      <c r="C202" s="1">
-        <v>1</v>
-      </c>
-      <c r="D202" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="F202" s="23">
-        <v>3</v>
-      </c>
-      <c r="G202" s="1">
-        <v>23</v>
-      </c>
-      <c r="H202" s="1">
-        <v>0</v>
-      </c>
-      <c r="I202" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" ht="16.5" spans="2:9">
-      <c r="B203" s="22">
+      <c r="C216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D216" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="F216" s="24">
+        <v>3</v>
+      </c>
+      <c r="G216" s="1">
+        <v>23</v>
+      </c>
+      <c r="H216" s="1">
+        <v>0</v>
+      </c>
+      <c r="I216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" ht="16.5" spans="2:9">
+      <c r="B217" s="23">
         <v>2520</v>
       </c>
-      <c r="C203" s="1">
-        <v>1</v>
-      </c>
-      <c r="D203" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="F203" s="23">
-        <v>3</v>
-      </c>
-      <c r="G203" s="1">
-        <v>23</v>
-      </c>
-      <c r="H203" s="1">
-        <v>0</v>
-      </c>
-      <c r="I203" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" ht="16.5" spans="2:9">
-      <c r="B204" s="22">
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="F217" s="24">
+        <v>3</v>
+      </c>
+      <c r="G217" s="1">
+        <v>23</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0</v>
+      </c>
+      <c r="I217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" ht="16.5" spans="2:9">
+      <c r="B218" s="23">
         <v>2521</v>
       </c>
-      <c r="C204" s="1">
-        <v>1</v>
-      </c>
-      <c r="D204" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="F204" s="23">
-        <v>3</v>
-      </c>
-      <c r="G204" s="1">
-        <v>23</v>
-      </c>
-      <c r="H204" s="1">
-        <v>0</v>
-      </c>
-      <c r="I204" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" ht="16.5" spans="2:9">
-      <c r="B205" s="22">
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F218" s="24">
+        <v>3</v>
+      </c>
+      <c r="G218" s="1">
+        <v>23</v>
+      </c>
+      <c r="H218" s="1">
+        <v>0</v>
+      </c>
+      <c r="I218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" ht="16.5" spans="2:9">
+      <c r="B219" s="23">
         <v>2522</v>
       </c>
-      <c r="C205" s="1">
-        <v>1</v>
-      </c>
-      <c r="D205" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="F205" s="23">
-        <v>3</v>
-      </c>
-      <c r="G205" s="1">
-        <v>23</v>
-      </c>
-      <c r="H205" s="1">
-        <v>0</v>
-      </c>
-      <c r="I205" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" ht="16.5" spans="2:9">
-      <c r="B206" s="22">
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+      <c r="D219" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F219" s="24">
+        <v>3</v>
+      </c>
+      <c r="G219" s="1">
+        <v>23</v>
+      </c>
+      <c r="H219" s="1">
+        <v>0</v>
+      </c>
+      <c r="I219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" ht="16.5" spans="2:9">
+      <c r="B220" s="23">
         <v>2523</v>
       </c>
-      <c r="C206" s="1">
-        <v>1</v>
-      </c>
-      <c r="D206" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="F206" s="23">
-        <v>3</v>
-      </c>
-      <c r="G206" s="1">
-        <v>23</v>
-      </c>
-      <c r="H206" s="1">
-        <v>0</v>
-      </c>
-      <c r="I206" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" ht="16.5" spans="2:9">
-      <c r="B207" s="22">
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F220" s="24">
+        <v>3</v>
+      </c>
+      <c r="G220" s="1">
+        <v>23</v>
+      </c>
+      <c r="H220" s="1">
+        <v>0</v>
+      </c>
+      <c r="I220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" ht="16.5" spans="2:9">
+      <c r="B221" s="23">
         <v>2524</v>
       </c>
-      <c r="C207" s="1">
-        <v>1</v>
-      </c>
-      <c r="D207" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="F207" s="23">
-        <v>3</v>
-      </c>
-      <c r="G207" s="1">
-        <v>23</v>
-      </c>
-      <c r="H207" s="1">
-        <v>0</v>
-      </c>
-      <c r="I207" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" ht="16.5" spans="2:9">
-      <c r="B208" s="22">
+      <c r="C221" s="1">
+        <v>1</v>
+      </c>
+      <c r="D221" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F221" s="24">
+        <v>3</v>
+      </c>
+      <c r="G221" s="1">
+        <v>23</v>
+      </c>
+      <c r="H221" s="1">
+        <v>0</v>
+      </c>
+      <c r="I221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" ht="16.5" spans="2:9">
+      <c r="B222" s="23">
         <v>2525</v>
       </c>
-      <c r="C208" s="1">
-        <v>1</v>
-      </c>
-      <c r="D208" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F208" s="23">
-        <v>3</v>
-      </c>
-      <c r="G208" s="1">
-        <v>23</v>
-      </c>
-      <c r="H208" s="1">
-        <v>0</v>
-      </c>
-      <c r="I208" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" ht="16.5" spans="2:9">
-      <c r="B209" s="22">
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F222" s="24">
+        <v>3</v>
+      </c>
+      <c r="G222" s="1">
+        <v>23</v>
+      </c>
+      <c r="H222" s="1">
+        <v>0</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" ht="16.5" spans="2:9">
+      <c r="B223" s="23">
         <v>2526</v>
       </c>
-      <c r="C209" s="1">
-        <v>1</v>
-      </c>
-      <c r="D209" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="F209" s="23">
-        <v>3</v>
-      </c>
-      <c r="G209" s="1">
-        <v>23</v>
-      </c>
-      <c r="H209" s="1">
-        <v>0</v>
-      </c>
-      <c r="I209" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" ht="16.5" spans="2:9">
-      <c r="B210" s="22">
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+      <c r="D223" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F223" s="24">
+        <v>3</v>
+      </c>
+      <c r="G223" s="1">
+        <v>23</v>
+      </c>
+      <c r="H223" s="1">
+        <v>0</v>
+      </c>
+      <c r="I223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" ht="16.5" spans="2:9">
+      <c r="B224" s="23">
         <v>2527</v>
       </c>
-      <c r="C210" s="1">
-        <v>1</v>
-      </c>
-      <c r="D210" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="F210" s="23">
-        <v>3</v>
-      </c>
-      <c r="G210" s="1">
-        <v>23</v>
-      </c>
-      <c r="H210" s="1">
-        <v>0</v>
-      </c>
-      <c r="I210" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" ht="16.5" spans="2:9">
-      <c r="B211" s="22">
+      <c r="C224" s="1">
+        <v>1</v>
+      </c>
+      <c r="D224" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F224" s="24">
+        <v>3</v>
+      </c>
+      <c r="G224" s="1">
+        <v>23</v>
+      </c>
+      <c r="H224" s="1">
+        <v>0</v>
+      </c>
+      <c r="I224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" ht="16.5" spans="2:9">
+      <c r="B225" s="23">
         <v>2528</v>
       </c>
-      <c r="C211" s="1">
-        <v>1</v>
-      </c>
-      <c r="D211" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="F211" s="23">
-        <v>3</v>
-      </c>
-      <c r="G211" s="1">
-        <v>23</v>
-      </c>
-      <c r="H211" s="1">
-        <v>0</v>
-      </c>
-      <c r="I211" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" ht="16.5" spans="2:9">
-      <c r="B212" s="22">
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F225" s="24">
+        <v>3</v>
+      </c>
+      <c r="G225" s="1">
+        <v>23</v>
+      </c>
+      <c r="H225" s="1">
+        <v>0</v>
+      </c>
+      <c r="I225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" ht="16.5" spans="2:9">
+      <c r="B226" s="23">
         <v>2529</v>
       </c>
-      <c r="C212" s="1">
-        <v>1</v>
-      </c>
-      <c r="D212" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="F212" s="23">
-        <v>3</v>
-      </c>
-      <c r="G212" s="1">
-        <v>23</v>
-      </c>
-      <c r="H212" s="1">
-        <v>0</v>
-      </c>
-      <c r="I212" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" ht="16.5" spans="2:9">
-      <c r="B213" s="22">
+      <c r="C226" s="1">
+        <v>1</v>
+      </c>
+      <c r="D226" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F226" s="24">
+        <v>3</v>
+      </c>
+      <c r="G226" s="1">
+        <v>23</v>
+      </c>
+      <c r="H226" s="1">
+        <v>0</v>
+      </c>
+      <c r="I226" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" ht="16.5" spans="2:9">
+      <c r="B227" s="23">
         <v>2530</v>
       </c>
-      <c r="C213" s="1">
-        <v>1</v>
-      </c>
-      <c r="D213" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="F213" s="23">
-        <v>3</v>
-      </c>
-      <c r="G213" s="1">
-        <v>23</v>
-      </c>
-      <c r="H213" s="1">
-        <v>0</v>
-      </c>
-      <c r="I213" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" ht="16.5" spans="2:9">
-      <c r="B214" s="22">
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F227" s="24">
+        <v>3</v>
+      </c>
+      <c r="G227" s="1">
+        <v>23</v>
+      </c>
+      <c r="H227" s="1">
+        <v>0</v>
+      </c>
+      <c r="I227" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" ht="16.5" spans="2:9">
+      <c r="B228" s="23">
         <v>2531</v>
       </c>
-      <c r="C214" s="1">
-        <v>1</v>
-      </c>
-      <c r="D214" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="F214" s="23">
-        <v>3</v>
-      </c>
-      <c r="G214" s="1">
-        <v>23</v>
-      </c>
-      <c r="H214" s="1">
-        <v>0</v>
-      </c>
-      <c r="I214" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" ht="16.5" spans="2:9">
-      <c r="B215" s="22">
+      <c r="C228" s="1">
+        <v>1</v>
+      </c>
+      <c r="D228" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="F228" s="24">
+        <v>3</v>
+      </c>
+      <c r="G228" s="1">
+        <v>23</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" ht="16.5" spans="2:9">
+      <c r="B229" s="23">
         <v>2532</v>
       </c>
-      <c r="C215" s="1">
-        <v>1</v>
-      </c>
-      <c r="D215" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="F215" s="23">
-        <v>3</v>
-      </c>
-      <c r="G215" s="1">
-        <v>23</v>
-      </c>
-      <c r="H215" s="1">
-        <v>0</v>
-      </c>
-      <c r="I215" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" ht="16.5" spans="2:9">
-      <c r="B216" s="22">
+      <c r="C229" s="1">
+        <v>1</v>
+      </c>
+      <c r="D229" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="F229" s="24">
+        <v>3</v>
+      </c>
+      <c r="G229" s="1">
+        <v>23</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" ht="16.5" spans="2:9">
+      <c r="B230" s="23">
         <v>2533</v>
       </c>
-      <c r="C216" s="1">
-        <v>1</v>
-      </c>
-      <c r="D216" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="F216" s="23">
-        <v>3</v>
-      </c>
-      <c r="G216" s="1">
-        <v>23</v>
-      </c>
-      <c r="H216" s="1">
-        <v>0</v>
-      </c>
-      <c r="I216" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" ht="16.5" spans="2:9">
-      <c r="B217" s="22">
+      <c r="C230" s="1">
+        <v>1</v>
+      </c>
+      <c r="D230" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="F230" s="24">
+        <v>3</v>
+      </c>
+      <c r="G230" s="1">
+        <v>23</v>
+      </c>
+      <c r="H230" s="1">
+        <v>0</v>
+      </c>
+      <c r="I230" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" ht="16.5" spans="2:9">
+      <c r="B231" s="23">
         <v>2534</v>
       </c>
-      <c r="C217" s="1">
-        <v>1</v>
-      </c>
-      <c r="D217" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F217" s="23">
-        <v>3</v>
-      </c>
-      <c r="G217" s="1">
-        <v>23</v>
-      </c>
-      <c r="H217" s="1">
-        <v>0</v>
-      </c>
-      <c r="I217" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" ht="16.5" spans="2:9">
-      <c r="B218" s="22">
+      <c r="C231" s="1">
+        <v>1</v>
+      </c>
+      <c r="D231" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F231" s="24">
+        <v>3</v>
+      </c>
+      <c r="G231" s="1">
+        <v>23</v>
+      </c>
+      <c r="H231" s="1">
+        <v>0</v>
+      </c>
+      <c r="I231" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" ht="16.5" spans="2:9">
+      <c r="B232" s="23">
         <v>2535</v>
       </c>
-      <c r="C218" s="1">
-        <v>1</v>
-      </c>
-      <c r="D218" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="F218" s="23">
-        <v>3</v>
-      </c>
-      <c r="G218" s="1">
-        <v>23</v>
-      </c>
-      <c r="H218" s="1">
-        <v>0</v>
-      </c>
-      <c r="I218" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" ht="16.5" spans="2:9">
-      <c r="B219" s="22">
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
+      <c r="D232" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F232" s="24">
+        <v>3</v>
+      </c>
+      <c r="G232" s="1">
+        <v>23</v>
+      </c>
+      <c r="H232" s="1">
+        <v>0</v>
+      </c>
+      <c r="I232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" ht="16.5" spans="2:9">
+      <c r="B233" s="23">
         <v>2536</v>
       </c>
-      <c r="C219" s="1">
-        <v>1</v>
-      </c>
-      <c r="D219" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="F219" s="23">
-        <v>3</v>
-      </c>
-      <c r="G219" s="1">
-        <v>23</v>
-      </c>
-      <c r="H219" s="1">
-        <v>0</v>
-      </c>
-      <c r="I219" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" ht="16.5" spans="2:9">
-      <c r="B220" s="22">
+      <c r="C233" s="1">
+        <v>1</v>
+      </c>
+      <c r="D233" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="F233" s="24">
+        <v>3</v>
+      </c>
+      <c r="G233" s="1">
+        <v>23</v>
+      </c>
+      <c r="H233" s="1">
+        <v>0</v>
+      </c>
+      <c r="I233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" ht="16.5" spans="2:9">
+      <c r="B234" s="23">
         <v>2537</v>
       </c>
-      <c r="C220" s="1">
-        <v>1</v>
-      </c>
-      <c r="D220" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F220" s="23">
-        <v>3</v>
-      </c>
-      <c r="G220" s="1">
-        <v>23</v>
-      </c>
-      <c r="H220" s="1">
-        <v>0</v>
-      </c>
-      <c r="I220" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" ht="16.5" spans="2:9">
-      <c r="B221" s="22">
+      <c r="C234" s="1">
+        <v>1</v>
+      </c>
+      <c r="D234" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="F234" s="24">
+        <v>3</v>
+      </c>
+      <c r="G234" s="1">
+        <v>23</v>
+      </c>
+      <c r="H234" s="1">
+        <v>0</v>
+      </c>
+      <c r="I234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" ht="16.5" spans="2:9">
+      <c r="B235" s="23">
         <v>2538</v>
       </c>
-      <c r="C221" s="1">
-        <v>1</v>
-      </c>
-      <c r="D221" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="F221" s="23">
-        <v>3</v>
-      </c>
-      <c r="G221" s="1">
-        <v>23</v>
-      </c>
-      <c r="H221" s="1">
-        <v>0</v>
-      </c>
-      <c r="I221" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" ht="16.5" spans="2:9">
-      <c r="B222" s="22">
+      <c r="C235" s="1">
+        <v>1</v>
+      </c>
+      <c r="D235" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F235" s="24">
+        <v>3</v>
+      </c>
+      <c r="G235" s="1">
+        <v>23</v>
+      </c>
+      <c r="H235" s="1">
+        <v>0</v>
+      </c>
+      <c r="I235" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" ht="16.5" spans="2:9">
+      <c r="B236" s="23">
         <v>2539</v>
       </c>
-      <c r="C222" s="1">
-        <v>1</v>
-      </c>
-      <c r="D222" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="F222" s="23">
-        <v>3</v>
-      </c>
-      <c r="G222" s="1">
-        <v>23</v>
-      </c>
-      <c r="H222" s="1">
-        <v>0</v>
-      </c>
-      <c r="I222" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" ht="16.5" spans="2:9">
-      <c r="B223" s="22">
+      <c r="C236" s="1">
+        <v>1</v>
+      </c>
+      <c r="D236" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F236" s="24">
+        <v>3</v>
+      </c>
+      <c r="G236" s="1">
+        <v>23</v>
+      </c>
+      <c r="H236" s="1">
+        <v>0</v>
+      </c>
+      <c r="I236" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" ht="16.5" spans="2:9">
+      <c r="B237" s="23">
         <v>2540</v>
       </c>
-      <c r="C223" s="1">
-        <v>1</v>
-      </c>
-      <c r="D223" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="F223" s="23">
-        <v>3</v>
-      </c>
-      <c r="G223" s="1">
-        <v>23</v>
-      </c>
-      <c r="H223" s="1">
-        <v>0</v>
-      </c>
-      <c r="I223" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" ht="16.5" spans="2:9">
-      <c r="B224" s="22">
+      <c r="C237" s="1">
+        <v>1</v>
+      </c>
+      <c r="D237" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F237" s="24">
+        <v>3</v>
+      </c>
+      <c r="G237" s="1">
+        <v>23</v>
+      </c>
+      <c r="H237" s="1">
+        <v>0</v>
+      </c>
+      <c r="I237" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" ht="16.5" spans="2:9">
+      <c r="B238" s="23">
         <v>2541</v>
       </c>
-      <c r="C224" s="1">
-        <v>1</v>
-      </c>
-      <c r="D224" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="F224" s="23">
-        <v>3</v>
-      </c>
-      <c r="G224" s="1">
-        <v>23</v>
-      </c>
-      <c r="H224" s="1">
-        <v>0</v>
-      </c>
-      <c r="I224" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" ht="16.5" spans="2:9">
-      <c r="B225" s="22">
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D238" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F238" s="24">
+        <v>3</v>
+      </c>
+      <c r="G238" s="1">
+        <v>23</v>
+      </c>
+      <c r="H238" s="1">
+        <v>0</v>
+      </c>
+      <c r="I238" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" ht="16.5" spans="2:9">
+      <c r="B239" s="23">
         <v>2542</v>
       </c>
-      <c r="C225" s="1">
-        <v>1</v>
-      </c>
-      <c r="D225" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="F225" s="23">
-        <v>3</v>
-      </c>
-      <c r="G225" s="1">
-        <v>23</v>
-      </c>
-      <c r="H225" s="1">
-        <v>0</v>
-      </c>
-      <c r="I225" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" ht="16.5" spans="2:9">
-      <c r="B226" s="22">
+      <c r="C239" s="1">
+        <v>1</v>
+      </c>
+      <c r="D239" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F239" s="24">
+        <v>3</v>
+      </c>
+      <c r="G239" s="1">
+        <v>23</v>
+      </c>
+      <c r="H239" s="1">
+        <v>0</v>
+      </c>
+      <c r="I239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" ht="16.5" spans="2:9">
+      <c r="B240" s="23">
         <v>2543</v>
       </c>
-      <c r="C226" s="1">
-        <v>1</v>
-      </c>
-      <c r="D226" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="F226" s="23">
-        <v>3</v>
-      </c>
-      <c r="G226" s="1">
-        <v>23</v>
-      </c>
-      <c r="H226" s="1">
-        <v>0</v>
-      </c>
-      <c r="I226" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" ht="16.5" spans="2:9">
-      <c r="B227" s="22">
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D240" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F240" s="24">
+        <v>3</v>
+      </c>
+      <c r="G240" s="1">
+        <v>23</v>
+      </c>
+      <c r="H240" s="1">
+        <v>0</v>
+      </c>
+      <c r="I240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" ht="16.5" spans="2:9">
+      <c r="B241" s="23">
         <v>2544</v>
       </c>
-      <c r="C227" s="1">
-        <v>1</v>
-      </c>
-      <c r="D227" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="F227" s="23">
-        <v>3</v>
-      </c>
-      <c r="G227" s="1">
-        <v>23</v>
-      </c>
-      <c r="H227" s="1">
-        <v>0</v>
-      </c>
-      <c r="I227" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" ht="16.5" spans="2:9">
-      <c r="B228" s="22">
+      <c r="C241" s="1">
+        <v>1</v>
+      </c>
+      <c r="D241" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="F241" s="24">
+        <v>3</v>
+      </c>
+      <c r="G241" s="1">
+        <v>23</v>
+      </c>
+      <c r="H241" s="1">
+        <v>0</v>
+      </c>
+      <c r="I241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" ht="16.5" spans="2:9">
+      <c r="B242" s="23">
         <v>2545</v>
       </c>
-      <c r="C228" s="1">
-        <v>1</v>
-      </c>
-      <c r="D228" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="F228" s="23">
-        <v>3</v>
-      </c>
-      <c r="G228" s="1">
-        <v>23</v>
-      </c>
-      <c r="H228" s="1">
-        <v>0</v>
-      </c>
-      <c r="I228" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" ht="16.5" spans="2:9">
-      <c r="B229" s="22">
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D242" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F242" s="24">
+        <v>3</v>
+      </c>
+      <c r="G242" s="1">
+        <v>23</v>
+      </c>
+      <c r="H242" s="1">
+        <v>0</v>
+      </c>
+      <c r="I242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" ht="16.5" spans="2:9">
+      <c r="B243" s="23">
         <v>2546</v>
       </c>
-      <c r="C229" s="1">
-        <v>1</v>
-      </c>
-      <c r="D229" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F229" s="23">
-        <v>3</v>
-      </c>
-      <c r="G229" s="1">
-        <v>23</v>
-      </c>
-      <c r="H229" s="1">
-        <v>0</v>
-      </c>
-      <c r="I229" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" ht="16.5" spans="2:9">
-      <c r="B230" s="22">
+      <c r="C243" s="1">
+        <v>1</v>
+      </c>
+      <c r="D243" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="F243" s="24">
+        <v>3</v>
+      </c>
+      <c r="G243" s="1">
+        <v>23</v>
+      </c>
+      <c r="H243" s="1">
+        <v>0</v>
+      </c>
+      <c r="I243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" ht="16.5" spans="2:9">
+      <c r="B244" s="23">
         <v>2547</v>
       </c>
-      <c r="C230" s="1">
-        <v>1</v>
-      </c>
-      <c r="D230" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="F230" s="23">
-        <v>3</v>
-      </c>
-      <c r="G230" s="1">
-        <v>23</v>
-      </c>
-      <c r="H230" s="1">
-        <v>0</v>
-      </c>
-      <c r="I230" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" ht="16.5" spans="2:9">
-      <c r="B231" s="22">
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+      <c r="D244" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F244" s="24">
+        <v>3</v>
+      </c>
+      <c r="G244" s="1">
+        <v>23</v>
+      </c>
+      <c r="H244" s="1">
+        <v>0</v>
+      </c>
+      <c r="I244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" ht="16.5" spans="2:9">
+      <c r="B245" s="23">
         <v>2548</v>
       </c>
-      <c r="C231" s="1">
-        <v>1</v>
-      </c>
-      <c r="D231" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="F231" s="23">
-        <v>3</v>
-      </c>
-      <c r="G231" s="1">
-        <v>23</v>
-      </c>
-      <c r="H231" s="1">
-        <v>0</v>
-      </c>
-      <c r="I231" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" ht="16.5" spans="2:9">
-      <c r="B232" s="22">
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D245" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="F245" s="24">
+        <v>3</v>
+      </c>
+      <c r="G245" s="1">
+        <v>23</v>
+      </c>
+      <c r="H245" s="1">
+        <v>0</v>
+      </c>
+      <c r="I245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" ht="16.5" spans="2:9">
+      <c r="B246" s="23">
         <v>2549</v>
       </c>
-      <c r="C232" s="1">
-        <v>1</v>
-      </c>
-      <c r="D232" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F232" s="23">
-        <v>3</v>
-      </c>
-      <c r="G232" s="1">
-        <v>23</v>
-      </c>
-      <c r="H232" s="1">
-        <v>0</v>
-      </c>
-      <c r="I232" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" ht="16.5" spans="2:9">
-      <c r="B233" s="22">
+      <c r="C246" s="1">
+        <v>1</v>
+      </c>
+      <c r="D246" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F246" s="24">
+        <v>3</v>
+      </c>
+      <c r="G246" s="1">
+        <v>23</v>
+      </c>
+      <c r="H246" s="1">
+        <v>0</v>
+      </c>
+      <c r="I246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" ht="16.5" spans="2:9">
+      <c r="B247" s="23">
         <v>2550</v>
       </c>
-      <c r="C233" s="1">
-        <v>1</v>
-      </c>
-      <c r="D233" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="F233" s="23">
-        <v>3</v>
-      </c>
-      <c r="G233" s="1">
-        <v>23</v>
-      </c>
-      <c r="H233" s="1">
-        <v>0</v>
-      </c>
-      <c r="I233" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" ht="16.5" spans="2:9">
-      <c r="B234" s="22">
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+      <c r="D247" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="F247" s="24">
+        <v>3</v>
+      </c>
+      <c r="G247" s="1">
+        <v>23</v>
+      </c>
+      <c r="H247" s="1">
+        <v>0</v>
+      </c>
+      <c r="I247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" ht="16.5" spans="2:9">
+      <c r="B248" s="23">
         <v>2551</v>
       </c>
-      <c r="C234" s="1">
-        <v>1</v>
-      </c>
-      <c r="D234" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="F234" s="23">
-        <v>3</v>
-      </c>
-      <c r="G234" s="1">
-        <v>23</v>
-      </c>
-      <c r="H234" s="1">
-        <v>0</v>
-      </c>
-      <c r="I234" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" ht="16.5" spans="2:9">
-      <c r="B235" s="22">
+      <c r="C248" s="1">
+        <v>1</v>
+      </c>
+      <c r="D248" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F248" s="24">
+        <v>3</v>
+      </c>
+      <c r="G248" s="1">
+        <v>23</v>
+      </c>
+      <c r="H248" s="1">
+        <v>0</v>
+      </c>
+      <c r="I248" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" ht="16.5" spans="2:9">
+      <c r="B249" s="23">
         <v>2552</v>
       </c>
-      <c r="C235" s="1">
-        <v>1</v>
-      </c>
-      <c r="D235" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="F235" s="23">
-        <v>3</v>
-      </c>
-      <c r="G235" s="1">
-        <v>23</v>
-      </c>
-      <c r="H235" s="1">
-        <v>0</v>
-      </c>
-      <c r="I235" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" ht="16.5" spans="2:9">
-      <c r="B236" s="22">
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+      <c r="D249" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F249" s="24">
+        <v>3</v>
+      </c>
+      <c r="G249" s="1">
+        <v>23</v>
+      </c>
+      <c r="H249" s="1">
+        <v>0</v>
+      </c>
+      <c r="I249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" ht="16.5" spans="2:9">
+      <c r="B250" s="23">
         <v>2553</v>
       </c>
-      <c r="C236" s="1">
-        <v>1</v>
-      </c>
-      <c r="D236" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="F236" s="23">
-        <v>3</v>
-      </c>
-      <c r="G236" s="1">
-        <v>23</v>
-      </c>
-      <c r="H236" s="1">
-        <v>0</v>
-      </c>
-      <c r="I236" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" ht="16.5" spans="2:9">
-      <c r="B237" s="22">
+      <c r="C250" s="1">
+        <v>1</v>
+      </c>
+      <c r="D250" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F250" s="24">
+        <v>3</v>
+      </c>
+      <c r="G250" s="1">
+        <v>23</v>
+      </c>
+      <c r="H250" s="1">
+        <v>0</v>
+      </c>
+      <c r="I250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" ht="16.5" spans="2:9">
+      <c r="B251" s="23">
         <v>2554</v>
       </c>
-      <c r="C237" s="1">
-        <v>1</v>
-      </c>
-      <c r="D237" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="F237" s="23">
-        <v>3</v>
-      </c>
-      <c r="G237" s="1">
-        <v>23</v>
-      </c>
-      <c r="H237" s="1">
-        <v>0</v>
-      </c>
-      <c r="I237" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" ht="16.5" spans="2:9">
-      <c r="B238" s="22">
+      <c r="C251" s="1">
+        <v>1</v>
+      </c>
+      <c r="D251" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="F251" s="24">
+        <v>3</v>
+      </c>
+      <c r="G251" s="1">
+        <v>23</v>
+      </c>
+      <c r="H251" s="1">
+        <v>0</v>
+      </c>
+      <c r="I251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" ht="16.5" spans="2:9">
+      <c r="B252" s="23">
         <v>2555</v>
       </c>
-      <c r="C238" s="1">
-        <v>1</v>
-      </c>
-      <c r="D238" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="F238" s="23">
-        <v>3</v>
-      </c>
-      <c r="G238" s="1">
-        <v>23</v>
-      </c>
-      <c r="H238" s="1">
-        <v>0</v>
-      </c>
-      <c r="I238" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" ht="16.5" spans="2:9">
-      <c r="B239" s="22">
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D252" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="F252" s="24">
+        <v>3</v>
+      </c>
+      <c r="G252" s="1">
+        <v>23</v>
+      </c>
+      <c r="H252" s="1">
+        <v>0</v>
+      </c>
+      <c r="I252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" ht="16.5" spans="2:9">
+      <c r="B253" s="23">
         <v>2556</v>
       </c>
-      <c r="C239" s="1">
-        <v>1</v>
-      </c>
-      <c r="D239" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F239" s="23">
-        <v>3</v>
-      </c>
-      <c r="G239" s="1">
-        <v>23</v>
-      </c>
-      <c r="H239" s="1">
-        <v>0</v>
-      </c>
-      <c r="I239" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" ht="16.5" spans="2:9">
-      <c r="B240" s="22">
+      <c r="C253" s="1">
+        <v>1</v>
+      </c>
+      <c r="D253" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="F253" s="24">
+        <v>3</v>
+      </c>
+      <c r="G253" s="1">
+        <v>23</v>
+      </c>
+      <c r="H253" s="1">
+        <v>0</v>
+      </c>
+      <c r="I253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" ht="16.5" spans="2:9">
+      <c r="B254" s="23">
         <v>2557</v>
       </c>
-      <c r="C240" s="1">
-        <v>1</v>
-      </c>
-      <c r="D240" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="F240" s="23">
-        <v>3</v>
-      </c>
-      <c r="G240" s="1">
-        <v>23</v>
-      </c>
-      <c r="H240" s="1">
-        <v>0</v>
-      </c>
-      <c r="I240" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" ht="16.5" spans="2:9">
-      <c r="B241" s="22">
+      <c r="C254" s="1">
+        <v>1</v>
+      </c>
+      <c r="D254" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F254" s="24">
+        <v>3</v>
+      </c>
+      <c r="G254" s="1">
+        <v>23</v>
+      </c>
+      <c r="H254" s="1">
+        <v>0</v>
+      </c>
+      <c r="I254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" ht="16.5" spans="2:9">
+      <c r="B255" s="23">
         <v>2558</v>
       </c>
-      <c r="C241" s="1">
-        <v>1</v>
-      </c>
-      <c r="D241" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="F241" s="23">
-        <v>3</v>
-      </c>
-      <c r="G241" s="1">
-        <v>23</v>
-      </c>
-      <c r="H241" s="1">
-        <v>0</v>
-      </c>
-      <c r="I241" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" ht="16.5" spans="2:9">
-      <c r="B242" s="22">
+      <c r="C255" s="1">
+        <v>1</v>
+      </c>
+      <c r="D255" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F255" s="24">
+        <v>3</v>
+      </c>
+      <c r="G255" s="1">
+        <v>23</v>
+      </c>
+      <c r="H255" s="1">
+        <v>0</v>
+      </c>
+      <c r="I255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" ht="16.5" spans="2:9">
+      <c r="B256" s="23">
         <v>2559</v>
       </c>
-      <c r="C242" s="1">
-        <v>1</v>
-      </c>
-      <c r="D242" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="F242" s="23">
-        <v>3</v>
-      </c>
-      <c r="G242" s="1">
-        <v>23</v>
-      </c>
-      <c r="H242" s="1">
-        <v>0</v>
-      </c>
-      <c r="I242" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" ht="16.5" spans="2:9">
-      <c r="B243" s="22">
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+      <c r="D256" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F256" s="24">
+        <v>3</v>
+      </c>
+      <c r="G256" s="1">
+        <v>23</v>
+      </c>
+      <c r="H256" s="1">
+        <v>0</v>
+      </c>
+      <c r="I256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" ht="16.5" spans="2:9">
+      <c r="B257" s="23">
         <v>2901</v>
       </c>
-      <c r="C243" s="1">
-        <v>1</v>
-      </c>
-      <c r="D243" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="F243" s="23">
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D257" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="F257" s="24">
         <v>4</v>
       </c>
-      <c r="G243" s="1">
-        <v>23</v>
-      </c>
-      <c r="H243" s="1">
-        <v>0</v>
-      </c>
-      <c r="I243" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" ht="16.5" spans="2:9">
-      <c r="B244" s="22">
+      <c r="G257" s="1">
+        <v>23</v>
+      </c>
+      <c r="H257" s="1">
+        <v>0</v>
+      </c>
+      <c r="I257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" ht="16.5" spans="2:9">
+      <c r="B258" s="23">
         <v>2902</v>
       </c>
-      <c r="C244" s="1">
-        <v>1</v>
-      </c>
-      <c r="D244" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="F244" s="23">
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D258" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F258" s="24">
         <v>4</v>
       </c>
-      <c r="G244" s="1">
-        <v>23</v>
-      </c>
-      <c r="H244" s="1">
-        <v>0</v>
-      </c>
-      <c r="I244" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" ht="16.5" spans="2:9">
-      <c r="B245" s="22">
+      <c r="G258" s="1">
+        <v>23</v>
+      </c>
+      <c r="H258" s="1">
+        <v>0</v>
+      </c>
+      <c r="I258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" ht="16.5" spans="2:9">
+      <c r="B259" s="23">
         <v>2903</v>
       </c>
-      <c r="C245" s="1">
-        <v>1</v>
-      </c>
-      <c r="D245" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F245" s="23">
+      <c r="C259" s="1">
+        <v>1</v>
+      </c>
+      <c r="D259" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="F259" s="24">
         <v>4</v>
       </c>
-      <c r="G245" s="1">
-        <v>23</v>
-      </c>
-      <c r="H245" s="1">
-        <v>0</v>
-      </c>
-      <c r="I245" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" ht="16.5" spans="2:9">
-      <c r="B246" s="22">
+      <c r="G259" s="1">
+        <v>23</v>
+      </c>
+      <c r="H259" s="1">
+        <v>0</v>
+      </c>
+      <c r="I259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" ht="16.5" spans="2:9">
+      <c r="B260" s="23">
         <v>2904</v>
       </c>
-      <c r="C246" s="1">
-        <v>1</v>
-      </c>
-      <c r="D246" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="F246" s="23">
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+      <c r="D260" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F260" s="24">
         <v>4</v>
       </c>
-      <c r="G246" s="1">
-        <v>23</v>
-      </c>
-      <c r="H246" s="1">
-        <v>0</v>
-      </c>
-      <c r="I246" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" ht="16.5" spans="2:9">
-      <c r="B247" s="22">
+      <c r="G260" s="1">
+        <v>23</v>
+      </c>
+      <c r="H260" s="1">
+        <v>0</v>
+      </c>
+      <c r="I260" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" ht="16.5" spans="2:9">
+      <c r="B261" s="23">
         <v>2905</v>
       </c>
-      <c r="C247" s="1">
-        <v>1</v>
-      </c>
-      <c r="D247" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F247" s="23">
+      <c r="C261" s="1">
+        <v>1</v>
+      </c>
+      <c r="D261" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F261" s="24">
         <v>4</v>
       </c>
-      <c r="G247" s="1">
-        <v>23</v>
-      </c>
-      <c r="H247" s="1">
-        <v>0</v>
-      </c>
-      <c r="I247" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" ht="16.5" spans="2:9">
-      <c r="B248" s="22">
+      <c r="G261" s="1">
+        <v>23</v>
+      </c>
+      <c r="H261" s="1">
+        <v>0</v>
+      </c>
+      <c r="I261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" ht="16.5" spans="2:9">
+      <c r="B262" s="23">
         <v>2906</v>
       </c>
-      <c r="C248" s="1">
-        <v>1</v>
-      </c>
-      <c r="D248" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F248" s="23">
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D262" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F262" s="24">
         <v>4</v>
       </c>
-      <c r="G248" s="1">
-        <v>23</v>
-      </c>
-      <c r="H248" s="1">
-        <v>0</v>
-      </c>
-      <c r="I248" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" ht="16.5" spans="2:9">
-      <c r="B249" s="22">
+      <c r="G262" s="1">
+        <v>23</v>
+      </c>
+      <c r="H262" s="1">
+        <v>0</v>
+      </c>
+      <c r="I262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" ht="16.5" spans="2:9">
+      <c r="B263" s="23">
         <v>2907</v>
       </c>
-      <c r="C249" s="1">
-        <v>1</v>
-      </c>
-      <c r="D249" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="F249" s="23">
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+      <c r="D263" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F263" s="24">
         <v>4</v>
       </c>
-      <c r="G249" s="1">
-        <v>23</v>
-      </c>
-      <c r="H249" s="1">
-        <v>0</v>
-      </c>
-      <c r="I249" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" ht="16.5" spans="2:9">
-      <c r="B250" s="22">
+      <c r="G263" s="1">
+        <v>23</v>
+      </c>
+      <c r="H263" s="1">
+        <v>0</v>
+      </c>
+      <c r="I263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" ht="16.5" spans="2:9">
+      <c r="B264" s="23">
         <v>2908</v>
       </c>
-      <c r="C250" s="1">
-        <v>1</v>
-      </c>
-      <c r="D250" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="F250" s="23">
+      <c r="C264" s="1">
+        <v>1</v>
+      </c>
+      <c r="D264" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F264" s="24">
         <v>4</v>
       </c>
-      <c r="G250" s="1">
-        <v>23</v>
-      </c>
-      <c r="H250" s="1">
-        <v>0</v>
-      </c>
-      <c r="I250" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" ht="16.5" spans="2:9">
-      <c r="B251" s="22">
+      <c r="G264" s="1">
+        <v>23</v>
+      </c>
+      <c r="H264" s="1">
+        <v>0</v>
+      </c>
+      <c r="I264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" ht="16.5" spans="2:9">
+      <c r="B265" s="23">
         <v>2909</v>
       </c>
-      <c r="C251" s="1">
-        <v>1</v>
-      </c>
-      <c r="D251" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="F251" s="23">
+      <c r="C265" s="1">
+        <v>1</v>
+      </c>
+      <c r="D265" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F265" s="24">
         <v>4</v>
       </c>
-      <c r="G251" s="1">
-        <v>23</v>
-      </c>
-      <c r="H251" s="1">
-        <v>0</v>
-      </c>
-      <c r="I251" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" ht="16.5" spans="2:9">
-      <c r="B252" s="22">
+      <c r="G265" s="1">
+        <v>23</v>
+      </c>
+      <c r="H265" s="1">
+        <v>0</v>
+      </c>
+      <c r="I265" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" ht="16.5" spans="2:9">
+      <c r="B266" s="23">
         <v>2910</v>
       </c>
-      <c r="C252" s="1">
-        <v>1</v>
-      </c>
-      <c r="D252" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="F252" s="23">
+      <c r="C266" s="1">
+        <v>1</v>
+      </c>
+      <c r="D266" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="F266" s="24">
         <v>4</v>
       </c>
-      <c r="G252" s="1">
-        <v>23</v>
-      </c>
-      <c r="H252" s="1">
-        <v>0</v>
-      </c>
-      <c r="I252" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" ht="16.5" spans="2:9">
-      <c r="B253" s="22">
+      <c r="G266" s="1">
+        <v>23</v>
+      </c>
+      <c r="H266" s="1">
+        <v>0</v>
+      </c>
+      <c r="I266" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" ht="16.5" spans="2:9">
+      <c r="B267" s="23">
         <v>2911</v>
       </c>
-      <c r="C253" s="1">
-        <v>1</v>
-      </c>
-      <c r="D253" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F253" s="23">
+      <c r="C267" s="1">
+        <v>1</v>
+      </c>
+      <c r="D267" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F267" s="24">
         <v>4</v>
       </c>
-      <c r="G253" s="1">
-        <v>23</v>
-      </c>
-      <c r="H253" s="1">
-        <v>0</v>
-      </c>
-      <c r="I253" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" ht="16.5" spans="2:9">
-      <c r="B254" s="22">
+      <c r="G267" s="1">
+        <v>23</v>
+      </c>
+      <c r="H267" s="1">
+        <v>0</v>
+      </c>
+      <c r="I267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" ht="16.5" spans="2:9">
+      <c r="B268" s="23">
         <v>2912</v>
       </c>
-      <c r="C254" s="1">
-        <v>1</v>
-      </c>
-      <c r="D254" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="F254" s="23">
+      <c r="C268" s="1">
+        <v>1</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="F268" s="24">
         <v>4</v>
       </c>
-      <c r="G254" s="1">
-        <v>23</v>
-      </c>
-      <c r="H254" s="1">
-        <v>0</v>
-      </c>
-      <c r="I254" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" ht="16.5" spans="2:9">
-      <c r="B255" s="22">
+      <c r="G268" s="1">
+        <v>23</v>
+      </c>
+      <c r="H268" s="1">
+        <v>0</v>
+      </c>
+      <c r="I268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" ht="16.5" spans="2:9">
+      <c r="B269" s="23">
         <v>2913</v>
       </c>
-      <c r="C255" s="1">
-        <v>1</v>
-      </c>
-      <c r="D255" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="F255" s="23">
+      <c r="C269" s="1">
+        <v>1</v>
+      </c>
+      <c r="D269" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="F269" s="24">
         <v>4</v>
       </c>
-      <c r="G255" s="1">
-        <v>23</v>
-      </c>
-      <c r="H255" s="1">
-        <v>0</v>
-      </c>
-      <c r="I255" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" ht="16.5" spans="2:9">
-      <c r="B256" s="22">
+      <c r="G269" s="1">
+        <v>23</v>
+      </c>
+      <c r="H269" s="1">
+        <v>0</v>
+      </c>
+      <c r="I269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" ht="16.5" spans="2:9">
+      <c r="B270" s="23">
         <v>2914</v>
       </c>
-      <c r="C256" s="1">
-        <v>1</v>
-      </c>
-      <c r="D256" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="F256" s="23">
+      <c r="C270" s="1">
+        <v>1</v>
+      </c>
+      <c r="D270" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="F270" s="24">
         <v>4</v>
       </c>
-      <c r="G256" s="1">
-        <v>23</v>
-      </c>
-      <c r="H256" s="1">
-        <v>0</v>
-      </c>
-      <c r="I256" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" ht="16.5" spans="2:9">
-      <c r="B257" s="22">
+      <c r="G270" s="1">
+        <v>23</v>
+      </c>
+      <c r="H270" s="1">
+        <v>0</v>
+      </c>
+      <c r="I270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" ht="16.5" spans="2:9">
+      <c r="B271" s="23">
         <v>2915</v>
       </c>
-      <c r="C257" s="1">
-        <v>1</v>
-      </c>
-      <c r="D257" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="F257" s="23">
+      <c r="C271" s="1">
+        <v>1</v>
+      </c>
+      <c r="D271" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="F271" s="24">
         <v>4</v>
       </c>
-      <c r="G257" s="1">
-        <v>23</v>
-      </c>
-      <c r="H257" s="1">
-        <v>0</v>
-      </c>
-      <c r="I257" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" ht="16.5" spans="2:9">
-      <c r="B258" s="22">
+      <c r="G271" s="1">
+        <v>23</v>
+      </c>
+      <c r="H271" s="1">
+        <v>0</v>
+      </c>
+      <c r="I271" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" ht="16.5" spans="2:9">
+      <c r="B272" s="23">
         <v>2916</v>
       </c>
-      <c r="C258" s="1">
-        <v>1</v>
-      </c>
-      <c r="D258" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="F258" s="23">
+      <c r="C272" s="1">
+        <v>1</v>
+      </c>
+      <c r="D272" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="F272" s="24">
         <v>4</v>
       </c>
-      <c r="G258" s="1">
-        <v>23</v>
-      </c>
-      <c r="H258" s="1">
-        <v>0</v>
-      </c>
-      <c r="I258" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" ht="16.5" spans="2:9">
-      <c r="B259" s="22">
+      <c r="G272" s="1">
+        <v>23</v>
+      </c>
+      <c r="H272" s="1">
+        <v>0</v>
+      </c>
+      <c r="I272" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" ht="16.5" spans="2:9">
+      <c r="B273" s="23">
         <v>2917</v>
       </c>
-      <c r="C259" s="1">
-        <v>1</v>
-      </c>
-      <c r="D259" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="F259" s="23">
+      <c r="C273" s="1">
+        <v>1</v>
+      </c>
+      <c r="D273" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="F273" s="24">
         <v>4</v>
       </c>
-      <c r="G259" s="1">
-        <v>23</v>
-      </c>
-      <c r="H259" s="1">
-        <v>0</v>
-      </c>
-      <c r="I259" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" ht="16.5" spans="2:9">
-      <c r="B260" s="22">
+      <c r="G273" s="1">
+        <v>23</v>
+      </c>
+      <c r="H273" s="1">
+        <v>0</v>
+      </c>
+      <c r="I273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" ht="16.5" spans="2:9">
+      <c r="B274" s="23">
         <v>2918</v>
       </c>
-      <c r="C260" s="1">
-        <v>1</v>
-      </c>
-      <c r="D260" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F260" s="23">
+      <c r="C274" s="1">
+        <v>1</v>
+      </c>
+      <c r="D274" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="F274" s="24">
         <v>4</v>
       </c>
-      <c r="G260" s="1">
-        <v>23</v>
-      </c>
-      <c r="H260" s="1">
-        <v>0</v>
-      </c>
-      <c r="I260" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" ht="16.5" spans="2:9">
-      <c r="B261" s="22">
+      <c r="G274" s="1">
+        <v>23</v>
+      </c>
+      <c r="H274" s="1">
+        <v>0</v>
+      </c>
+      <c r="I274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" ht="16.5" spans="2:9">
+      <c r="B275" s="23">
         <v>2919</v>
       </c>
-      <c r="C261" s="1">
-        <v>1</v>
-      </c>
-      <c r="D261" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="F261" s="23">
+      <c r="C275" s="1">
+        <v>1</v>
+      </c>
+      <c r="D275" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="F275" s="24">
         <v>4</v>
       </c>
-      <c r="G261" s="1">
-        <v>23</v>
-      </c>
-      <c r="H261" s="1">
-        <v>0</v>
-      </c>
-      <c r="I261" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" ht="16.5" spans="2:9">
-      <c r="B262" s="22">
+      <c r="G275" s="1">
+        <v>23</v>
+      </c>
+      <c r="H275" s="1">
+        <v>0</v>
+      </c>
+      <c r="I275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" ht="16.5" spans="2:9">
+      <c r="B276" s="23">
         <v>2920</v>
       </c>
-      <c r="C262" s="1">
-        <v>1</v>
-      </c>
-      <c r="D262" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="F262" s="23">
+      <c r="C276" s="1">
+        <v>1</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F276" s="24">
         <v>4</v>
       </c>
-      <c r="G262" s="1">
-        <v>23</v>
-      </c>
-      <c r="H262" s="1">
-        <v>0</v>
-      </c>
-      <c r="I262" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" ht="16.5" spans="2:9">
-      <c r="B263" s="22">
+      <c r="G276" s="1">
+        <v>23</v>
+      </c>
+      <c r="H276" s="1">
+        <v>0</v>
+      </c>
+      <c r="I276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" ht="16.5" spans="2:9">
+      <c r="B277" s="23">
         <v>2921</v>
       </c>
-      <c r="C263" s="1">
-        <v>1</v>
-      </c>
-      <c r="D263" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="F263" s="23">
+      <c r="C277" s="1">
+        <v>1</v>
+      </c>
+      <c r="D277" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F277" s="24">
         <v>4</v>
       </c>
-      <c r="G263" s="1">
-        <v>23</v>
-      </c>
-      <c r="H263" s="1">
-        <v>0</v>
-      </c>
-      <c r="I263" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" ht="16.5" spans="2:9">
-      <c r="B264" s="22">
+      <c r="G277" s="1">
+        <v>23</v>
+      </c>
+      <c r="H277" s="1">
+        <v>0</v>
+      </c>
+      <c r="I277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" ht="16.5" spans="2:9">
+      <c r="B278" s="23">
         <v>3201</v>
       </c>
-      <c r="C264" s="1">
-        <v>1</v>
-      </c>
-      <c r="D264" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="F264" s="23">
+      <c r="C278" s="1">
+        <v>1</v>
+      </c>
+      <c r="D278" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="F278" s="24">
         <v>5</v>
       </c>
-      <c r="G264" s="1">
-        <v>23</v>
-      </c>
-      <c r="H264" s="1">
-        <v>0</v>
-      </c>
-      <c r="I264" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" ht="16.5" spans="2:9">
-      <c r="B265" s="22">
+      <c r="G278" s="1">
+        <v>23</v>
+      </c>
+      <c r="H278" s="1">
+        <v>0</v>
+      </c>
+      <c r="I278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" ht="16.5" spans="2:9">
+      <c r="B279" s="23">
         <v>3202</v>
       </c>
-      <c r="C265" s="1">
-        <v>1</v>
-      </c>
-      <c r="D265" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F265" s="23">
+      <c r="C279" s="1">
+        <v>1</v>
+      </c>
+      <c r="D279" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="F279" s="24">
         <v>5</v>
       </c>
-      <c r="G265" s="1">
-        <v>23</v>
-      </c>
-      <c r="H265" s="1">
-        <v>0</v>
-      </c>
-      <c r="I265" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" ht="16.5" spans="2:9">
-      <c r="B266" s="22">
+      <c r="G279" s="1">
+        <v>23</v>
+      </c>
+      <c r="H279" s="1">
+        <v>0</v>
+      </c>
+      <c r="I279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" ht="16.5" spans="2:9">
+      <c r="B280" s="23">
         <v>3203</v>
       </c>
-      <c r="C266" s="1">
-        <v>1</v>
-      </c>
-      <c r="D266" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="F266" s="23">
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D280" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F280" s="24">
         <v>5</v>
       </c>
-      <c r="G266" s="1">
-        <v>23</v>
-      </c>
-      <c r="H266" s="1">
-        <v>0</v>
-      </c>
-      <c r="I266" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" ht="16.5" spans="2:9">
-      <c r="B267" s="22">
+      <c r="G280" s="1">
+        <v>23</v>
+      </c>
+      <c r="H280" s="1">
+        <v>0</v>
+      </c>
+      <c r="I280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" ht="16.5" spans="2:9">
+      <c r="B281" s="23">
         <v>3204</v>
       </c>
-      <c r="C267" s="1">
-        <v>1</v>
-      </c>
-      <c r="D267" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="F267" s="23">
+      <c r="C281" s="1">
+        <v>1</v>
+      </c>
+      <c r="D281" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="F281" s="24">
         <v>5</v>
       </c>
-      <c r="G267" s="1">
-        <v>23</v>
-      </c>
-      <c r="H267" s="1">
-        <v>0</v>
-      </c>
-      <c r="I267" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" ht="16.5" spans="2:9">
-      <c r="B268" s="22">
+      <c r="G281" s="1">
+        <v>23</v>
+      </c>
+      <c r="H281" s="1">
+        <v>0</v>
+      </c>
+      <c r="I281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" ht="16.5" spans="2:9">
+      <c r="B282" s="23">
         <v>3205</v>
       </c>
-      <c r="C268" s="1">
-        <v>1</v>
-      </c>
-      <c r="D268" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="F268" s="23">
+      <c r="C282" s="1">
+        <v>1</v>
+      </c>
+      <c r="D282" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="F282" s="24">
         <v>5</v>
       </c>
-      <c r="G268" s="1">
-        <v>23</v>
-      </c>
-      <c r="H268" s="1">
-        <v>0</v>
-      </c>
-      <c r="I268" s="1">
+      <c r="G282" s="1">
+        <v>23</v>
+      </c>
+      <c r="H282" s="1">
+        <v>0</v>
+      </c>
+      <c r="I282" s="1">
         <v>0</v>
       </c>
     </row>

--- a/doc_new/4.服务器配置文档/物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="23145" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="367">
   <si>
     <t>字段名称</t>
   </si>
@@ -328,330 +328,330 @@
     <t>霹雳怪手</t>
   </si>
   <si>
+    <t>雷羽鹫</t>
+  </si>
+  <si>
+    <t>雷山鹫</t>
+  </si>
+  <si>
+    <t>雷翼鹫</t>
+  </si>
+  <si>
+    <t>冰川鬼魂</t>
+  </si>
+  <si>
+    <t>极寒精灵</t>
+  </si>
+  <si>
+    <t>极寒冰狐</t>
+  </si>
+  <si>
+    <t>极地少女</t>
+  </si>
+  <si>
+    <t>冰原行者</t>
+  </si>
+  <si>
+    <t>极地虎</t>
+  </si>
+  <si>
+    <t>极地小冰龙</t>
+  </si>
+  <si>
+    <t>极地小飞龙</t>
+  </si>
+  <si>
+    <t>冰晶小海马</t>
+  </si>
+  <si>
+    <t>冰原狐</t>
+  </si>
+  <si>
+    <t>冰宫守卫</t>
+  </si>
+  <si>
+    <t>冰宫奴仆</t>
+  </si>
+  <si>
+    <t>绿洲鬼魂</t>
+  </si>
+  <si>
+    <t>绿洲丧尸</t>
+  </si>
+  <si>
+    <t>幼年沙龙</t>
+  </si>
+  <si>
+    <t>绿洲精灵幼龙</t>
+  </si>
+  <si>
+    <t>绿洲跳跳蛙</t>
+  </si>
+  <si>
+    <t>绿洲剧毒蛇</t>
+  </si>
+  <si>
+    <t>狂沙怪手</t>
+  </si>
+  <si>
+    <t>绿洲精灵马</t>
+  </si>
+  <si>
+    <t>绿洲小精灵</t>
+  </si>
+  <si>
+    <t>沙漠金龟</t>
+  </si>
+  <si>
+    <t>天辉高级战士</t>
+  </si>
+  <si>
+    <t>高级精灵战士</t>
+  </si>
+  <si>
+    <t>炼狱狼</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>炼狱小双头犬</t>
+  </si>
+  <si>
+    <t>炽甲虫战车</t>
+  </si>
+  <si>
+    <t>炼狱石甲虫</t>
+  </si>
+  <si>
+    <t>炼狱战熊</t>
+  </si>
+  <si>
+    <t>炼狱界弓</t>
+  </si>
+  <si>
+    <t>烈焰战龟</t>
+  </si>
+  <si>
+    <t>炼狱蜘蛛</t>
+  </si>
+  <si>
+    <t>炼狱猎蜥</t>
+  </si>
+  <si>
+    <t>炼狱火精灵</t>
+  </si>
+  <si>
+    <t>熔岩飞翼兽</t>
+  </si>
+  <si>
+    <t>双斧狂战</t>
+  </si>
+  <si>
+    <t>熔岩卫兵</t>
+  </si>
+  <si>
+    <t>雷须兽</t>
+  </si>
+  <si>
+    <t>雷霆晶龟</t>
+  </si>
+  <si>
+    <t>霹雳怪虫</t>
+  </si>
+  <si>
+    <t>独角雷兽</t>
+  </si>
+  <si>
+    <t>雷电见习者</t>
+  </si>
+  <si>
+    <t>雷霆拍熊</t>
+  </si>
+  <si>
+    <t>雷翼飞狐</t>
+  </si>
+  <si>
+    <t>远古黑龙</t>
+  </si>
+  <si>
+    <t>雷霆领主</t>
+  </si>
+  <si>
+    <t>霹雳怪泥</t>
+  </si>
+  <si>
+    <t>雷霆战蜥</t>
+  </si>
+  <si>
+    <t>霹雳女妖</t>
+  </si>
+  <si>
+    <t>雷压巨兽</t>
+  </si>
+  <si>
+    <t>雷压射手</t>
+  </si>
+  <si>
+    <t>雷霆梦魇</t>
+  </si>
+  <si>
+    <t>冰川幼龟</t>
+  </si>
+  <si>
+    <t>近代冰魂</t>
+  </si>
+  <si>
+    <t>冰晶石甲虫</t>
+  </si>
+  <si>
+    <t>冰原犬</t>
+  </si>
+  <si>
+    <t>冰甲战熊</t>
+  </si>
+  <si>
+    <t>寒霜战士</t>
+  </si>
+  <si>
+    <t>寒霜萨满</t>
+  </si>
+  <si>
+    <t>冰原巨兽</t>
+  </si>
+  <si>
+    <t>极地熊战士</t>
+  </si>
+  <si>
+    <t>冰原猩猩兽</t>
+  </si>
+  <si>
+    <t>极地巨人</t>
+  </si>
+  <si>
+    <t>极地四脚兽</t>
+  </si>
+  <si>
+    <t>极地飞翼兽</t>
+  </si>
+  <si>
+    <t>极冰守卫</t>
+  </si>
+  <si>
+    <t>冰原守卫</t>
+  </si>
+  <si>
+    <t>绿洲剧毒飞蛇</t>
+  </si>
+  <si>
+    <t>绿洲魔法飞马</t>
+  </si>
+  <si>
+    <t>绿洲怪手</t>
+  </si>
+  <si>
+    <t>毒风鹫</t>
+  </si>
+  <si>
+    <t>天辉高级术士</t>
+  </si>
+  <si>
+    <t>独角沙兽</t>
+  </si>
+  <si>
+    <t>高级精灵战车</t>
+  </si>
+  <si>
+    <t>风沙狼</t>
+  </si>
+  <si>
+    <t>风沙狮</t>
+  </si>
+  <si>
+    <t>风沙战熊</t>
+  </si>
+  <si>
+    <t>绿洲守卫</t>
+  </si>
+  <si>
+    <t>风沙刺鼬</t>
+  </si>
+  <si>
+    <t>绿洲女巫</t>
+  </si>
+  <si>
+    <t>砂砾小巨人</t>
+  </si>
+  <si>
     <t>幼年青眼雷龙</t>
   </si>
   <si>
-    <t>雷羽鹫</t>
-  </si>
-  <si>
-    <t>雷山鹫</t>
-  </si>
-  <si>
-    <t>雷翼鹫</t>
-  </si>
-  <si>
-    <t>冰川鬼魂</t>
-  </si>
-  <si>
-    <t>极寒精灵</t>
-  </si>
-  <si>
-    <t>极寒冰狐</t>
-  </si>
-  <si>
-    <t>极地少女</t>
-  </si>
-  <si>
-    <t>冰原行者</t>
-  </si>
-  <si>
-    <t>极地虎</t>
-  </si>
-  <si>
-    <t>极地小冰龙</t>
-  </si>
-  <si>
-    <t>极地小飞龙</t>
-  </si>
-  <si>
-    <t>冰晶小海马</t>
-  </si>
-  <si>
-    <t>冰原狐</t>
-  </si>
-  <si>
-    <t>冰宫守卫</t>
-  </si>
-  <si>
-    <t>冰宫奴仆</t>
-  </si>
-  <si>
-    <t>绿洲鬼魂</t>
-  </si>
-  <si>
-    <t>绿洲丧尸</t>
-  </si>
-  <si>
-    <t>幼年沙龙</t>
-  </si>
-  <si>
-    <t>绿洲精灵幼龙</t>
-  </si>
-  <si>
-    <t>绿洲跳跳蛙</t>
-  </si>
-  <si>
-    <t>绿洲剧毒蛇</t>
-  </si>
-  <si>
-    <t>狂沙怪手</t>
-  </si>
-  <si>
-    <t>绿洲精灵马</t>
-  </si>
-  <si>
-    <t>绿洲小精灵</t>
-  </si>
-  <si>
-    <t>沙漠金龟</t>
-  </si>
-  <si>
-    <t>天辉高级战士</t>
-  </si>
-  <si>
-    <t>高级精灵战士</t>
-  </si>
-  <si>
-    <t>炼狱狼</t>
-  </si>
-  <si>
-    <t>夜魇远程兵</t>
-  </si>
-  <si>
-    <t>炼狱小双头犬</t>
-  </si>
-  <si>
-    <t>炽甲虫战车</t>
-  </si>
-  <si>
-    <t>炼狱石甲虫</t>
-  </si>
-  <si>
-    <t>炼狱战熊</t>
-  </si>
-  <si>
-    <t>炼狱界弓</t>
-  </si>
-  <si>
-    <t>烈焰战龟</t>
-  </si>
-  <si>
-    <t>炼狱蜘蛛</t>
-  </si>
-  <si>
-    <t>炼狱猎蜥</t>
-  </si>
-  <si>
-    <t>炼狱火精灵</t>
-  </si>
-  <si>
-    <t>熔岩飞翼兽</t>
-  </si>
-  <si>
-    <t>双斧狂战</t>
-  </si>
-  <si>
-    <t>熔岩卫兵</t>
+    <t>炼狱领主</t>
+  </si>
+  <si>
+    <t>熔岩巨人</t>
+  </si>
+  <si>
+    <t>烈焰神狐</t>
+  </si>
+  <si>
+    <t>炼狱双头犬</t>
+  </si>
+  <si>
+    <t>烈焰战神</t>
+  </si>
+  <si>
+    <t>青眼雷龙</t>
+  </si>
+  <si>
+    <t>雷压飞翼兽</t>
+  </si>
+  <si>
+    <t>雷电掌控者</t>
+  </si>
+  <si>
+    <t>雷神鸟</t>
+  </si>
+  <si>
+    <t>闪电制造者</t>
+  </si>
+  <si>
+    <t>极寒领主</t>
+  </si>
+  <si>
+    <t>极寒蛛美丽</t>
+  </si>
+  <si>
+    <t>冰原领主</t>
+  </si>
+  <si>
+    <t>狂沙熊战士</t>
+  </si>
+  <si>
+    <t>黄沙护卫</t>
+  </si>
+  <si>
+    <t>绿洲之主</t>
+  </si>
+  <si>
+    <t>黄沙之主</t>
+  </si>
+  <si>
+    <t>祈风使</t>
+  </si>
+  <si>
+    <t>寒冰使</t>
+  </si>
+  <si>
+    <t>霹雳使</t>
+  </si>
+  <si>
+    <t>烈火使</t>
   </si>
   <si>
     <t>远古炼狱火</t>
   </si>
   <si>
-    <t>雷须兽</t>
-  </si>
-  <si>
-    <t>雷霆晶龟</t>
-  </si>
-  <si>
-    <t>霹雳怪虫</t>
-  </si>
-  <si>
-    <t>独角雷兽</t>
-  </si>
-  <si>
-    <t>雷电见习者</t>
-  </si>
-  <si>
-    <t>雷霆拍熊</t>
-  </si>
-  <si>
-    <t>雷翼飞狐</t>
-  </si>
-  <si>
-    <t>远古黑龙</t>
-  </si>
-  <si>
-    <t>雷霆领主</t>
-  </si>
-  <si>
-    <t>霹雳怪泥</t>
-  </si>
-  <si>
-    <t>雷霆战蜥</t>
-  </si>
-  <si>
-    <t>霹雳女妖</t>
-  </si>
-  <si>
-    <t>雷压巨兽</t>
-  </si>
-  <si>
-    <t>雷压射手</t>
-  </si>
-  <si>
-    <t>雷霆梦魇</t>
-  </si>
-  <si>
-    <t>冰川幼龟</t>
-  </si>
-  <si>
-    <t>近代冰魂</t>
-  </si>
-  <si>
-    <t>冰晶石甲虫</t>
-  </si>
-  <si>
-    <t>冰原犬</t>
-  </si>
-  <si>
-    <t>冰甲战熊</t>
-  </si>
-  <si>
-    <t>寒霜战士</t>
-  </si>
-  <si>
-    <t>寒霜萨满</t>
-  </si>
-  <si>
-    <t>冰原巨兽</t>
-  </si>
-  <si>
-    <t>极地熊战士</t>
-  </si>
-  <si>
-    <t>冰原猩猩兽</t>
-  </si>
-  <si>
-    <t>极地巨人</t>
-  </si>
-  <si>
-    <t>极地四脚兽</t>
-  </si>
-  <si>
-    <t>极地飞翼兽</t>
-  </si>
-  <si>
-    <t>极冰守卫</t>
-  </si>
-  <si>
-    <t>冰原守卫</t>
-  </si>
-  <si>
-    <t>绿洲剧毒飞蛇</t>
-  </si>
-  <si>
-    <t>绿洲魔法飞马</t>
-  </si>
-  <si>
-    <t>绿洲怪手</t>
-  </si>
-  <si>
-    <t>毒风鹫</t>
-  </si>
-  <si>
-    <t>天辉高级术士</t>
-  </si>
-  <si>
-    <t>独角沙兽</t>
-  </si>
-  <si>
-    <t>高级精灵战车</t>
-  </si>
-  <si>
-    <t>风沙狼</t>
-  </si>
-  <si>
-    <t>风沙狮</t>
-  </si>
-  <si>
-    <t>风沙战熊</t>
-  </si>
-  <si>
-    <t>绿洲守卫</t>
-  </si>
-  <si>
-    <t>风沙刺鼬</t>
-  </si>
-  <si>
-    <t>绿洲女巫</t>
-  </si>
-  <si>
-    <t>砂砾小巨人</t>
-  </si>
-  <si>
-    <t>炼狱领主</t>
-  </si>
-  <si>
-    <t>熔岩巨人</t>
-  </si>
-  <si>
-    <t>烈焰神狐</t>
-  </si>
-  <si>
-    <t>炼狱双头犬</t>
-  </si>
-  <si>
-    <t>烈焰战神</t>
-  </si>
-  <si>
-    <t>青眼雷龙</t>
-  </si>
-  <si>
-    <t>雷压飞翼兽</t>
-  </si>
-  <si>
-    <t>雷电掌控者</t>
-  </si>
-  <si>
-    <t>雷神鸟</t>
-  </si>
-  <si>
-    <t>闪电制造者</t>
-  </si>
-  <si>
-    <t>极寒领主</t>
-  </si>
-  <si>
-    <t>极寒蛛美丽</t>
-  </si>
-  <si>
-    <t>冰原领主</t>
-  </si>
-  <si>
-    <t>狂沙熊战士</t>
-  </si>
-  <si>
-    <t>黄沙护卫</t>
-  </si>
-  <si>
-    <t>绿洲之主</t>
-  </si>
-  <si>
-    <t>黄沙之主</t>
-  </si>
-  <si>
-    <t>祈风使</t>
-  </si>
-  <si>
-    <t>寒冰使</t>
-  </si>
-  <si>
-    <t>霹雳使</t>
-  </si>
-  <si>
-    <t>烈火使</t>
-  </si>
-  <si>
     <t>炼狱之王</t>
   </si>
   <si>
@@ -790,33 +790,33 @@
     <t>熔火炼狱的图鉴箱（自选）</t>
   </si>
   <si>
+    <t>可以自选获得一张地图·熔火炼狱出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>极北之地的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张地图·极北之地出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>狂风沙漠的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张地图·狂风沙漠出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>雷霆之地的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张地图·雷霆之地出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>元素大陆图的鉴箱（自选）</t>
+  </si>
+  <si>
     <t>可以自选获得一张地图·元素大陆出现的所有怪物的卡片</t>
   </si>
   <si>
-    <t>极北之地的图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张地图·熔火炼狱出现的所有怪物的卡片</t>
-  </si>
-  <si>
-    <t>狂风沙漠的图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张地图·极北之地出现的所有怪物的卡片</t>
-  </si>
-  <si>
-    <t>雷霆之地的图鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张地图·狂风沙漠出现的所有怪物的卡片</t>
-  </si>
-  <si>
-    <t>元素大陆图的鉴箱（自选）</t>
-  </si>
-  <si>
-    <t>可以自选获得一张地图·雷霆之地出现的所有怪物的卡片</t>
-  </si>
-  <si>
     <t>1级魂石·攻击力</t>
   </si>
   <si>
@@ -1072,6 +1072,9 @@
     <t>终结者</t>
   </si>
   <si>
+    <t>称号</t>
+  </si>
+  <si>
     <t>领袖</t>
   </si>
   <si>
@@ -1090,6 +1093,9 @@
     <t>魂石掌控者</t>
   </si>
   <si>
+    <t>冰宫之主</t>
+  </si>
+  <si>
     <t>元素大陆征服者（成长礼）</t>
   </si>
   <si>
@@ -1100,6 +1106,48 @@
   </si>
   <si>
     <t>元素大陆成长礼的首通点</t>
+  </si>
+  <si>
+    <t>熔火炼狱征服者（成长礼）</t>
+  </si>
+  <si>
+    <t>熔火炼狱首通点</t>
+  </si>
+  <si>
+    <t>熔火炼狱成长礼的首通点</t>
+  </si>
+  <si>
+    <t>极北之地征服者（成长礼）</t>
+  </si>
+  <si>
+    <t>极北之地首通点</t>
+  </si>
+  <si>
+    <t>极北之地成长礼的首通点</t>
+  </si>
+  <si>
+    <t>雷霆之地征服者（成长礼）</t>
+  </si>
+  <si>
+    <t>雷霆之地首通点</t>
+  </si>
+  <si>
+    <t>雷霆之地成长礼的首通点</t>
+  </si>
+  <si>
+    <t>狂风沙漠征服者（成长礼）</t>
+  </si>
+  <si>
+    <t>狂风沙漠首通点</t>
+  </si>
+  <si>
+    <t>狂风沙漠成长礼的首通点</t>
+  </si>
+  <si>
+    <t>游戏成长礼</t>
+  </si>
+  <si>
+    <t>地图等级的高级奖励</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1181,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF08090C"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1492,12 +1540,98 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1642,7 +1776,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1654,34 +1788,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1766,7 +1900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1782,19 +1916,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2107,7 +2250,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1143D1EE-722F-4BC0-80C9-D241FABC00C9}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{012FEE21-6F98-4F80-97E2-EA91A35C3DF0}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2116,7 +2259,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{0FF23B55-AE4C-4D8B-8E78-36CCBB66D42E}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{15236DB4-621C-4A92-8482-B7001887B392}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2389,10 +2532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K283"/>
+  <dimension ref="A1:K294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="K168" sqref="K168"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2438,10 +2581,10 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2467,10 +2610,10 @@
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2500,10 +2643,10 @@
       <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2533,10 +2676,10 @@
       <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2548,10 +2691,10 @@
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="4">
@@ -2577,10 +2720,10 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F6" s="4">
@@ -2606,10 +2749,10 @@
       <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="4">
@@ -2635,10 +2778,10 @@
       <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4">
@@ -2664,7 +2807,7 @@
       <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="4"/>
@@ -2691,7 +2834,7 @@
       <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="4"/>
@@ -2718,7 +2861,7 @@
       <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="4"/>
@@ -2745,10 +2888,10 @@
       <c r="C12" s="4">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="4">
@@ -2757,8 +2900,12 @@
       <c r="G12" s="4">
         <v>21</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
@@ -2770,10 +2917,10 @@
       <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="4">
@@ -2799,10 +2946,10 @@
       <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="4">
@@ -2828,10 +2975,10 @@
       <c r="C15" s="4">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4">
@@ -2857,10 +3004,10 @@
       <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F16" s="4">
@@ -2886,7 +3033,7 @@
       <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="4"/>
@@ -2913,7 +3060,7 @@
       <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="4"/>
@@ -2940,13 +3087,13 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="4">
@@ -2969,13 +3116,13 @@
       <c r="C20" s="4">
         <v>2</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="4">
@@ -2998,13 +3145,13 @@
       <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>3</v>
       </c>
       <c r="G21" s="4">
@@ -3027,13 +3174,13 @@
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>4</v>
       </c>
       <c r="G22" s="4">
@@ -3056,13 +3203,13 @@
       <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4">
@@ -3085,13 +3232,13 @@
       <c r="C24" s="4">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>2</v>
       </c>
       <c r="G24" s="4">
@@ -3114,13 +3261,13 @@
       <c r="C25" s="4">
         <v>3</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>3</v>
       </c>
       <c r="G25" s="4">
@@ -3143,13 +3290,13 @@
       <c r="C26" s="4">
         <v>4</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>4</v>
       </c>
       <c r="G26" s="4">
@@ -3169,12 +3316,14 @@
       <c r="B27" s="4">
         <v>1287</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4">
@@ -3194,12 +3343,14 @@
       <c r="B28" s="4">
         <v>1288</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="4">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="4">
@@ -3221,12 +3372,14 @@
       <c r="B29" s="4">
         <v>1289</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>3</v>
       </c>
       <c r="G29" s="4">
@@ -3246,12 +3399,14 @@
       <c r="B30" s="4">
         <v>1290</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="4">
+        <v>4</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>4</v>
       </c>
       <c r="G30" s="4">
@@ -3268,17 +3423,21 @@
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="1:11">
       <c r="A31" s="4"/>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>1291</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
       <c r="G31" s="4">
         <v>23</v>
       </c>
@@ -3293,17 +3452,21 @@
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:11">
       <c r="A32" s="4"/>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>1292</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
       <c r="G32" s="4">
         <v>23</v>
       </c>
@@ -3318,17 +3481,21 @@
     </row>
     <row r="33" ht="18.5" customHeight="1" spans="1:11">
       <c r="A33" s="4"/>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>1293</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
       <c r="G33" s="4">
         <v>23</v>
       </c>
@@ -3343,17 +3510,21 @@
     </row>
     <row r="34" ht="18.5" customHeight="1" spans="1:11">
       <c r="A34" s="4"/>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>1294</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
       <c r="G34" s="4">
         <v>23</v>
       </c>
@@ -3378,7 +3549,7 @@
         <v>76</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="5">
+      <c r="F35" s="6">
         <v>2</v>
       </c>
       <c r="G35" s="4">
@@ -3401,11 +3572,11 @@
       <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="5">
+      <c r="F36" s="8">
         <v>2</v>
       </c>
       <c r="G36" s="4">
@@ -3428,11 +3599,11 @@
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="5">
+      <c r="F37" s="10">
         <v>2</v>
       </c>
       <c r="G37" s="4">
@@ -3455,11 +3626,11 @@
       <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="5">
+      <c r="F38" s="10">
         <v>2</v>
       </c>
       <c r="G38" s="4">
@@ -3482,11 +3653,11 @@
       <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="9" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="5">
+      <c r="F39" s="10">
         <v>2</v>
       </c>
       <c r="G39" s="4">
@@ -3509,11 +3680,11 @@
       <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="5">
+      <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="4">
@@ -3536,11 +3707,11 @@
       <c r="C41" s="4">
         <v>1</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="9" t="s">
         <v>82</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="5">
+      <c r="F41" s="10">
         <v>2</v>
       </c>
       <c r="G41" s="4">
@@ -3563,11 +3734,11 @@
       <c r="C42" s="4">
         <v>1</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="5">
+      <c r="F42" s="10">
         <v>2</v>
       </c>
       <c r="G42" s="4">
@@ -3590,11 +3761,11 @@
       <c r="C43" s="4">
         <v>1</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="9" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="5">
+      <c r="F43" s="10">
         <v>2</v>
       </c>
       <c r="G43" s="4">
@@ -3617,11 +3788,11 @@
       <c r="C44" s="4">
         <v>1</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="5">
+      <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="4">
@@ -3644,11 +3815,11 @@
       <c r="C45" s="4">
         <v>1</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="5">
+      <c r="F45" s="10">
         <v>2</v>
       </c>
       <c r="G45" s="4">
@@ -3671,11 +3842,11 @@
       <c r="C46" s="4">
         <v>1</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="5">
+      <c r="F46" s="10">
         <v>2</v>
       </c>
       <c r="G46" s="4">
@@ -3698,11 +3869,11 @@
       <c r="C47" s="4">
         <v>1</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="F47" s="5">
+      <c r="F47" s="10">
         <v>2</v>
       </c>
       <c r="G47" s="4">
@@ -3725,11 +3896,11 @@
       <c r="C48" s="4">
         <v>1</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="5">
+      <c r="F48" s="10">
         <v>2</v>
       </c>
       <c r="G48" s="4">
@@ -3752,11 +3923,11 @@
       <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="5">
+      <c r="F49" s="10">
         <v>2</v>
       </c>
       <c r="G49" s="4">
@@ -3779,11 +3950,11 @@
       <c r="C50" s="4">
         <v>1</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="5">
+      <c r="F50" s="10">
         <v>2</v>
       </c>
       <c r="G50" s="4">
@@ -3806,11 +3977,11 @@
       <c r="C51" s="4">
         <v>1</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="5">
+      <c r="F51" s="10">
         <v>2</v>
       </c>
       <c r="G51" s="4">
@@ -3828,16 +3999,16 @@
     <row r="52" ht="18.5" customHeight="1" spans="1:11">
       <c r="A52" s="4"/>
       <c r="B52" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="5">
+      <c r="F52" s="10">
         <v>2</v>
       </c>
       <c r="G52" s="4">
@@ -3855,16 +4026,16 @@
     <row r="53" ht="18.5" customHeight="1" spans="1:11">
       <c r="A53" s="4"/>
       <c r="B53" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="9" t="s">
         <v>94</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="5">
+      <c r="F53" s="10">
         <v>2</v>
       </c>
       <c r="G53" s="4">
@@ -3882,16 +4053,16 @@
     <row r="54" ht="18.5" customHeight="1" spans="1:11">
       <c r="A54" s="4"/>
       <c r="B54" s="5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="5">
+      <c r="F54" s="10">
         <v>2</v>
       </c>
       <c r="G54" s="4">
@@ -3909,16 +4080,16 @@
     <row r="55" ht="18.5" customHeight="1" spans="1:11">
       <c r="A55" s="4"/>
       <c r="B55" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="5">
+      <c r="F55" s="10">
         <v>2</v>
       </c>
       <c r="G55" s="4">
@@ -3936,16 +4107,16 @@
     <row r="56" ht="18.5" customHeight="1" spans="1:11">
       <c r="A56" s="4"/>
       <c r="B56" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="9" t="s">
         <v>97</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="5">
+      <c r="F56" s="10">
         <v>2</v>
       </c>
       <c r="G56" s="4">
@@ -3963,16 +4134,16 @@
     <row r="57" ht="18.5" customHeight="1" spans="1:11">
       <c r="A57" s="4"/>
       <c r="B57" s="5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="9" t="s">
         <v>98</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="5">
+      <c r="F57" s="10">
         <v>2</v>
       </c>
       <c r="G57" s="4">
@@ -3990,16 +4161,16 @@
     <row r="58" ht="18.5" customHeight="1" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="5">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="5">
+      <c r="F58" s="10">
         <v>2</v>
       </c>
       <c r="G58" s="4">
@@ -4017,16 +4188,16 @@
     <row r="59" ht="18.5" customHeight="1" spans="1:11">
       <c r="A59" s="4"/>
       <c r="B59" s="5">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="5">
+      <c r="F59" s="10">
         <v>2</v>
       </c>
       <c r="G59" s="4">
@@ -4044,16 +4215,16 @@
     <row r="60" ht="18.5" customHeight="1" spans="1:11">
       <c r="A60" s="4"/>
       <c r="B60" s="5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="5">
+      <c r="F60" s="10">
         <v>2</v>
       </c>
       <c r="G60" s="4">
@@ -4071,16 +4242,16 @@
     <row r="61" ht="18.5" customHeight="1" spans="1:11">
       <c r="A61" s="4"/>
       <c r="B61" s="5">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E61" s="4"/>
-      <c r="F61" s="5">
+      <c r="F61" s="10">
         <v>2</v>
       </c>
       <c r="G61" s="4">
@@ -4098,16 +4269,16 @@
     <row r="62" ht="18.5" customHeight="1" spans="1:11">
       <c r="A62" s="4"/>
       <c r="B62" s="5">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E62" s="4"/>
-      <c r="F62" s="5">
+      <c r="F62" s="10">
         <v>2</v>
       </c>
       <c r="G62" s="4">
@@ -4125,16 +4296,16 @@
     <row r="63" ht="18.5" customHeight="1" spans="1:11">
       <c r="A63" s="4"/>
       <c r="B63" s="5">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="4"/>
-      <c r="F63" s="5">
+      <c r="F63" s="10">
         <v>2</v>
       </c>
       <c r="G63" s="4">
@@ -4152,16 +4323,16 @@
     <row r="64" ht="18.5" customHeight="1" spans="1:11">
       <c r="A64" s="4"/>
       <c r="B64" s="5">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E64" s="4"/>
-      <c r="F64" s="5">
+      <c r="F64" s="10">
         <v>2</v>
       </c>
       <c r="G64" s="4">
@@ -4179,16 +4350,16 @@
     <row r="65" ht="18.5" customHeight="1" spans="1:11">
       <c r="A65" s="4"/>
       <c r="B65" s="5">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="9" t="s">
         <v>106</v>
       </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="5">
+      <c r="F65" s="10">
         <v>2</v>
       </c>
       <c r="G65" s="4">
@@ -4206,16 +4377,16 @@
     <row r="66" ht="18.5" customHeight="1" spans="1:11">
       <c r="A66" s="4"/>
       <c r="B66" s="5">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="5">
+      <c r="F66" s="10">
         <v>2</v>
       </c>
       <c r="G66" s="4">
@@ -4233,16 +4404,16 @@
     <row r="67" ht="18.5" customHeight="1" spans="1:11">
       <c r="A67" s="4"/>
       <c r="B67" s="5">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="9" t="s">
         <v>108</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="5">
+      <c r="F67" s="10">
         <v>2</v>
       </c>
       <c r="G67" s="4">
@@ -4260,16 +4431,16 @@
     <row r="68" ht="18.5" customHeight="1" spans="1:11">
       <c r="A68" s="4"/>
       <c r="B68" s="5">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="5">
+      <c r="F68" s="10">
         <v>2</v>
       </c>
       <c r="G68" s="4">
@@ -4287,16 +4458,16 @@
     <row r="69" ht="18.5" customHeight="1" spans="1:11">
       <c r="A69" s="4"/>
       <c r="B69" s="5">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E69" s="4"/>
-      <c r="F69" s="5">
+      <c r="F69" s="10">
         <v>2</v>
       </c>
       <c r="G69" s="4">
@@ -4314,16 +4485,16 @@
     <row r="70" ht="18.5" customHeight="1" spans="1:11">
       <c r="A70" s="4"/>
       <c r="B70" s="5">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="9" t="s">
         <v>111</v>
       </c>
       <c r="E70" s="4"/>
-      <c r="F70" s="5">
+      <c r="F70" s="10">
         <v>2</v>
       </c>
       <c r="G70" s="4">
@@ -4341,16 +4512,16 @@
     <row r="71" ht="18.5" customHeight="1" spans="1:11">
       <c r="A71" s="4"/>
       <c r="B71" s="5">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E71" s="4"/>
-      <c r="F71" s="5">
+      <c r="F71" s="10">
         <v>2</v>
       </c>
       <c r="G71" s="4">
@@ -4368,16 +4539,16 @@
     <row r="72" ht="18.5" customHeight="1" spans="1:11">
       <c r="A72" s="4"/>
       <c r="B72" s="5">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="F72" s="5">
+      <c r="F72" s="10">
         <v>2</v>
       </c>
       <c r="G72" s="4">
@@ -4395,16 +4566,16 @@
     <row r="73" ht="18.5" customHeight="1" spans="1:11">
       <c r="A73" s="4"/>
       <c r="B73" s="5">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="9" t="s">
         <v>114</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="5">
+      <c r="F73" s="10">
         <v>2</v>
       </c>
       <c r="G73" s="4">
@@ -4422,16 +4593,16 @@
     <row r="74" ht="18.5" customHeight="1" spans="1:11">
       <c r="A74" s="4"/>
       <c r="B74" s="5">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="9" t="s">
         <v>115</v>
       </c>
       <c r="E74" s="4"/>
-      <c r="F74" s="5">
+      <c r="F74" s="10">
         <v>2</v>
       </c>
       <c r="G74" s="4">
@@ -4449,16 +4620,16 @@
     <row r="75" ht="18.5" customHeight="1" spans="1:11">
       <c r="A75" s="4"/>
       <c r="B75" s="5">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="5">
+      <c r="F75" s="10">
         <v>2</v>
       </c>
       <c r="G75" s="4">
@@ -4476,16 +4647,16 @@
     <row r="76" ht="18.5" customHeight="1" spans="1:11">
       <c r="A76" s="4"/>
       <c r="B76" s="5">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="5">
+      <c r="F76" s="10">
         <v>2</v>
       </c>
       <c r="G76" s="4">
@@ -4503,16 +4674,16 @@
     <row r="77" ht="18.5" customHeight="1" spans="1:11">
       <c r="A77" s="4"/>
       <c r="B77" s="5">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="5">
+      <c r="F77" s="10">
         <v>2</v>
       </c>
       <c r="G77" s="4">
@@ -4530,16 +4701,16 @@
     <row r="78" ht="18.5" customHeight="1" spans="1:11">
       <c r="A78" s="4"/>
       <c r="B78" s="5">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="5">
+      <c r="F78" s="10">
         <v>2</v>
       </c>
       <c r="G78" s="4">
@@ -4556,18 +4727,18 @@
     </row>
     <row r="79" ht="18.5" customHeight="1" spans="1:11">
       <c r="A79" s="4"/>
-      <c r="B79" s="5">
-        <v>2045</v>
+      <c r="B79" s="9">
+        <v>2501</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="9" t="s">
         <v>120</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="5">
-        <v>2</v>
+      <c r="F79" s="10">
+        <v>3</v>
       </c>
       <c r="G79" s="4">
         <v>23</v>
@@ -4583,17 +4754,17 @@
     </row>
     <row r="80" ht="18.5" customHeight="1" spans="1:11">
       <c r="A80" s="4"/>
-      <c r="B80" s="5">
-        <v>2501</v>
+      <c r="B80" s="9">
+        <v>2502</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="9" t="s">
         <v>121</v>
       </c>
       <c r="E80" s="4"/>
-      <c r="F80" s="5">
+      <c r="F80" s="10">
         <v>3</v>
       </c>
       <c r="G80" s="4">
@@ -4610,17 +4781,17 @@
     </row>
     <row r="81" ht="18.5" customHeight="1" spans="1:11">
       <c r="A81" s="4"/>
-      <c r="B81" s="5">
-        <v>2502</v>
+      <c r="B81" s="9">
+        <v>2503</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="9" t="s">
         <v>122</v>
       </c>
       <c r="E81" s="4"/>
-      <c r="F81" s="5">
+      <c r="F81" s="10">
         <v>3</v>
       </c>
       <c r="G81" s="4">
@@ -4637,17 +4808,17 @@
     </row>
     <row r="82" ht="18.5" customHeight="1" spans="1:11">
       <c r="A82" s="4"/>
-      <c r="B82" s="5">
-        <v>2503</v>
+      <c r="B82" s="9">
+        <v>2504</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="5">
+      <c r="F82" s="10">
         <v>3</v>
       </c>
       <c r="G82" s="4">
@@ -4664,17 +4835,17 @@
     </row>
     <row r="83" ht="18.5" customHeight="1" spans="1:11">
       <c r="A83" s="4"/>
-      <c r="B83" s="5">
-        <v>2504</v>
+      <c r="B83" s="9">
+        <v>2505</v>
       </c>
       <c r="C83" s="4">
         <v>1</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="4"/>
-      <c r="F83" s="5">
+      <c r="F83" s="10">
         <v>3</v>
       </c>
       <c r="G83" s="4">
@@ -4691,17 +4862,17 @@
     </row>
     <row r="84" ht="18.5" customHeight="1" spans="1:11">
       <c r="A84" s="4"/>
-      <c r="B84" s="5">
-        <v>2505</v>
+      <c r="B84" s="9">
+        <v>2506</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="9" t="s">
         <v>125</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="F84" s="5">
+      <c r="F84" s="10">
         <v>3</v>
       </c>
       <c r="G84" s="4">
@@ -4718,17 +4889,17 @@
     </row>
     <row r="85" ht="18.5" customHeight="1" spans="1:11">
       <c r="A85" s="4"/>
-      <c r="B85" s="5">
-        <v>2506</v>
+      <c r="B85" s="9">
+        <v>2507</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="5">
+      <c r="F85" s="10">
         <v>3</v>
       </c>
       <c r="G85" s="4">
@@ -4745,17 +4916,17 @@
     </row>
     <row r="86" ht="18.5" customHeight="1" spans="1:11">
       <c r="A86" s="4"/>
-      <c r="B86" s="5">
-        <v>2507</v>
+      <c r="B86" s="9">
+        <v>2508</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E86" s="4"/>
-      <c r="F86" s="5">
+      <c r="F86" s="10">
         <v>3</v>
       </c>
       <c r="G86" s="4">
@@ -4772,17 +4943,17 @@
     </row>
     <row r="87" ht="18.5" customHeight="1" spans="1:11">
       <c r="A87" s="4"/>
-      <c r="B87" s="5">
-        <v>2508</v>
+      <c r="B87" s="9">
+        <v>2509</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E87" s="4"/>
-      <c r="F87" s="5">
+      <c r="F87" s="10">
         <v>3</v>
       </c>
       <c r="G87" s="4">
@@ -4799,17 +4970,17 @@
     </row>
     <row r="88" ht="18.5" customHeight="1" spans="1:11">
       <c r="A88" s="4"/>
-      <c r="B88" s="5">
-        <v>2509</v>
+      <c r="B88" s="9">
+        <v>2510</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E88" s="4"/>
-      <c r="F88" s="5">
+      <c r="F88" s="10">
         <v>3</v>
       </c>
       <c r="G88" s="4">
@@ -4826,17 +4997,17 @@
     </row>
     <row r="89" ht="18.5" customHeight="1" spans="1:11">
       <c r="A89" s="4"/>
-      <c r="B89" s="5">
-        <v>2510</v>
+      <c r="B89" s="9">
+        <v>2511</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E89" s="4"/>
-      <c r="F89" s="5">
+      <c r="F89" s="10">
         <v>3</v>
       </c>
       <c r="G89" s="4">
@@ -4853,17 +5024,17 @@
     </row>
     <row r="90" ht="18.5" customHeight="1" spans="1:11">
       <c r="A90" s="4"/>
-      <c r="B90" s="5">
-        <v>2511</v>
+      <c r="B90" s="9">
+        <v>2512</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E90" s="4"/>
-      <c r="F90" s="5">
+      <c r="F90" s="10">
         <v>3</v>
       </c>
       <c r="G90" s="4">
@@ -4880,17 +5051,17 @@
     </row>
     <row r="91" ht="18.5" customHeight="1" spans="1:11">
       <c r="A91" s="4"/>
-      <c r="B91" s="5">
-        <v>2512</v>
+      <c r="B91" s="9">
+        <v>2513</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="9" t="s">
         <v>132</v>
       </c>
       <c r="E91" s="4"/>
-      <c r="F91" s="5">
+      <c r="F91" s="10">
         <v>3</v>
       </c>
       <c r="G91" s="4">
@@ -4907,17 +5078,17 @@
     </row>
     <row r="92" ht="18.5" customHeight="1" spans="1:11">
       <c r="A92" s="4"/>
-      <c r="B92" s="5">
-        <v>2513</v>
+      <c r="B92" s="9">
+        <v>2514</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E92" s="4"/>
-      <c r="F92" s="5">
+      <c r="F92" s="10">
         <v>3</v>
       </c>
       <c r="G92" s="4">
@@ -4934,17 +5105,17 @@
     </row>
     <row r="93" ht="18.5" customHeight="1" spans="1:11">
       <c r="A93" s="4"/>
-      <c r="B93" s="5">
-        <v>2514</v>
+      <c r="B93" s="9">
+        <v>2516</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="F93" s="5">
+      <c r="F93" s="10">
         <v>3</v>
       </c>
       <c r="G93" s="4">
@@ -4961,17 +5132,17 @@
     </row>
     <row r="94" ht="18.5" customHeight="1" spans="1:11">
       <c r="A94" s="4"/>
-      <c r="B94" s="5">
-        <v>2515</v>
+      <c r="B94" s="9">
+        <v>2517</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E94" s="4"/>
-      <c r="F94" s="5">
+      <c r="F94" s="10">
         <v>3</v>
       </c>
       <c r="G94" s="4">
@@ -4988,17 +5159,17 @@
     </row>
     <row r="95" ht="18.5" customHeight="1" spans="1:11">
       <c r="A95" s="4"/>
-      <c r="B95" s="5">
-        <v>2516</v>
+      <c r="B95" s="9">
+        <v>2518</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E95" s="4"/>
-      <c r="F95" s="5">
+      <c r="F95" s="10">
         <v>3</v>
       </c>
       <c r="G95" s="4">
@@ -5015,17 +5186,17 @@
     </row>
     <row r="96" ht="18.5" customHeight="1" spans="1:11">
       <c r="A96" s="4"/>
-      <c r="B96" s="5">
-        <v>2517</v>
+      <c r="B96" s="9">
+        <v>2519</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="9" t="s">
         <v>137</v>
       </c>
       <c r="E96" s="4"/>
-      <c r="F96" s="5">
+      <c r="F96" s="10">
         <v>3</v>
       </c>
       <c r="G96" s="4">
@@ -5042,17 +5213,17 @@
     </row>
     <row r="97" ht="18.5" customHeight="1" spans="1:11">
       <c r="A97" s="4"/>
-      <c r="B97" s="5">
-        <v>2518</v>
+      <c r="B97" s="9">
+        <v>2520</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="9" t="s">
         <v>138</v>
       </c>
       <c r="E97" s="4"/>
-      <c r="F97" s="5">
+      <c r="F97" s="10">
         <v>3</v>
       </c>
       <c r="G97" s="4">
@@ -5069,17 +5240,17 @@
     </row>
     <row r="98" ht="18.5" customHeight="1" spans="1:11">
       <c r="A98" s="4"/>
-      <c r="B98" s="5">
-        <v>2519</v>
+      <c r="B98" s="9">
+        <v>2521</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="9" t="s">
         <v>139</v>
       </c>
       <c r="E98" s="4"/>
-      <c r="F98" s="5">
+      <c r="F98" s="10">
         <v>3</v>
       </c>
       <c r="G98" s="4">
@@ -5096,17 +5267,17 @@
     </row>
     <row r="99" ht="18.5" customHeight="1" spans="1:11">
       <c r="A99" s="4"/>
-      <c r="B99" s="5">
-        <v>2520</v>
+      <c r="B99" s="9">
+        <v>2522</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E99" s="4"/>
-      <c r="F99" s="5">
+      <c r="F99" s="10">
         <v>3</v>
       </c>
       <c r="G99" s="4">
@@ -5123,17 +5294,17 @@
     </row>
     <row r="100" ht="18.5" customHeight="1" spans="1:11">
       <c r="A100" s="4"/>
-      <c r="B100" s="5">
-        <v>2521</v>
+      <c r="B100" s="9">
+        <v>2523</v>
       </c>
       <c r="C100" s="4">
         <v>1</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E100" s="4"/>
-      <c r="F100" s="5">
+      <c r="F100" s="10">
         <v>3</v>
       </c>
       <c r="G100" s="4">
@@ -5150,17 +5321,17 @@
     </row>
     <row r="101" ht="18.5" customHeight="1" spans="1:11">
       <c r="A101" s="4"/>
-      <c r="B101" s="5">
-        <v>2522</v>
+      <c r="B101" s="9">
+        <v>2524</v>
       </c>
       <c r="C101" s="4">
         <v>1</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E101" s="4"/>
-      <c r="F101" s="5">
+      <c r="F101" s="10">
         <v>3</v>
       </c>
       <c r="G101" s="4">
@@ -5177,17 +5348,17 @@
     </row>
     <row r="102" ht="18.5" customHeight="1" spans="1:11">
       <c r="A102" s="4"/>
-      <c r="B102" s="5">
-        <v>2523</v>
+      <c r="B102" s="9">
+        <v>2525</v>
       </c>
       <c r="C102" s="4">
         <v>1</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="9" t="s">
         <v>143</v>
       </c>
       <c r="E102" s="4"/>
-      <c r="F102" s="5">
+      <c r="F102" s="10">
         <v>3</v>
       </c>
       <c r="G102" s="4">
@@ -5204,17 +5375,17 @@
     </row>
     <row r="103" ht="18.5" customHeight="1" spans="1:11">
       <c r="A103" s="4"/>
-      <c r="B103" s="5">
-        <v>2524</v>
+      <c r="B103" s="9">
+        <v>2526</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="9" t="s">
         <v>144</v>
       </c>
       <c r="E103" s="4"/>
-      <c r="F103" s="5">
+      <c r="F103" s="10">
         <v>3</v>
       </c>
       <c r="G103" s="4">
@@ -5231,17 +5402,17 @@
     </row>
     <row r="104" ht="18.5" customHeight="1" spans="1:11">
       <c r="A104" s="4"/>
-      <c r="B104" s="5">
-        <v>2525</v>
+      <c r="B104" s="9">
+        <v>2527</v>
       </c>
       <c r="C104" s="4">
         <v>1</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="9" t="s">
         <v>145</v>
       </c>
       <c r="E104" s="4"/>
-      <c r="F104" s="5">
+      <c r="F104" s="10">
         <v>3</v>
       </c>
       <c r="G104" s="4">
@@ -5258,17 +5429,17 @@
     </row>
     <row r="105" ht="18.5" customHeight="1" spans="1:11">
       <c r="A105" s="4"/>
-      <c r="B105" s="5">
-        <v>2526</v>
+      <c r="B105" s="9">
+        <v>2528</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E105" s="4"/>
-      <c r="F105" s="5">
+      <c r="F105" s="10">
         <v>3</v>
       </c>
       <c r="G105" s="4">
@@ -5285,17 +5456,17 @@
     </row>
     <row r="106" ht="18.5" customHeight="1" spans="1:11">
       <c r="A106" s="4"/>
-      <c r="B106" s="5">
-        <v>2527</v>
+      <c r="B106" s="9">
+        <v>2529</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="9" t="s">
         <v>147</v>
       </c>
       <c r="E106" s="4"/>
-      <c r="F106" s="5">
+      <c r="F106" s="10">
         <v>3</v>
       </c>
       <c r="G106" s="4">
@@ -5312,17 +5483,17 @@
     </row>
     <row r="107" ht="18.5" customHeight="1" spans="1:11">
       <c r="A107" s="4"/>
-      <c r="B107" s="5">
-        <v>2528</v>
+      <c r="B107" s="9">
+        <v>2530</v>
       </c>
       <c r="C107" s="4">
         <v>1</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="9" t="s">
         <v>148</v>
       </c>
       <c r="E107" s="4"/>
-      <c r="F107" s="5">
+      <c r="F107" s="10">
         <v>3</v>
       </c>
       <c r="G107" s="4">
@@ -5339,17 +5510,17 @@
     </row>
     <row r="108" ht="18.5" customHeight="1" spans="1:11">
       <c r="A108" s="4"/>
-      <c r="B108" s="5">
-        <v>2529</v>
+      <c r="B108" s="9">
+        <v>2531</v>
       </c>
       <c r="C108" s="4">
         <v>1</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="9" t="s">
         <v>149</v>
       </c>
       <c r="E108" s="4"/>
-      <c r="F108" s="5">
+      <c r="F108" s="10">
         <v>3</v>
       </c>
       <c r="G108" s="4">
@@ -5366,17 +5537,17 @@
     </row>
     <row r="109" ht="18.5" customHeight="1" spans="1:11">
       <c r="A109" s="4"/>
-      <c r="B109" s="5">
-        <v>2530</v>
+      <c r="B109" s="9">
+        <v>2532</v>
       </c>
       <c r="C109" s="4">
         <v>1</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E109" s="4"/>
-      <c r="F109" s="5">
+      <c r="F109" s="10">
         <v>3</v>
       </c>
       <c r="G109" s="4">
@@ -5393,17 +5564,17 @@
     </row>
     <row r="110" ht="18.5" customHeight="1" spans="1:11">
       <c r="A110" s="4"/>
-      <c r="B110" s="5">
-        <v>2531</v>
+      <c r="B110" s="9">
+        <v>2533</v>
       </c>
       <c r="C110" s="4">
         <v>1</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E110" s="4"/>
-      <c r="F110" s="5">
+      <c r="F110" s="10">
         <v>3</v>
       </c>
       <c r="G110" s="4">
@@ -5420,17 +5591,17 @@
     </row>
     <row r="111" ht="18.5" customHeight="1" spans="1:11">
       <c r="A111" s="4"/>
-      <c r="B111" s="5">
-        <v>2532</v>
+      <c r="B111" s="9">
+        <v>2534</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="9" t="s">
         <v>152</v>
       </c>
       <c r="E111" s="4"/>
-      <c r="F111" s="5">
+      <c r="F111" s="10">
         <v>3</v>
       </c>
       <c r="G111" s="4">
@@ -5447,17 +5618,17 @@
     </row>
     <row r="112" ht="18.5" customHeight="1" spans="1:11">
       <c r="A112" s="4"/>
-      <c r="B112" s="5">
-        <v>2533</v>
+      <c r="B112" s="9">
+        <v>2535</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E112" s="4"/>
-      <c r="F112" s="5">
+      <c r="F112" s="10">
         <v>3</v>
       </c>
       <c r="G112" s="4">
@@ -5474,17 +5645,17 @@
     </row>
     <row r="113" ht="18.5" customHeight="1" spans="1:11">
       <c r="A113" s="4"/>
-      <c r="B113" s="5">
-        <v>2534</v>
+      <c r="B113" s="9">
+        <v>2536</v>
       </c>
       <c r="C113" s="4">
         <v>1</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="9" t="s">
         <v>154</v>
       </c>
       <c r="E113" s="4"/>
-      <c r="F113" s="5">
+      <c r="F113" s="10">
         <v>3</v>
       </c>
       <c r="G113" s="4">
@@ -5501,17 +5672,17 @@
     </row>
     <row r="114" ht="18.5" customHeight="1" spans="1:11">
       <c r="A114" s="4"/>
-      <c r="B114" s="5">
-        <v>2535</v>
+      <c r="B114" s="9">
+        <v>2537</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="9" t="s">
         <v>155</v>
       </c>
       <c r="E114" s="4"/>
-      <c r="F114" s="5">
+      <c r="F114" s="10">
         <v>3</v>
       </c>
       <c r="G114" s="4">
@@ -5528,17 +5699,17 @@
     </row>
     <row r="115" ht="18.5" customHeight="1" spans="1:11">
       <c r="A115" s="4"/>
-      <c r="B115" s="5">
-        <v>2536</v>
+      <c r="B115" s="9">
+        <v>2538</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="9" t="s">
         <v>156</v>
       </c>
       <c r="E115" s="4"/>
-      <c r="F115" s="5">
+      <c r="F115" s="10">
         <v>3</v>
       </c>
       <c r="G115" s="4">
@@ -5555,17 +5726,17 @@
     </row>
     <row r="116" ht="18.5" customHeight="1" spans="1:11">
       <c r="A116" s="4"/>
-      <c r="B116" s="5">
-        <v>2537</v>
+      <c r="B116" s="9">
+        <v>2539</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="9" t="s">
         <v>157</v>
       </c>
       <c r="E116" s="4"/>
-      <c r="F116" s="5">
+      <c r="F116" s="10">
         <v>3</v>
       </c>
       <c r="G116" s="4">
@@ -5582,17 +5753,17 @@
     </row>
     <row r="117" ht="18.5" customHeight="1" spans="1:11">
       <c r="A117" s="4"/>
-      <c r="B117" s="5">
-        <v>2538</v>
+      <c r="B117" s="9">
+        <v>2540</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="9" t="s">
         <v>158</v>
       </c>
       <c r="E117" s="4"/>
-      <c r="F117" s="5">
+      <c r="F117" s="10">
         <v>3</v>
       </c>
       <c r="G117" s="4">
@@ -5609,17 +5780,17 @@
     </row>
     <row r="118" ht="18.5" customHeight="1" spans="1:11">
       <c r="A118" s="4"/>
-      <c r="B118" s="5">
-        <v>2539</v>
+      <c r="B118" s="9">
+        <v>2541</v>
       </c>
       <c r="C118" s="4">
         <v>1</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="9" t="s">
         <v>159</v>
       </c>
       <c r="E118" s="4"/>
-      <c r="F118" s="5">
+      <c r="F118" s="10">
         <v>3</v>
       </c>
       <c r="G118" s="4">
@@ -5636,17 +5807,17 @@
     </row>
     <row r="119" ht="18.5" customHeight="1" spans="1:11">
       <c r="A119" s="4"/>
-      <c r="B119" s="5">
-        <v>2540</v>
+      <c r="B119" s="9">
+        <v>2542</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E119" s="4"/>
-      <c r="F119" s="5">
+      <c r="F119" s="10">
         <v>3</v>
       </c>
       <c r="G119" s="4">
@@ -5663,17 +5834,17 @@
     </row>
     <row r="120" ht="18.5" customHeight="1" spans="1:11">
       <c r="A120" s="4"/>
-      <c r="B120" s="5">
-        <v>2541</v>
+      <c r="B120" s="9">
+        <v>2543</v>
       </c>
       <c r="C120" s="4">
         <v>1</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="9" t="s">
         <v>161</v>
       </c>
       <c r="E120" s="4"/>
-      <c r="F120" s="5">
+      <c r="F120" s="10">
         <v>3</v>
       </c>
       <c r="G120" s="4">
@@ -5690,17 +5861,17 @@
     </row>
     <row r="121" ht="18.5" customHeight="1" spans="1:11">
       <c r="A121" s="4"/>
-      <c r="B121" s="5">
-        <v>2542</v>
+      <c r="B121" s="9">
+        <v>2544</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="9" t="s">
         <v>162</v>
       </c>
       <c r="E121" s="4"/>
-      <c r="F121" s="5">
+      <c r="F121" s="10">
         <v>3</v>
       </c>
       <c r="G121" s="4">
@@ -5717,17 +5888,17 @@
     </row>
     <row r="122" ht="18.5" customHeight="1" spans="1:11">
       <c r="A122" s="4"/>
-      <c r="B122" s="5">
-        <v>2543</v>
+      <c r="B122" s="9">
+        <v>2545</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="9" t="s">
         <v>163</v>
       </c>
       <c r="E122" s="4"/>
-      <c r="F122" s="5">
+      <c r="F122" s="10">
         <v>3</v>
       </c>
       <c r="G122" s="4">
@@ -5744,17 +5915,17 @@
     </row>
     <row r="123" ht="18.5" customHeight="1" spans="1:11">
       <c r="A123" s="4"/>
-      <c r="B123" s="5">
-        <v>2544</v>
+      <c r="B123" s="9">
+        <v>2546</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="9" t="s">
         <v>164</v>
       </c>
       <c r="E123" s="4"/>
-      <c r="F123" s="5">
+      <c r="F123" s="10">
         <v>3</v>
       </c>
       <c r="G123" s="4">
@@ -5771,17 +5942,17 @@
     </row>
     <row r="124" ht="18.5" customHeight="1" spans="1:11">
       <c r="A124" s="4"/>
-      <c r="B124" s="5">
-        <v>2545</v>
+      <c r="B124" s="9">
+        <v>2547</v>
       </c>
       <c r="C124" s="4">
         <v>1</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E124" s="4"/>
-      <c r="F124" s="5">
+      <c r="F124" s="10">
         <v>3</v>
       </c>
       <c r="G124" s="4">
@@ -5798,17 +5969,17 @@
     </row>
     <row r="125" ht="18.5" customHeight="1" spans="1:11">
       <c r="A125" s="4"/>
-      <c r="B125" s="5">
-        <v>2546</v>
+      <c r="B125" s="9">
+        <v>2548</v>
       </c>
       <c r="C125" s="4">
         <v>1</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E125" s="4"/>
-      <c r="F125" s="5">
+      <c r="F125" s="10">
         <v>3</v>
       </c>
       <c r="G125" s="4">
@@ -5825,17 +5996,17 @@
     </row>
     <row r="126" ht="18.5" customHeight="1" spans="1:11">
       <c r="A126" s="4"/>
-      <c r="B126" s="5">
-        <v>2547</v>
+      <c r="B126" s="9">
+        <v>2549</v>
       </c>
       <c r="C126" s="4">
         <v>1</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="9" t="s">
         <v>167</v>
       </c>
       <c r="E126" s="4"/>
-      <c r="F126" s="5">
+      <c r="F126" s="10">
         <v>3</v>
       </c>
       <c r="G126" s="4">
@@ -5852,17 +6023,17 @@
     </row>
     <row r="127" ht="18.5" customHeight="1" spans="1:11">
       <c r="A127" s="4"/>
-      <c r="B127" s="5">
-        <v>2548</v>
+      <c r="B127" s="9">
+        <v>2550</v>
       </c>
       <c r="C127" s="4">
         <v>1</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E127" s="4"/>
-      <c r="F127" s="5">
+      <c r="F127" s="10">
         <v>3</v>
       </c>
       <c r="G127" s="4">
@@ -5879,17 +6050,17 @@
     </row>
     <row r="128" ht="18.5" customHeight="1" spans="1:11">
       <c r="A128" s="4"/>
-      <c r="B128" s="5">
-        <v>2549</v>
+      <c r="B128" s="9">
+        <v>2551</v>
       </c>
       <c r="C128" s="4">
         <v>1</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="9" t="s">
         <v>169</v>
       </c>
       <c r="E128" s="4"/>
-      <c r="F128" s="5">
+      <c r="F128" s="10">
         <v>3</v>
       </c>
       <c r="G128" s="4">
@@ -5906,17 +6077,17 @@
     </row>
     <row r="129" ht="18.5" customHeight="1" spans="1:11">
       <c r="A129" s="4"/>
-      <c r="B129" s="5">
-        <v>2550</v>
+      <c r="B129" s="9">
+        <v>2552</v>
       </c>
       <c r="C129" s="4">
         <v>1</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E129" s="4"/>
-      <c r="F129" s="5">
+      <c r="F129" s="10">
         <v>3</v>
       </c>
       <c r="G129" s="4">
@@ -5933,17 +6104,17 @@
     </row>
     <row r="130" ht="18.5" customHeight="1" spans="1:11">
       <c r="A130" s="4"/>
-      <c r="B130" s="5">
-        <v>2551</v>
+      <c r="B130" s="9">
+        <v>2553</v>
       </c>
       <c r="C130" s="4">
         <v>1</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="9" t="s">
         <v>171</v>
       </c>
       <c r="E130" s="4"/>
-      <c r="F130" s="5">
+      <c r="F130" s="10">
         <v>3</v>
       </c>
       <c r="G130" s="4">
@@ -5960,17 +6131,17 @@
     </row>
     <row r="131" ht="18.5" customHeight="1" spans="1:11">
       <c r="A131" s="4"/>
-      <c r="B131" s="5">
-        <v>2552</v>
+      <c r="B131" s="9">
+        <v>2554</v>
       </c>
       <c r="C131" s="4">
         <v>1</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="9" t="s">
         <v>172</v>
       </c>
       <c r="E131" s="4"/>
-      <c r="F131" s="5">
+      <c r="F131" s="10">
         <v>3</v>
       </c>
       <c r="G131" s="4">
@@ -5987,17 +6158,17 @@
     </row>
     <row r="132" ht="18.5" customHeight="1" spans="1:11">
       <c r="A132" s="4"/>
-      <c r="B132" s="5">
-        <v>2553</v>
+      <c r="B132" s="9">
+        <v>2555</v>
       </c>
       <c r="C132" s="4">
         <v>1</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="9" t="s">
         <v>173</v>
       </c>
       <c r="E132" s="4"/>
-      <c r="F132" s="5">
+      <c r="F132" s="10">
         <v>3</v>
       </c>
       <c r="G132" s="4">
@@ -6014,17 +6185,17 @@
     </row>
     <row r="133" ht="18.5" customHeight="1" spans="1:11">
       <c r="A133" s="4"/>
-      <c r="B133" s="5">
-        <v>2554</v>
+      <c r="B133" s="9">
+        <v>2556</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="9" t="s">
         <v>174</v>
       </c>
       <c r="E133" s="4"/>
-      <c r="F133" s="5">
+      <c r="F133" s="10">
         <v>3</v>
       </c>
       <c r="G133" s="4">
@@ -6041,17 +6212,17 @@
     </row>
     <row r="134" ht="18.5" customHeight="1" spans="1:11">
       <c r="A134" s="4"/>
-      <c r="B134" s="5">
-        <v>2555</v>
+      <c r="B134" s="9">
+        <v>2557</v>
       </c>
       <c r="C134" s="4">
         <v>1</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E134" s="4"/>
-      <c r="F134" s="5">
+      <c r="F134" s="10">
         <v>3</v>
       </c>
       <c r="G134" s="4">
@@ -6068,17 +6239,17 @@
     </row>
     <row r="135" ht="18.5" customHeight="1" spans="1:11">
       <c r="A135" s="4"/>
-      <c r="B135" s="5">
-        <v>2556</v>
+      <c r="B135" s="9">
+        <v>2558</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E135" s="4"/>
-      <c r="F135" s="5">
+      <c r="F135" s="10">
         <v>3</v>
       </c>
       <c r="G135" s="4">
@@ -6095,17 +6266,17 @@
     </row>
     <row r="136" ht="18.5" customHeight="1" spans="1:11">
       <c r="A136" s="4"/>
-      <c r="B136" s="5">
-        <v>2557</v>
+      <c r="B136" s="9">
+        <v>2559</v>
       </c>
       <c r="C136" s="4">
         <v>1</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="9" t="s">
         <v>177</v>
       </c>
       <c r="E136" s="4"/>
-      <c r="F136" s="5">
+      <c r="F136" s="10">
         <v>3</v>
       </c>
       <c r="G136" s="4">
@@ -6123,16 +6294,16 @@
     <row r="137" ht="18.5" customHeight="1" spans="1:11">
       <c r="A137" s="4"/>
       <c r="B137" s="5">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="C137" s="4">
         <v>1</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="9" t="s">
         <v>178</v>
       </c>
       <c r="E137" s="4"/>
-      <c r="F137" s="5">
+      <c r="F137" s="10">
         <v>3</v>
       </c>
       <c r="G137" s="4">
@@ -6149,18 +6320,18 @@
     </row>
     <row r="138" ht="18.5" customHeight="1" spans="1:11">
       <c r="A138" s="4"/>
-      <c r="B138" s="5">
-        <v>2559</v>
+      <c r="B138" s="9">
+        <v>2901</v>
       </c>
       <c r="C138" s="4">
         <v>1</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="9" t="s">
         <v>179</v>
       </c>
       <c r="E138" s="4"/>
-      <c r="F138" s="5">
-        <v>3</v>
+      <c r="F138" s="10">
+        <v>4</v>
       </c>
       <c r="G138" s="4">
         <v>23</v>
@@ -6176,17 +6347,17 @@
     </row>
     <row r="139" ht="18.5" customHeight="1" spans="1:11">
       <c r="A139" s="4"/>
-      <c r="B139" s="5">
-        <v>2901</v>
+      <c r="B139" s="9">
+        <v>2902</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="9" t="s">
         <v>180</v>
       </c>
       <c r="E139" s="4"/>
-      <c r="F139" s="5">
+      <c r="F139" s="10">
         <v>4</v>
       </c>
       <c r="G139" s="4">
@@ -6203,17 +6374,17 @@
     </row>
     <row r="140" ht="18.5" customHeight="1" spans="1:11">
       <c r="A140" s="4"/>
-      <c r="B140" s="5">
-        <v>2902</v>
+      <c r="B140" s="9">
+        <v>2903</v>
       </c>
       <c r="C140" s="4">
         <v>1</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E140" s="4"/>
-      <c r="F140" s="5">
+      <c r="F140" s="10">
         <v>4</v>
       </c>
       <c r="G140" s="4">
@@ -6230,17 +6401,17 @@
     </row>
     <row r="141" ht="18.5" customHeight="1" spans="1:11">
       <c r="A141" s="4"/>
-      <c r="B141" s="5">
-        <v>2903</v>
+      <c r="B141" s="9">
+        <v>2904</v>
       </c>
       <c r="C141" s="4">
         <v>1</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="9" t="s">
         <v>182</v>
       </c>
       <c r="E141" s="4"/>
-      <c r="F141" s="5">
+      <c r="F141" s="10">
         <v>4</v>
       </c>
       <c r="G141" s="4">
@@ -6257,17 +6428,17 @@
     </row>
     <row r="142" ht="18.5" customHeight="1" spans="1:11">
       <c r="A142" s="4"/>
-      <c r="B142" s="5">
-        <v>2904</v>
+      <c r="B142" s="9">
+        <v>2905</v>
       </c>
       <c r="C142" s="4">
         <v>1</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="9" t="s">
         <v>183</v>
       </c>
       <c r="E142" s="4"/>
-      <c r="F142" s="5">
+      <c r="F142" s="10">
         <v>4</v>
       </c>
       <c r="G142" s="4">
@@ -6284,17 +6455,17 @@
     </row>
     <row r="143" ht="18.5" customHeight="1" spans="1:11">
       <c r="A143" s="4"/>
-      <c r="B143" s="5">
-        <v>2905</v>
+      <c r="B143" s="9">
+        <v>2906</v>
       </c>
       <c r="C143" s="4">
         <v>1</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E143" s="4"/>
-      <c r="F143" s="5">
+      <c r="F143" s="10">
         <v>4</v>
       </c>
       <c r="G143" s="4">
@@ -6311,17 +6482,17 @@
     </row>
     <row r="144" ht="18.5" customHeight="1" spans="1:11">
       <c r="A144" s="4"/>
-      <c r="B144" s="5">
-        <v>2906</v>
+      <c r="B144" s="9">
+        <v>2907</v>
       </c>
       <c r="C144" s="4">
         <v>1</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="9" t="s">
         <v>185</v>
       </c>
       <c r="E144" s="4"/>
-      <c r="F144" s="5">
+      <c r="F144" s="10">
         <v>4</v>
       </c>
       <c r="G144" s="4">
@@ -6338,17 +6509,17 @@
     </row>
     <row r="145" ht="18.5" customHeight="1" spans="1:11">
       <c r="A145" s="4"/>
-      <c r="B145" s="5">
-        <v>2907</v>
+      <c r="B145" s="9">
+        <v>2908</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E145" s="4"/>
-      <c r="F145" s="5">
+      <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="4">
@@ -6365,17 +6536,17 @@
     </row>
     <row r="146" ht="18.5" customHeight="1" spans="1:11">
       <c r="A146" s="4"/>
-      <c r="B146" s="5">
-        <v>2908</v>
+      <c r="B146" s="9">
+        <v>2909</v>
       </c>
       <c r="C146" s="4">
         <v>1</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="9" t="s">
         <v>187</v>
       </c>
       <c r="E146" s="4"/>
-      <c r="F146" s="5">
+      <c r="F146" s="10">
         <v>4</v>
       </c>
       <c r="G146" s="4">
@@ -6392,17 +6563,17 @@
     </row>
     <row r="147" ht="18.5" customHeight="1" spans="1:11">
       <c r="A147" s="4"/>
-      <c r="B147" s="5">
-        <v>2909</v>
+      <c r="B147" s="9">
+        <v>2910</v>
       </c>
       <c r="C147" s="4">
         <v>1</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="9" t="s">
         <v>188</v>
       </c>
       <c r="E147" s="4"/>
-      <c r="F147" s="5">
+      <c r="F147" s="10">
         <v>4</v>
       </c>
       <c r="G147" s="4">
@@ -6419,17 +6590,17 @@
     </row>
     <row r="148" ht="18.5" customHeight="1" spans="1:11">
       <c r="A148" s="4"/>
-      <c r="B148" s="5">
-        <v>2910</v>
+      <c r="B148" s="9">
+        <v>2911</v>
       </c>
       <c r="C148" s="4">
         <v>1</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="9" t="s">
         <v>189</v>
       </c>
       <c r="E148" s="4"/>
-      <c r="F148" s="5">
+      <c r="F148" s="10">
         <v>4</v>
       </c>
       <c r="G148" s="4">
@@ -6446,17 +6617,17 @@
     </row>
     <row r="149" ht="18.5" customHeight="1" spans="1:11">
       <c r="A149" s="4"/>
-      <c r="B149" s="5">
-        <v>2911</v>
+      <c r="B149" s="9">
+        <v>2912</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E149" s="4"/>
-      <c r="F149" s="5">
+      <c r="F149" s="10">
         <v>4</v>
       </c>
       <c r="G149" s="4">
@@ -6473,17 +6644,17 @@
     </row>
     <row r="150" ht="18.5" customHeight="1" spans="1:11">
       <c r="A150" s="4"/>
-      <c r="B150" s="5">
-        <v>2912</v>
+      <c r="B150" s="9">
+        <v>2913</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E150" s="4"/>
-      <c r="F150" s="5">
+      <c r="F150" s="10">
         <v>4</v>
       </c>
       <c r="G150" s="4">
@@ -6500,17 +6671,17 @@
     </row>
     <row r="151" ht="18.5" customHeight="1" spans="1:11">
       <c r="A151" s="4"/>
-      <c r="B151" s="5">
-        <v>2913</v>
+      <c r="B151" s="9">
+        <v>2914</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E151" s="4"/>
-      <c r="F151" s="5">
+      <c r="F151" s="10">
         <v>4</v>
       </c>
       <c r="G151" s="4">
@@ -6527,17 +6698,17 @@
     </row>
     <row r="152" ht="18.5" customHeight="1" spans="1:11">
       <c r="A152" s="4"/>
-      <c r="B152" s="5">
-        <v>2914</v>
+      <c r="B152" s="9">
+        <v>2915</v>
       </c>
       <c r="C152" s="4">
         <v>1</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E152" s="4"/>
-      <c r="F152" s="5">
+      <c r="F152" s="10">
         <v>4</v>
       </c>
       <c r="G152" s="4">
@@ -6554,17 +6725,17 @@
     </row>
     <row r="153" ht="18.5" customHeight="1" spans="1:11">
       <c r="A153" s="4"/>
-      <c r="B153" s="5">
-        <v>2915</v>
+      <c r="B153" s="9">
+        <v>2916</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="9" t="s">
         <v>194</v>
       </c>
       <c r="E153" s="4"/>
-      <c r="F153" s="5">
+      <c r="F153" s="10">
         <v>4</v>
       </c>
       <c r="G153" s="4">
@@ -6581,17 +6752,17 @@
     </row>
     <row r="154" ht="18.5" customHeight="1" spans="1:11">
       <c r="A154" s="4"/>
-      <c r="B154" s="5">
-        <v>2916</v>
+      <c r="B154" s="9">
+        <v>2917</v>
       </c>
       <c r="C154" s="4">
         <v>1</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="9" t="s">
         <v>195</v>
       </c>
       <c r="E154" s="4"/>
-      <c r="F154" s="5">
+      <c r="F154" s="10">
         <v>4</v>
       </c>
       <c r="G154" s="4">
@@ -6608,17 +6779,17 @@
     </row>
     <row r="155" ht="18.5" customHeight="1" spans="1:11">
       <c r="A155" s="4"/>
-      <c r="B155" s="5">
-        <v>2917</v>
+      <c r="B155" s="9">
+        <v>2918</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="9" t="s">
         <v>196</v>
       </c>
       <c r="E155" s="4"/>
-      <c r="F155" s="5">
+      <c r="F155" s="10">
         <v>4</v>
       </c>
       <c r="G155" s="4">
@@ -6635,17 +6806,17 @@
     </row>
     <row r="156" ht="18.5" customHeight="1" spans="1:11">
       <c r="A156" s="4"/>
-      <c r="B156" s="5">
-        <v>2918</v>
+      <c r="B156" s="9">
+        <v>2919</v>
       </c>
       <c r="C156" s="4">
         <v>1</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="9" t="s">
         <v>197</v>
       </c>
       <c r="E156" s="4"/>
-      <c r="F156" s="5">
+      <c r="F156" s="10">
         <v>4</v>
       </c>
       <c r="G156" s="4">
@@ -6662,17 +6833,17 @@
     </row>
     <row r="157" ht="18.5" customHeight="1" spans="1:11">
       <c r="A157" s="4"/>
-      <c r="B157" s="5">
-        <v>2919</v>
+      <c r="B157" s="9">
+        <v>2920</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="9" t="s">
         <v>198</v>
       </c>
       <c r="E157" s="4"/>
-      <c r="F157" s="5">
+      <c r="F157" s="10">
         <v>4</v>
       </c>
       <c r="G157" s="4">
@@ -6689,17 +6860,17 @@
     </row>
     <row r="158" ht="18.5" customHeight="1" spans="1:11">
       <c r="A158" s="4"/>
-      <c r="B158" s="5">
-        <v>2920</v>
+      <c r="B158" s="9">
+        <v>2921</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="9" t="s">
         <v>199</v>
       </c>
       <c r="E158" s="4"/>
-      <c r="F158" s="5">
+      <c r="F158" s="10">
         <v>4</v>
       </c>
       <c r="G158" s="4">
@@ -6716,17 +6887,17 @@
     </row>
     <row r="159" ht="18.5" customHeight="1" spans="1:11">
       <c r="A159" s="4"/>
-      <c r="B159" s="5">
-        <v>2921</v>
+      <c r="B159" s="9">
+        <v>2922</v>
       </c>
       <c r="C159" s="4">
         <v>1</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="9" t="s">
         <v>200</v>
       </c>
       <c r="E159" s="4"/>
-      <c r="F159" s="5">
+      <c r="F159" s="10">
         <v>4</v>
       </c>
       <c r="G159" s="4">
@@ -6743,17 +6914,17 @@
     </row>
     <row r="160" ht="18.5" customHeight="1" spans="1:11">
       <c r="A160" s="4"/>
-      <c r="B160" s="5">
+      <c r="B160" s="9">
         <v>3201</v>
       </c>
       <c r="C160" s="4">
         <v>1</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="9" t="s">
         <v>201</v>
       </c>
       <c r="E160" s="4"/>
-      <c r="F160" s="5">
+      <c r="F160" s="10">
         <v>5</v>
       </c>
       <c r="G160" s="4">
@@ -6770,17 +6941,17 @@
     </row>
     <row r="161" ht="18.5" customHeight="1" spans="1:11">
       <c r="A161" s="4"/>
-      <c r="B161" s="5">
+      <c r="B161" s="9">
         <v>3202</v>
       </c>
       <c r="C161" s="4">
         <v>1</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="9" t="s">
         <v>202</v>
       </c>
       <c r="E161" s="4"/>
-      <c r="F161" s="5">
+      <c r="F161" s="10">
         <v>5</v>
       </c>
       <c r="G161" s="4">
@@ -6797,17 +6968,17 @@
     </row>
     <row r="162" ht="18.5" customHeight="1" spans="1:11">
       <c r="A162" s="4"/>
-      <c r="B162" s="5">
+      <c r="B162" s="9">
         <v>3203</v>
       </c>
       <c r="C162" s="4">
         <v>1</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="9" t="s">
         <v>203</v>
       </c>
       <c r="E162" s="4"/>
-      <c r="F162" s="5">
+      <c r="F162" s="10">
         <v>5</v>
       </c>
       <c r="G162" s="4">
@@ -6824,17 +6995,17 @@
     </row>
     <row r="163" ht="18.5" customHeight="1" spans="1:11">
       <c r="A163" s="4"/>
-      <c r="B163" s="5">
+      <c r="B163" s="9">
         <v>3204</v>
       </c>
       <c r="C163" s="4">
         <v>1</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="9" t="s">
         <v>204</v>
       </c>
       <c r="E163" s="4"/>
-      <c r="F163" s="5">
+      <c r="F163" s="10">
         <v>5</v>
       </c>
       <c r="G163" s="4">
@@ -6851,17 +7022,17 @@
     </row>
     <row r="164" ht="18.5" customHeight="1" spans="1:11">
       <c r="A164" s="4"/>
-      <c r="B164" s="5">
+      <c r="B164" s="9">
         <v>3205</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="9" t="s">
         <v>205</v>
       </c>
       <c r="E164" s="4"/>
-      <c r="F164" s="5">
+      <c r="F164" s="10">
         <v>5</v>
       </c>
       <c r="G164" s="4">
@@ -6884,13 +7055,13 @@
       <c r="C165" s="4">
         <v>1</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="E165" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F165" s="4">
         <v>2</v>
       </c>
       <c r="G165" s="4">
@@ -6913,13 +7084,13 @@
       <c r="C166" s="4">
         <v>1</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F166" s="4">
         <v>3</v>
       </c>
       <c r="G166" s="4">
@@ -6942,13 +7113,13 @@
       <c r="C167" s="4">
         <v>1</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E167" s="5" t="s">
+      <c r="E167" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F167" s="5">
+      <c r="F167" s="4">
         <v>4</v>
       </c>
       <c r="G167" s="4">
@@ -6971,13 +7142,13 @@
       <c r="C168" s="4">
         <v>1</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E168" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F168" s="4">
         <v>3</v>
       </c>
       <c r="G168" s="4">
@@ -7000,13 +7171,13 @@
       <c r="C169" s="4">
         <v>1</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="E169" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F169" s="4">
         <v>3</v>
       </c>
       <c r="G169" s="4">
@@ -7029,13 +7200,13 @@
       <c r="C170" s="4">
         <v>1</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E170" s="5" t="s">
+      <c r="E170" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F170" s="4">
         <v>3</v>
       </c>
       <c r="G170" s="4">
@@ -7058,13 +7229,13 @@
       <c r="C171" s="4">
         <v>1</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="E171" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F171" s="4">
         <v>3</v>
       </c>
       <c r="G171" s="4">
@@ -7087,13 +7258,13 @@
       <c r="C172" s="4">
         <v>1</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E172" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F172" s="5">
+      <c r="F172" s="4">
         <v>3</v>
       </c>
       <c r="G172" s="4">
@@ -7116,13 +7287,13 @@
       <c r="C173" s="4">
         <v>1</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E173" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F173" s="5">
+      <c r="F173" s="4">
         <v>3</v>
       </c>
       <c r="G173" s="4">
@@ -7145,13 +7316,13 @@
       <c r="C174" s="4">
         <v>1</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="E174" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F174" s="5">
+      <c r="F174" s="4">
         <v>3</v>
       </c>
       <c r="G174" s="4">
@@ -7174,13 +7345,13 @@
       <c r="C175" s="4">
         <v>1</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F175" s="5">
+      <c r="F175" s="4">
         <v>3</v>
       </c>
       <c r="G175" s="4">
@@ -7203,13 +7374,13 @@
       <c r="C176" s="4">
         <v>1</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F176" s="5">
+      <c r="F176" s="4">
         <v>3</v>
       </c>
       <c r="G176" s="4">
@@ -7232,13 +7403,13 @@
       <c r="C177" s="4">
         <v>1</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F177" s="5">
+      <c r="F177" s="4">
         <v>4</v>
       </c>
       <c r="G177" s="4">
@@ -7261,13 +7432,13 @@
       <c r="C178" s="4">
         <v>1</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="F178" s="5">
+      <c r="F178" s="4">
         <v>4</v>
       </c>
       <c r="G178" s="4">
@@ -7290,13 +7461,13 @@
       <c r="C179" s="4">
         <v>1</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F179" s="5">
+      <c r="F179" s="4">
         <v>4</v>
       </c>
       <c r="G179" s="4">
@@ -7319,13 +7490,13 @@
       <c r="C180" s="4">
         <v>1</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E180" s="5" t="s">
+      <c r="E180" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F180" s="5">
+      <c r="F180" s="4">
         <v>4</v>
       </c>
       <c r="G180" s="4">
@@ -7348,13 +7519,13 @@
       <c r="C181" s="4">
         <v>1</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E181" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F181" s="5">
+      <c r="F181" s="4">
         <v>3</v>
       </c>
       <c r="G181" s="4">
@@ -7377,13 +7548,13 @@
       <c r="C182" s="4">
         <v>1</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E182" s="5" t="s">
+      <c r="E182" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="F182" s="5">
+      <c r="F182" s="4">
         <v>4</v>
       </c>
       <c r="G182" s="4">
@@ -7406,13 +7577,13 @@
       <c r="C183" s="4">
         <v>1</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="E183" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F183" s="5">
+      <c r="F183" s="4">
         <v>5</v>
       </c>
       <c r="G183" s="4">
@@ -7435,13 +7606,13 @@
       <c r="C184" s="4">
         <v>1</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E184" s="5" t="s">
+      <c r="E184" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F184" s="5">
+      <c r="F184" s="4">
         <v>5</v>
       </c>
       <c r="G184" s="4">
@@ -7464,13 +7635,13 @@
       <c r="C185" s="4">
         <v>1</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="E185" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F185" s="5">
+      <c r="F185" s="4">
         <v>5</v>
       </c>
       <c r="G185" s="4">
@@ -7493,13 +7664,13 @@
       <c r="C186" s="4">
         <v>1</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E186" s="5" t="s">
+      <c r="E186" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F186" s="5">
+      <c r="F186" s="4">
         <v>5</v>
       </c>
       <c r="G186" s="4">
@@ -7522,13 +7693,13 @@
       <c r="C187" s="4">
         <v>1</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="E187" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F187" s="5">
+      <c r="F187" s="4">
         <v>5</v>
       </c>
       <c r="G187" s="4">
@@ -7551,13 +7722,13 @@
       <c r="C188" s="4">
         <v>1</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="E188" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F188" s="5">
+      <c r="F188" s="4">
         <v>5</v>
       </c>
       <c r="G188" s="4">
@@ -7580,13 +7751,13 @@
       <c r="C189" s="4">
         <v>1</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E189" s="5" t="s">
+      <c r="E189" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F189" s="5">
+      <c r="F189" s="4">
         <v>5</v>
       </c>
       <c r="G189" s="4">
@@ -7606,11 +7777,13 @@
       <c r="B190" s="4">
         <v>10000</v>
       </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="5" t="s">
+      <c r="C190" s="4">
+        <v>1</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="E190" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F190" s="4">
@@ -7633,14 +7806,16 @@
       <c r="B191" s="4">
         <v>10001</v>
       </c>
-      <c r="C191" s="4"/>
-      <c r="D191" s="5" t="s">
+      <c r="C191" s="4">
+        <v>1</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F191" s="5">
+      <c r="F191" s="4">
         <v>1</v>
       </c>
       <c r="G191" s="4">
@@ -7660,11 +7835,13 @@
       <c r="B192" s="4">
         <v>10002</v>
       </c>
-      <c r="C192" s="4"/>
-      <c r="D192" s="5" t="s">
+      <c r="C192" s="4">
+        <v>1</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="E192" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F192" s="4">
@@ -7687,14 +7864,16 @@
       <c r="B193" s="4">
         <v>10003</v>
       </c>
-      <c r="C193" s="4"/>
-      <c r="D193" s="5" t="s">
+      <c r="C193" s="4">
+        <v>1</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F193" s="5">
+      <c r="F193" s="4">
         <v>1</v>
       </c>
       <c r="G193" s="4">
@@ -7714,11 +7893,13 @@
       <c r="B194" s="4">
         <v>10004</v>
       </c>
-      <c r="C194" s="4"/>
-      <c r="D194" s="5" t="s">
+      <c r="C194" s="4">
+        <v>1</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F194" s="4">
@@ -7741,14 +7922,16 @@
       <c r="B195" s="4">
         <v>10005</v>
       </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="5" t="s">
+      <c r="C195" s="4">
+        <v>1</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E195" s="5" t="s">
+      <c r="E195" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F195" s="5">
+      <c r="F195" s="4">
         <v>1</v>
       </c>
       <c r="G195" s="4">
@@ -7768,11 +7951,13 @@
       <c r="B196" s="4">
         <v>10006</v>
       </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="5" t="s">
+      <c r="C196" s="4">
+        <v>1</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F196" s="4">
@@ -7795,14 +7980,16 @@
       <c r="B197" s="4">
         <v>10007</v>
       </c>
-      <c r="C197" s="4"/>
-      <c r="D197" s="5" t="s">
+      <c r="C197" s="4">
+        <v>1</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F197" s="5">
+      <c r="F197" s="4">
         <v>1</v>
       </c>
       <c r="G197" s="4">
@@ -7822,11 +8009,13 @@
       <c r="B198" s="4">
         <v>10008</v>
       </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="5" t="s">
+      <c r="C198" s="4">
+        <v>1</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="E198" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F198" s="4">
@@ -7849,14 +8038,16 @@
       <c r="B199" s="4">
         <v>10009</v>
       </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="5" t="s">
+      <c r="C199" s="4">
+        <v>1</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="E199" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F199" s="5">
+      <c r="F199" s="4">
         <v>1</v>
       </c>
       <c r="G199" s="4">
@@ -7876,11 +8067,13 @@
       <c r="B200" s="4">
         <v>10010</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="5" t="s">
+      <c r="C200" s="4">
+        <v>1</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E200" s="5" t="s">
+      <c r="E200" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F200" s="4">
@@ -7903,14 +8096,16 @@
       <c r="B201" s="4">
         <v>10011</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="5" t="s">
+      <c r="C201" s="4">
+        <v>1</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E201" s="5" t="s">
+      <c r="E201" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F201" s="5">
+      <c r="F201" s="4">
         <v>1</v>
       </c>
       <c r="G201" s="4">
@@ -7930,11 +8125,13 @@
       <c r="B202" s="4">
         <v>10012</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="5" t="s">
+      <c r="C202" s="4">
+        <v>1</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="E202" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F202" s="4">
@@ -7957,14 +8154,16 @@
       <c r="B203" s="4">
         <v>10013</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="5" t="s">
+      <c r="C203" s="4">
+        <v>1</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E203" s="5" t="s">
+      <c r="E203" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F203" s="5">
+      <c r="F203" s="4">
         <v>1</v>
       </c>
       <c r="G203" s="4">
@@ -7984,11 +8183,13 @@
       <c r="B204" s="4">
         <v>10014</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="5" t="s">
+      <c r="C204" s="4">
+        <v>1</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F204" s="4">
@@ -8011,14 +8212,16 @@
       <c r="B205" s="4">
         <v>10015</v>
       </c>
-      <c r="C205" s="4"/>
-      <c r="D205" s="5" t="s">
+      <c r="C205" s="4">
+        <v>1</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E205" s="5" t="s">
+      <c r="E205" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F205" s="5">
+      <c r="F205" s="4">
         <v>1</v>
       </c>
       <c r="G205" s="4">
@@ -8038,11 +8241,13 @@
       <c r="B206" s="4">
         <v>10016</v>
       </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="5" t="s">
+      <c r="C206" s="4">
+        <v>1</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="E206" s="4" t="s">
         <v>257</v>
       </c>
       <c r="F206" s="4">
@@ -8065,14 +8270,16 @@
       <c r="B207" s="4">
         <v>10017</v>
       </c>
-      <c r="C207" s="4"/>
-      <c r="D207" s="5" t="s">
+      <c r="C207" s="4">
+        <v>1</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E207" s="5" t="s">
+      <c r="E207" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F207" s="5">
+      <c r="F207" s="4">
         <v>1</v>
       </c>
       <c r="G207" s="4">
@@ -8092,14 +8299,16 @@
       <c r="B208" s="4">
         <v>10101</v>
       </c>
-      <c r="C208" s="4"/>
-      <c r="D208" s="5" t="s">
+      <c r="C208" s="4">
+        <v>1</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="E208" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F208" s="5">
+      <c r="F208" s="4">
         <v>2</v>
       </c>
       <c r="G208" s="4">
@@ -8119,14 +8328,16 @@
       <c r="B209" s="4">
         <v>10102</v>
       </c>
-      <c r="C209" s="4"/>
-      <c r="D209" s="5" t="s">
+      <c r="C209" s="4">
+        <v>1</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E209" s="5" t="s">
+      <c r="E209" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F209" s="5">
+      <c r="F209" s="4">
         <v>2</v>
       </c>
       <c r="G209" s="4">
@@ -8146,14 +8357,16 @@
       <c r="B210" s="4">
         <v>10103</v>
       </c>
-      <c r="C210" s="4"/>
-      <c r="D210" s="5" t="s">
+      <c r="C210" s="4">
+        <v>1</v>
+      </c>
+      <c r="D210" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E210" s="5" t="s">
+      <c r="E210" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F210" s="5">
+      <c r="F210" s="4">
         <v>2</v>
       </c>
       <c r="G210" s="4">
@@ -8173,14 +8386,16 @@
       <c r="B211" s="4">
         <v>10104</v>
       </c>
-      <c r="C211" s="4"/>
-      <c r="D211" s="5" t="s">
+      <c r="C211" s="4">
+        <v>1</v>
+      </c>
+      <c r="D211" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E211" s="5" t="s">
+      <c r="E211" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F211" s="5">
+      <c r="F211" s="4">
         <v>2</v>
       </c>
       <c r="G211" s="4">
@@ -8200,14 +8415,16 @@
       <c r="B212" s="4">
         <v>10105</v>
       </c>
-      <c r="C212" s="4"/>
-      <c r="D212" s="5" t="s">
+      <c r="C212" s="4">
+        <v>1</v>
+      </c>
+      <c r="D212" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E212" s="5" t="s">
+      <c r="E212" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F212" s="5">
+      <c r="F212" s="4">
         <v>2</v>
       </c>
       <c r="G212" s="4">
@@ -8227,14 +8444,16 @@
       <c r="B213" s="4">
         <v>10106</v>
       </c>
-      <c r="C213" s="4"/>
-      <c r="D213" s="5" t="s">
+      <c r="C213" s="4">
+        <v>1</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E213" s="5" t="s">
+      <c r="E213" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F213" s="5">
+      <c r="F213" s="4">
         <v>2</v>
       </c>
       <c r="G213" s="4">
@@ -8254,14 +8473,16 @@
       <c r="B214" s="4">
         <v>10107</v>
       </c>
-      <c r="C214" s="4"/>
-      <c r="D214" s="5" t="s">
+      <c r="C214" s="4">
+        <v>1</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E214" s="5" t="s">
+      <c r="E214" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F214" s="5">
+      <c r="F214" s="4">
         <v>2</v>
       </c>
       <c r="G214" s="4">
@@ -8281,14 +8502,16 @@
       <c r="B215" s="4">
         <v>10108</v>
       </c>
-      <c r="C215" s="4"/>
-      <c r="D215" s="5" t="s">
+      <c r="C215" s="4">
+        <v>1</v>
+      </c>
+      <c r="D215" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E215" s="5" t="s">
+      <c r="E215" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F215" s="5">
+      <c r="F215" s="4">
         <v>2</v>
       </c>
       <c r="G215" s="4">
@@ -8308,14 +8531,16 @@
       <c r="B216" s="4">
         <v>10109</v>
       </c>
-      <c r="C216" s="4"/>
-      <c r="D216" s="5" t="s">
+      <c r="C216" s="4">
+        <v>1</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="E216" s="5" t="s">
+      <c r="E216" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F216" s="5">
+      <c r="F216" s="4">
         <v>2</v>
       </c>
       <c r="G216" s="4">
@@ -8335,14 +8560,16 @@
       <c r="B217" s="4">
         <v>10110</v>
       </c>
-      <c r="C217" s="4"/>
-      <c r="D217" s="5" t="s">
+      <c r="C217" s="4">
+        <v>1</v>
+      </c>
+      <c r="D217" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E217" s="5" t="s">
+      <c r="E217" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F217" s="5">
+      <c r="F217" s="4">
         <v>2</v>
       </c>
       <c r="G217" s="4">
@@ -8362,14 +8589,16 @@
       <c r="B218" s="4">
         <v>10111</v>
       </c>
-      <c r="C218" s="4"/>
-      <c r="D218" s="5" t="s">
+      <c r="C218" s="4">
+        <v>1</v>
+      </c>
+      <c r="D218" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E218" s="5" t="s">
+      <c r="E218" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F218" s="5">
+      <c r="F218" s="4">
         <v>2</v>
       </c>
       <c r="G218" s="4">
@@ -8389,14 +8618,16 @@
       <c r="B219" s="4">
         <v>10112</v>
       </c>
-      <c r="C219" s="4"/>
-      <c r="D219" s="5" t="s">
+      <c r="C219" s="4">
+        <v>1</v>
+      </c>
+      <c r="D219" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E219" s="5" t="s">
+      <c r="E219" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F219" s="5">
+      <c r="F219" s="4">
         <v>2</v>
       </c>
       <c r="G219" s="4">
@@ -8416,14 +8647,16 @@
       <c r="B220" s="4">
         <v>10113</v>
       </c>
-      <c r="C220" s="4"/>
-      <c r="D220" s="5" t="s">
+      <c r="C220" s="4">
+        <v>1</v>
+      </c>
+      <c r="D220" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E220" s="5" t="s">
+      <c r="E220" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F220" s="5">
+      <c r="F220" s="4">
         <v>2</v>
       </c>
       <c r="G220" s="4">
@@ -8443,14 +8676,16 @@
       <c r="B221" s="4">
         <v>10114</v>
       </c>
-      <c r="C221" s="4"/>
-      <c r="D221" s="5" t="s">
+      <c r="C221" s="4">
+        <v>1</v>
+      </c>
+      <c r="D221" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E221" s="5" t="s">
+      <c r="E221" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F221" s="5">
+      <c r="F221" s="4">
         <v>2</v>
       </c>
       <c r="G221" s="4">
@@ -8470,14 +8705,16 @@
       <c r="B222" s="4">
         <v>10115</v>
       </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="5" t="s">
+      <c r="C222" s="4">
+        <v>1</v>
+      </c>
+      <c r="D222" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E222" s="5" t="s">
+      <c r="E222" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F222" s="5">
+      <c r="F222" s="4">
         <v>2</v>
       </c>
       <c r="G222" s="4">
@@ -8497,14 +8734,16 @@
       <c r="B223" s="4">
         <v>10116</v>
       </c>
-      <c r="C223" s="4"/>
-      <c r="D223" s="5" t="s">
+      <c r="C223" s="4">
+        <v>1</v>
+      </c>
+      <c r="D223" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E223" s="5" t="s">
+      <c r="E223" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F223" s="5">
+      <c r="F223" s="4">
         <v>2</v>
       </c>
       <c r="G223" s="4">
@@ -8524,14 +8763,16 @@
       <c r="B224" s="4">
         <v>10117</v>
       </c>
-      <c r="C224" s="4"/>
-      <c r="D224" s="5" t="s">
+      <c r="C224" s="4">
+        <v>1</v>
+      </c>
+      <c r="D224" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E224" s="5" t="s">
+      <c r="E224" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F224" s="5">
+      <c r="F224" s="4">
         <v>2</v>
       </c>
       <c r="G224" s="4">
@@ -8551,14 +8792,16 @@
       <c r="B225" s="4">
         <v>10118</v>
       </c>
-      <c r="C225" s="4"/>
-      <c r="D225" s="5" t="s">
+      <c r="C225" s="4">
+        <v>1</v>
+      </c>
+      <c r="D225" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E225" s="5" t="s">
+      <c r="E225" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F225" s="5">
+      <c r="F225" s="4">
         <v>2</v>
       </c>
       <c r="G225" s="4">
@@ -8578,14 +8821,16 @@
       <c r="B226" s="4">
         <v>10201</v>
       </c>
-      <c r="C226" s="4"/>
-      <c r="D226" s="5" t="s">
+      <c r="C226" s="4">
+        <v>1</v>
+      </c>
+      <c r="D226" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E226" s="5" t="s">
+      <c r="E226" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F226" s="5">
+      <c r="F226" s="4">
         <v>3</v>
       </c>
       <c r="G226" s="4">
@@ -8605,14 +8850,16 @@
       <c r="B227" s="4">
         <v>10202</v>
       </c>
-      <c r="C227" s="4"/>
-      <c r="D227" s="5" t="s">
+      <c r="C227" s="4">
+        <v>1</v>
+      </c>
+      <c r="D227" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E227" s="5" t="s">
+      <c r="E227" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F227" s="5">
+      <c r="F227" s="4">
         <v>3</v>
       </c>
       <c r="G227" s="4">
@@ -8632,14 +8879,16 @@
       <c r="B228" s="4">
         <v>10203</v>
       </c>
-      <c r="C228" s="4"/>
-      <c r="D228" s="5" t="s">
+      <c r="C228" s="4">
+        <v>1</v>
+      </c>
+      <c r="D228" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E228" s="5" t="s">
+      <c r="E228" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F228" s="5">
+      <c r="F228" s="4">
         <v>3</v>
       </c>
       <c r="G228" s="4">
@@ -8659,14 +8908,16 @@
       <c r="B229" s="4">
         <v>10204</v>
       </c>
-      <c r="C229" s="4"/>
-      <c r="D229" s="5" t="s">
+      <c r="C229" s="4">
+        <v>1</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E229" s="5" t="s">
+      <c r="E229" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F229" s="5">
+      <c r="F229" s="4">
         <v>3</v>
       </c>
       <c r="G229" s="4">
@@ -8686,14 +8937,16 @@
       <c r="B230" s="4">
         <v>10205</v>
       </c>
-      <c r="C230" s="4"/>
-      <c r="D230" s="5" t="s">
+      <c r="C230" s="4">
+        <v>1</v>
+      </c>
+      <c r="D230" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E230" s="5" t="s">
+      <c r="E230" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F230" s="5">
+      <c r="F230" s="4">
         <v>3</v>
       </c>
       <c r="G230" s="4">
@@ -8713,14 +8966,16 @@
       <c r="B231" s="4">
         <v>10206</v>
       </c>
-      <c r="C231" s="4"/>
-      <c r="D231" s="5" t="s">
+      <c r="C231" s="4">
+        <v>1</v>
+      </c>
+      <c r="D231" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="E231" s="5" t="s">
+      <c r="E231" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F231" s="5">
+      <c r="F231" s="4">
         <v>3</v>
       </c>
       <c r="G231" s="4">
@@ -8740,14 +8995,16 @@
       <c r="B232" s="4">
         <v>10207</v>
       </c>
-      <c r="C232" s="4"/>
-      <c r="D232" s="5" t="s">
+      <c r="C232" s="4">
+        <v>1</v>
+      </c>
+      <c r="D232" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="E232" s="5" t="s">
+      <c r="E232" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F232" s="5">
+      <c r="F232" s="4">
         <v>3</v>
       </c>
       <c r="G232" s="4">
@@ -8767,14 +9024,16 @@
       <c r="B233" s="4">
         <v>10208</v>
       </c>
-      <c r="C233" s="4"/>
-      <c r="D233" s="5" t="s">
+      <c r="C233" s="4">
+        <v>1</v>
+      </c>
+      <c r="D233" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E233" s="5" t="s">
+      <c r="E233" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F233" s="5">
+      <c r="F233" s="4">
         <v>3</v>
       </c>
       <c r="G233" s="4">
@@ -8794,14 +9053,16 @@
       <c r="B234" s="4">
         <v>10209</v>
       </c>
-      <c r="C234" s="4"/>
-      <c r="D234" s="5" t="s">
+      <c r="C234" s="4">
+        <v>1</v>
+      </c>
+      <c r="D234" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="E234" s="5" t="s">
+      <c r="E234" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F234" s="5">
+      <c r="F234" s="4">
         <v>3</v>
       </c>
       <c r="G234" s="4">
@@ -8821,14 +9082,16 @@
       <c r="B235" s="4">
         <v>10210</v>
       </c>
-      <c r="C235" s="4"/>
-      <c r="D235" s="5" t="s">
+      <c r="C235" s="4">
+        <v>1</v>
+      </c>
+      <c r="D235" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E235" s="5" t="s">
+      <c r="E235" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F235" s="5">
+      <c r="F235" s="4">
         <v>3</v>
       </c>
       <c r="G235" s="4">
@@ -8848,14 +9111,16 @@
       <c r="B236" s="4">
         <v>10211</v>
       </c>
-      <c r="C236" s="4"/>
-      <c r="D236" s="5" t="s">
+      <c r="C236" s="4">
+        <v>1</v>
+      </c>
+      <c r="D236" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E236" s="5" t="s">
+      <c r="E236" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F236" s="5">
+      <c r="F236" s="4">
         <v>3</v>
       </c>
       <c r="G236" s="4">
@@ -8875,14 +9140,16 @@
       <c r="B237" s="4">
         <v>10212</v>
       </c>
-      <c r="C237" s="4"/>
-      <c r="D237" s="5" t="s">
+      <c r="C237" s="4">
+        <v>1</v>
+      </c>
+      <c r="D237" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E237" s="5" t="s">
+      <c r="E237" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F237" s="5">
+      <c r="F237" s="4">
         <v>3</v>
       </c>
       <c r="G237" s="4">
@@ -8902,14 +9169,16 @@
       <c r="B238" s="4">
         <v>10213</v>
       </c>
-      <c r="C238" s="4"/>
-      <c r="D238" s="5" t="s">
+      <c r="C238" s="4">
+        <v>1</v>
+      </c>
+      <c r="D238" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E238" s="5" t="s">
+      <c r="E238" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F238" s="5">
+      <c r="F238" s="4">
         <v>3</v>
       </c>
       <c r="G238" s="4">
@@ -8929,14 +9198,16 @@
       <c r="B239" s="4">
         <v>10214</v>
       </c>
-      <c r="C239" s="4"/>
-      <c r="D239" s="5" t="s">
+      <c r="C239" s="4">
+        <v>1</v>
+      </c>
+      <c r="D239" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="E239" s="5" t="s">
+      <c r="E239" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F239" s="5">
+      <c r="F239" s="4">
         <v>3</v>
       </c>
       <c r="G239" s="4">
@@ -8956,14 +9227,16 @@
       <c r="B240" s="4">
         <v>10215</v>
       </c>
-      <c r="C240" s="4"/>
-      <c r="D240" s="5" t="s">
+      <c r="C240" s="4">
+        <v>1</v>
+      </c>
+      <c r="D240" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E240" s="5" t="s">
+      <c r="E240" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F240" s="5">
+      <c r="F240" s="4">
         <v>3</v>
       </c>
       <c r="G240" s="4">
@@ -8983,14 +9256,16 @@
       <c r="B241" s="4">
         <v>10216</v>
       </c>
-      <c r="C241" s="4"/>
-      <c r="D241" s="5" t="s">
+      <c r="C241" s="4">
+        <v>1</v>
+      </c>
+      <c r="D241" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="E241" s="5" t="s">
+      <c r="E241" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F241" s="5">
+      <c r="F241" s="4">
         <v>3</v>
       </c>
       <c r="G241" s="4">
@@ -9010,14 +9285,16 @@
       <c r="B242" s="4">
         <v>10217</v>
       </c>
-      <c r="C242" s="4"/>
-      <c r="D242" s="5" t="s">
+      <c r="C242" s="4">
+        <v>1</v>
+      </c>
+      <c r="D242" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="E242" s="5" t="s">
+      <c r="E242" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F242" s="5">
+      <c r="F242" s="4">
         <v>3</v>
       </c>
       <c r="G242" s="4">
@@ -9037,14 +9314,16 @@
       <c r="B243" s="4">
         <v>10218</v>
       </c>
-      <c r="C243" s="4"/>
-      <c r="D243" s="5" t="s">
+      <c r="C243" s="4">
+        <v>1</v>
+      </c>
+      <c r="D243" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E243" s="5" t="s">
+      <c r="E243" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F243" s="5">
+      <c r="F243" s="4">
         <v>3</v>
       </c>
       <c r="G243" s="4">
@@ -9064,14 +9343,16 @@
       <c r="B244" s="4">
         <v>10301</v>
       </c>
-      <c r="C244" s="4"/>
-      <c r="D244" s="5" t="s">
+      <c r="C244" s="4">
+        <v>1</v>
+      </c>
+      <c r="D244" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E244" s="5" t="s">
+      <c r="E244" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F244" s="5">
+      <c r="F244" s="4">
         <v>4</v>
       </c>
       <c r="G244" s="4">
@@ -9091,14 +9372,16 @@
       <c r="B245" s="4">
         <v>10302</v>
       </c>
-      <c r="C245" s="4"/>
-      <c r="D245" s="5" t="s">
+      <c r="C245" s="4">
+        <v>1</v>
+      </c>
+      <c r="D245" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E245" s="5" t="s">
+      <c r="E245" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F245" s="5">
+      <c r="F245" s="4">
         <v>4</v>
       </c>
       <c r="G245" s="4">
@@ -9118,14 +9401,16 @@
       <c r="B246" s="4">
         <v>10303</v>
       </c>
-      <c r="C246" s="4"/>
-      <c r="D246" s="5" t="s">
+      <c r="C246" s="4">
+        <v>1</v>
+      </c>
+      <c r="D246" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E246" s="5" t="s">
+      <c r="E246" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F246" s="5">
+      <c r="F246" s="4">
         <v>4</v>
       </c>
       <c r="G246" s="4">
@@ -9145,14 +9430,16 @@
       <c r="B247" s="4">
         <v>10304</v>
       </c>
-      <c r="C247" s="4"/>
-      <c r="D247" s="5" t="s">
+      <c r="C247" s="4">
+        <v>1</v>
+      </c>
+      <c r="D247" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E247" s="5" t="s">
+      <c r="E247" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F247" s="5">
+      <c r="F247" s="4">
         <v>4</v>
       </c>
       <c r="G247" s="4">
@@ -9172,14 +9459,16 @@
       <c r="B248" s="4">
         <v>10305</v>
       </c>
-      <c r="C248" s="4"/>
-      <c r="D248" s="5" t="s">
+      <c r="C248" s="4">
+        <v>1</v>
+      </c>
+      <c r="D248" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E248" s="5" t="s">
+      <c r="E248" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F248" s="5">
+      <c r="F248" s="4">
         <v>4</v>
       </c>
       <c r="G248" s="4">
@@ -9199,14 +9488,16 @@
       <c r="B249" s="4">
         <v>10306</v>
       </c>
-      <c r="C249" s="4"/>
-      <c r="D249" s="5" t="s">
+      <c r="C249" s="4">
+        <v>1</v>
+      </c>
+      <c r="D249" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E249" s="5" t="s">
+      <c r="E249" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F249" s="5">
+      <c r="F249" s="4">
         <v>4</v>
       </c>
       <c r="G249" s="4">
@@ -9226,14 +9517,16 @@
       <c r="B250" s="4">
         <v>10307</v>
       </c>
-      <c r="C250" s="4"/>
-      <c r="D250" s="5" t="s">
+      <c r="C250" s="4">
+        <v>1</v>
+      </c>
+      <c r="D250" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E250" s="5" t="s">
+      <c r="E250" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F250" s="5">
+      <c r="F250" s="4">
         <v>4</v>
       </c>
       <c r="G250" s="4">
@@ -9253,14 +9546,16 @@
       <c r="B251" s="4">
         <v>10308</v>
       </c>
-      <c r="C251" s="4"/>
-      <c r="D251" s="5" t="s">
+      <c r="C251" s="4">
+        <v>1</v>
+      </c>
+      <c r="D251" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="E251" s="5" t="s">
+      <c r="E251" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F251" s="5">
+      <c r="F251" s="4">
         <v>4</v>
       </c>
       <c r="G251" s="4">
@@ -9280,14 +9575,16 @@
       <c r="B252" s="4">
         <v>10309</v>
       </c>
-      <c r="C252" s="4"/>
-      <c r="D252" s="5" t="s">
+      <c r="C252" s="4">
+        <v>1</v>
+      </c>
+      <c r="D252" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="E252" s="5" t="s">
+      <c r="E252" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F252" s="5">
+      <c r="F252" s="4">
         <v>4</v>
       </c>
       <c r="G252" s="4">
@@ -9307,14 +9604,16 @@
       <c r="B253" s="4">
         <v>10310</v>
       </c>
-      <c r="C253" s="4"/>
-      <c r="D253" s="5" t="s">
+      <c r="C253" s="4">
+        <v>1</v>
+      </c>
+      <c r="D253" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E253" s="5" t="s">
+      <c r="E253" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F253" s="5">
+      <c r="F253" s="4">
         <v>4</v>
       </c>
       <c r="G253" s="4">
@@ -9334,14 +9633,16 @@
       <c r="B254" s="4">
         <v>10311</v>
       </c>
-      <c r="C254" s="4"/>
-      <c r="D254" s="5" t="s">
+      <c r="C254" s="4">
+        <v>1</v>
+      </c>
+      <c r="D254" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E254" s="5" t="s">
+      <c r="E254" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F254" s="5">
+      <c r="F254" s="4">
         <v>4</v>
       </c>
       <c r="G254" s="4">
@@ -9361,14 +9662,16 @@
       <c r="B255" s="4">
         <v>10312</v>
       </c>
-      <c r="C255" s="4"/>
-      <c r="D255" s="5" t="s">
+      <c r="C255" s="4">
+        <v>1</v>
+      </c>
+      <c r="D255" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E255" s="5" t="s">
+      <c r="E255" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F255" s="5">
+      <c r="F255" s="4">
         <v>4</v>
       </c>
       <c r="G255" s="4">
@@ -9388,14 +9691,16 @@
       <c r="B256" s="4">
         <v>10313</v>
       </c>
-      <c r="C256" s="4"/>
-      <c r="D256" s="5" t="s">
+      <c r="C256" s="4">
+        <v>1</v>
+      </c>
+      <c r="D256" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E256" s="5" t="s">
+      <c r="E256" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F256" s="5">
+      <c r="F256" s="4">
         <v>4</v>
       </c>
       <c r="G256" s="4">
@@ -9415,14 +9720,16 @@
       <c r="B257" s="4">
         <v>10314</v>
       </c>
-      <c r="C257" s="4"/>
-      <c r="D257" s="5" t="s">
+      <c r="C257" s="4">
+        <v>1</v>
+      </c>
+      <c r="D257" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E257" s="5" t="s">
+      <c r="E257" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F257" s="5">
+      <c r="F257" s="4">
         <v>4</v>
       </c>
       <c r="G257" s="4">
@@ -9442,14 +9749,16 @@
       <c r="B258" s="4">
         <v>10315</v>
       </c>
-      <c r="C258" s="4"/>
-      <c r="D258" s="5" t="s">
+      <c r="C258" s="4">
+        <v>1</v>
+      </c>
+      <c r="D258" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E258" s="5" t="s">
+      <c r="E258" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F258" s="5">
+      <c r="F258" s="4">
         <v>4</v>
       </c>
       <c r="G258" s="4">
@@ -9469,14 +9778,16 @@
       <c r="B259" s="4">
         <v>10316</v>
       </c>
-      <c r="C259" s="4"/>
-      <c r="D259" s="5" t="s">
+      <c r="C259" s="4">
+        <v>1</v>
+      </c>
+      <c r="D259" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="E259" s="5" t="s">
+      <c r="E259" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F259" s="5">
+      <c r="F259" s="4">
         <v>4</v>
       </c>
       <c r="G259" s="4">
@@ -9496,14 +9807,16 @@
       <c r="B260" s="4">
         <v>10317</v>
       </c>
-      <c r="C260" s="4"/>
-      <c r="D260" s="5" t="s">
+      <c r="C260" s="4">
+        <v>1</v>
+      </c>
+      <c r="D260" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E260" s="5" t="s">
+      <c r="E260" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F260" s="5">
+      <c r="F260" s="4">
         <v>4</v>
       </c>
       <c r="G260" s="4">
@@ -9523,14 +9836,16 @@
       <c r="B261" s="4">
         <v>10318</v>
       </c>
-      <c r="C261" s="4"/>
-      <c r="D261" s="5" t="s">
+      <c r="C261" s="4">
+        <v>1</v>
+      </c>
+      <c r="D261" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E261" s="5" t="s">
+      <c r="E261" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="F261" s="5">
+      <c r="F261" s="4">
         <v>4</v>
       </c>
       <c r="G261" s="4">
@@ -9547,15 +9862,19 @@
     </row>
     <row r="262" ht="18.5" customHeight="1" spans="1:11">
       <c r="A262" s="4"/>
-      <c r="B262" s="5">
+      <c r="B262" s="4">
         <v>20000</v>
       </c>
-      <c r="C262" s="4"/>
-      <c r="D262" s="7" t="s">
+      <c r="C262" s="4">
+        <v>1</v>
+      </c>
+      <c r="D262" s="4" t="s">
         <v>329</v>
       </c>
       <c r="E262" s="4"/>
-      <c r="F262" s="5"/>
+      <c r="F262" s="4">
+        <v>1</v>
+      </c>
       <c r="G262" s="4">
         <v>42</v>
       </c>
@@ -9570,15 +9889,19 @@
     </row>
     <row r="263" ht="18.5" customHeight="1" spans="1:11">
       <c r="A263" s="4"/>
-      <c r="B263" s="5">
+      <c r="B263" s="4">
         <v>20001</v>
       </c>
-      <c r="C263" s="4"/>
-      <c r="D263" s="7" t="s">
+      <c r="C263" s="4">
+        <v>1</v>
+      </c>
+      <c r="D263" s="4" t="s">
         <v>330</v>
       </c>
       <c r="E263" s="4"/>
-      <c r="F263" s="5"/>
+      <c r="F263" s="4">
+        <v>1</v>
+      </c>
       <c r="G263" s="4">
         <v>42</v>
       </c>
@@ -9593,15 +9916,19 @@
     </row>
     <row r="264" ht="18.5" customHeight="1" spans="1:11">
       <c r="A264" s="4"/>
-      <c r="B264" s="5">
+      <c r="B264" s="4">
         <v>20002</v>
       </c>
-      <c r="C264" s="4"/>
-      <c r="D264" s="7" t="s">
+      <c r="C264" s="4">
+        <v>1</v>
+      </c>
+      <c r="D264" s="4" t="s">
         <v>331</v>
       </c>
       <c r="E264" s="4"/>
-      <c r="F264" s="5"/>
+      <c r="F264" s="4">
+        <v>1</v>
+      </c>
       <c r="G264" s="4">
         <v>33</v>
       </c>
@@ -9616,15 +9943,19 @@
     </row>
     <row r="265" ht="18.5" customHeight="1" spans="1:11">
       <c r="A265" s="4"/>
-      <c r="B265" s="5">
+      <c r="B265" s="4">
         <v>20003</v>
       </c>
-      <c r="C265" s="4"/>
-      <c r="D265" s="7" t="s">
+      <c r="C265" s="4">
+        <v>1</v>
+      </c>
+      <c r="D265" s="4" t="s">
         <v>332</v>
       </c>
       <c r="E265" s="4"/>
-      <c r="F265" s="5"/>
+      <c r="F265" s="4">
+        <v>1</v>
+      </c>
       <c r="G265" s="4">
         <v>33</v>
       </c>
@@ -9639,15 +9970,19 @@
     </row>
     <row r="266" ht="18.5" customHeight="1" spans="1:11">
       <c r="A266" s="4"/>
-      <c r="B266" s="5">
+      <c r="B266" s="4">
         <v>20004</v>
       </c>
-      <c r="C266" s="4"/>
-      <c r="D266" s="7" t="s">
+      <c r="C266" s="4">
+        <v>1</v>
+      </c>
+      <c r="D266" s="4" t="s">
         <v>333</v>
       </c>
       <c r="E266" s="4"/>
-      <c r="F266" s="5"/>
+      <c r="F266" s="4">
+        <v>1</v>
+      </c>
       <c r="G266" s="4">
         <v>33</v>
       </c>
@@ -9662,15 +9997,19 @@
     </row>
     <row r="267" ht="18.5" customHeight="1" spans="1:11">
       <c r="A267" s="4"/>
-      <c r="B267" s="5">
+      <c r="B267" s="4">
         <v>20005</v>
       </c>
-      <c r="C267" s="4"/>
-      <c r="D267" s="7" t="s">
+      <c r="C267" s="4">
+        <v>1</v>
+      </c>
+      <c r="D267" s="4" t="s">
         <v>334</v>
       </c>
       <c r="E267" s="4"/>
-      <c r="F267" s="5"/>
+      <c r="F267" s="4">
+        <v>1</v>
+      </c>
       <c r="G267" s="4">
         <v>33</v>
       </c>
@@ -9685,15 +10024,19 @@
     </row>
     <row r="268" ht="18.5" customHeight="1" spans="1:11">
       <c r="A268" s="4"/>
-      <c r="B268" s="5">
+      <c r="B268" s="4">
         <v>20006</v>
       </c>
-      <c r="C268" s="4"/>
-      <c r="D268" s="7" t="s">
+      <c r="C268" s="4">
+        <v>1</v>
+      </c>
+      <c r="D268" s="4" t="s">
         <v>335</v>
       </c>
       <c r="E268" s="4"/>
-      <c r="F268" s="5"/>
+      <c r="F268" s="4">
+        <v>1</v>
+      </c>
       <c r="G268" s="4">
         <v>33</v>
       </c>
@@ -9708,15 +10051,19 @@
     </row>
     <row r="269" ht="18.5" customHeight="1" spans="1:11">
       <c r="A269" s="4"/>
-      <c r="B269" s="5">
+      <c r="B269" s="4">
         <v>20007</v>
       </c>
-      <c r="C269" s="4"/>
-      <c r="D269" s="7" t="s">
+      <c r="C269" s="4">
+        <v>1</v>
+      </c>
+      <c r="D269" s="4" t="s">
         <v>336</v>
       </c>
       <c r="E269" s="4"/>
-      <c r="F269" s="5"/>
+      <c r="F269" s="4">
+        <v>1</v>
+      </c>
       <c r="G269" s="4">
         <v>33</v>
       </c>
@@ -9731,15 +10078,19 @@
     </row>
     <row r="270" ht="18.5" customHeight="1" spans="1:11">
       <c r="A270" s="4"/>
-      <c r="B270" s="5">
+      <c r="B270" s="4">
         <v>20008</v>
       </c>
-      <c r="C270" s="4"/>
-      <c r="D270" s="7" t="s">
+      <c r="C270" s="4">
+        <v>1</v>
+      </c>
+      <c r="D270" s="4" t="s">
         <v>337</v>
       </c>
       <c r="E270" s="4"/>
-      <c r="F270" s="5"/>
+      <c r="F270" s="4">
+        <v>1</v>
+      </c>
       <c r="G270" s="4">
         <v>33</v>
       </c>
@@ -9754,15 +10105,19 @@
     </row>
     <row r="271" ht="18.5" customHeight="1" spans="1:11">
       <c r="A271" s="4"/>
-      <c r="B271" s="5">
+      <c r="B271" s="4">
         <v>20009</v>
       </c>
-      <c r="C271" s="4"/>
-      <c r="D271" s="7" t="s">
+      <c r="C271" s="4">
+        <v>1</v>
+      </c>
+      <c r="D271" s="4" t="s">
         <v>338</v>
       </c>
       <c r="E271" s="4"/>
-      <c r="F271" s="5"/>
+      <c r="F271" s="4">
+        <v>1</v>
+      </c>
       <c r="G271" s="4">
         <v>33</v>
       </c>
@@ -9777,15 +10132,19 @@
     </row>
     <row r="272" ht="18.5" customHeight="1" spans="1:11">
       <c r="A272" s="4"/>
-      <c r="B272" s="5">
+      <c r="B272" s="4">
         <v>20010</v>
       </c>
-      <c r="C272" s="4"/>
-      <c r="D272" s="7" t="s">
+      <c r="C272" s="4">
+        <v>1</v>
+      </c>
+      <c r="D272" s="4" t="s">
         <v>339</v>
       </c>
       <c r="E272" s="4"/>
-      <c r="F272" s="5"/>
+      <c r="F272" s="4">
+        <v>1</v>
+      </c>
       <c r="G272" s="4">
         <v>33</v>
       </c>
@@ -9800,20 +10159,26 @@
     </row>
     <row r="273" ht="18.5" customHeight="1" spans="1:11">
       <c r="A273" s="4"/>
-      <c r="B273" s="5">
+      <c r="B273" s="4">
         <v>20101</v>
       </c>
-      <c r="C273" s="4"/>
-      <c r="D273" s="5" t="s">
+      <c r="C273" s="4">
+        <v>1</v>
+      </c>
+      <c r="D273" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E273" s="4"/>
-      <c r="F273" s="5"/>
+      <c r="E273" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F273" s="4">
+        <v>1</v>
+      </c>
       <c r="G273" s="4">
         <v>31</v>
       </c>
       <c r="H273" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" s="4">
         <v>0</v>
@@ -9823,20 +10188,26 @@
     </row>
     <row r="274" ht="18.5" customHeight="1" spans="1:11">
       <c r="A274" s="4"/>
-      <c r="B274" s="5">
+      <c r="B274" s="4">
         <v>20102</v>
       </c>
-      <c r="C274" s="4"/>
-      <c r="D274" s="5" t="s">
+      <c r="C274" s="4">
+        <v>1</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E274" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E274" s="4"/>
-      <c r="F274" s="5"/>
+      <c r="F274" s="4">
+        <v>1</v>
+      </c>
       <c r="G274" s="4">
         <v>31</v>
       </c>
       <c r="H274" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" s="4">
         <v>0</v>
@@ -9846,20 +10217,26 @@
     </row>
     <row r="275" ht="18.5" customHeight="1" spans="1:11">
       <c r="A275" s="4"/>
-      <c r="B275" s="5">
+      <c r="B275" s="4">
         <v>20103</v>
       </c>
-      <c r="C275" s="4"/>
-      <c r="D275" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E275" s="4"/>
-      <c r="F275" s="5"/>
+      <c r="C275" s="4">
+        <v>1</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F275" s="4">
+        <v>1</v>
+      </c>
       <c r="G275" s="4">
         <v>31</v>
       </c>
       <c r="H275" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="4">
         <v>0</v>
@@ -9869,20 +10246,26 @@
     </row>
     <row r="276" ht="18.5" customHeight="1" spans="1:11">
       <c r="A276" s="4"/>
-      <c r="B276" s="5">
+      <c r="B276" s="4">
         <v>20104</v>
       </c>
-      <c r="C276" s="4"/>
-      <c r="D276" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E276" s="4"/>
-      <c r="F276" s="5"/>
+      <c r="C276" s="4">
+        <v>1</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F276" s="4">
+        <v>1</v>
+      </c>
       <c r="G276" s="4">
         <v>31</v>
       </c>
       <c r="H276" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" s="4">
         <v>0</v>
@@ -9892,20 +10275,26 @@
     </row>
     <row r="277" ht="18.5" customHeight="1" spans="1:11">
       <c r="A277" s="4"/>
-      <c r="B277" s="5">
+      <c r="B277" s="4">
         <v>20105</v>
       </c>
-      <c r="C277" s="4"/>
-      <c r="D277" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="E277" s="4"/>
-      <c r="F277" s="5"/>
+      <c r="C277" s="4">
+        <v>1</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F277" s="4">
+        <v>1</v>
+      </c>
       <c r="G277" s="4">
         <v>31</v>
       </c>
       <c r="H277" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" s="4">
         <v>0</v>
@@ -9915,20 +10304,26 @@
     </row>
     <row r="278" ht="18.5" customHeight="1" spans="1:11">
       <c r="A278" s="4"/>
-      <c r="B278" s="5">
+      <c r="B278" s="4">
         <v>20106</v>
       </c>
-      <c r="C278" s="4"/>
-      <c r="D278" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E278" s="4"/>
-      <c r="F278" s="5"/>
+      <c r="C278" s="4">
+        <v>1</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F278" s="4">
+        <v>1</v>
+      </c>
       <c r="G278" s="4">
         <v>31</v>
       </c>
       <c r="H278" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" s="4">
         <v>0</v>
@@ -9938,20 +10333,26 @@
     </row>
     <row r="279" ht="18.5" customHeight="1" spans="1:11">
       <c r="A279" s="4"/>
-      <c r="B279" s="5">
+      <c r="B279" s="4">
         <v>20107</v>
       </c>
-      <c r="C279" s="4"/>
-      <c r="D279" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E279" s="4"/>
-      <c r="F279" s="5"/>
+      <c r="C279" s="4">
+        <v>1</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F279" s="4">
+        <v>1</v>
+      </c>
       <c r="G279" s="4">
         <v>31</v>
       </c>
       <c r="H279" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" s="4">
         <v>0</v>
@@ -9961,19 +10362,23 @@
     </row>
     <row r="280" ht="18.5" customHeight="1" spans="1:11">
       <c r="A280" s="4"/>
-      <c r="B280" s="5">
-        <v>20201</v>
-      </c>
-      <c r="C280" s="4"/>
-      <c r="D280" s="5" t="s">
-        <v>347</v>
+      <c r="B280" s="4">
+        <v>20108</v>
+      </c>
+      <c r="C280" s="4">
+        <v>1</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F280" s="5"/>
+        <v>341</v>
+      </c>
+      <c r="F280" s="4">
+        <v>1</v>
+      </c>
       <c r="G280" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H280" s="4">
         <v>0</v>
@@ -9986,19 +10391,23 @@
     </row>
     <row r="281" ht="18.5" customHeight="1" spans="1:11">
       <c r="A281" s="4"/>
-      <c r="B281" s="5">
-        <v>20202</v>
-      </c>
-      <c r="C281" s="4"/>
-      <c r="D281" s="5" t="s">
-        <v>349</v>
+      <c r="B281" s="4">
+        <v>20109</v>
+      </c>
+      <c r="C281" s="4">
+        <v>1</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F281" s="5"/>
+        <v>341</v>
+      </c>
+      <c r="F281" s="4">
+        <v>1</v>
+      </c>
       <c r="G281" s="4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H281" s="4">
         <v>0</v>
@@ -10011,12 +10420,24 @@
     </row>
     <row r="282" ht="18.5" customHeight="1" spans="1:11">
       <c r="A282" s="4"/>
-      <c r="B282" s="5"/>
-      <c r="C282" s="4"/>
-      <c r="D282" s="5"/>
-      <c r="E282" s="4"/>
-      <c r="F282" s="5"/>
-      <c r="G282" s="4"/>
+      <c r="B282" s="4">
+        <v>20110</v>
+      </c>
+      <c r="C282" s="4">
+        <v>1</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F282" s="4">
+        <v>1</v>
+      </c>
+      <c r="G282" s="4">
+        <v>31</v>
+      </c>
       <c r="H282" s="4">
         <v>0</v>
       </c>
@@ -10027,21 +10448,331 @@
       <c r="K282" s="4"/>
     </row>
     <row r="283" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A283" s="8"/>
-      <c r="B283" s="9"/>
-      <c r="C283" s="8"/>
-      <c r="D283" s="9"/>
-      <c r="E283" s="8"/>
-      <c r="F283" s="9"/>
-      <c r="G283" s="8"/>
-      <c r="H283" s="8">
-        <v>0</v>
-      </c>
-      <c r="I283" s="8">
-        <v>0</v>
-      </c>
-      <c r="J283" s="8"/>
-      <c r="K283" s="8"/>
+      <c r="A283" s="4"/>
+      <c r="B283" s="4">
+        <v>20111</v>
+      </c>
+      <c r="C283" s="4">
+        <v>1</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F283" s="4">
+        <v>1</v>
+      </c>
+      <c r="G283" s="4">
+        <v>31</v>
+      </c>
+      <c r="H283" s="4">
+        <v>0</v>
+      </c>
+      <c r="I283" s="4">
+        <v>0</v>
+      </c>
+      <c r="J283" s="4"/>
+      <c r="K283" s="4"/>
+    </row>
+    <row r="284" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4">
+        <v>20201</v>
+      </c>
+      <c r="C284" s="4">
+        <v>1</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F284" s="4">
+        <v>1</v>
+      </c>
+      <c r="G284" s="4">
+        <v>41</v>
+      </c>
+      <c r="H284" s="4">
+        <v>0</v>
+      </c>
+      <c r="I284" s="4">
+        <v>0</v>
+      </c>
+      <c r="J284" s="4"/>
+      <c r="K284" s="4"/>
+    </row>
+    <row r="285" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4">
+        <v>20202</v>
+      </c>
+      <c r="C285" s="4">
+        <v>1</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F285" s="4">
+        <v>1</v>
+      </c>
+      <c r="G285" s="4">
+        <v>43</v>
+      </c>
+      <c r="H285" s="4">
+        <v>0</v>
+      </c>
+      <c r="I285" s="4">
+        <v>0</v>
+      </c>
+      <c r="J285" s="4"/>
+      <c r="K285" s="4"/>
+    </row>
+    <row r="286" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4">
+        <v>20203</v>
+      </c>
+      <c r="C286" s="4">
+        <v>1</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F286" s="4">
+        <v>1</v>
+      </c>
+      <c r="G286" s="4">
+        <v>41</v>
+      </c>
+      <c r="H286" s="4">
+        <v>0</v>
+      </c>
+      <c r="I286" s="4">
+        <v>0</v>
+      </c>
+      <c r="J286" s="4"/>
+      <c r="K286" s="4"/>
+    </row>
+    <row r="287" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A287" s="12"/>
+      <c r="B287" s="4">
+        <v>20204</v>
+      </c>
+      <c r="C287" s="4">
+        <v>1</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F287" s="4">
+        <v>1</v>
+      </c>
+      <c r="G287" s="4">
+        <v>43</v>
+      </c>
+      <c r="H287" s="12">
+        <v>0</v>
+      </c>
+      <c r="I287" s="12">
+        <v>0</v>
+      </c>
+      <c r="J287" s="12"/>
+      <c r="K287" s="12"/>
+    </row>
+    <row r="288" ht="16.5" spans="2:9">
+      <c r="B288" s="4">
+        <v>20205</v>
+      </c>
+      <c r="C288" s="4">
+        <v>1</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F288" s="4">
+        <v>1</v>
+      </c>
+      <c r="G288" s="4">
+        <v>41</v>
+      </c>
+      <c r="H288" s="4">
+        <v>0</v>
+      </c>
+      <c r="I288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" ht="16.5" spans="2:9">
+      <c r="B289" s="4">
+        <v>20206</v>
+      </c>
+      <c r="C289" s="4">
+        <v>1</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F289" s="4">
+        <v>1</v>
+      </c>
+      <c r="G289" s="4">
+        <v>43</v>
+      </c>
+      <c r="H289" s="12">
+        <v>0</v>
+      </c>
+      <c r="I289" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" ht="16.5" spans="2:9">
+      <c r="B290" s="4">
+        <v>20207</v>
+      </c>
+      <c r="C290" s="4">
+        <v>1</v>
+      </c>
+      <c r="D290" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F290" s="4">
+        <v>1</v>
+      </c>
+      <c r="G290" s="4">
+        <v>41</v>
+      </c>
+      <c r="H290" s="4">
+        <v>0</v>
+      </c>
+      <c r="I290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" ht="16.5" spans="2:9">
+      <c r="B291" s="4">
+        <v>20208</v>
+      </c>
+      <c r="C291" s="4">
+        <v>1</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F291" s="4">
+        <v>1</v>
+      </c>
+      <c r="G291" s="4">
+        <v>43</v>
+      </c>
+      <c r="H291" s="12">
+        <v>0</v>
+      </c>
+      <c r="I291" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" ht="16.5" spans="2:9">
+      <c r="B292" s="4">
+        <v>20209</v>
+      </c>
+      <c r="C292" s="4">
+        <v>1</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F292" s="4">
+        <v>1</v>
+      </c>
+      <c r="G292" s="4">
+        <v>41</v>
+      </c>
+      <c r="H292" s="4">
+        <v>0</v>
+      </c>
+      <c r="I292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" ht="16.5" spans="2:9">
+      <c r="B293" s="4">
+        <v>20210</v>
+      </c>
+      <c r="C293" s="4">
+        <v>1</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F293" s="4">
+        <v>1</v>
+      </c>
+      <c r="G293" s="4">
+        <v>43</v>
+      </c>
+      <c r="H293" s="12">
+        <v>0</v>
+      </c>
+      <c r="I293" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" ht="16.5" spans="2:9">
+      <c r="B294" s="1">
+        <v>20211</v>
+      </c>
+      <c r="C294" s="1">
+        <v>1</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F294" s="1">
+        <v>1</v>
+      </c>
+      <c r="G294" s="4">
+        <v>41</v>
+      </c>
+      <c r="H294" s="4">
+        <v>0</v>
+      </c>
+      <c r="I294" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:K282">

--- a/doc_new/4.服务器配置文档/物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
   </si>
   <si>
     <t>1000-1199货币
-1200-19999消耗类型
+1200-1999消耗类型
 2000-3500 图鉴卡牌
 3501-3700 图鉴箱子
 10000-10100 1级魂石
@@ -133,10 +133,10 @@
     <t>affiliation_class</t>
   </si>
   <si>
-    <t>merge</t>
-  </si>
-  <si>
-    <t>resolves</t>
+    <t>is_merge</t>
+  </si>
+  <si>
+    <t>is_resolves</t>
   </si>
   <si>
     <t>resolve_number</t>
@@ -2250,7 +2250,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{012FEE21-6F98-4F80-97E2-EA91A35C3DF0}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{DC531002-066D-4C32-9ECA-11686EDAA464}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2259,7 +2259,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{15236DB4-621C-4A92-8482-B7001887B392}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{563C381A-ECA9-4FB9-834C-D24A524F6923}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2534,8 +2534,8 @@
   <sheetPr/>
   <dimension ref="A1:K294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2883,7 +2883,7 @@
     <row r="12" ht="18.5" customHeight="1" spans="1:11">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
-        <v>1008</v>
+        <v>1201</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -2912,7 +2912,7 @@
     <row r="13" ht="18.5" customHeight="1" spans="1:11">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -2941,7 +2941,7 @@
     <row r="14" ht="18.5" customHeight="1" spans="1:11">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -2970,7 +2970,7 @@
     <row r="15" ht="18.5" customHeight="1" spans="1:11">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -2999,7 +2999,7 @@
     <row r="16" ht="18.5" customHeight="1" spans="1:11">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
@@ -3028,7 +3028,7 @@
     <row r="17" ht="18.5" customHeight="1" spans="1:11">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -3055,7 +3055,7 @@
     <row r="18" ht="18.5" customHeight="1" spans="1:11">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>

--- a/doc_new/4.服务器配置文档/物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="375">
   <si>
     <t>字段名称</t>
   </si>
@@ -89,7 +89,7 @@
   </si>
   <si>
     <t>1琥珀，2 ，良善点 ，3金币，4地图经验，
-21可使用道具，22材料可显示到背包，23图鉴卡牌，24宠物碎片，25宠物经验，26英雄碎片，27吸附石（带技能），28魂石
+21可使用道具，22材料可显示到背包，23图鉴卡牌，24宠物碎片，25宠物经验，26英雄碎片，27吸附石（带技能），28魂石，29英雄,
 31称号，32宠物，33 特权 ，34通行证经验
 41高级通行证，42时间特权，43通行证点数</t>
   </si>
@@ -206,6 +206,30 @@
   </si>
   <si>
     <t>吸附石(吸附后)</t>
+  </si>
+  <si>
+    <t>小黑</t>
+  </si>
+  <si>
+    <t>英雄【小黑】整卡，重复获得自动分解为80个【小黑碎片】</t>
+  </si>
+  <si>
+    <t>小黑碎片</t>
+  </si>
+  <si>
+    <t>英雄【小黑】的碎片，凑齐80张碎片可以合成英雄</t>
+  </si>
+  <si>
+    <t>法爷</t>
+  </si>
+  <si>
+    <t>英雄【法爷】整卡，重复获得自动分解为80个【法爷碎片】</t>
+  </si>
+  <si>
+    <t>法爷碎片</t>
+  </si>
+  <si>
+    <t>英雄【法爷】的碎片，凑齐80张碎片可以合成英雄</t>
   </si>
   <si>
     <t>1级魂石降级卷</t>
@@ -2250,7 +2274,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{DC531002-066D-4C32-9ECA-11686EDAA464}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{30FCAE67-DD68-4633-8189-10946A50CD9E}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2259,7 +2283,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{563C381A-ECA9-4FB9-834C-D24A524F6923}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{46BB3A42-66C2-4181-87D0-A74B03DAEEE1}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2532,10 +2556,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K294"/>
+  <dimension ref="A1:K298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="G200" sqref="G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2544,7 +2568,7 @@
     <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.3416666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.0083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.00833333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.625" style="1" customWidth="1"/>
     <col min="8" max="9" width="19.3416666666667" style="1" customWidth="1"/>
@@ -3082,7 +3106,7 @@
     <row r="19" ht="18.5" customHeight="1" spans="1:11">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
-        <v>1279</v>
+        <v>1208</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -3094,120 +3118,104 @@
         <v>54</v>
       </c>
       <c r="F19" s="4">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G19" s="4">
-        <v>22</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
-        <v>1280</v>
+        <v>1209</v>
       </c>
       <c r="C20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F20" s="4">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G20" s="4">
-        <v>22</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:11">
       <c r="A21" s="4"/>
       <c r="B21" s="4">
-        <v>1281</v>
+        <v>1210</v>
       </c>
       <c r="C21" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F21" s="4">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="G21" s="4">
-        <v>22</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:11">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
-        <v>1282</v>
+        <v>1211</v>
       </c>
       <c r="C22" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F22" s="4">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G22" s="4">
-        <v>22</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:11">
       <c r="A23" s="4"/>
       <c r="B23" s="4">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -3227,16 +3235,16 @@
     <row r="24" ht="18.5" customHeight="1" spans="1:11">
       <c r="A24" s="4"/>
       <c r="B24" s="4">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
@@ -3256,16 +3264,16 @@
     <row r="25" ht="18.5" customHeight="1" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="4">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="C25" s="4">
         <v>3</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4">
         <v>3</v>
@@ -3285,16 +3293,16 @@
     <row r="26" ht="18.5" customHeight="1" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="4">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C26" s="4">
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F26" s="4">
         <v>4</v>
@@ -3314,20 +3322,22 @@
     <row r="27" ht="18.5" customHeight="1" spans="1:11">
       <c r="A27" s="4"/>
       <c r="B27" s="4">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
@@ -3341,20 +3351,22 @@
     <row r="28" ht="18.5" customHeight="1" spans="1:11">
       <c r="A28" s="4"/>
       <c r="B28" s="4">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -3363,27 +3375,27 @@
         <v>0</v>
       </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="4">
-        <v>2</v>
-      </c>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" ht="18.5" customHeight="1" spans="1:11">
       <c r="A29" s="4"/>
       <c r="B29" s="4">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F29" s="4">
         <v>3</v>
       </c>
       <c r="G29" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -3397,20 +3409,22 @@
     <row r="30" ht="18.5" customHeight="1" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F30" s="4">
         <v>4</v>
       </c>
       <c r="G30" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -3424,22 +3438,20 @@
     <row r="31" ht="18.5" customHeight="1" spans="1:11">
       <c r="A31" s="4"/>
       <c r="B31" s="4">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -3453,22 +3465,20 @@
     <row r="32" ht="18.5" customHeight="1" spans="1:11">
       <c r="A32" s="4"/>
       <c r="B32" s="4">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -3477,27 +3487,27 @@
         <v>0</v>
       </c>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" ht="18.5" customHeight="1" spans="1:11">
       <c r="A33" s="4"/>
       <c r="B33" s="4">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C33" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H33" s="4">
         <v>0</v>
@@ -3511,22 +3521,20 @@
     <row r="34" ht="18.5" customHeight="1" spans="1:11">
       <c r="A34" s="4"/>
       <c r="B34" s="4">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C34" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H34" s="4">
         <v>0</v>
@@ -3539,18 +3547,20 @@
     </row>
     <row r="35" ht="18.5" customHeight="1" spans="1:11">
       <c r="A35" s="4"/>
-      <c r="B35" s="5">
-        <v>2001</v>
+      <c r="B35" s="4">
+        <v>1291</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="6">
-        <v>2</v>
+      <c r="E35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
       </c>
       <c r="G35" s="4">
         <v>23</v>
@@ -3566,18 +3576,20 @@
     </row>
     <row r="36" ht="18.5" customHeight="1" spans="1:11">
       <c r="A36" s="4"/>
-      <c r="B36" s="5">
-        <v>2002</v>
+      <c r="B36" s="4">
+        <v>1292</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="8">
-        <v>2</v>
+      <c r="D36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
       </c>
       <c r="G36" s="4">
         <v>23</v>
@@ -3593,18 +3605,20 @@
     </row>
     <row r="37" ht="18.5" customHeight="1" spans="1:11">
       <c r="A37" s="4"/>
-      <c r="B37" s="5">
-        <v>2003</v>
+      <c r="B37" s="4">
+        <v>1293</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="10">
-        <v>2</v>
+      <c r="D37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
       </c>
       <c r="G37" s="4">
         <v>23</v>
@@ -3620,18 +3634,20 @@
     </row>
     <row r="38" ht="18.5" customHeight="1" spans="1:11">
       <c r="A38" s="4"/>
-      <c r="B38" s="5">
-        <v>2004</v>
+      <c r="B38" s="4">
+        <v>1294</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="10">
-        <v>2</v>
+      <c r="D38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
       </c>
       <c r="G38" s="4">
         <v>23</v>
@@ -3648,16 +3664,16 @@
     <row r="39" ht="18.5" customHeight="1" spans="1:11">
       <c r="A39" s="4"/>
       <c r="B39" s="5">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>80</v>
+      <c r="D39" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="10">
+      <c r="F39" s="6">
         <v>2</v>
       </c>
       <c r="G39" s="4">
@@ -3675,16 +3691,16 @@
     <row r="40" ht="18.5" customHeight="1" spans="1:11">
       <c r="A40" s="4"/>
       <c r="B40" s="5">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>81</v>
+      <c r="D40" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="10">
+      <c r="F40" s="8">
         <v>2</v>
       </c>
       <c r="G40" s="4">
@@ -3702,13 +3718,13 @@
     <row r="41" ht="18.5" customHeight="1" spans="1:11">
       <c r="A41" s="4"/>
       <c r="B41" s="5">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="10">
@@ -3729,13 +3745,13 @@
     <row r="42" ht="18.5" customHeight="1" spans="1:11">
       <c r="A42" s="4"/>
       <c r="B42" s="5">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="10">
@@ -3756,13 +3772,13 @@
     <row r="43" ht="18.5" customHeight="1" spans="1:11">
       <c r="A43" s="4"/>
       <c r="B43" s="5">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="10">
@@ -3783,13 +3799,13 @@
     <row r="44" ht="18.5" customHeight="1" spans="1:11">
       <c r="A44" s="4"/>
       <c r="B44" s="5">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="10">
@@ -3810,13 +3826,13 @@
     <row r="45" ht="18.5" customHeight="1" spans="1:11">
       <c r="A45" s="4"/>
       <c r="B45" s="5">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="10">
@@ -3837,13 +3853,13 @@
     <row r="46" ht="18.5" customHeight="1" spans="1:11">
       <c r="A46" s="4"/>
       <c r="B46" s="5">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="10">
@@ -3864,13 +3880,13 @@
     <row r="47" ht="18.5" customHeight="1" spans="1:11">
       <c r="A47" s="4"/>
       <c r="B47" s="5">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="10">
@@ -3891,13 +3907,13 @@
     <row r="48" ht="18.5" customHeight="1" spans="1:11">
       <c r="A48" s="4"/>
       <c r="B48" s="5">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="10">
@@ -3918,13 +3934,13 @@
     <row r="49" ht="18.5" customHeight="1" spans="1:11">
       <c r="A49" s="4"/>
       <c r="B49" s="5">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="10">
@@ -3945,13 +3961,13 @@
     <row r="50" ht="18.5" customHeight="1" spans="1:11">
       <c r="A50" s="4"/>
       <c r="B50" s="5">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="10">
@@ -3972,13 +3988,13 @@
     <row r="51" ht="18.5" customHeight="1" spans="1:11">
       <c r="A51" s="4"/>
       <c r="B51" s="5">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="10">
@@ -3999,13 +4015,13 @@
     <row r="52" ht="18.5" customHeight="1" spans="1:11">
       <c r="A52" s="4"/>
       <c r="B52" s="5">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="10">
@@ -4026,13 +4042,13 @@
     <row r="53" ht="18.5" customHeight="1" spans="1:11">
       <c r="A53" s="4"/>
       <c r="B53" s="5">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="10">
@@ -4053,13 +4069,13 @@
     <row r="54" ht="18.5" customHeight="1" spans="1:11">
       <c r="A54" s="4"/>
       <c r="B54" s="5">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="10">
@@ -4080,13 +4096,13 @@
     <row r="55" ht="18.5" customHeight="1" spans="1:11">
       <c r="A55" s="4"/>
       <c r="B55" s="5">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="10">
@@ -4107,13 +4123,13 @@
     <row r="56" ht="18.5" customHeight="1" spans="1:11">
       <c r="A56" s="4"/>
       <c r="B56" s="5">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="10">
@@ -4134,13 +4150,13 @@
     <row r="57" ht="18.5" customHeight="1" spans="1:11">
       <c r="A57" s="4"/>
       <c r="B57" s="5">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="10">
@@ -4161,13 +4177,13 @@
     <row r="58" ht="18.5" customHeight="1" spans="1:11">
       <c r="A58" s="4"/>
       <c r="B58" s="5">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="10">
@@ -4188,13 +4204,13 @@
     <row r="59" ht="18.5" customHeight="1" spans="1:11">
       <c r="A59" s="4"/>
       <c r="B59" s="5">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="10">
@@ -4215,13 +4231,13 @@
     <row r="60" ht="18.5" customHeight="1" spans="1:11">
       <c r="A60" s="4"/>
       <c r="B60" s="5">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="10">
@@ -4242,13 +4258,13 @@
     <row r="61" ht="18.5" customHeight="1" spans="1:11">
       <c r="A61" s="4"/>
       <c r="B61" s="5">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="10">
@@ -4269,13 +4285,13 @@
     <row r="62" ht="18.5" customHeight="1" spans="1:11">
       <c r="A62" s="4"/>
       <c r="B62" s="5">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="C62" s="4">
         <v>1</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="10">
@@ -4296,13 +4312,13 @@
     <row r="63" ht="18.5" customHeight="1" spans="1:11">
       <c r="A63" s="4"/>
       <c r="B63" s="5">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="C63" s="4">
         <v>1</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="10">
@@ -4323,13 +4339,13 @@
     <row r="64" ht="18.5" customHeight="1" spans="1:11">
       <c r="A64" s="4"/>
       <c r="B64" s="5">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="10">
@@ -4350,13 +4366,13 @@
     <row r="65" ht="18.5" customHeight="1" spans="1:11">
       <c r="A65" s="4"/>
       <c r="B65" s="5">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="10">
@@ -4377,13 +4393,13 @@
     <row r="66" ht="18.5" customHeight="1" spans="1:11">
       <c r="A66" s="4"/>
       <c r="B66" s="5">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="C66" s="4">
         <v>1</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="10">
@@ -4404,13 +4420,13 @@
     <row r="67" ht="18.5" customHeight="1" spans="1:11">
       <c r="A67" s="4"/>
       <c r="B67" s="5">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="10">
@@ -4431,13 +4447,13 @@
     <row r="68" ht="18.5" customHeight="1" spans="1:11">
       <c r="A68" s="4"/>
       <c r="B68" s="5">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="C68" s="4">
         <v>1</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="10">
@@ -4458,13 +4474,13 @@
     <row r="69" ht="18.5" customHeight="1" spans="1:11">
       <c r="A69" s="4"/>
       <c r="B69" s="5">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="10">
@@ -4485,13 +4501,13 @@
     <row r="70" ht="18.5" customHeight="1" spans="1:11">
       <c r="A70" s="4"/>
       <c r="B70" s="5">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="C70" s="4">
         <v>1</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="10">
@@ -4512,13 +4528,13 @@
     <row r="71" ht="18.5" customHeight="1" spans="1:11">
       <c r="A71" s="4"/>
       <c r="B71" s="5">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="10">
@@ -4539,13 +4555,13 @@
     <row r="72" ht="18.5" customHeight="1" spans="1:11">
       <c r="A72" s="4"/>
       <c r="B72" s="5">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="10">
@@ -4566,13 +4582,13 @@
     <row r="73" ht="18.5" customHeight="1" spans="1:11">
       <c r="A73" s="4"/>
       <c r="B73" s="5">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="10">
@@ -4593,13 +4609,13 @@
     <row r="74" ht="18.5" customHeight="1" spans="1:11">
       <c r="A74" s="4"/>
       <c r="B74" s="5">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="10">
@@ -4620,13 +4636,13 @@
     <row r="75" ht="18.5" customHeight="1" spans="1:11">
       <c r="A75" s="4"/>
       <c r="B75" s="5">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="10">
@@ -4647,13 +4663,13 @@
     <row r="76" ht="18.5" customHeight="1" spans="1:11">
       <c r="A76" s="4"/>
       <c r="B76" s="5">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="10">
@@ -4674,13 +4690,13 @@
     <row r="77" ht="18.5" customHeight="1" spans="1:11">
       <c r="A77" s="4"/>
       <c r="B77" s="5">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="10">
@@ -4701,13 +4717,13 @@
     <row r="78" ht="18.5" customHeight="1" spans="1:11">
       <c r="A78" s="4"/>
       <c r="B78" s="5">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="10">
@@ -4727,18 +4743,18 @@
     </row>
     <row r="79" ht="18.5" customHeight="1" spans="1:11">
       <c r="A79" s="4"/>
-      <c r="B79" s="9">
-        <v>2501</v>
+      <c r="B79" s="5">
+        <v>2042</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" s="4">
         <v>23</v>
@@ -4754,18 +4770,18 @@
     </row>
     <row r="80" ht="18.5" customHeight="1" spans="1:11">
       <c r="A80" s="4"/>
-      <c r="B80" s="9">
-        <v>2502</v>
+      <c r="B80" s="5">
+        <v>2043</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80" s="4">
         <v>23</v>
@@ -4781,18 +4797,18 @@
     </row>
     <row r="81" ht="18.5" customHeight="1" spans="1:11">
       <c r="A81" s="4"/>
-      <c r="B81" s="9">
-        <v>2503</v>
+      <c r="B81" s="5">
+        <v>2044</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81" s="4">
         <v>23</v>
@@ -4808,18 +4824,18 @@
     </row>
     <row r="82" ht="18.5" customHeight="1" spans="1:11">
       <c r="A82" s="4"/>
-      <c r="B82" s="9">
-        <v>2504</v>
+      <c r="B82" s="5">
+        <v>2045</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82" s="4">
         <v>23</v>
@@ -4836,13 +4852,13 @@
     <row r="83" ht="18.5" customHeight="1" spans="1:11">
       <c r="A83" s="4"/>
       <c r="B83" s="9">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="C83" s="4">
         <v>1</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="10">
@@ -4863,13 +4879,13 @@
     <row r="84" ht="18.5" customHeight="1" spans="1:11">
       <c r="A84" s="4"/>
       <c r="B84" s="9">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="10">
@@ -4890,13 +4906,13 @@
     <row r="85" ht="18.5" customHeight="1" spans="1:11">
       <c r="A85" s="4"/>
       <c r="B85" s="9">
-        <v>2507</v>
+        <v>2503</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="10">
@@ -4917,13 +4933,13 @@
     <row r="86" ht="18.5" customHeight="1" spans="1:11">
       <c r="A86" s="4"/>
       <c r="B86" s="9">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="10">
@@ -4944,13 +4960,13 @@
     <row r="87" ht="18.5" customHeight="1" spans="1:11">
       <c r="A87" s="4"/>
       <c r="B87" s="9">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="10">
@@ -4971,13 +4987,13 @@
     <row r="88" ht="18.5" customHeight="1" spans="1:11">
       <c r="A88" s="4"/>
       <c r="B88" s="9">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="10">
@@ -4998,13 +5014,13 @@
     <row r="89" ht="18.5" customHeight="1" spans="1:11">
       <c r="A89" s="4"/>
       <c r="B89" s="9">
-        <v>2511</v>
+        <v>2507</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="10">
@@ -5025,13 +5041,13 @@
     <row r="90" ht="18.5" customHeight="1" spans="1:11">
       <c r="A90" s="4"/>
       <c r="B90" s="9">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="10">
@@ -5052,13 +5068,13 @@
     <row r="91" ht="18.5" customHeight="1" spans="1:11">
       <c r="A91" s="4"/>
       <c r="B91" s="9">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="10">
@@ -5079,13 +5095,13 @@
     <row r="92" ht="18.5" customHeight="1" spans="1:11">
       <c r="A92" s="4"/>
       <c r="B92" s="9">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="10">
@@ -5106,13 +5122,13 @@
     <row r="93" ht="18.5" customHeight="1" spans="1:11">
       <c r="A93" s="4"/>
       <c r="B93" s="9">
-        <v>2516</v>
+        <v>2511</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="10">
@@ -5133,13 +5149,13 @@
     <row r="94" ht="18.5" customHeight="1" spans="1:11">
       <c r="A94" s="4"/>
       <c r="B94" s="9">
-        <v>2517</v>
+        <v>2512</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="10">
@@ -5160,13 +5176,13 @@
     <row r="95" ht="18.5" customHeight="1" spans="1:11">
       <c r="A95" s="4"/>
       <c r="B95" s="9">
-        <v>2518</v>
+        <v>2513</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="10">
@@ -5187,13 +5203,13 @@
     <row r="96" ht="18.5" customHeight="1" spans="1:11">
       <c r="A96" s="4"/>
       <c r="B96" s="9">
-        <v>2519</v>
+        <v>2514</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="10">
@@ -5214,13 +5230,13 @@
     <row r="97" ht="18.5" customHeight="1" spans="1:11">
       <c r="A97" s="4"/>
       <c r="B97" s="9">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="10">
@@ -5241,13 +5257,13 @@
     <row r="98" ht="18.5" customHeight="1" spans="1:11">
       <c r="A98" s="4"/>
       <c r="B98" s="9">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="10">
@@ -5268,13 +5284,13 @@
     <row r="99" ht="18.5" customHeight="1" spans="1:11">
       <c r="A99" s="4"/>
       <c r="B99" s="9">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="10">
@@ -5295,13 +5311,13 @@
     <row r="100" ht="18.5" customHeight="1" spans="1:11">
       <c r="A100" s="4"/>
       <c r="B100" s="9">
-        <v>2523</v>
+        <v>2519</v>
       </c>
       <c r="C100" s="4">
         <v>1</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="10">
@@ -5322,13 +5338,13 @@
     <row r="101" ht="18.5" customHeight="1" spans="1:11">
       <c r="A101" s="4"/>
       <c r="B101" s="9">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="C101" s="4">
         <v>1</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="10">
@@ -5349,13 +5365,13 @@
     <row r="102" ht="18.5" customHeight="1" spans="1:11">
       <c r="A102" s="4"/>
       <c r="B102" s="9">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="C102" s="4">
         <v>1</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="10">
@@ -5376,13 +5392,13 @@
     <row r="103" ht="18.5" customHeight="1" spans="1:11">
       <c r="A103" s="4"/>
       <c r="B103" s="9">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="10">
@@ -5403,13 +5419,13 @@
     <row r="104" ht="18.5" customHeight="1" spans="1:11">
       <c r="A104" s="4"/>
       <c r="B104" s="9">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="C104" s="4">
         <v>1</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="10">
@@ -5430,13 +5446,13 @@
     <row r="105" ht="18.5" customHeight="1" spans="1:11">
       <c r="A105" s="4"/>
       <c r="B105" s="9">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="10">
@@ -5457,13 +5473,13 @@
     <row r="106" ht="18.5" customHeight="1" spans="1:11">
       <c r="A106" s="4"/>
       <c r="B106" s="9">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="10">
@@ -5484,13 +5500,13 @@
     <row r="107" ht="18.5" customHeight="1" spans="1:11">
       <c r="A107" s="4"/>
       <c r="B107" s="9">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="C107" s="4">
         <v>1</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="10">
@@ -5511,13 +5527,13 @@
     <row r="108" ht="18.5" customHeight="1" spans="1:11">
       <c r="A108" s="4"/>
       <c r="B108" s="9">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="C108" s="4">
         <v>1</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="10">
@@ -5538,13 +5554,13 @@
     <row r="109" ht="18.5" customHeight="1" spans="1:11">
       <c r="A109" s="4"/>
       <c r="B109" s="9">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="C109" s="4">
         <v>1</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="10">
@@ -5565,13 +5581,13 @@
     <row r="110" ht="18.5" customHeight="1" spans="1:11">
       <c r="A110" s="4"/>
       <c r="B110" s="9">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="C110" s="4">
         <v>1</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="10">
@@ -5592,13 +5608,13 @@
     <row r="111" ht="18.5" customHeight="1" spans="1:11">
       <c r="A111" s="4"/>
       <c r="B111" s="9">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="10">
@@ -5619,13 +5635,13 @@
     <row r="112" ht="18.5" customHeight="1" spans="1:11">
       <c r="A112" s="4"/>
       <c r="B112" s="9">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="10">
@@ -5646,13 +5662,13 @@
     <row r="113" ht="18.5" customHeight="1" spans="1:11">
       <c r="A113" s="4"/>
       <c r="B113" s="9">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="C113" s="4">
         <v>1</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="10">
@@ -5673,13 +5689,13 @@
     <row r="114" ht="18.5" customHeight="1" spans="1:11">
       <c r="A114" s="4"/>
       <c r="B114" s="9">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="10">
@@ -5700,13 +5716,13 @@
     <row r="115" ht="18.5" customHeight="1" spans="1:11">
       <c r="A115" s="4"/>
       <c r="B115" s="9">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="C115" s="4">
         <v>1</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="10">
@@ -5727,13 +5743,13 @@
     <row r="116" ht="18.5" customHeight="1" spans="1:11">
       <c r="A116" s="4"/>
       <c r="B116" s="9">
-        <v>2539</v>
+        <v>2535</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="10">
@@ -5754,13 +5770,13 @@
     <row r="117" ht="18.5" customHeight="1" spans="1:11">
       <c r="A117" s="4"/>
       <c r="B117" s="9">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="C117" s="4">
         <v>1</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="10">
@@ -5781,13 +5797,13 @@
     <row r="118" ht="18.5" customHeight="1" spans="1:11">
       <c r="A118" s="4"/>
       <c r="B118" s="9">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="C118" s="4">
         <v>1</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="10">
@@ -5808,13 +5824,13 @@
     <row r="119" ht="18.5" customHeight="1" spans="1:11">
       <c r="A119" s="4"/>
       <c r="B119" s="9">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="10">
@@ -5835,13 +5851,13 @@
     <row r="120" ht="18.5" customHeight="1" spans="1:11">
       <c r="A120" s="4"/>
       <c r="B120" s="9">
-        <v>2543</v>
+        <v>2539</v>
       </c>
       <c r="C120" s="4">
         <v>1</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="10">
@@ -5862,13 +5878,13 @@
     <row r="121" ht="18.5" customHeight="1" spans="1:11">
       <c r="A121" s="4"/>
       <c r="B121" s="9">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="C121" s="4">
         <v>1</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="10">
@@ -5889,13 +5905,13 @@
     <row r="122" ht="18.5" customHeight="1" spans="1:11">
       <c r="A122" s="4"/>
       <c r="B122" s="9">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="10">
@@ -5916,13 +5932,13 @@
     <row r="123" ht="18.5" customHeight="1" spans="1:11">
       <c r="A123" s="4"/>
       <c r="B123" s="9">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="10">
@@ -5943,13 +5959,13 @@
     <row r="124" ht="18.5" customHeight="1" spans="1:11">
       <c r="A124" s="4"/>
       <c r="B124" s="9">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="C124" s="4">
         <v>1</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="10">
@@ -5970,13 +5986,13 @@
     <row r="125" ht="18.5" customHeight="1" spans="1:11">
       <c r="A125" s="4"/>
       <c r="B125" s="9">
-        <v>2548</v>
+        <v>2544</v>
       </c>
       <c r="C125" s="4">
         <v>1</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="10">
@@ -5997,13 +6013,13 @@
     <row r="126" ht="18.5" customHeight="1" spans="1:11">
       <c r="A126" s="4"/>
       <c r="B126" s="9">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="C126" s="4">
         <v>1</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="10">
@@ -6024,13 +6040,13 @@
     <row r="127" ht="18.5" customHeight="1" spans="1:11">
       <c r="A127" s="4"/>
       <c r="B127" s="9">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="C127" s="4">
         <v>1</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="10">
@@ -6051,13 +6067,13 @@
     <row r="128" ht="18.5" customHeight="1" spans="1:11">
       <c r="A128" s="4"/>
       <c r="B128" s="9">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="C128" s="4">
         <v>1</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="10">
@@ -6078,13 +6094,13 @@
     <row r="129" ht="18.5" customHeight="1" spans="1:11">
       <c r="A129" s="4"/>
       <c r="B129" s="9">
-        <v>2552</v>
+        <v>2548</v>
       </c>
       <c r="C129" s="4">
         <v>1</v>
       </c>
       <c r="D129" s="9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="10">
@@ -6105,13 +6121,13 @@
     <row r="130" ht="18.5" customHeight="1" spans="1:11">
       <c r="A130" s="4"/>
       <c r="B130" s="9">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="C130" s="4">
         <v>1</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="10">
@@ -6132,13 +6148,13 @@
     <row r="131" ht="18.5" customHeight="1" spans="1:11">
       <c r="A131" s="4"/>
       <c r="B131" s="9">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="C131" s="4">
         <v>1</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="10">
@@ -6159,13 +6175,13 @@
     <row r="132" ht="18.5" customHeight="1" spans="1:11">
       <c r="A132" s="4"/>
       <c r="B132" s="9">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="C132" s="4">
         <v>1</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="10">
@@ -6186,13 +6202,13 @@
     <row r="133" ht="18.5" customHeight="1" spans="1:11">
       <c r="A133" s="4"/>
       <c r="B133" s="9">
-        <v>2556</v>
+        <v>2552</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="10">
@@ -6213,13 +6229,13 @@
     <row r="134" ht="18.5" customHeight="1" spans="1:11">
       <c r="A134" s="4"/>
       <c r="B134" s="9">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="C134" s="4">
         <v>1</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="10">
@@ -6240,13 +6256,13 @@
     <row r="135" ht="18.5" customHeight="1" spans="1:11">
       <c r="A135" s="4"/>
       <c r="B135" s="9">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="10">
@@ -6267,13 +6283,13 @@
     <row r="136" ht="18.5" customHeight="1" spans="1:11">
       <c r="A136" s="4"/>
       <c r="B136" s="9">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="C136" s="4">
         <v>1</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="10">
@@ -6293,14 +6309,14 @@
     </row>
     <row r="137" ht="18.5" customHeight="1" spans="1:11">
       <c r="A137" s="4"/>
-      <c r="B137" s="5">
-        <v>2560</v>
+      <c r="B137" s="9">
+        <v>2556</v>
       </c>
       <c r="C137" s="4">
         <v>1</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="10">
@@ -6321,17 +6337,17 @@
     <row r="138" ht="18.5" customHeight="1" spans="1:11">
       <c r="A138" s="4"/>
       <c r="B138" s="9">
-        <v>2901</v>
+        <v>2557</v>
       </c>
       <c r="C138" s="4">
         <v>1</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G138" s="4">
         <v>23</v>
@@ -6348,17 +6364,17 @@
     <row r="139" ht="18.5" customHeight="1" spans="1:11">
       <c r="A139" s="4"/>
       <c r="B139" s="9">
-        <v>2902</v>
+        <v>2558</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G139" s="4">
         <v>23</v>
@@ -6375,17 +6391,17 @@
     <row r="140" ht="18.5" customHeight="1" spans="1:11">
       <c r="A140" s="4"/>
       <c r="B140" s="9">
-        <v>2903</v>
+        <v>2559</v>
       </c>
       <c r="C140" s="4">
         <v>1</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G140" s="4">
         <v>23</v>
@@ -6401,18 +6417,18 @@
     </row>
     <row r="141" ht="18.5" customHeight="1" spans="1:11">
       <c r="A141" s="4"/>
-      <c r="B141" s="9">
-        <v>2904</v>
+      <c r="B141" s="5">
+        <v>2560</v>
       </c>
       <c r="C141" s="4">
         <v>1</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G141" s="4">
         <v>23</v>
@@ -6429,13 +6445,13 @@
     <row r="142" ht="18.5" customHeight="1" spans="1:11">
       <c r="A142" s="4"/>
       <c r="B142" s="9">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="C142" s="4">
         <v>1</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="10">
@@ -6456,13 +6472,13 @@
     <row r="143" ht="18.5" customHeight="1" spans="1:11">
       <c r="A143" s="4"/>
       <c r="B143" s="9">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="C143" s="4">
         <v>1</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="10">
@@ -6483,13 +6499,13 @@
     <row r="144" ht="18.5" customHeight="1" spans="1:11">
       <c r="A144" s="4"/>
       <c r="B144" s="9">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="C144" s="4">
         <v>1</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="10">
@@ -6510,13 +6526,13 @@
     <row r="145" ht="18.5" customHeight="1" spans="1:11">
       <c r="A145" s="4"/>
       <c r="B145" s="9">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="10">
@@ -6537,13 +6553,13 @@
     <row r="146" ht="18.5" customHeight="1" spans="1:11">
       <c r="A146" s="4"/>
       <c r="B146" s="9">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="C146" s="4">
         <v>1</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="10">
@@ -6564,13 +6580,13 @@
     <row r="147" ht="18.5" customHeight="1" spans="1:11">
       <c r="A147" s="4"/>
       <c r="B147" s="9">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="C147" s="4">
         <v>1</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="10">
@@ -6591,13 +6607,13 @@
     <row r="148" ht="18.5" customHeight="1" spans="1:11">
       <c r="A148" s="4"/>
       <c r="B148" s="9">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="C148" s="4">
         <v>1</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="10">
@@ -6618,13 +6634,13 @@
     <row r="149" ht="18.5" customHeight="1" spans="1:11">
       <c r="A149" s="4"/>
       <c r="B149" s="9">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="10">
@@ -6645,13 +6661,13 @@
     <row r="150" ht="18.5" customHeight="1" spans="1:11">
       <c r="A150" s="4"/>
       <c r="B150" s="9">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="C150" s="4">
         <v>1</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="10">
@@ -6672,13 +6688,13 @@
     <row r="151" ht="18.5" customHeight="1" spans="1:11">
       <c r="A151" s="4"/>
       <c r="B151" s="9">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="C151" s="4">
         <v>1</v>
       </c>
       <c r="D151" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="10">
@@ -6699,13 +6715,13 @@
     <row r="152" ht="18.5" customHeight="1" spans="1:11">
       <c r="A152" s="4"/>
       <c r="B152" s="9">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="C152" s="4">
         <v>1</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="10">
@@ -6726,13 +6742,13 @@
     <row r="153" ht="18.5" customHeight="1" spans="1:11">
       <c r="A153" s="4"/>
       <c r="B153" s="9">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="C153" s="4">
         <v>1</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="10">
@@ -6753,13 +6769,13 @@
     <row r="154" ht="18.5" customHeight="1" spans="1:11">
       <c r="A154" s="4"/>
       <c r="B154" s="9">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="C154" s="4">
         <v>1</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="10">
@@ -6780,13 +6796,13 @@
     <row r="155" ht="18.5" customHeight="1" spans="1:11">
       <c r="A155" s="4"/>
       <c r="B155" s="9">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="10">
@@ -6807,13 +6823,13 @@
     <row r="156" ht="18.5" customHeight="1" spans="1:11">
       <c r="A156" s="4"/>
       <c r="B156" s="9">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="C156" s="4">
         <v>1</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="10">
@@ -6834,13 +6850,13 @@
     <row r="157" ht="18.5" customHeight="1" spans="1:11">
       <c r="A157" s="4"/>
       <c r="B157" s="9">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="10">
@@ -6861,13 +6877,13 @@
     <row r="158" ht="18.5" customHeight="1" spans="1:11">
       <c r="A158" s="4"/>
       <c r="B158" s="9">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="10">
@@ -6888,13 +6904,13 @@
     <row r="159" ht="18.5" customHeight="1" spans="1:11">
       <c r="A159" s="4"/>
       <c r="B159" s="9">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="C159" s="4">
         <v>1</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="10">
@@ -6915,17 +6931,17 @@
     <row r="160" ht="18.5" customHeight="1" spans="1:11">
       <c r="A160" s="4"/>
       <c r="B160" s="9">
-        <v>3201</v>
+        <v>2919</v>
       </c>
       <c r="C160" s="4">
         <v>1</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G160" s="4">
         <v>23</v>
@@ -6942,17 +6958,17 @@
     <row r="161" ht="18.5" customHeight="1" spans="1:11">
       <c r="A161" s="4"/>
       <c r="B161" s="9">
-        <v>3202</v>
+        <v>2920</v>
       </c>
       <c r="C161" s="4">
         <v>1</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G161" s="4">
         <v>23</v>
@@ -6969,17 +6985,17 @@
     <row r="162" ht="18.5" customHeight="1" spans="1:11">
       <c r="A162" s="4"/>
       <c r="B162" s="9">
-        <v>3203</v>
+        <v>2921</v>
       </c>
       <c r="C162" s="4">
         <v>1</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G162" s="4">
         <v>23</v>
@@ -6996,17 +7012,17 @@
     <row r="163" ht="18.5" customHeight="1" spans="1:11">
       <c r="A163" s="4"/>
       <c r="B163" s="9">
-        <v>3204</v>
+        <v>2922</v>
       </c>
       <c r="C163" s="4">
         <v>1</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G163" s="4">
         <v>23</v>
@@ -7023,13 +7039,13 @@
     <row r="164" ht="18.5" customHeight="1" spans="1:11">
       <c r="A164" s="4"/>
       <c r="B164" s="9">
-        <v>3205</v>
+        <v>3201</v>
       </c>
       <c r="C164" s="4">
         <v>1</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="10">
@@ -7049,23 +7065,21 @@
     </row>
     <row r="165" ht="18.5" customHeight="1" spans="1:11">
       <c r="A165" s="4"/>
-      <c r="B165" s="4">
-        <v>3501</v>
+      <c r="B165" s="9">
+        <v>3202</v>
       </c>
       <c r="C165" s="4">
         <v>1</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F165" s="4">
-        <v>2</v>
+      <c r="D165" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E165" s="4"/>
+      <c r="F165" s="10">
+        <v>5</v>
       </c>
       <c r="G165" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H165" s="4">
         <v>0</v>
@@ -7078,23 +7092,21 @@
     </row>
     <row r="166" ht="18.5" customHeight="1" spans="1:11">
       <c r="A166" s="4"/>
-      <c r="B166" s="4">
-        <v>3502</v>
+      <c r="B166" s="9">
+        <v>3203</v>
       </c>
       <c r="C166" s="4">
         <v>1</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="F166" s="4">
-        <v>3</v>
+      <c r="D166" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="10">
+        <v>5</v>
       </c>
       <c r="G166" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H166" s="4">
         <v>0</v>
@@ -7107,23 +7119,21 @@
     </row>
     <row r="167" ht="18.5" customHeight="1" spans="1:11">
       <c r="A167" s="4"/>
-      <c r="B167" s="4">
-        <v>3503</v>
+      <c r="B167" s="9">
+        <v>3204</v>
       </c>
       <c r="C167" s="4">
         <v>1</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="F167" s="4">
-        <v>4</v>
+      <c r="D167" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="10">
+        <v>5</v>
       </c>
       <c r="G167" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H167" s="4">
         <v>0</v>
@@ -7136,23 +7146,21 @@
     </row>
     <row r="168" ht="18.5" customHeight="1" spans="1:11">
       <c r="A168" s="4"/>
-      <c r="B168" s="4">
-        <v>3504</v>
+      <c r="B168" s="9">
+        <v>3205</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E168" s="4" t="s">
+      <c r="D168" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="F168" s="4">
-        <v>3</v>
+      <c r="E168" s="4"/>
+      <c r="F168" s="10">
+        <v>5</v>
       </c>
       <c r="G168" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H168" s="4">
         <v>0</v>
@@ -7166,7 +7174,7 @@
     <row r="169" ht="18.5" customHeight="1" spans="1:11">
       <c r="A169" s="4"/>
       <c r="B169" s="4">
-        <v>3505</v>
+        <v>3501</v>
       </c>
       <c r="C169" s="4">
         <v>1</v>
@@ -7178,7 +7186,7 @@
         <v>215</v>
       </c>
       <c r="F169" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G169" s="4">
         <v>21</v>
@@ -7195,7 +7203,7 @@
     <row r="170" ht="18.5" customHeight="1" spans="1:11">
       <c r="A170" s="4"/>
       <c r="B170" s="4">
-        <v>3506</v>
+        <v>3502</v>
       </c>
       <c r="C170" s="4">
         <v>1</v>
@@ -7224,7 +7232,7 @@
     <row r="171" ht="18.5" customHeight="1" spans="1:11">
       <c r="A171" s="4"/>
       <c r="B171" s="4">
-        <v>3507</v>
+        <v>3503</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -7236,7 +7244,7 @@
         <v>219</v>
       </c>
       <c r="F171" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G171" s="4">
         <v>21</v>
@@ -7253,7 +7261,7 @@
     <row r="172" ht="18.5" customHeight="1" spans="1:11">
       <c r="A172" s="4"/>
       <c r="B172" s="4">
-        <v>3508</v>
+        <v>3504</v>
       </c>
       <c r="C172" s="4">
         <v>1</v>
@@ -7282,7 +7290,7 @@
     <row r="173" ht="18.5" customHeight="1" spans="1:11">
       <c r="A173" s="4"/>
       <c r="B173" s="4">
-        <v>3509</v>
+        <v>3505</v>
       </c>
       <c r="C173" s="4">
         <v>1</v>
@@ -7311,7 +7319,7 @@
     <row r="174" ht="18.5" customHeight="1" spans="1:11">
       <c r="A174" s="4"/>
       <c r="B174" s="4">
-        <v>3510</v>
+        <v>3506</v>
       </c>
       <c r="C174" s="4">
         <v>1</v>
@@ -7340,7 +7348,7 @@
     <row r="175" ht="18.5" customHeight="1" spans="1:11">
       <c r="A175" s="4"/>
       <c r="B175" s="4">
-        <v>3511</v>
+        <v>3507</v>
       </c>
       <c r="C175" s="4">
         <v>1</v>
@@ -7369,7 +7377,7 @@
     <row r="176" ht="18.5" customHeight="1" spans="1:11">
       <c r="A176" s="4"/>
       <c r="B176" s="4">
-        <v>3512</v>
+        <v>3508</v>
       </c>
       <c r="C176" s="4">
         <v>1</v>
@@ -7398,7 +7406,7 @@
     <row r="177" ht="18.5" customHeight="1" spans="1:11">
       <c r="A177" s="4"/>
       <c r="B177" s="4">
-        <v>3513</v>
+        <v>3509</v>
       </c>
       <c r="C177" s="4">
         <v>1</v>
@@ -7410,7 +7418,7 @@
         <v>231</v>
       </c>
       <c r="F177" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G177" s="4">
         <v>21</v>
@@ -7427,7 +7435,7 @@
     <row r="178" ht="18.5" customHeight="1" spans="1:11">
       <c r="A178" s="4"/>
       <c r="B178" s="4">
-        <v>3514</v>
+        <v>3510</v>
       </c>
       <c r="C178" s="4">
         <v>1</v>
@@ -7439,7 +7447,7 @@
         <v>233</v>
       </c>
       <c r="F178" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G178" s="4">
         <v>21</v>
@@ -7456,7 +7464,7 @@
     <row r="179" ht="18.5" customHeight="1" spans="1:11">
       <c r="A179" s="4"/>
       <c r="B179" s="4">
-        <v>3515</v>
+        <v>3511</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -7468,7 +7476,7 @@
         <v>235</v>
       </c>
       <c r="F179" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G179" s="4">
         <v>21</v>
@@ -7485,7 +7493,7 @@
     <row r="180" ht="18.5" customHeight="1" spans="1:11">
       <c r="A180" s="4"/>
       <c r="B180" s="4">
-        <v>3516</v>
+        <v>3512</v>
       </c>
       <c r="C180" s="4">
         <v>1</v>
@@ -7497,7 +7505,7 @@
         <v>237</v>
       </c>
       <c r="F180" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G180" s="4">
         <v>21</v>
@@ -7514,7 +7522,7 @@
     <row r="181" ht="18.5" customHeight="1" spans="1:11">
       <c r="A181" s="4"/>
       <c r="B181" s="4">
-        <v>3517</v>
+        <v>3513</v>
       </c>
       <c r="C181" s="4">
         <v>1</v>
@@ -7526,7 +7534,7 @@
         <v>239</v>
       </c>
       <c r="F181" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G181" s="4">
         <v>21</v>
@@ -7543,7 +7551,7 @@
     <row r="182" ht="18.5" customHeight="1" spans="1:11">
       <c r="A182" s="4"/>
       <c r="B182" s="4">
-        <v>3518</v>
+        <v>3514</v>
       </c>
       <c r="C182" s="4">
         <v>1</v>
@@ -7572,7 +7580,7 @@
     <row r="183" ht="18.5" customHeight="1" spans="1:11">
       <c r="A183" s="4"/>
       <c r="B183" s="4">
-        <v>3519</v>
+        <v>3515</v>
       </c>
       <c r="C183" s="4">
         <v>1</v>
@@ -7584,7 +7592,7 @@
         <v>243</v>
       </c>
       <c r="F183" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G183" s="4">
         <v>21</v>
@@ -7601,7 +7609,7 @@
     <row r="184" ht="18.5" customHeight="1" spans="1:11">
       <c r="A184" s="4"/>
       <c r="B184" s="4">
-        <v>3520</v>
+        <v>3516</v>
       </c>
       <c r="C184" s="4">
         <v>1</v>
@@ -7613,7 +7621,7 @@
         <v>245</v>
       </c>
       <c r="F184" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G184" s="4">
         <v>21</v>
@@ -7630,7 +7638,7 @@
     <row r="185" ht="18.5" customHeight="1" spans="1:11">
       <c r="A185" s="4"/>
       <c r="B185" s="4">
-        <v>3521</v>
+        <v>3517</v>
       </c>
       <c r="C185" s="4">
         <v>1</v>
@@ -7642,7 +7650,7 @@
         <v>247</v>
       </c>
       <c r="F185" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G185" s="4">
         <v>21</v>
@@ -7659,7 +7667,7 @@
     <row r="186" ht="18.5" customHeight="1" spans="1:11">
       <c r="A186" s="4"/>
       <c r="B186" s="4">
-        <v>3522</v>
+        <v>3518</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -7671,7 +7679,7 @@
         <v>249</v>
       </c>
       <c r="F186" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G186" s="4">
         <v>21</v>
@@ -7688,7 +7696,7 @@
     <row r="187" ht="18.5" customHeight="1" spans="1:11">
       <c r="A187" s="4"/>
       <c r="B187" s="4">
-        <v>3523</v>
+        <v>3519</v>
       </c>
       <c r="C187" s="4">
         <v>1</v>
@@ -7717,7 +7725,7 @@
     <row r="188" ht="18.5" customHeight="1" spans="1:11">
       <c r="A188" s="4"/>
       <c r="B188" s="4">
-        <v>3524</v>
+        <v>3520</v>
       </c>
       <c r="C188" s="4">
         <v>1</v>
@@ -7746,7 +7754,7 @@
     <row r="189" ht="18.5" customHeight="1" spans="1:11">
       <c r="A189" s="4"/>
       <c r="B189" s="4">
-        <v>3525</v>
+        <v>3521</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
@@ -7775,7 +7783,7 @@
     <row r="190" ht="18.5" customHeight="1" spans="1:11">
       <c r="A190" s="4"/>
       <c r="B190" s="4">
-        <v>10000</v>
+        <v>3522</v>
       </c>
       <c r="C190" s="4">
         <v>1</v>
@@ -7787,10 +7795,10 @@
         <v>257</v>
       </c>
       <c r="F190" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G190" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H190" s="4">
         <v>0</v>
@@ -7804,7 +7812,7 @@
     <row r="191" ht="18.5" customHeight="1" spans="1:11">
       <c r="A191" s="4"/>
       <c r="B191" s="4">
-        <v>10001</v>
+        <v>3523</v>
       </c>
       <c r="C191" s="4">
         <v>1</v>
@@ -7813,13 +7821,13 @@
         <v>258</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F191" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G191" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H191" s="4">
         <v>0</v>
@@ -7833,22 +7841,22 @@
     <row r="192" ht="18.5" customHeight="1" spans="1:11">
       <c r="A192" s="4"/>
       <c r="B192" s="4">
-        <v>10002</v>
+        <v>3524</v>
       </c>
       <c r="C192" s="4">
         <v>1</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F192" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G192" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H192" s="4">
         <v>0</v>
@@ -7862,22 +7870,22 @@
     <row r="193" ht="18.5" customHeight="1" spans="1:11">
       <c r="A193" s="4"/>
       <c r="B193" s="4">
-        <v>10003</v>
+        <v>3525</v>
       </c>
       <c r="C193" s="4">
         <v>1</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F193" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G193" s="4">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H193" s="4">
         <v>0</v>
@@ -7891,16 +7899,16 @@
     <row r="194" ht="18.5" customHeight="1" spans="1:11">
       <c r="A194" s="4"/>
       <c r="B194" s="4">
-        <v>10004</v>
+        <v>10000</v>
       </c>
       <c r="C194" s="4">
         <v>1</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F194" s="4">
         <v>1</v>
@@ -7920,16 +7928,16 @@
     <row r="195" ht="18.5" customHeight="1" spans="1:11">
       <c r="A195" s="4"/>
       <c r="B195" s="4">
-        <v>10005</v>
+        <v>10001</v>
       </c>
       <c r="C195" s="4">
         <v>1</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F195" s="4">
         <v>1</v>
@@ -7949,16 +7957,16 @@
     <row r="196" ht="18.5" customHeight="1" spans="1:11">
       <c r="A196" s="4"/>
       <c r="B196" s="4">
-        <v>10006</v>
+        <v>10002</v>
       </c>
       <c r="C196" s="4">
         <v>1</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F196" s="4">
         <v>1</v>
@@ -7978,16 +7986,16 @@
     <row r="197" ht="18.5" customHeight="1" spans="1:11">
       <c r="A197" s="4"/>
       <c r="B197" s="4">
-        <v>10007</v>
+        <v>10003</v>
       </c>
       <c r="C197" s="4">
         <v>1</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F197" s="4">
         <v>1</v>
@@ -8007,16 +8015,16 @@
     <row r="198" ht="18.5" customHeight="1" spans="1:11">
       <c r="A198" s="4"/>
       <c r="B198" s="4">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="C198" s="4">
         <v>1</v>
       </c>
       <c r="D198" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E198" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="F198" s="4">
         <v>1</v>
@@ -8036,16 +8044,16 @@
     <row r="199" ht="18.5" customHeight="1" spans="1:11">
       <c r="A199" s="4"/>
       <c r="B199" s="4">
-        <v>10009</v>
+        <v>10005</v>
       </c>
       <c r="C199" s="4">
         <v>1</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F199" s="4">
         <v>1</v>
@@ -8065,16 +8073,16 @@
     <row r="200" ht="18.5" customHeight="1" spans="1:11">
       <c r="A200" s="4"/>
       <c r="B200" s="4">
-        <v>10010</v>
+        <v>10006</v>
       </c>
       <c r="C200" s="4">
         <v>1</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F200" s="4">
         <v>1</v>
@@ -8094,16 +8102,16 @@
     <row r="201" ht="18.5" customHeight="1" spans="1:11">
       <c r="A201" s="4"/>
       <c r="B201" s="4">
-        <v>10011</v>
+        <v>10007</v>
       </c>
       <c r="C201" s="4">
         <v>1</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F201" s="4">
         <v>1</v>
@@ -8123,16 +8131,16 @@
     <row r="202" ht="18.5" customHeight="1" spans="1:11">
       <c r="A202" s="4"/>
       <c r="B202" s="4">
-        <v>10012</v>
+        <v>10008</v>
       </c>
       <c r="C202" s="4">
         <v>1</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F202" s="4">
         <v>1</v>
@@ -8152,16 +8160,16 @@
     <row r="203" ht="18.5" customHeight="1" spans="1:11">
       <c r="A203" s="4"/>
       <c r="B203" s="4">
-        <v>10013</v>
+        <v>10009</v>
       </c>
       <c r="C203" s="4">
         <v>1</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F203" s="4">
         <v>1</v>
@@ -8181,16 +8189,16 @@
     <row r="204" ht="18.5" customHeight="1" spans="1:11">
       <c r="A204" s="4"/>
       <c r="B204" s="4">
-        <v>10014</v>
+        <v>10010</v>
       </c>
       <c r="C204" s="4">
         <v>1</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F204" s="4">
         <v>1</v>
@@ -8210,16 +8218,16 @@
     <row r="205" ht="18.5" customHeight="1" spans="1:11">
       <c r="A205" s="4"/>
       <c r="B205" s="4">
-        <v>10015</v>
+        <v>10011</v>
       </c>
       <c r="C205" s="4">
         <v>1</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F205" s="4">
         <v>1</v>
@@ -8239,16 +8247,16 @@
     <row r="206" ht="18.5" customHeight="1" spans="1:11">
       <c r="A206" s="4"/>
       <c r="B206" s="4">
-        <v>10016</v>
+        <v>10012</v>
       </c>
       <c r="C206" s="4">
         <v>1</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F206" s="4">
         <v>1</v>
@@ -8268,16 +8276,16 @@
     <row r="207" ht="18.5" customHeight="1" spans="1:11">
       <c r="A207" s="4"/>
       <c r="B207" s="4">
-        <v>10017</v>
+        <v>10013</v>
       </c>
       <c r="C207" s="4">
         <v>1</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F207" s="4">
         <v>1</v>
@@ -8297,19 +8305,19 @@
     <row r="208" ht="18.5" customHeight="1" spans="1:11">
       <c r="A208" s="4"/>
       <c r="B208" s="4">
-        <v>10101</v>
+        <v>10014</v>
       </c>
       <c r="C208" s="4">
         <v>1</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F208" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G208" s="4">
         <v>28</v>
@@ -8326,19 +8334,19 @@
     <row r="209" ht="18.5" customHeight="1" spans="1:11">
       <c r="A209" s="4"/>
       <c r="B209" s="4">
-        <v>10102</v>
+        <v>10015</v>
       </c>
       <c r="C209" s="4">
         <v>1</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F209" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G209" s="4">
         <v>28</v>
@@ -8355,19 +8363,19 @@
     <row r="210" ht="18.5" customHeight="1" spans="1:11">
       <c r="A210" s="4"/>
       <c r="B210" s="4">
-        <v>10103</v>
+        <v>10016</v>
       </c>
       <c r="C210" s="4">
         <v>1</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F210" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G210" s="4">
         <v>28</v>
@@ -8384,19 +8392,19 @@
     <row r="211" ht="18.5" customHeight="1" spans="1:11">
       <c r="A211" s="4"/>
       <c r="B211" s="4">
-        <v>10104</v>
+        <v>10017</v>
       </c>
       <c r="C211" s="4">
         <v>1</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F211" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G211" s="4">
         <v>28</v>
@@ -8413,16 +8421,16 @@
     <row r="212" ht="18.5" customHeight="1" spans="1:11">
       <c r="A212" s="4"/>
       <c r="B212" s="4">
-        <v>10105</v>
+        <v>10101</v>
       </c>
       <c r="C212" s="4">
         <v>1</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F212" s="4">
         <v>2</v>
@@ -8442,16 +8450,16 @@
     <row r="213" ht="18.5" customHeight="1" spans="1:11">
       <c r="A213" s="4"/>
       <c r="B213" s="4">
-        <v>10106</v>
+        <v>10102</v>
       </c>
       <c r="C213" s="4">
         <v>1</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F213" s="4">
         <v>2</v>
@@ -8471,16 +8479,16 @@
     <row r="214" ht="18.5" customHeight="1" spans="1:11">
       <c r="A214" s="4"/>
       <c r="B214" s="4">
-        <v>10107</v>
+        <v>10103</v>
       </c>
       <c r="C214" s="4">
         <v>1</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F214" s="4">
         <v>2</v>
@@ -8500,16 +8508,16 @@
     <row r="215" ht="18.5" customHeight="1" spans="1:11">
       <c r="A215" s="4"/>
       <c r="B215" s="4">
-        <v>10108</v>
+        <v>10104</v>
       </c>
       <c r="C215" s="4">
         <v>1</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F215" s="4">
         <v>2</v>
@@ -8529,16 +8537,16 @@
     <row r="216" ht="18.5" customHeight="1" spans="1:11">
       <c r="A216" s="4"/>
       <c r="B216" s="4">
-        <v>10109</v>
+        <v>10105</v>
       </c>
       <c r="C216" s="4">
         <v>1</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F216" s="4">
         <v>2</v>
@@ -8558,16 +8566,16 @@
     <row r="217" ht="18.5" customHeight="1" spans="1:11">
       <c r="A217" s="4"/>
       <c r="B217" s="4">
-        <v>10110</v>
+        <v>10106</v>
       </c>
       <c r="C217" s="4">
         <v>1</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F217" s="4">
         <v>2</v>
@@ -8587,16 +8595,16 @@
     <row r="218" ht="18.5" customHeight="1" spans="1:11">
       <c r="A218" s="4"/>
       <c r="B218" s="4">
-        <v>10111</v>
+        <v>10107</v>
       </c>
       <c r="C218" s="4">
         <v>1</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F218" s="4">
         <v>2</v>
@@ -8616,16 +8624,16 @@
     <row r="219" ht="18.5" customHeight="1" spans="1:11">
       <c r="A219" s="4"/>
       <c r="B219" s="4">
-        <v>10112</v>
+        <v>10108</v>
       </c>
       <c r="C219" s="4">
         <v>1</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F219" s="4">
         <v>2</v>
@@ -8645,16 +8653,16 @@
     <row r="220" ht="18.5" customHeight="1" spans="1:11">
       <c r="A220" s="4"/>
       <c r="B220" s="4">
-        <v>10113</v>
+        <v>10109</v>
       </c>
       <c r="C220" s="4">
         <v>1</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F220" s="4">
         <v>2</v>
@@ -8674,16 +8682,16 @@
     <row r="221" ht="18.5" customHeight="1" spans="1:11">
       <c r="A221" s="4"/>
       <c r="B221" s="4">
-        <v>10114</v>
+        <v>10110</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F221" s="4">
         <v>2</v>
@@ -8703,16 +8711,16 @@
     <row r="222" ht="18.5" customHeight="1" spans="1:11">
       <c r="A222" s="4"/>
       <c r="B222" s="4">
-        <v>10115</v>
+        <v>10111</v>
       </c>
       <c r="C222" s="4">
         <v>1</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F222" s="4">
         <v>2</v>
@@ -8732,16 +8740,16 @@
     <row r="223" ht="18.5" customHeight="1" spans="1:11">
       <c r="A223" s="4"/>
       <c r="B223" s="4">
-        <v>10116</v>
+        <v>10112</v>
       </c>
       <c r="C223" s="4">
         <v>1</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F223" s="4">
         <v>2</v>
@@ -8761,16 +8769,16 @@
     <row r="224" ht="18.5" customHeight="1" spans="1:11">
       <c r="A224" s="4"/>
       <c r="B224" s="4">
-        <v>10117</v>
+        <v>10113</v>
       </c>
       <c r="C224" s="4">
         <v>1</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F224" s="4">
         <v>2</v>
@@ -8790,16 +8798,16 @@
     <row r="225" ht="18.5" customHeight="1" spans="1:11">
       <c r="A225" s="4"/>
       <c r="B225" s="4">
-        <v>10118</v>
+        <v>10114</v>
       </c>
       <c r="C225" s="4">
         <v>1</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F225" s="4">
         <v>2</v>
@@ -8819,19 +8827,19 @@
     <row r="226" ht="18.5" customHeight="1" spans="1:11">
       <c r="A226" s="4"/>
       <c r="B226" s="4">
-        <v>10201</v>
+        <v>10115</v>
       </c>
       <c r="C226" s="4">
         <v>1</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F226" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G226" s="4">
         <v>28</v>
@@ -8848,19 +8856,19 @@
     <row r="227" ht="18.5" customHeight="1" spans="1:11">
       <c r="A227" s="4"/>
       <c r="B227" s="4">
-        <v>10202</v>
+        <v>10116</v>
       </c>
       <c r="C227" s="4">
         <v>1</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F227" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G227" s="4">
         <v>28</v>
@@ -8877,19 +8885,19 @@
     <row r="228" ht="18.5" customHeight="1" spans="1:11">
       <c r="A228" s="4"/>
       <c r="B228" s="4">
-        <v>10203</v>
+        <v>10117</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F228" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G228" s="4">
         <v>28</v>
@@ -8906,19 +8914,19 @@
     <row r="229" ht="18.5" customHeight="1" spans="1:11">
       <c r="A229" s="4"/>
       <c r="B229" s="4">
-        <v>10204</v>
+        <v>10118</v>
       </c>
       <c r="C229" s="4">
         <v>1</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F229" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G229" s="4">
         <v>28</v>
@@ -8935,16 +8943,16 @@
     <row r="230" ht="18.5" customHeight="1" spans="1:11">
       <c r="A230" s="4"/>
       <c r="B230" s="4">
-        <v>10205</v>
+        <v>10201</v>
       </c>
       <c r="C230" s="4">
         <v>1</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F230" s="4">
         <v>3</v>
@@ -8964,16 +8972,16 @@
     <row r="231" ht="18.5" customHeight="1" spans="1:11">
       <c r="A231" s="4"/>
       <c r="B231" s="4">
-        <v>10206</v>
+        <v>10202</v>
       </c>
       <c r="C231" s="4">
         <v>1</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F231" s="4">
         <v>3</v>
@@ -8993,16 +9001,16 @@
     <row r="232" ht="18.5" customHeight="1" spans="1:11">
       <c r="A232" s="4"/>
       <c r="B232" s="4">
-        <v>10207</v>
+        <v>10203</v>
       </c>
       <c r="C232" s="4">
         <v>1</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F232" s="4">
         <v>3</v>
@@ -9022,16 +9030,16 @@
     <row r="233" ht="18.5" customHeight="1" spans="1:11">
       <c r="A233" s="4"/>
       <c r="B233" s="4">
-        <v>10208</v>
+        <v>10204</v>
       </c>
       <c r="C233" s="4">
         <v>1</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F233" s="4">
         <v>3</v>
@@ -9051,16 +9059,16 @@
     <row r="234" ht="18.5" customHeight="1" spans="1:11">
       <c r="A234" s="4"/>
       <c r="B234" s="4">
-        <v>10209</v>
+        <v>10205</v>
       </c>
       <c r="C234" s="4">
         <v>1</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F234" s="4">
         <v>3</v>
@@ -9080,16 +9088,16 @@
     <row r="235" ht="18.5" customHeight="1" spans="1:11">
       <c r="A235" s="4"/>
       <c r="B235" s="4">
-        <v>10210</v>
+        <v>10206</v>
       </c>
       <c r="C235" s="4">
         <v>1</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F235" s="4">
         <v>3</v>
@@ -9109,16 +9117,16 @@
     <row r="236" ht="18.5" customHeight="1" spans="1:11">
       <c r="A236" s="4"/>
       <c r="B236" s="4">
-        <v>10211</v>
+        <v>10207</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F236" s="4">
         <v>3</v>
@@ -9138,16 +9146,16 @@
     <row r="237" ht="18.5" customHeight="1" spans="1:11">
       <c r="A237" s="4"/>
       <c r="B237" s="4">
-        <v>10212</v>
+        <v>10208</v>
       </c>
       <c r="C237" s="4">
         <v>1</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F237" s="4">
         <v>3</v>
@@ -9167,16 +9175,16 @@
     <row r="238" ht="18.5" customHeight="1" spans="1:11">
       <c r="A238" s="4"/>
       <c r="B238" s="4">
-        <v>10213</v>
+        <v>10209</v>
       </c>
       <c r="C238" s="4">
         <v>1</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F238" s="4">
         <v>3</v>
@@ -9196,16 +9204,16 @@
     <row r="239" ht="18.5" customHeight="1" spans="1:11">
       <c r="A239" s="4"/>
       <c r="B239" s="4">
-        <v>10214</v>
+        <v>10210</v>
       </c>
       <c r="C239" s="4">
         <v>1</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F239" s="4">
         <v>3</v>
@@ -9225,16 +9233,16 @@
     <row r="240" ht="18.5" customHeight="1" spans="1:11">
       <c r="A240" s="4"/>
       <c r="B240" s="4">
-        <v>10215</v>
+        <v>10211</v>
       </c>
       <c r="C240" s="4">
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F240" s="4">
         <v>3</v>
@@ -9254,16 +9262,16 @@
     <row r="241" ht="18.5" customHeight="1" spans="1:11">
       <c r="A241" s="4"/>
       <c r="B241" s="4">
-        <v>10216</v>
+        <v>10212</v>
       </c>
       <c r="C241" s="4">
         <v>1</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F241" s="4">
         <v>3</v>
@@ -9283,16 +9291,16 @@
     <row r="242" ht="18.5" customHeight="1" spans="1:11">
       <c r="A242" s="4"/>
       <c r="B242" s="4">
-        <v>10217</v>
+        <v>10213</v>
       </c>
       <c r="C242" s="4">
         <v>1</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F242" s="4">
         <v>3</v>
@@ -9312,16 +9320,16 @@
     <row r="243" ht="18.5" customHeight="1" spans="1:11">
       <c r="A243" s="4"/>
       <c r="B243" s="4">
-        <v>10218</v>
+        <v>10214</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F243" s="4">
         <v>3</v>
@@ -9341,19 +9349,19 @@
     <row r="244" ht="18.5" customHeight="1" spans="1:11">
       <c r="A244" s="4"/>
       <c r="B244" s="4">
-        <v>10301</v>
+        <v>10215</v>
       </c>
       <c r="C244" s="4">
         <v>1</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F244" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G244" s="4">
         <v>28</v>
@@ -9370,19 +9378,19 @@
     <row r="245" ht="18.5" customHeight="1" spans="1:11">
       <c r="A245" s="4"/>
       <c r="B245" s="4">
-        <v>10302</v>
+        <v>10216</v>
       </c>
       <c r="C245" s="4">
         <v>1</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F245" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G245" s="4">
         <v>28</v>
@@ -9399,19 +9407,19 @@
     <row r="246" ht="18.5" customHeight="1" spans="1:11">
       <c r="A246" s="4"/>
       <c r="B246" s="4">
-        <v>10303</v>
+        <v>10217</v>
       </c>
       <c r="C246" s="4">
         <v>1</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F246" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G246" s="4">
         <v>28</v>
@@ -9428,19 +9436,19 @@
     <row r="247" ht="18.5" customHeight="1" spans="1:11">
       <c r="A247" s="4"/>
       <c r="B247" s="4">
-        <v>10304</v>
+        <v>10218</v>
       </c>
       <c r="C247" s="4">
         <v>1</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F247" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G247" s="4">
         <v>28</v>
@@ -9457,16 +9465,16 @@
     <row r="248" ht="18.5" customHeight="1" spans="1:11">
       <c r="A248" s="4"/>
       <c r="B248" s="4">
-        <v>10305</v>
+        <v>10301</v>
       </c>
       <c r="C248" s="4">
         <v>1</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F248" s="4">
         <v>4</v>
@@ -9486,16 +9494,16 @@
     <row r="249" ht="18.5" customHeight="1" spans="1:11">
       <c r="A249" s="4"/>
       <c r="B249" s="4">
-        <v>10306</v>
+        <v>10302</v>
       </c>
       <c r="C249" s="4">
         <v>1</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F249" s="4">
         <v>4</v>
@@ -9515,16 +9523,16 @@
     <row r="250" ht="18.5" customHeight="1" spans="1:11">
       <c r="A250" s="4"/>
       <c r="B250" s="4">
-        <v>10307</v>
+        <v>10303</v>
       </c>
       <c r="C250" s="4">
         <v>1</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F250" s="4">
         <v>4</v>
@@ -9544,16 +9552,16 @@
     <row r="251" ht="18.5" customHeight="1" spans="1:11">
       <c r="A251" s="4"/>
       <c r="B251" s="4">
-        <v>10308</v>
+        <v>10304</v>
       </c>
       <c r="C251" s="4">
         <v>1</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F251" s="4">
         <v>4</v>
@@ -9573,16 +9581,16 @@
     <row r="252" ht="18.5" customHeight="1" spans="1:11">
       <c r="A252" s="4"/>
       <c r="B252" s="4">
-        <v>10309</v>
+        <v>10305</v>
       </c>
       <c r="C252" s="4">
         <v>1</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F252" s="4">
         <v>4</v>
@@ -9602,16 +9610,16 @@
     <row r="253" ht="18.5" customHeight="1" spans="1:11">
       <c r="A253" s="4"/>
       <c r="B253" s="4">
-        <v>10310</v>
+        <v>10306</v>
       </c>
       <c r="C253" s="4">
         <v>1</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F253" s="4">
         <v>4</v>
@@ -9631,16 +9639,16 @@
     <row r="254" ht="18.5" customHeight="1" spans="1:11">
       <c r="A254" s="4"/>
       <c r="B254" s="4">
-        <v>10311</v>
+        <v>10307</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F254" s="4">
         <v>4</v>
@@ -9660,16 +9668,16 @@
     <row r="255" ht="18.5" customHeight="1" spans="1:11">
       <c r="A255" s="4"/>
       <c r="B255" s="4">
-        <v>10312</v>
+        <v>10308</v>
       </c>
       <c r="C255" s="4">
         <v>1</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F255" s="4">
         <v>4</v>
@@ -9689,16 +9697,16 @@
     <row r="256" ht="18.5" customHeight="1" spans="1:11">
       <c r="A256" s="4"/>
       <c r="B256" s="4">
-        <v>10313</v>
+        <v>10309</v>
       </c>
       <c r="C256" s="4">
         <v>1</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F256" s="4">
         <v>4</v>
@@ -9718,16 +9726,16 @@
     <row r="257" ht="18.5" customHeight="1" spans="1:11">
       <c r="A257" s="4"/>
       <c r="B257" s="4">
-        <v>10314</v>
+        <v>10310</v>
       </c>
       <c r="C257" s="4">
         <v>1</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F257" s="4">
         <v>4</v>
@@ -9747,16 +9755,16 @@
     <row r="258" ht="18.5" customHeight="1" spans="1:11">
       <c r="A258" s="4"/>
       <c r="B258" s="4">
-        <v>10315</v>
+        <v>10311</v>
       </c>
       <c r="C258" s="4">
         <v>1</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F258" s="4">
         <v>4</v>
@@ -9776,16 +9784,16 @@
     <row r="259" ht="18.5" customHeight="1" spans="1:11">
       <c r="A259" s="4"/>
       <c r="B259" s="4">
-        <v>10316</v>
+        <v>10312</v>
       </c>
       <c r="C259" s="4">
         <v>1</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F259" s="4">
         <v>4</v>
@@ -9805,16 +9813,16 @@
     <row r="260" ht="18.5" customHeight="1" spans="1:11">
       <c r="A260" s="4"/>
       <c r="B260" s="4">
-        <v>10317</v>
+        <v>10313</v>
       </c>
       <c r="C260" s="4">
         <v>1</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F260" s="4">
         <v>4</v>
@@ -9834,16 +9842,16 @@
     <row r="261" ht="18.5" customHeight="1" spans="1:11">
       <c r="A261" s="4"/>
       <c r="B261" s="4">
-        <v>10318</v>
+        <v>10314</v>
       </c>
       <c r="C261" s="4">
         <v>1</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F261" s="4">
         <v>4</v>
@@ -9863,20 +9871,22 @@
     <row r="262" ht="18.5" customHeight="1" spans="1:11">
       <c r="A262" s="4"/>
       <c r="B262" s="4">
-        <v>20000</v>
+        <v>10315</v>
       </c>
       <c r="C262" s="4">
         <v>1</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E262" s="4"/>
+        <v>333</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="F262" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G262" s="4">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H262" s="4">
         <v>0</v>
@@ -9890,23 +9900,25 @@
     <row r="263" ht="18.5" customHeight="1" spans="1:11">
       <c r="A263" s="4"/>
       <c r="B263" s="4">
-        <v>20001</v>
+        <v>10316</v>
       </c>
       <c r="C263" s="4">
         <v>1</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E263" s="4"/>
+        <v>334</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="F263" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G263" s="4">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H263" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" s="4">
         <v>0</v>
@@ -9917,23 +9929,25 @@
     <row r="264" ht="18.5" customHeight="1" spans="1:11">
       <c r="A264" s="4"/>
       <c r="B264" s="4">
-        <v>20002</v>
+        <v>10317</v>
       </c>
       <c r="C264" s="4">
         <v>1</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E264" s="4"/>
+        <v>335</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="F264" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G264" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H264" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" s="4">
         <v>0</v>
@@ -9944,23 +9958,25 @@
     <row r="265" ht="18.5" customHeight="1" spans="1:11">
       <c r="A265" s="4"/>
       <c r="B265" s="4">
-        <v>20003</v>
+        <v>10318</v>
       </c>
       <c r="C265" s="4">
         <v>1</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E265" s="4"/>
+        <v>336</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="F265" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G265" s="4">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H265" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" s="4">
         <v>0</v>
@@ -9971,23 +9987,23 @@
     <row r="266" ht="18.5" customHeight="1" spans="1:11">
       <c r="A266" s="4"/>
       <c r="B266" s="4">
-        <v>20004</v>
+        <v>20000</v>
       </c>
       <c r="C266" s="4">
         <v>1</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E266" s="4"/>
       <c r="F266" s="4">
         <v>1</v>
       </c>
       <c r="G266" s="4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H266" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" s="4">
         <v>0</v>
@@ -9998,20 +10014,20 @@
     <row r="267" ht="18.5" customHeight="1" spans="1:11">
       <c r="A267" s="4"/>
       <c r="B267" s="4">
-        <v>20005</v>
+        <v>20001</v>
       </c>
       <c r="C267" s="4">
         <v>1</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E267" s="4"/>
       <c r="F267" s="4">
         <v>1</v>
       </c>
       <c r="G267" s="4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H267" s="4">
         <v>1</v>
@@ -10025,13 +10041,13 @@
     <row r="268" ht="18.5" customHeight="1" spans="1:11">
       <c r="A268" s="4"/>
       <c r="B268" s="4">
-        <v>20006</v>
+        <v>20002</v>
       </c>
       <c r="C268" s="4">
         <v>1</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E268" s="4"/>
       <c r="F268" s="4">
@@ -10052,13 +10068,13 @@
     <row r="269" ht="18.5" customHeight="1" spans="1:11">
       <c r="A269" s="4"/>
       <c r="B269" s="4">
-        <v>20007</v>
+        <v>20003</v>
       </c>
       <c r="C269" s="4">
         <v>1</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E269" s="4"/>
       <c r="F269" s="4">
@@ -10079,13 +10095,13 @@
     <row r="270" ht="18.5" customHeight="1" spans="1:11">
       <c r="A270" s="4"/>
       <c r="B270" s="4">
-        <v>20008</v>
+        <v>20004</v>
       </c>
       <c r="C270" s="4">
         <v>1</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E270" s="4"/>
       <c r="F270" s="4">
@@ -10106,13 +10122,13 @@
     <row r="271" ht="18.5" customHeight="1" spans="1:11">
       <c r="A271" s="4"/>
       <c r="B271" s="4">
-        <v>20009</v>
+        <v>20005</v>
       </c>
       <c r="C271" s="4">
         <v>1</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E271" s="4"/>
       <c r="F271" s="4">
@@ -10133,13 +10149,13 @@
     <row r="272" ht="18.5" customHeight="1" spans="1:11">
       <c r="A272" s="4"/>
       <c r="B272" s="4">
-        <v>20010</v>
+        <v>20006</v>
       </c>
       <c r="C272" s="4">
         <v>1</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E272" s="4"/>
       <c r="F272" s="4">
@@ -10160,25 +10176,23 @@
     <row r="273" ht="18.5" customHeight="1" spans="1:11">
       <c r="A273" s="4"/>
       <c r="B273" s="4">
-        <v>20101</v>
+        <v>20007</v>
       </c>
       <c r="C273" s="4">
         <v>1</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>341</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="E273" s="4"/>
       <c r="F273" s="4">
         <v>1</v>
       </c>
       <c r="G273" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H273" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" s="4">
         <v>0</v>
@@ -10189,25 +10203,23 @@
     <row r="274" ht="18.5" customHeight="1" spans="1:11">
       <c r="A274" s="4"/>
       <c r="B274" s="4">
-        <v>20102</v>
+        <v>20008</v>
       </c>
       <c r="C274" s="4">
         <v>1</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>341</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="E274" s="4"/>
       <c r="F274" s="4">
         <v>1</v>
       </c>
       <c r="G274" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H274" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I274" s="4">
         <v>0</v>
@@ -10218,25 +10230,23 @@
     <row r="275" ht="18.5" customHeight="1" spans="1:11">
       <c r="A275" s="4"/>
       <c r="B275" s="4">
-        <v>20103</v>
+        <v>20009</v>
       </c>
       <c r="C275" s="4">
         <v>1</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>341</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="E275" s="4"/>
       <c r="F275" s="4">
         <v>1</v>
       </c>
       <c r="G275" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H275" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" s="4">
         <v>0</v>
@@ -10247,25 +10257,23 @@
     <row r="276" ht="18.5" customHeight="1" spans="1:11">
       <c r="A276" s="4"/>
       <c r="B276" s="4">
-        <v>20104</v>
+        <v>20010</v>
       </c>
       <c r="C276" s="4">
         <v>1</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>341</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="E276" s="4"/>
       <c r="F276" s="4">
         <v>1</v>
       </c>
       <c r="G276" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H276" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276" s="4">
         <v>0</v>
@@ -10276,16 +10284,16 @@
     <row r="277" ht="18.5" customHeight="1" spans="1:11">
       <c r="A277" s="4"/>
       <c r="B277" s="4">
-        <v>20105</v>
+        <v>20101</v>
       </c>
       <c r="C277" s="4">
         <v>1</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F277" s="4">
         <v>1</v>
@@ -10305,16 +10313,16 @@
     <row r="278" ht="18.5" customHeight="1" spans="1:11">
       <c r="A278" s="4"/>
       <c r="B278" s="4">
-        <v>20106</v>
+        <v>20102</v>
       </c>
       <c r="C278" s="4">
         <v>1</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F278" s="4">
         <v>1</v>
@@ -10334,16 +10342,16 @@
     <row r="279" ht="18.5" customHeight="1" spans="1:11">
       <c r="A279" s="4"/>
       <c r="B279" s="4">
-        <v>20107</v>
+        <v>20103</v>
       </c>
       <c r="C279" s="4">
         <v>1</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F279" s="4">
         <v>1</v>
@@ -10363,16 +10371,16 @@
     <row r="280" ht="18.5" customHeight="1" spans="1:11">
       <c r="A280" s="4"/>
       <c r="B280" s="4">
-        <v>20108</v>
+        <v>20104</v>
       </c>
       <c r="C280" s="4">
         <v>1</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>204</v>
+        <v>352</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F280" s="4">
         <v>1</v>
@@ -10392,16 +10400,16 @@
     <row r="281" ht="18.5" customHeight="1" spans="1:11">
       <c r="A281" s="4"/>
       <c r="B281" s="4">
-        <v>20109</v>
+        <v>20105</v>
       </c>
       <c r="C281" s="4">
         <v>1</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F281" s="4">
         <v>1</v>
@@ -10421,16 +10429,16 @@
     <row r="282" ht="18.5" customHeight="1" spans="1:11">
       <c r="A282" s="4"/>
       <c r="B282" s="4">
-        <v>20110</v>
+        <v>20106</v>
       </c>
       <c r="C282" s="4">
         <v>1</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F282" s="4">
         <v>1</v>
@@ -10450,16 +10458,16 @@
     <row r="283" ht="18.5" customHeight="1" spans="1:11">
       <c r="A283" s="4"/>
       <c r="B283" s="4">
-        <v>20111</v>
+        <v>20107</v>
       </c>
       <c r="C283" s="4">
         <v>1</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>202</v>
+        <v>355</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="F283" s="4">
         <v>1</v>
@@ -10479,22 +10487,22 @@
     <row r="284" ht="18.5" customHeight="1" spans="1:11">
       <c r="A284" s="4"/>
       <c r="B284" s="4">
-        <v>20201</v>
+        <v>20108</v>
       </c>
       <c r="C284" s="4">
         <v>1</v>
       </c>
       <c r="D284" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E284" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="E284" s="4" t="s">
-        <v>350</v>
-      </c>
       <c r="F284" s="4">
         <v>1</v>
       </c>
       <c r="G284" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H284" s="4">
         <v>0</v>
@@ -10508,22 +10516,22 @@
     <row r="285" ht="18.5" customHeight="1" spans="1:11">
       <c r="A285" s="4"/>
       <c r="B285" s="4">
-        <v>20202</v>
+        <v>20109</v>
       </c>
       <c r="C285" s="4">
         <v>1</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>351</v>
+        <v>209</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F285" s="4">
         <v>1</v>
       </c>
       <c r="G285" s="4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H285" s="4">
         <v>0</v>
@@ -10537,22 +10545,22 @@
     <row r="286" ht="18.5" customHeight="1" spans="1:11">
       <c r="A286" s="4"/>
       <c r="B286" s="4">
-        <v>20203</v>
+        <v>20110</v>
       </c>
       <c r="C286" s="4">
         <v>1</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F286" s="4">
         <v>1</v>
       </c>
       <c r="G286" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H286" s="4">
         <v>0</v>
@@ -10564,46 +10572,47 @@
       <c r="K286" s="4"/>
     </row>
     <row r="287" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A287" s="12"/>
+      <c r="A287" s="4"/>
       <c r="B287" s="4">
-        <v>20204</v>
+        <v>20111</v>
       </c>
       <c r="C287" s="4">
         <v>1</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E287" s="12" t="s">
-        <v>355</v>
+        <v>210</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="F287" s="4">
         <v>1</v>
       </c>
       <c r="G287" s="4">
-        <v>43</v>
-      </c>
-      <c r="H287" s="12">
-        <v>0</v>
-      </c>
-      <c r="I287" s="12">
-        <v>0</v>
-      </c>
-      <c r="J287" s="12"/>
-      <c r="K287" s="12"/>
-    </row>
-    <row r="288" ht="16.5" spans="2:9">
+        <v>31</v>
+      </c>
+      <c r="H287" s="4">
+        <v>0</v>
+      </c>
+      <c r="I287" s="4">
+        <v>0</v>
+      </c>
+      <c r="J287" s="4"/>
+      <c r="K287" s="4"/>
+    </row>
+    <row r="288" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A288" s="4"/>
       <c r="B288" s="4">
-        <v>20205</v>
+        <v>20201</v>
       </c>
       <c r="C288" s="4">
         <v>1</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F288" s="4">
         <v>1</v>
@@ -10617,19 +10626,22 @@
       <c r="I288" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" ht="16.5" spans="2:9">
+      <c r="J288" s="4"/>
+      <c r="K288" s="4"/>
+    </row>
+    <row r="289" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A289" s="4"/>
       <c r="B289" s="4">
-        <v>20206</v>
+        <v>20202</v>
       </c>
       <c r="C289" s="4">
         <v>1</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="F289" s="4">
         <v>1</v>
@@ -10637,25 +10649,28 @@
       <c r="G289" s="4">
         <v>43</v>
       </c>
-      <c r="H289" s="12">
-        <v>0</v>
-      </c>
-      <c r="I289" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" ht="16.5" spans="2:9">
+      <c r="H289" s="4">
+        <v>0</v>
+      </c>
+      <c r="I289" s="4">
+        <v>0</v>
+      </c>
+      <c r="J289" s="4"/>
+      <c r="K289" s="4"/>
+    </row>
+    <row r="290" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A290" s="4"/>
       <c r="B290" s="4">
-        <v>20207</v>
+        <v>20203</v>
       </c>
       <c r="C290" s="4">
         <v>1</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F290" s="4">
         <v>1</v>
@@ -10669,19 +10684,22 @@
       <c r="I290" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" ht="16.5" spans="2:9">
+      <c r="J290" s="4"/>
+      <c r="K290" s="4"/>
+    </row>
+    <row r="291" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A291" s="12"/>
       <c r="B291" s="4">
-        <v>20208</v>
+        <v>20204</v>
       </c>
       <c r="C291" s="4">
         <v>1</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>361</v>
+      <c r="D291" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>363</v>
       </c>
       <c r="F291" s="4">
         <v>1</v>
@@ -10695,19 +10713,21 @@
       <c r="I291" s="12">
         <v>0</v>
       </c>
+      <c r="J291" s="12"/>
+      <c r="K291" s="12"/>
     </row>
     <row r="292" ht="16.5" spans="2:9">
       <c r="B292" s="4">
-        <v>20209</v>
+        <v>20205</v>
       </c>
       <c r="C292" s="4">
         <v>1</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F292" s="4">
         <v>1</v>
@@ -10724,16 +10744,16 @@
     </row>
     <row r="293" ht="16.5" spans="2:9">
       <c r="B293" s="4">
-        <v>20210</v>
+        <v>20206</v>
       </c>
       <c r="C293" s="4">
         <v>1</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>363</v>
+      <c r="D293" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F293" s="4">
         <v>1</v>
@@ -10749,19 +10769,19 @@
       </c>
     </row>
     <row r="294" ht="16.5" spans="2:9">
-      <c r="B294" s="1">
-        <v>20211</v>
-      </c>
-      <c r="C294" s="1">
-        <v>1</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E294" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F294" s="1">
+      <c r="B294" s="4">
+        <v>20207</v>
+      </c>
+      <c r="C294" s="4">
+        <v>1</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F294" s="4">
         <v>1</v>
       </c>
       <c r="G294" s="4">
@@ -10771,6 +10791,110 @@
         <v>0</v>
       </c>
       <c r="I294" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" ht="16.5" spans="2:9">
+      <c r="B295" s="4">
+        <v>20208</v>
+      </c>
+      <c r="C295" s="4">
+        <v>1</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F295" s="4">
+        <v>1</v>
+      </c>
+      <c r="G295" s="4">
+        <v>43</v>
+      </c>
+      <c r="H295" s="12">
+        <v>0</v>
+      </c>
+      <c r="I295" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" ht="16.5" spans="2:9">
+      <c r="B296" s="4">
+        <v>20209</v>
+      </c>
+      <c r="C296" s="4">
+        <v>1</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F296" s="4">
+        <v>1</v>
+      </c>
+      <c r="G296" s="4">
+        <v>41</v>
+      </c>
+      <c r="H296" s="4">
+        <v>0</v>
+      </c>
+      <c r="I296" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" ht="16.5" spans="2:9">
+      <c r="B297" s="4">
+        <v>20210</v>
+      </c>
+      <c r="C297" s="4">
+        <v>1</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F297" s="4">
+        <v>1</v>
+      </c>
+      <c r="G297" s="4">
+        <v>43</v>
+      </c>
+      <c r="H297" s="12">
+        <v>0</v>
+      </c>
+      <c r="I297" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" ht="16.5" spans="2:9">
+      <c r="B298" s="1">
+        <v>20211</v>
+      </c>
+      <c r="C298" s="1">
+        <v>1</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F298" s="1">
+        <v>1</v>
+      </c>
+      <c r="G298" s="4">
+        <v>41</v>
+      </c>
+      <c r="H298" s="4">
+        <v>0</v>
+      </c>
+      <c r="I298" s="4">
         <v>0</v>
       </c>
     </row>

--- a/doc_new/4.服务器配置文档/物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/物品列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="377">
   <si>
     <t>字段名称</t>
   </si>
@@ -1172,6 +1172,12 @@
   </si>
   <si>
     <t>地图等级的高级奖励</t>
+  </si>
+  <si>
+    <t>怪物图鉴卡</t>
+  </si>
+  <si>
+    <t>击杀怪物有概率获得该怪物的图鉴卡</t>
   </si>
 </sst>
 </file>
@@ -2274,7 +2280,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{30FCAE67-DD68-4633-8189-10946A50CD9E}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{67BC6FB0-46E2-4D29-BC4A-22546337A401}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2283,7 +2289,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{46BB3A42-66C2-4181-87D0-A74B03DAEEE1}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{43A8C812-C746-469A-8CA1-AAF9216C5344}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2556,10 +2562,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K298"/>
+  <dimension ref="A1:K299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="G200" sqref="G200"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2780,7 +2786,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4">
         <v>3</v>
@@ -2919,7 +2925,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4">
         <v>21</v>
@@ -9997,7 +10003,7 @@
       </c>
       <c r="E266" s="4"/>
       <c r="F266" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G266" s="4">
         <v>42</v>
@@ -10024,7 +10030,7 @@
       </c>
       <c r="E267" s="4"/>
       <c r="F267" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G267" s="4">
         <v>42</v>
@@ -10051,7 +10057,7 @@
       </c>
       <c r="E268" s="4"/>
       <c r="F268" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G268" s="4">
         <v>33</v>
@@ -10078,7 +10084,7 @@
       </c>
       <c r="E269" s="4"/>
       <c r="F269" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G269" s="4">
         <v>33</v>
@@ -10105,7 +10111,7 @@
       </c>
       <c r="E270" s="4"/>
       <c r="F270" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G270" s="4">
         <v>33</v>
@@ -10132,7 +10138,7 @@
       </c>
       <c r="E271" s="4"/>
       <c r="F271" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G271" s="4">
         <v>33</v>
@@ -10159,7 +10165,7 @@
       </c>
       <c r="E272" s="4"/>
       <c r="F272" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G272" s="4">
         <v>33</v>
@@ -10186,7 +10192,7 @@
       </c>
       <c r="E273" s="4"/>
       <c r="F273" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G273" s="4">
         <v>33</v>
@@ -10213,7 +10219,7 @@
       </c>
       <c r="E274" s="4"/>
       <c r="F274" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G274" s="4">
         <v>33</v>
@@ -10240,7 +10246,7 @@
       </c>
       <c r="E275" s="4"/>
       <c r="F275" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G275" s="4">
         <v>33</v>
@@ -10267,7 +10273,7 @@
       </c>
       <c r="E276" s="4"/>
       <c r="F276" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G276" s="4">
         <v>33</v>
@@ -10296,7 +10302,7 @@
         <v>349</v>
       </c>
       <c r="F277" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G277" s="4">
         <v>31</v>
@@ -10325,7 +10331,7 @@
         <v>349</v>
       </c>
       <c r="F278" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G278" s="4">
         <v>31</v>
@@ -10354,7 +10360,7 @@
         <v>349</v>
       </c>
       <c r="F279" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G279" s="4">
         <v>31</v>
@@ -10383,7 +10389,7 @@
         <v>349</v>
       </c>
       <c r="F280" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G280" s="4">
         <v>31</v>
@@ -10412,7 +10418,7 @@
         <v>349</v>
       </c>
       <c r="F281" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G281" s="4">
         <v>31</v>
@@ -10441,7 +10447,7 @@
         <v>349</v>
       </c>
       <c r="F282" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G282" s="4">
         <v>31</v>
@@ -10470,7 +10476,7 @@
         <v>349</v>
       </c>
       <c r="F283" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G283" s="4">
         <v>31</v>
@@ -10499,7 +10505,7 @@
         <v>349</v>
       </c>
       <c r="F284" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G284" s="4">
         <v>31</v>
@@ -10528,7 +10534,7 @@
         <v>349</v>
       </c>
       <c r="F285" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G285" s="4">
         <v>31</v>
@@ -10557,7 +10563,7 @@
         <v>349</v>
       </c>
       <c r="F286" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G286" s="4">
         <v>31</v>
@@ -10586,7 +10592,7 @@
         <v>349</v>
       </c>
       <c r="F287" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G287" s="4">
         <v>31</v>
@@ -10615,7 +10621,7 @@
         <v>358</v>
       </c>
       <c r="F288" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G288" s="4">
         <v>41</v>
@@ -10644,7 +10650,7 @@
         <v>360</v>
       </c>
       <c r="F289" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G289" s="4">
         <v>43</v>
@@ -10673,7 +10679,7 @@
         <v>358</v>
       </c>
       <c r="F290" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G290" s="4">
         <v>41</v>
@@ -10702,7 +10708,7 @@
         <v>363</v>
       </c>
       <c r="F291" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G291" s="4">
         <v>43</v>
@@ -10730,7 +10736,7 @@
         <v>358</v>
       </c>
       <c r="F292" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G292" s="4">
         <v>41</v>
@@ -10756,7 +10762,7 @@
         <v>366</v>
       </c>
       <c r="F293" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G293" s="4">
         <v>43</v>
@@ -10782,7 +10788,7 @@
         <v>358</v>
       </c>
       <c r="F294" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G294" s="4">
         <v>41</v>
@@ -10808,7 +10814,7 @@
         <v>369</v>
       </c>
       <c r="F295" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G295" s="4">
         <v>43</v>
@@ -10834,7 +10840,7 @@
         <v>358</v>
       </c>
       <c r="F296" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G296" s="4">
         <v>41</v>
@@ -10860,7 +10866,7 @@
         <v>372</v>
       </c>
       <c r="F297" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G297" s="4">
         <v>43</v>
@@ -10885,8 +10891,8 @@
       <c r="E298" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F298" s="1">
-        <v>1</v>
+      <c r="F298" s="4">
+        <v>6</v>
       </c>
       <c r="G298" s="4">
         <v>41</v>
@@ -10895,6 +10901,32 @@
         <v>0</v>
       </c>
       <c r="I298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" ht="16.5" spans="2:9">
+      <c r="B299" s="1">
+        <v>100001</v>
+      </c>
+      <c r="C299" s="1">
+        <v>1</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F299" s="4">
+        <v>6</v>
+      </c>
+      <c r="G299" s="1">
+        <v>100</v>
+      </c>
+      <c r="H299" s="1">
+        <v>0</v>
+      </c>
+      <c r="I299" s="1">
         <v>0</v>
       </c>
     </row>

--- a/doc_new/4.服务器配置文档/物品列表.xlsx
+++ b/doc_new/4.服务器配置文档/物品列表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="407">
   <si>
     <t>字段名称</t>
   </si>
@@ -90,7 +90,7 @@
   <si>
     <t>1琥珀，2 ，良善点 ，3金币，4地图经验，
 21可使用道具，22材料可显示到背包，23图鉴卡牌，24宠物碎片，25宠物经验，26英雄碎片，27吸附石（带技能），28魂石，29英雄,
-31称号，32宠物，33 特权 ，34通行证经验
+31称号(重复获得分解），32宠物，33 特权(重复获得分解) ，34通行证经验，35礼包
 41高级通行证，42时间特权，43通行证点数</t>
   </si>
   <si>
@@ -166,7 +166,7 @@
     <t>地图经验</t>
   </si>
   <si>
-    <t>货币A</t>
+    <t>翡翠</t>
   </si>
   <si>
     <t>货币B</t>
@@ -889,9 +889,6 @@
     <t>1级魂石·技能急速</t>
   </si>
   <si>
-    <t>1级魂石·全元素抗性</t>
-  </si>
-  <si>
     <t>1级魂石·移动速度</t>
   </si>
   <si>
@@ -943,9 +940,6 @@
     <t>2级魂石·技能急速</t>
   </si>
   <si>
-    <t>2级魂石·全元素抗性</t>
-  </si>
-  <si>
     <t>2级魂石·移动速度</t>
   </si>
   <si>
@@ -997,9 +991,6 @@
     <t>3级魂石·技能急速</t>
   </si>
   <si>
-    <t>3级魂石·全元素抗性</t>
-  </si>
-  <si>
     <t>3级魂石·移动速度</t>
   </si>
   <si>
@@ -1051,9 +1042,6 @@
     <t>4级魂石·技能急速</t>
   </si>
   <si>
-    <t>4级魂石·全元素抗性</t>
-  </si>
-  <si>
     <t>4级魂石·移动速度</t>
   </si>
   <si>
@@ -1063,10 +1051,13 @@
     <t>月卡</t>
   </si>
   <si>
+    <t>每天登录获得200翡翠，通关奖励中：技能精通经验获取率+10%，地图经验获取率+10%，通关翡翠获取率+20%(和终身叠加)</t>
+  </si>
+  <si>
     <t>终身特权</t>
   </si>
   <si>
-    <t>元素祈福</t>
+    <t>特权</t>
   </si>
   <si>
     <t>天辉信物</t>
@@ -1078,13 +1069,31 @@
     <t>灵魂战刃</t>
   </si>
   <si>
-    <t>老者的指引</t>
+    <t>老者的指引·上</t>
+  </si>
+  <si>
+    <t>1005_1000</t>
+  </si>
+  <si>
+    <t>老者的指引·中</t>
+  </si>
+  <si>
+    <t>老者的指引·下</t>
   </si>
   <si>
     <t>图鉴大师</t>
   </si>
   <si>
-    <t>不留遗憾之矢</t>
+    <t>1005_3000</t>
+  </si>
+  <si>
+    <t>不留遗憾之矢·上</t>
+  </si>
+  <si>
+    <t>不留遗憾之矢·中</t>
+  </si>
+  <si>
+    <t>不留遗憾之矢·下</t>
   </si>
   <si>
     <t>命运的骰子</t>
@@ -1093,6 +1102,33 @@
     <t>元素之地的救赎</t>
   </si>
   <si>
+    <t>超越极限·上</t>
+  </si>
+  <si>
+    <t>超越极限·中</t>
+  </si>
+  <si>
+    <t>超越极限·下</t>
+  </si>
+  <si>
+    <t>消费大师·上</t>
+  </si>
+  <si>
+    <t>消费大师·中</t>
+  </si>
+  <si>
+    <t>消费大师·下</t>
+  </si>
+  <si>
+    <t>符文大师·上</t>
+  </si>
+  <si>
+    <t>符文大师·中</t>
+  </si>
+  <si>
+    <t>符文大师·下</t>
+  </si>
+  <si>
     <t>终结者</t>
   </si>
   <si>
@@ -1178,20 +1214,81 @@
   </si>
   <si>
     <t>击杀怪物有概率获得该怪物的图鉴卡</t>
+  </si>
+  <si>
+    <t>祈福礼包</t>
+  </si>
+  <si>
+    <t>200*祈福卷轴</t>
+  </si>
+  <si>
+    <t>图鉴箱礼包·小</t>
+  </si>
+  <si>
+    <t>10*精良图鉴箱
+5*史诗图鉴箱
+1*传说图鉴箱</t>
+  </si>
+  <si>
+    <t>图鉴箱礼包·中</t>
+  </si>
+  <si>
+    <t>20*精良图鉴箱
+10*史诗图鉴箱
+3*传说图鉴箱</t>
+  </si>
+  <si>
+    <t>图鉴礼包箱·大</t>
+  </si>
+  <si>
+    <t>50*精良图鉴箱
+20*史诗图鉴箱
+5*传说图鉴箱</t>
+  </si>
+  <si>
+    <t>每日祈福礼包</t>
+  </si>
+  <si>
+    <t>10*祈福卷轴</t>
+  </si>
+  <si>
+    <t>每日魂石礼包</t>
+  </si>
+  <si>
+    <t>100*1级魂石自选箱</t>
+  </si>
+  <si>
+    <t>每日登录礼包</t>
+  </si>
+  <si>
+    <t>100翡翠，1000金币</t>
+  </si>
+  <si>
+    <t>每日月卡礼包</t>
+  </si>
+  <si>
+    <t>200翡翠，2000金币</t>
+  </si>
+  <si>
+    <t>每日终身卡礼包</t>
+  </si>
+  <si>
+    <t>300翡翠，1*元素卷轴，2000金币</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1215,6 +1312,24 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1348,13 +1463,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1800,137 +1908,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1967,8 +2075,29 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2280,7 +2409,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{67BC6FB0-46E2-4D29-BC4A-22546337A401}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{4D8EF775-91D9-4EE8-825B-4EE1A80DCC7E}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2289,7 +2418,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{43A8C812-C746-469A-8CA1-AAF9216C5344}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{DF1396ED-8EDF-4F7E-A7A3-790283C87A6C}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2562,10 +2691,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K299"/>
+  <dimension ref="A1:K316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2840,7 +2971,9 @@
       <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
@@ -8340,7 +8473,7 @@
     <row r="209" ht="18.5" customHeight="1" spans="1:11">
       <c r="A209" s="4"/>
       <c r="B209" s="4">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="C209" s="4">
         <v>1</v>
@@ -8369,7 +8502,7 @@
     <row r="210" ht="18.5" customHeight="1" spans="1:11">
       <c r="A210" s="4"/>
       <c r="B210" s="4">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="C210" s="4">
         <v>1</v>
@@ -8398,7 +8531,7 @@
     <row r="211" ht="18.5" customHeight="1" spans="1:11">
       <c r="A211" s="4"/>
       <c r="B211" s="4">
-        <v>10017</v>
+        <v>10101</v>
       </c>
       <c r="C211" s="4">
         <v>1</v>
@@ -8410,7 +8543,7 @@
         <v>265</v>
       </c>
       <c r="F211" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211" s="4">
         <v>28</v>
@@ -8427,7 +8560,7 @@
     <row r="212" ht="18.5" customHeight="1" spans="1:11">
       <c r="A212" s="4"/>
       <c r="B212" s="4">
-        <v>10101</v>
+        <v>10102</v>
       </c>
       <c r="C212" s="4">
         <v>1</v>
@@ -8456,7 +8589,7 @@
     <row r="213" ht="18.5" customHeight="1" spans="1:11">
       <c r="A213" s="4"/>
       <c r="B213" s="4">
-        <v>10102</v>
+        <v>10103</v>
       </c>
       <c r="C213" s="4">
         <v>1</v>
@@ -8485,7 +8618,7 @@
     <row r="214" ht="18.5" customHeight="1" spans="1:11">
       <c r="A214" s="4"/>
       <c r="B214" s="4">
-        <v>10103</v>
+        <v>10104</v>
       </c>
       <c r="C214" s="4">
         <v>1</v>
@@ -8514,7 +8647,7 @@
     <row r="215" ht="18.5" customHeight="1" spans="1:11">
       <c r="A215" s="4"/>
       <c r="B215" s="4">
-        <v>10104</v>
+        <v>10105</v>
       </c>
       <c r="C215" s="4">
         <v>1</v>
@@ -8543,7 +8676,7 @@
     <row r="216" ht="18.5" customHeight="1" spans="1:11">
       <c r="A216" s="4"/>
       <c r="B216" s="4">
-        <v>10105</v>
+        <v>10106</v>
       </c>
       <c r="C216" s="4">
         <v>1</v>
@@ -8572,7 +8705,7 @@
     <row r="217" ht="18.5" customHeight="1" spans="1:11">
       <c r="A217" s="4"/>
       <c r="B217" s="4">
-        <v>10106</v>
+        <v>10107</v>
       </c>
       <c r="C217" s="4">
         <v>1</v>
@@ -8601,7 +8734,7 @@
     <row r="218" ht="18.5" customHeight="1" spans="1:11">
       <c r="A218" s="4"/>
       <c r="B218" s="4">
-        <v>10107</v>
+        <v>10108</v>
       </c>
       <c r="C218" s="4">
         <v>1</v>
@@ -8630,7 +8763,7 @@
     <row r="219" ht="18.5" customHeight="1" spans="1:11">
       <c r="A219" s="4"/>
       <c r="B219" s="4">
-        <v>10108</v>
+        <v>10109</v>
       </c>
       <c r="C219" s="4">
         <v>1</v>
@@ -8659,7 +8792,7 @@
     <row r="220" ht="18.5" customHeight="1" spans="1:11">
       <c r="A220" s="4"/>
       <c r="B220" s="4">
-        <v>10109</v>
+        <v>10110</v>
       </c>
       <c r="C220" s="4">
         <v>1</v>
@@ -8688,7 +8821,7 @@
     <row r="221" ht="18.5" customHeight="1" spans="1:11">
       <c r="A221" s="4"/>
       <c r="B221" s="4">
-        <v>10110</v>
+        <v>10111</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -8717,7 +8850,7 @@
     <row r="222" ht="18.5" customHeight="1" spans="1:11">
       <c r="A222" s="4"/>
       <c r="B222" s="4">
-        <v>10111</v>
+        <v>10112</v>
       </c>
       <c r="C222" s="4">
         <v>1</v>
@@ -8746,7 +8879,7 @@
     <row r="223" ht="18.5" customHeight="1" spans="1:11">
       <c r="A223" s="4"/>
       <c r="B223" s="4">
-        <v>10112</v>
+        <v>10113</v>
       </c>
       <c r="C223" s="4">
         <v>1</v>
@@ -8775,7 +8908,7 @@
     <row r="224" ht="18.5" customHeight="1" spans="1:11">
       <c r="A224" s="4"/>
       <c r="B224" s="4">
-        <v>10113</v>
+        <v>10114</v>
       </c>
       <c r="C224" s="4">
         <v>1</v>
@@ -8804,7 +8937,7 @@
     <row r="225" ht="18.5" customHeight="1" spans="1:11">
       <c r="A225" s="4"/>
       <c r="B225" s="4">
-        <v>10114</v>
+        <v>10115</v>
       </c>
       <c r="C225" s="4">
         <v>1</v>
@@ -8833,7 +8966,7 @@
     <row r="226" ht="18.5" customHeight="1" spans="1:11">
       <c r="A226" s="4"/>
       <c r="B226" s="4">
-        <v>10115</v>
+        <v>10117</v>
       </c>
       <c r="C226" s="4">
         <v>1</v>
@@ -8862,7 +8995,7 @@
     <row r="227" ht="18.5" customHeight="1" spans="1:11">
       <c r="A227" s="4"/>
       <c r="B227" s="4">
-        <v>10116</v>
+        <v>10118</v>
       </c>
       <c r="C227" s="4">
         <v>1</v>
@@ -8891,7 +9024,7 @@
     <row r="228" ht="18.5" customHeight="1" spans="1:11">
       <c r="A228" s="4"/>
       <c r="B228" s="4">
-        <v>10117</v>
+        <v>10201</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -8903,7 +9036,7 @@
         <v>265</v>
       </c>
       <c r="F228" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G228" s="4">
         <v>28</v>
@@ -8920,7 +9053,7 @@
     <row r="229" ht="18.5" customHeight="1" spans="1:11">
       <c r="A229" s="4"/>
       <c r="B229" s="4">
-        <v>10118</v>
+        <v>10202</v>
       </c>
       <c r="C229" s="4">
         <v>1</v>
@@ -8932,7 +9065,7 @@
         <v>265</v>
       </c>
       <c r="F229" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G229" s="4">
         <v>28</v>
@@ -8949,7 +9082,7 @@
     <row r="230" ht="18.5" customHeight="1" spans="1:11">
       <c r="A230" s="4"/>
       <c r="B230" s="4">
-        <v>10201</v>
+        <v>10203</v>
       </c>
       <c r="C230" s="4">
         <v>1</v>
@@ -8978,7 +9111,7 @@
     <row r="231" ht="18.5" customHeight="1" spans="1:11">
       <c r="A231" s="4"/>
       <c r="B231" s="4">
-        <v>10202</v>
+        <v>10204</v>
       </c>
       <c r="C231" s="4">
         <v>1</v>
@@ -9007,7 +9140,7 @@
     <row r="232" ht="18.5" customHeight="1" spans="1:11">
       <c r="A232" s="4"/>
       <c r="B232" s="4">
-        <v>10203</v>
+        <v>10205</v>
       </c>
       <c r="C232" s="4">
         <v>1</v>
@@ -9036,7 +9169,7 @@
     <row r="233" ht="18.5" customHeight="1" spans="1:11">
       <c r="A233" s="4"/>
       <c r="B233" s="4">
-        <v>10204</v>
+        <v>10206</v>
       </c>
       <c r="C233" s="4">
         <v>1</v>
@@ -9065,7 +9198,7 @@
     <row r="234" ht="18.5" customHeight="1" spans="1:11">
       <c r="A234" s="4"/>
       <c r="B234" s="4">
-        <v>10205</v>
+        <v>10207</v>
       </c>
       <c r="C234" s="4">
         <v>1</v>
@@ -9094,7 +9227,7 @@
     <row r="235" ht="18.5" customHeight="1" spans="1:11">
       <c r="A235" s="4"/>
       <c r="B235" s="4">
-        <v>10206</v>
+        <v>10208</v>
       </c>
       <c r="C235" s="4">
         <v>1</v>
@@ -9123,7 +9256,7 @@
     <row r="236" ht="18.5" customHeight="1" spans="1:11">
       <c r="A236" s="4"/>
       <c r="B236" s="4">
-        <v>10207</v>
+        <v>10209</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -9152,7 +9285,7 @@
     <row r="237" ht="18.5" customHeight="1" spans="1:11">
       <c r="A237" s="4"/>
       <c r="B237" s="4">
-        <v>10208</v>
+        <v>10210</v>
       </c>
       <c r="C237" s="4">
         <v>1</v>
@@ -9181,7 +9314,7 @@
     <row r="238" ht="18.5" customHeight="1" spans="1:11">
       <c r="A238" s="4"/>
       <c r="B238" s="4">
-        <v>10209</v>
+        <v>10211</v>
       </c>
       <c r="C238" s="4">
         <v>1</v>
@@ -9210,7 +9343,7 @@
     <row r="239" ht="18.5" customHeight="1" spans="1:11">
       <c r="A239" s="4"/>
       <c r="B239" s="4">
-        <v>10210</v>
+        <v>10212</v>
       </c>
       <c r="C239" s="4">
         <v>1</v>
@@ -9239,7 +9372,7 @@
     <row r="240" ht="18.5" customHeight="1" spans="1:11">
       <c r="A240" s="4"/>
       <c r="B240" s="4">
-        <v>10211</v>
+        <v>10213</v>
       </c>
       <c r="C240" s="4">
         <v>1</v>
@@ -9268,7 +9401,7 @@
     <row r="241" ht="18.5" customHeight="1" spans="1:11">
       <c r="A241" s="4"/>
       <c r="B241" s="4">
-        <v>10212</v>
+        <v>10214</v>
       </c>
       <c r="C241" s="4">
         <v>1</v>
@@ -9297,7 +9430,7 @@
     <row r="242" ht="18.5" customHeight="1" spans="1:11">
       <c r="A242" s="4"/>
       <c r="B242" s="4">
-        <v>10213</v>
+        <v>10215</v>
       </c>
       <c r="C242" s="4">
         <v>1</v>
@@ -9326,7 +9459,7 @@
     <row r="243" ht="18.5" customHeight="1" spans="1:11">
       <c r="A243" s="4"/>
       <c r="B243" s="4">
-        <v>10214</v>
+        <v>10217</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -9355,7 +9488,7 @@
     <row r="244" ht="18.5" customHeight="1" spans="1:11">
       <c r="A244" s="4"/>
       <c r="B244" s="4">
-        <v>10215</v>
+        <v>10218</v>
       </c>
       <c r="C244" s="4">
         <v>1</v>
@@ -9384,7 +9517,7 @@
     <row r="245" ht="18.5" customHeight="1" spans="1:11">
       <c r="A245" s="4"/>
       <c r="B245" s="4">
-        <v>10216</v>
+        <v>10301</v>
       </c>
       <c r="C245" s="4">
         <v>1</v>
@@ -9396,7 +9529,7 @@
         <v>265</v>
       </c>
       <c r="F245" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G245" s="4">
         <v>28</v>
@@ -9413,7 +9546,7 @@
     <row r="246" ht="18.5" customHeight="1" spans="1:11">
       <c r="A246" s="4"/>
       <c r="B246" s="4">
-        <v>10217</v>
+        <v>10302</v>
       </c>
       <c r="C246" s="4">
         <v>1</v>
@@ -9425,7 +9558,7 @@
         <v>265</v>
       </c>
       <c r="F246" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G246" s="4">
         <v>28</v>
@@ -9442,7 +9575,7 @@
     <row r="247" ht="18.5" customHeight="1" spans="1:11">
       <c r="A247" s="4"/>
       <c r="B247" s="4">
-        <v>10218</v>
+        <v>10303</v>
       </c>
       <c r="C247" s="4">
         <v>1</v>
@@ -9454,7 +9587,7 @@
         <v>265</v>
       </c>
       <c r="F247" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G247" s="4">
         <v>28</v>
@@ -9471,7 +9604,7 @@
     <row r="248" ht="18.5" customHeight="1" spans="1:11">
       <c r="A248" s="4"/>
       <c r="B248" s="4">
-        <v>10301</v>
+        <v>10304</v>
       </c>
       <c r="C248" s="4">
         <v>1</v>
@@ -9500,7 +9633,7 @@
     <row r="249" ht="18.5" customHeight="1" spans="1:11">
       <c r="A249" s="4"/>
       <c r="B249" s="4">
-        <v>10302</v>
+        <v>10305</v>
       </c>
       <c r="C249" s="4">
         <v>1</v>
@@ -9529,7 +9662,7 @@
     <row r="250" ht="18.5" customHeight="1" spans="1:11">
       <c r="A250" s="4"/>
       <c r="B250" s="4">
-        <v>10303</v>
+        <v>10306</v>
       </c>
       <c r="C250" s="4">
         <v>1</v>
@@ -9558,7 +9691,7 @@
     <row r="251" ht="18.5" customHeight="1" spans="1:11">
       <c r="A251" s="4"/>
       <c r="B251" s="4">
-        <v>10304</v>
+        <v>10307</v>
       </c>
       <c r="C251" s="4">
         <v>1</v>
@@ -9587,7 +9720,7 @@
     <row r="252" ht="18.5" customHeight="1" spans="1:11">
       <c r="A252" s="4"/>
       <c r="B252" s="4">
-        <v>10305</v>
+        <v>10308</v>
       </c>
       <c r="C252" s="4">
         <v>1</v>
@@ -9616,7 +9749,7 @@
     <row r="253" ht="18.5" customHeight="1" spans="1:11">
       <c r="A253" s="4"/>
       <c r="B253" s="4">
-        <v>10306</v>
+        <v>10309</v>
       </c>
       <c r="C253" s="4">
         <v>1</v>
@@ -9645,7 +9778,7 @@
     <row r="254" ht="18.5" customHeight="1" spans="1:11">
       <c r="A254" s="4"/>
       <c r="B254" s="4">
-        <v>10307</v>
+        <v>10310</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -9674,7 +9807,7 @@
     <row r="255" ht="18.5" customHeight="1" spans="1:11">
       <c r="A255" s="4"/>
       <c r="B255" s="4">
-        <v>10308</v>
+        <v>10311</v>
       </c>
       <c r="C255" s="4">
         <v>1</v>
@@ -9703,7 +9836,7 @@
     <row r="256" ht="18.5" customHeight="1" spans="1:11">
       <c r="A256" s="4"/>
       <c r="B256" s="4">
-        <v>10309</v>
+        <v>10312</v>
       </c>
       <c r="C256" s="4">
         <v>1</v>
@@ -9732,7 +9865,7 @@
     <row r="257" ht="18.5" customHeight="1" spans="1:11">
       <c r="A257" s="4"/>
       <c r="B257" s="4">
-        <v>10310</v>
+        <v>10313</v>
       </c>
       <c r="C257" s="4">
         <v>1</v>
@@ -9761,7 +9894,7 @@
     <row r="258" ht="18.5" customHeight="1" spans="1:11">
       <c r="A258" s="4"/>
       <c r="B258" s="4">
-        <v>10311</v>
+        <v>10314</v>
       </c>
       <c r="C258" s="4">
         <v>1</v>
@@ -9790,7 +9923,7 @@
     <row r="259" ht="18.5" customHeight="1" spans="1:11">
       <c r="A259" s="4"/>
       <c r="B259" s="4">
-        <v>10312</v>
+        <v>10315</v>
       </c>
       <c r="C259" s="4">
         <v>1</v>
@@ -9819,7 +9952,7 @@
     <row r="260" ht="18.5" customHeight="1" spans="1:11">
       <c r="A260" s="4"/>
       <c r="B260" s="4">
-        <v>10313</v>
+        <v>10317</v>
       </c>
       <c r="C260" s="4">
         <v>1</v>
@@ -9848,7 +9981,7 @@
     <row r="261" ht="18.5" customHeight="1" spans="1:11">
       <c r="A261" s="4"/>
       <c r="B261" s="4">
-        <v>10314</v>
+        <v>10318</v>
       </c>
       <c r="C261" s="4">
         <v>1</v>
@@ -9874,10 +10007,10 @@
       <c r="J261" s="4"/>
       <c r="K261" s="4"/>
     </row>
-    <row r="262" ht="18.5" customHeight="1" spans="1:11">
+    <row r="262" ht="49.5" spans="1:11">
       <c r="A262" s="4"/>
       <c r="B262" s="4">
-        <v>10315</v>
+        <v>20000</v>
       </c>
       <c r="C262" s="4">
         <v>1</v>
@@ -9886,13 +10019,13 @@
         <v>333</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="F262" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G262" s="4">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H262" s="4">
         <v>0</v>
@@ -9906,25 +10039,25 @@
     <row r="263" ht="18.5" customHeight="1" spans="1:11">
       <c r="A263" s="4"/>
       <c r="B263" s="4">
-        <v>10316</v>
+        <v>20001</v>
       </c>
       <c r="C263" s="4">
         <v>1</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="F263" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G263" s="4">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H263" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" s="4">
         <v>0</v>
@@ -9935,25 +10068,25 @@
     <row r="264" ht="18.5" customHeight="1" spans="1:11">
       <c r="A264" s="4"/>
       <c r="B264" s="4">
-        <v>10317</v>
+        <v>20003</v>
       </c>
       <c r="C264" s="4">
         <v>1</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="F264" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G264" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H264" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" s="4">
         <v>0</v>
@@ -9964,25 +10097,25 @@
     <row r="265" ht="18.5" customHeight="1" spans="1:11">
       <c r="A265" s="4"/>
       <c r="B265" s="4">
-        <v>10318</v>
+        <v>20004</v>
       </c>
       <c r="C265" s="4">
         <v>1</v>
       </c>
       <c r="D265" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E265" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E265" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="F265" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G265" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H265" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" s="4">
         <v>0</v>
@@ -9993,23 +10126,25 @@
     <row r="266" ht="18.5" customHeight="1" spans="1:11">
       <c r="A266" s="4"/>
       <c r="B266" s="4">
-        <v>20000</v>
+        <v>20005</v>
       </c>
       <c r="C266" s="4">
         <v>1</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E266" s="4"/>
+        <v>339</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F266" s="4">
         <v>6</v>
       </c>
       <c r="G266" s="4">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H266" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" s="4">
         <v>0</v>
@@ -10020,42 +10155,48 @@
     <row r="267" ht="18.5" customHeight="1" spans="1:11">
       <c r="A267" s="4"/>
       <c r="B267" s="4">
-        <v>20001</v>
+        <v>20006</v>
       </c>
       <c r="C267" s="4">
         <v>1</v>
       </c>
-      <c r="D267" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E267" s="4"/>
+      <c r="D267" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F267" s="4">
         <v>6</v>
       </c>
       <c r="G267" s="4">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H267" s="4">
         <v>1</v>
       </c>
       <c r="I267" s="4">
-        <v>0</v>
-      </c>
-      <c r="J267" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J267" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K267" s="4"/>
     </row>
     <row r="268" ht="18.5" customHeight="1" spans="1:11">
       <c r="A268" s="4"/>
       <c r="B268" s="4">
-        <v>20002</v>
+        <v>20007</v>
       </c>
       <c r="C268" s="4">
         <v>1</v>
       </c>
-      <c r="D268" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E268" s="4"/>
+      <c r="D268" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F268" s="4">
         <v>6</v>
       </c>
@@ -10066,23 +10207,25 @@
         <v>1</v>
       </c>
       <c r="I268" s="4">
-        <v>0</v>
-      </c>
-      <c r="J268" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J268" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K268" s="4"/>
     </row>
     <row r="269" ht="18.5" customHeight="1" spans="1:11">
       <c r="A269" s="4"/>
       <c r="B269" s="4">
-        <v>20003</v>
-      </c>
-      <c r="C269" s="4">
-        <v>1</v>
-      </c>
-      <c r="D269" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E269" s="4"/>
+        <v>20008</v>
+      </c>
+      <c r="C269" s="4"/>
+      <c r="D269" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F269" s="4">
         <v>6</v>
       </c>
@@ -10093,23 +10236,25 @@
         <v>1</v>
       </c>
       <c r="I269" s="4">
-        <v>0</v>
-      </c>
-      <c r="J269" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J269" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K269" s="4"/>
     </row>
     <row r="270" ht="18.5" customHeight="1" spans="1:11">
       <c r="A270" s="4"/>
       <c r="B270" s="4">
-        <v>20004</v>
-      </c>
-      <c r="C270" s="4">
-        <v>1</v>
-      </c>
-      <c r="D270" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E270" s="4"/>
+        <v>20009</v>
+      </c>
+      <c r="C270" s="4"/>
+      <c r="D270" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F270" s="4">
         <v>6</v>
       </c>
@@ -10120,23 +10265,25 @@
         <v>1</v>
       </c>
       <c r="I270" s="4">
-        <v>0</v>
-      </c>
-      <c r="J270" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J270" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="K270" s="4"/>
     </row>
     <row r="271" ht="18.5" customHeight="1" spans="1:11">
       <c r="A271" s="4"/>
       <c r="B271" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C271" s="4">
-        <v>1</v>
-      </c>
-      <c r="D271" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E271" s="4"/>
+        <v>20010</v>
+      </c>
+      <c r="C271" s="4"/>
+      <c r="D271" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F271" s="4">
         <v>6</v>
       </c>
@@ -10147,23 +10294,25 @@
         <v>1</v>
       </c>
       <c r="I271" s="4">
-        <v>0</v>
-      </c>
-      <c r="J271" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J271" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K271" s="4"/>
     </row>
     <row r="272" ht="18.5" customHeight="1" spans="1:11">
       <c r="A272" s="4"/>
       <c r="B272" s="4">
-        <v>20006</v>
-      </c>
-      <c r="C272" s="4">
-        <v>1</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E272" s="4"/>
+        <v>20011</v>
+      </c>
+      <c r="C272" s="4"/>
+      <c r="D272" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F272" s="4">
         <v>6</v>
       </c>
@@ -10174,23 +10323,25 @@
         <v>1</v>
       </c>
       <c r="I272" s="4">
-        <v>0</v>
-      </c>
-      <c r="J272" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J272" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K272" s="4"/>
     </row>
     <row r="273" ht="18.5" customHeight="1" spans="1:11">
       <c r="A273" s="4"/>
       <c r="B273" s="4">
-        <v>20007</v>
-      </c>
-      <c r="C273" s="4">
-        <v>1</v>
-      </c>
-      <c r="D273" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E273" s="4"/>
+        <v>20012</v>
+      </c>
+      <c r="C273" s="4"/>
+      <c r="D273" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F273" s="4">
         <v>6</v>
       </c>
@@ -10201,23 +10352,25 @@
         <v>1</v>
       </c>
       <c r="I273" s="4">
-        <v>0</v>
-      </c>
-      <c r="J273" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K273" s="4"/>
     </row>
     <row r="274" ht="18.5" customHeight="1" spans="1:11">
       <c r="A274" s="4"/>
       <c r="B274" s="4">
-        <v>20008</v>
-      </c>
-      <c r="C274" s="4">
-        <v>1</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E274" s="4"/>
+        <v>20013</v>
+      </c>
+      <c r="C274" s="4"/>
+      <c r="D274" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F274" s="4">
         <v>6</v>
       </c>
@@ -10228,23 +10381,25 @@
         <v>1</v>
       </c>
       <c r="I274" s="4">
-        <v>0</v>
-      </c>
-      <c r="J274" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J274" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="K274" s="4"/>
     </row>
     <row r="275" ht="18.5" customHeight="1" spans="1:11">
       <c r="A275" s="4"/>
       <c r="B275" s="4">
-        <v>20009</v>
-      </c>
-      <c r="C275" s="4">
-        <v>1</v>
-      </c>
-      <c r="D275" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E275" s="4"/>
+        <v>20014</v>
+      </c>
+      <c r="C275" s="4"/>
+      <c r="D275" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F275" s="4">
         <v>6</v>
       </c>
@@ -10255,23 +10410,25 @@
         <v>1</v>
       </c>
       <c r="I275" s="4">
-        <v>0</v>
-      </c>
-      <c r="J275" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J275" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="K275" s="4"/>
     </row>
     <row r="276" ht="18.5" customHeight="1" spans="1:11">
       <c r="A276" s="4"/>
       <c r="B276" s="4">
-        <v>20010</v>
-      </c>
-      <c r="C276" s="4">
-        <v>1</v>
-      </c>
-      <c r="D276" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E276" s="4"/>
+        <v>20015</v>
+      </c>
+      <c r="C276" s="4"/>
+      <c r="D276" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="F276" s="4">
         <v>6</v>
       </c>
@@ -10282,256 +10439,258 @@
         <v>1</v>
       </c>
       <c r="I276" s="4">
-        <v>0</v>
-      </c>
-      <c r="J276" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J276" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K276" s="4"/>
     </row>
     <row r="277" ht="18.5" customHeight="1" spans="1:11">
       <c r="A277" s="4"/>
       <c r="B277" s="4">
-        <v>20101</v>
-      </c>
-      <c r="C277" s="4">
-        <v>1</v>
-      </c>
-      <c r="D277" s="4" t="s">
-        <v>348</v>
+        <v>20016</v>
+      </c>
+      <c r="C277" s="4"/>
+      <c r="D277" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F277" s="4">
         <v>6</v>
       </c>
       <c r="G277" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H277" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I277" s="4">
-        <v>0</v>
-      </c>
-      <c r="J277" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J277" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K277" s="4"/>
     </row>
     <row r="278" ht="18.5" customHeight="1" spans="1:11">
       <c r="A278" s="4"/>
       <c r="B278" s="4">
-        <v>20102</v>
-      </c>
-      <c r="C278" s="4">
-        <v>1</v>
-      </c>
-      <c r="D278" s="4" t="s">
-        <v>350</v>
+        <v>20017</v>
+      </c>
+      <c r="C278" s="4"/>
+      <c r="D278" s="14" t="s">
+        <v>353</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F278" s="4">
         <v>6</v>
       </c>
       <c r="G278" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H278" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" s="4">
-        <v>0</v>
-      </c>
-      <c r="J278" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K278" s="4"/>
     </row>
     <row r="279" ht="18.5" customHeight="1" spans="1:11">
       <c r="A279" s="4"/>
       <c r="B279" s="4">
-        <v>20103</v>
-      </c>
-      <c r="C279" s="4">
-        <v>1</v>
-      </c>
-      <c r="D279" s="4" t="s">
-        <v>351</v>
+        <v>20018</v>
+      </c>
+      <c r="C279" s="4"/>
+      <c r="D279" s="14" t="s">
+        <v>354</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F279" s="4">
         <v>6</v>
       </c>
       <c r="G279" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H279" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279" s="4">
-        <v>0</v>
-      </c>
-      <c r="J279" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J279" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K279" s="4"/>
     </row>
     <row r="280" ht="18.5" customHeight="1" spans="1:11">
       <c r="A280" s="4"/>
       <c r="B280" s="4">
-        <v>20104</v>
-      </c>
-      <c r="C280" s="4">
-        <v>1</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>352</v>
+        <v>20019</v>
+      </c>
+      <c r="C280" s="4"/>
+      <c r="D280" s="14" t="s">
+        <v>355</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F280" s="4">
         <v>6</v>
       </c>
       <c r="G280" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H280" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280" s="4">
-        <v>0</v>
-      </c>
-      <c r="J280" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J280" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K280" s="4"/>
     </row>
     <row r="281" ht="18.5" customHeight="1" spans="1:11">
       <c r="A281" s="4"/>
       <c r="B281" s="4">
-        <v>20105</v>
-      </c>
-      <c r="C281" s="4">
-        <v>1</v>
-      </c>
-      <c r="D281" s="4" t="s">
-        <v>353</v>
+        <v>20020</v>
+      </c>
+      <c r="C281" s="4"/>
+      <c r="D281" s="14" t="s">
+        <v>356</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F281" s="4">
         <v>6</v>
       </c>
       <c r="G281" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H281" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" s="4">
-        <v>0</v>
-      </c>
-      <c r="J281" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J281" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K281" s="4"/>
     </row>
     <row r="282" ht="18.5" customHeight="1" spans="1:11">
       <c r="A282" s="4"/>
       <c r="B282" s="4">
-        <v>20106</v>
-      </c>
-      <c r="C282" s="4">
-        <v>1</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>354</v>
+        <v>20021</v>
+      </c>
+      <c r="C282" s="4"/>
+      <c r="D282" s="14" t="s">
+        <v>357</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F282" s="4">
         <v>6</v>
       </c>
       <c r="G282" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H282" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282" s="4">
-        <v>0</v>
-      </c>
-      <c r="J282" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J282" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K282" s="4"/>
     </row>
     <row r="283" ht="18.5" customHeight="1" spans="1:11">
       <c r="A283" s="4"/>
       <c r="B283" s="4">
-        <v>20107</v>
-      </c>
-      <c r="C283" s="4">
-        <v>1</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>355</v>
+        <v>20022</v>
+      </c>
+      <c r="C283" s="4"/>
+      <c r="D283" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F283" s="4">
         <v>6</v>
       </c>
       <c r="G283" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H283" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283" s="4">
-        <v>0</v>
-      </c>
-      <c r="J283" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J283" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K283" s="4"/>
     </row>
     <row r="284" ht="18.5" customHeight="1" spans="1:11">
       <c r="A284" s="4"/>
       <c r="B284" s="4">
-        <v>20108</v>
-      </c>
-      <c r="C284" s="4">
-        <v>1</v>
-      </c>
-      <c r="D284" s="4" t="s">
-        <v>212</v>
+        <v>20023</v>
+      </c>
+      <c r="C284" s="4"/>
+      <c r="D284" s="14" t="s">
+        <v>359</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="F284" s="4">
         <v>6</v>
       </c>
       <c r="G284" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H284" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" s="4">
-        <v>0</v>
-      </c>
-      <c r="J284" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J284" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K284" s="4"/>
     </row>
     <row r="285" ht="18.5" customHeight="1" spans="1:11">
       <c r="A285" s="4"/>
       <c r="B285" s="4">
-        <v>20109</v>
+        <v>20101</v>
       </c>
       <c r="C285" s="4">
         <v>1</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>209</v>
+        <v>360</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F285" s="4">
         <v>6</v>
@@ -10543,24 +10702,26 @@
         <v>0</v>
       </c>
       <c r="I285" s="4">
-        <v>0</v>
-      </c>
-      <c r="J285" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J285" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K285" s="4"/>
     </row>
     <row r="286" ht="18.5" customHeight="1" spans="1:11">
       <c r="A286" s="4"/>
       <c r="B286" s="4">
-        <v>20110</v>
+        <v>20102</v>
       </c>
       <c r="C286" s="4">
         <v>1</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F286" s="4">
         <v>6</v>
@@ -10572,24 +10733,26 @@
         <v>0</v>
       </c>
       <c r="I286" s="4">
-        <v>0</v>
-      </c>
-      <c r="J286" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J286" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K286" s="4"/>
     </row>
     <row r="287" ht="18.5" customHeight="1" spans="1:11">
       <c r="A287" s="4"/>
       <c r="B287" s="4">
-        <v>20111</v>
+        <v>20103</v>
       </c>
       <c r="C287" s="4">
         <v>1</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>210</v>
+        <v>363</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F287" s="4">
         <v>6</v>
@@ -10601,30 +10764,32 @@
         <v>0</v>
       </c>
       <c r="I287" s="4">
-        <v>0</v>
-      </c>
-      <c r="J287" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J287" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K287" s="4"/>
     </row>
     <row r="288" ht="18.5" customHeight="1" spans="1:11">
       <c r="A288" s="4"/>
       <c r="B288" s="4">
-        <v>20201</v>
+        <v>20104</v>
       </c>
       <c r="C288" s="4">
         <v>1</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F288" s="4">
         <v>6</v>
       </c>
       <c r="G288" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H288" s="4">
         <v>0</v>
@@ -10638,108 +10803,115 @@
     <row r="289" ht="18.5" customHeight="1" spans="1:11">
       <c r="A289" s="4"/>
       <c r="B289" s="4">
-        <v>20202</v>
+        <v>20105</v>
       </c>
       <c r="C289" s="4">
         <v>1</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F289" s="4">
         <v>6</v>
       </c>
       <c r="G289" s="4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H289" s="4">
         <v>0</v>
       </c>
       <c r="I289" s="4">
-        <v>0</v>
-      </c>
-      <c r="J289" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J289" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K289" s="4"/>
     </row>
     <row r="290" ht="18.5" customHeight="1" spans="1:11">
       <c r="A290" s="4"/>
       <c r="B290" s="4">
-        <v>20203</v>
+        <v>20106</v>
       </c>
       <c r="C290" s="4">
         <v>1</v>
       </c>
       <c r="D290" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E290" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="E290" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="F290" s="4">
         <v>6</v>
       </c>
       <c r="G290" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H290" s="4">
         <v>0</v>
       </c>
       <c r="I290" s="4">
-        <v>0</v>
-      </c>
-      <c r="J290" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="J290" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K290" s="4"/>
     </row>
     <row r="291" ht="18.5" customHeight="1" spans="1:11">
-      <c r="A291" s="12"/>
+      <c r="A291" s="4"/>
       <c r="B291" s="4">
-        <v>20204</v>
+        <v>20107</v>
       </c>
       <c r="C291" s="4">
         <v>1</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="E291" s="12" t="s">
-        <v>363</v>
+        <v>367</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="F291" s="4">
         <v>6</v>
       </c>
       <c r="G291" s="4">
-        <v>43</v>
-      </c>
-      <c r="H291" s="12">
-        <v>0</v>
-      </c>
-      <c r="I291" s="12">
-        <v>0</v>
-      </c>
-      <c r="J291" s="12"/>
-      <c r="K291" s="12"/>
-    </row>
-    <row r="292" ht="16.5" spans="2:9">
+        <v>31</v>
+      </c>
+      <c r="H291" s="4">
+        <v>0</v>
+      </c>
+      <c r="I291" s="4">
+        <v>1</v>
+      </c>
+      <c r="J291" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="K291" s="4"/>
+    </row>
+    <row r="292" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A292" s="4"/>
       <c r="B292" s="4">
-        <v>20205</v>
+        <v>20108</v>
       </c>
       <c r="C292" s="4">
         <v>1</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>364</v>
+        <v>212</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F292" s="4">
         <v>6</v>
       </c>
       <c r="G292" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H292" s="4">
         <v>0</v>
@@ -10747,51 +10919,57 @@
       <c r="I292" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" ht="16.5" spans="2:9">
+      <c r="J292" s="4"/>
+      <c r="K292" s="4"/>
+    </row>
+    <row r="293" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A293" s="4"/>
       <c r="B293" s="4">
-        <v>20206</v>
+        <v>20109</v>
       </c>
       <c r="C293" s="4">
         <v>1</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>366</v>
+        <v>209</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="F293" s="4">
         <v>6</v>
       </c>
       <c r="G293" s="4">
-        <v>43</v>
-      </c>
-      <c r="H293" s="12">
-        <v>0</v>
-      </c>
-      <c r="I293" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" ht="16.5" spans="2:9">
+        <v>31</v>
+      </c>
+      <c r="H293" s="4">
+        <v>0</v>
+      </c>
+      <c r="I293" s="4">
+        <v>0</v>
+      </c>
+      <c r="J293" s="4"/>
+      <c r="K293" s="4"/>
+    </row>
+    <row r="294" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A294" s="4"/>
       <c r="B294" s="4">
-        <v>20207</v>
+        <v>20110</v>
       </c>
       <c r="C294" s="4">
         <v>1</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F294" s="4">
         <v>6</v>
       </c>
       <c r="G294" s="4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H294" s="4">
         <v>0</v>
@@ -10799,45 +10977,51 @@
       <c r="I294" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" ht="16.5" spans="2:9">
+      <c r="J294" s="4"/>
+      <c r="K294" s="4"/>
+    </row>
+    <row r="295" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A295" s="4"/>
       <c r="B295" s="4">
-        <v>20208</v>
+        <v>20111</v>
       </c>
       <c r="C295" s="4">
         <v>1</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="E295" s="1" t="s">
-        <v>369</v>
+      <c r="D295" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="F295" s="4">
         <v>6</v>
       </c>
       <c r="G295" s="4">
-        <v>43</v>
-      </c>
-      <c r="H295" s="12">
-        <v>0</v>
-      </c>
-      <c r="I295" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" ht="16.5" spans="2:9">
+        <v>31</v>
+      </c>
+      <c r="H295" s="4">
+        <v>0</v>
+      </c>
+      <c r="I295" s="4">
+        <v>0</v>
+      </c>
+      <c r="J295" s="4"/>
+      <c r="K295" s="4"/>
+    </row>
+    <row r="296" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A296" s="4"/>
       <c r="B296" s="4">
-        <v>20209</v>
+        <v>20201</v>
       </c>
       <c r="C296" s="4">
         <v>1</v>
       </c>
       <c r="D296" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E296" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="F296" s="4">
         <v>6</v>
@@ -10851,18 +11035,21 @@
       <c r="I296" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" ht="16.5" spans="2:9">
+      <c r="J296" s="4"/>
+      <c r="K296" s="4"/>
+    </row>
+    <row r="297" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A297" s="4"/>
       <c r="B297" s="4">
-        <v>20210</v>
+        <v>20202</v>
       </c>
       <c r="C297" s="4">
         <v>1</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="D297" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="E297" s="1" t="s">
+      <c r="E297" s="4" t="s">
         <v>372</v>
       </c>
       <c r="F297" s="4">
@@ -10871,25 +11058,28 @@
       <c r="G297" s="4">
         <v>43</v>
       </c>
-      <c r="H297" s="12">
-        <v>0</v>
-      </c>
-      <c r="I297" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" ht="16.5" spans="2:9">
-      <c r="B298" s="1">
-        <v>20211</v>
-      </c>
-      <c r="C298" s="1">
-        <v>1</v>
-      </c>
-      <c r="D298" s="1" t="s">
+      <c r="H297" s="4">
+        <v>0</v>
+      </c>
+      <c r="I297" s="4">
+        <v>0</v>
+      </c>
+      <c r="J297" s="4"/>
+      <c r="K297" s="4"/>
+    </row>
+    <row r="298" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4">
+        <v>20203</v>
+      </c>
+      <c r="C298" s="4">
+        <v>1</v>
+      </c>
+      <c r="D298" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="E298" s="1" t="s">
-        <v>374</v>
+      <c r="E298" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="F298" s="4">
         <v>6</v>
@@ -10903,30 +11093,477 @@
       <c r="I298" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" ht="16.5" spans="2:9">
-      <c r="B299" s="1">
-        <v>100001</v>
-      </c>
-      <c r="C299" s="1">
-        <v>1</v>
-      </c>
-      <c r="D299" s="1" t="s">
+      <c r="J298" s="4"/>
+      <c r="K298" s="4"/>
+    </row>
+    <row r="299" ht="18.5" customHeight="1" spans="1:11">
+      <c r="A299" s="15"/>
+      <c r="B299" s="4">
+        <v>20204</v>
+      </c>
+      <c r="C299" s="4">
+        <v>1</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E299" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="E299" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="F299" s="4">
         <v>6</v>
       </c>
-      <c r="G299" s="1">
+      <c r="G299" s="4">
+        <v>43</v>
+      </c>
+      <c r="H299" s="15">
+        <v>0</v>
+      </c>
+      <c r="I299" s="15">
+        <v>0</v>
+      </c>
+      <c r="J299" s="15"/>
+      <c r="K299" s="15"/>
+    </row>
+    <row r="300" ht="16.5" spans="2:9">
+      <c r="B300" s="4">
+        <v>20205</v>
+      </c>
+      <c r="C300" s="4">
+        <v>1</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F300" s="4">
+        <v>6</v>
+      </c>
+      <c r="G300" s="4">
+        <v>41</v>
+      </c>
+      <c r="H300" s="4">
+        <v>0</v>
+      </c>
+      <c r="I300" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" ht="16.5" spans="2:9">
+      <c r="B301" s="4">
+        <v>20206</v>
+      </c>
+      <c r="C301" s="4">
+        <v>1</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F301" s="4">
+        <v>6</v>
+      </c>
+      <c r="G301" s="4">
+        <v>43</v>
+      </c>
+      <c r="H301" s="15">
+        <v>0</v>
+      </c>
+      <c r="I301" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" ht="16.5" spans="2:9">
+      <c r="B302" s="4">
+        <v>20207</v>
+      </c>
+      <c r="C302" s="4">
+        <v>1</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F302" s="4">
+        <v>6</v>
+      </c>
+      <c r="G302" s="4">
+        <v>41</v>
+      </c>
+      <c r="H302" s="4">
+        <v>0</v>
+      </c>
+      <c r="I302" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" ht="16.5" spans="2:9">
+      <c r="B303" s="4">
+        <v>20208</v>
+      </c>
+      <c r="C303" s="4">
+        <v>1</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F303" s="4">
+        <v>6</v>
+      </c>
+      <c r="G303" s="4">
+        <v>43</v>
+      </c>
+      <c r="H303" s="15">
+        <v>0</v>
+      </c>
+      <c r="I303" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" ht="16.5" spans="2:9">
+      <c r="B304" s="4">
+        <v>20209</v>
+      </c>
+      <c r="C304" s="4">
+        <v>1</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F304" s="4">
+        <v>6</v>
+      </c>
+      <c r="G304" s="4">
+        <v>41</v>
+      </c>
+      <c r="H304" s="4">
+        <v>0</v>
+      </c>
+      <c r="I304" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" ht="16.5" spans="2:9">
+      <c r="B305" s="4">
+        <v>20210</v>
+      </c>
+      <c r="C305" s="4">
+        <v>1</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F305" s="4">
+        <v>6</v>
+      </c>
+      <c r="G305" s="4">
+        <v>43</v>
+      </c>
+      <c r="H305" s="15">
+        <v>0</v>
+      </c>
+      <c r="I305" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" ht="16.5" spans="2:9">
+      <c r="B306" s="1">
+        <v>20211</v>
+      </c>
+      <c r="C306" s="1">
+        <v>1</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F306" s="4">
+        <v>6</v>
+      </c>
+      <c r="G306" s="4">
+        <v>41</v>
+      </c>
+      <c r="H306" s="4">
+        <v>0</v>
+      </c>
+      <c r="I306" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" ht="16.5" spans="2:9">
+      <c r="B307" s="1">
+        <v>100001</v>
+      </c>
+      <c r="C307" s="1">
+        <v>1</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F307" s="4">
+        <v>6</v>
+      </c>
+      <c r="G307" s="1">
         <v>100</v>
       </c>
-      <c r="H299" s="1">
-        <v>0</v>
-      </c>
-      <c r="I299" s="1">
+      <c r="H307" s="1">
+        <v>0</v>
+      </c>
+      <c r="I307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9">
+      <c r="B308" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C308" s="1">
+        <v>1</v>
+      </c>
+      <c r="D308" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F308" s="1">
+        <v>6</v>
+      </c>
+      <c r="G308" s="1">
+        <v>35</v>
+      </c>
+      <c r="H308" s="1">
+        <v>0</v>
+      </c>
+      <c r="I308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" ht="42.75" spans="2:9">
+      <c r="B309" s="1">
+        <v>40001</v>
+      </c>
+      <c r="C309" s="1">
+        <v>1</v>
+      </c>
+      <c r="D309" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E309" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="F309" s="1">
+        <v>6</v>
+      </c>
+      <c r="G309" s="1">
+        <v>35</v>
+      </c>
+      <c r="H309" s="1">
+        <v>0</v>
+      </c>
+      <c r="I309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" ht="42.75" spans="2:9">
+      <c r="B310" s="1">
+        <v>40002</v>
+      </c>
+      <c r="C310" s="1">
+        <v>1</v>
+      </c>
+      <c r="D310" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E310" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F310" s="1">
+        <v>6</v>
+      </c>
+      <c r="G310" s="1">
+        <v>35</v>
+      </c>
+      <c r="H310" s="1">
+        <v>0</v>
+      </c>
+      <c r="I310" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" ht="42.75" spans="2:9">
+      <c r="B311" s="1">
+        <v>40003</v>
+      </c>
+      <c r="C311" s="1">
+        <v>1</v>
+      </c>
+      <c r="D311" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E311" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="F311" s="1">
+        <v>6</v>
+      </c>
+      <c r="G311" s="1">
+        <v>35</v>
+      </c>
+      <c r="H311" s="1">
+        <v>0</v>
+      </c>
+      <c r="I311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:9">
+      <c r="B312" s="1">
+        <v>40004</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1</v>
+      </c>
+      <c r="D312" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E312" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="F312" s="1">
+        <v>6</v>
+      </c>
+      <c r="G312" s="1">
+        <v>35</v>
+      </c>
+      <c r="H312" s="1">
+        <v>0</v>
+      </c>
+      <c r="I312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:9">
+      <c r="B313" s="1">
+        <v>40005</v>
+      </c>
+      <c r="C313" s="1">
+        <v>1</v>
+      </c>
+      <c r="D313" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F313" s="1">
+        <v>6</v>
+      </c>
+      <c r="G313" s="1">
+        <v>35</v>
+      </c>
+      <c r="H313" s="1">
+        <v>0</v>
+      </c>
+      <c r="I313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:9">
+      <c r="B314" s="1">
+        <v>40006</v>
+      </c>
+      <c r="C314" s="1">
+        <v>1</v>
+      </c>
+      <c r="D314" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F314" s="1">
+        <v>4</v>
+      </c>
+      <c r="G314" s="1">
+        <v>35</v>
+      </c>
+      <c r="H314" s="1">
+        <v>0</v>
+      </c>
+      <c r="I314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:9">
+      <c r="B315" s="1">
+        <v>40007</v>
+      </c>
+      <c r="C315" s="1">
+        <v>1</v>
+      </c>
+      <c r="D315" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F315" s="1">
+        <v>5</v>
+      </c>
+      <c r="G315" s="1">
+        <v>35</v>
+      </c>
+      <c r="H315" s="1">
+        <v>0</v>
+      </c>
+      <c r="I315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="2:9">
+      <c r="B316" s="1">
+        <v>40008</v>
+      </c>
+      <c r="C316" s="1">
+        <v>1</v>
+      </c>
+      <c r="D316" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F316" s="1">
+        <v>6</v>
+      </c>
+      <c r="G316" s="1">
+        <v>35</v>
+      </c>
+      <c r="H316" s="1">
+        <v>0</v>
+      </c>
+      <c r="I316" s="1">
         <v>0</v>
       </c>
     </row>
